--- a/app/data/static/templates/constructor_milk_project.xlsx
+++ b/app/data/static/templates/constructor_milk_project.xlsx
@@ -10,8 +10,11 @@
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="планирование суточное" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="План варок" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="SKU Милкпроджект" sheetId="4" state="hidden" r:id="rId5"/>
+    <sheet name="План варок милкпроджект" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="План варок адыгейский" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="SKU Милкпроджект" sheetId="5" state="hidden" r:id="rId6"/>
+    <sheet name="SKU Адыгейский" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Группы" sheetId="7" state="hidden" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="Water_SKU" vbProcedure="false">'SKU Милкпроджект'!$A$1:$A$100</definedName>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="26">
   <si>
     <t xml:space="preserve">Тип варки</t>
   </si>
@@ -99,6 +102,12 @@
   <si>
     <t xml:space="preserve">Разделитель int</t>
   </si>
+  <si>
+    <t xml:space="preserve">Количество ванн</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Суммарно кг</t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +121,7 @@
     <numFmt numFmtId="168" formatCode="0"/>
     <numFmt numFmtId="169" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -169,6 +178,26 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -212,7 +241,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -319,6 +348,26 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -570,9 +619,7 @@
   <dimension ref="A1:S326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="T9" activeCellId="0" sqref="T9"/>
+      <selection pane="topLeft" activeCell="U29" activeCellId="0" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -594,7 +641,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="11" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="12" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="23" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="9.09"/>
@@ -9585,7 +9632,7 @@
       <formula>IF(H3="",0, G3)  &lt; - 0.05* IF(H3="",0,H3)</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &lt; 0)</formula>
+      <formula>AND(IF(H3="",0, G3)  &gt;= - 0.05* IF(H3="",0,G3), IF(H3="",0, G3) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(IF(H3="",0, G3)  &lt;= 0.05* IF(H3="",0,H3), IF(H3="",0, G3) &gt; 0)</formula>
@@ -9619,6 +9666,6338 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:M317"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="9" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="3"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="4"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="14" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1010" style="0" width="9.14"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+    </row>
+    <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="25" t="str">
+        <f aca="false">IF(D3="","",VLOOKUP(D3,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C3" s="25" t="str">
+        <f aca="false">IF(D3="","",VLOOKUP(D3, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G3" s="31" t="str">
+        <f aca="true">IF(H3="", IF(I3="","",(INDIRECT("M" &amp; ROW() - 1) - M3)),IF(I3="", "", INDIRECT("M" &amp; ROW() - 1) - M3))</f>
+        <v/>
+      </c>
+      <c r="H3" s="31" t="str">
+        <f aca="false">IF(D3="", "", IF(I3="-", "", E3 * IF(F3="",1,F3)))</f>
+        <v/>
+      </c>
+      <c r="J3" s="9" t="n">
+        <f aca="true">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E3 * F3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="true">IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">IF(I3="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="true">IF(K3 = 0, INDIRECT("M" &amp; ROW() - 1), K3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="25" t="str">
+        <f aca="false">IF(D4="","",VLOOKUP(D4,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C4" s="25" t="str">
+        <f aca="false">IF(D4="","",VLOOKUP(D4, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G4" s="31" t="str">
+        <f aca="true">IF(H4="", IF(I4="","",(INDIRECT("M" &amp; ROW() - 1) - M4)),IF(I4="", "", INDIRECT("M" &amp; ROW() - 1) - M4))</f>
+        <v/>
+      </c>
+      <c r="H4" s="31" t="str">
+        <f aca="false">IF(D4="", "", IF(I4="-", "", E4 * IF(F4="",1,F4)))</f>
+        <v/>
+      </c>
+      <c r="J4" s="9" t="n">
+        <f aca="true">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E4 * F4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="true">IF(I4 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J4)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">IF(I4="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="true">IF(K4 = 0, INDIRECT("M" &amp; ROW() - 1), K4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="25" t="str">
+        <f aca="false">IF(D5="","",VLOOKUP(D5,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C5" s="25" t="str">
+        <f aca="false">IF(D5="","",VLOOKUP(D5, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G5" s="31" t="str">
+        <f aca="true">IF(H5="", IF(I5="","",(INDIRECT("M" &amp; ROW() - 1) - M5)),IF(I5="", "", INDIRECT("M" &amp; ROW() - 1) - M5))</f>
+        <v/>
+      </c>
+      <c r="H5" s="31" t="str">
+        <f aca="false">IF(D5="", "", IF(I5="-", "", E5 * IF(F5="",1,F5)))</f>
+        <v/>
+      </c>
+      <c r="J5" s="9" t="n">
+        <f aca="true">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E5 * F5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="true">IF(I5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J5)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">IF(I5="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="true">IF(K5 = 0, INDIRECT("M" &amp; ROW() - 1), K5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="25" t="str">
+        <f aca="false">IF(D6="","",VLOOKUP(D6,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C6" s="25" t="str">
+        <f aca="false">IF(D6="","",VLOOKUP(D6, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G6" s="31" t="str">
+        <f aca="true">IF(H6="", IF(I6="","",(INDIRECT("M" &amp; ROW() - 1) - M6)),IF(I6="", "", INDIRECT("M" &amp; ROW() - 1) - M6))</f>
+        <v/>
+      </c>
+      <c r="H6" s="31" t="str">
+        <f aca="false">IF(D6="", "", IF(I6="-", "", E6 * IF(F6="",1,F6)))</f>
+        <v/>
+      </c>
+      <c r="J6" s="9" t="n">
+        <f aca="true">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E6 * F6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="true">IF(I6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J6)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">IF(I6="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="true">IF(K6 = 0, INDIRECT("M" &amp; ROW() - 1), K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="25" t="str">
+        <f aca="false">IF(D7="","",VLOOKUP(D7,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C7" s="25" t="str">
+        <f aca="false">IF(D7="","",VLOOKUP(D7, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G7" s="31" t="str">
+        <f aca="true">IF(H7="", IF(I7="","",(INDIRECT("M" &amp; ROW() - 1) - M7)),IF(I7="", "", INDIRECT("M" &amp; ROW() - 1) - M7))</f>
+        <v/>
+      </c>
+      <c r="H7" s="31" t="str">
+        <f aca="false">IF(D7="", "", IF(I7="-", "", E7 * IF(F7="",1,F7)))</f>
+        <v/>
+      </c>
+      <c r="J7" s="9" t="n">
+        <f aca="true">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E7 * F7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="true">IF(I7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J7)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">IF(I7="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="true">IF(K7 = 0, INDIRECT("M" &amp; ROW() - 1), K7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="25" t="str">
+        <f aca="false">IF(D8="","",VLOOKUP(D8,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C8" s="25" t="str">
+        <f aca="false">IF(D8="","",VLOOKUP(D8, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G8" s="31" t="str">
+        <f aca="true">IF(H8="", IF(I8="","",(INDIRECT("M" &amp; ROW() - 1) - M8)),IF(I8="", "", INDIRECT("M" &amp; ROW() - 1) - M8))</f>
+        <v/>
+      </c>
+      <c r="H8" s="31" t="str">
+        <f aca="false">IF(D8="", "", IF(I8="-", "", E8 * IF(F8="",1,F8)))</f>
+        <v/>
+      </c>
+      <c r="J8" s="9" t="n">
+        <f aca="true">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E8 * F8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="true">IF(I8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J8)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">IF(I8="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="true">IF(K8 = 0, INDIRECT("M" &amp; ROW() - 1), K8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="25" t="str">
+        <f aca="false">IF(D9="","",VLOOKUP(D9,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C9" s="25" t="str">
+        <f aca="false">IF(D9="","",VLOOKUP(D9, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G9" s="31" t="str">
+        <f aca="true">IF(H9="", IF(I9="","",(INDIRECT("M" &amp; ROW() - 1) - M9)),IF(I9="", "", INDIRECT("M" &amp; ROW() - 1) - M9))</f>
+        <v/>
+      </c>
+      <c r="H9" s="31" t="str">
+        <f aca="false">IF(D9="", "", IF(I9="-", "", E9 * IF(F9="",1,F9)))</f>
+        <v/>
+      </c>
+      <c r="J9" s="9" t="n">
+        <f aca="true">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E9 * F9)</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="0" t="n">
+        <f aca="true">IF(I9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J9)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L9" s="0" t="n">
+        <f aca="false">IF(I9="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="true">IF(K9 = 0, INDIRECT("M" &amp; ROW() - 1), K9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="25" t="str">
+        <f aca="false">IF(D10="","",VLOOKUP(D10,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C10" s="25" t="str">
+        <f aca="false">IF(D10="","",VLOOKUP(D10, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G10" s="31" t="str">
+        <f aca="true">IF(H10="", IF(I10="","",(INDIRECT("M" &amp; ROW() - 1) - M10)),IF(I10="", "", INDIRECT("M" &amp; ROW() - 1) - M10))</f>
+        <v/>
+      </c>
+      <c r="H10" s="31" t="str">
+        <f aca="false">IF(D10="", "", IF(I10="-", "", E10 * IF(F10="",1,F10)))</f>
+        <v/>
+      </c>
+      <c r="J10" s="9" t="n">
+        <f aca="true">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E10 * F10)</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="0" t="n">
+        <f aca="true">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L10" s="0" t="n">
+        <f aca="false">IF(I10="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="true">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="25" t="str">
+        <f aca="false">IF(D11="","",VLOOKUP(D11,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C11" s="25" t="str">
+        <f aca="false">IF(D11="","",VLOOKUP(D11, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G11" s="31" t="str">
+        <f aca="true">IF(H11="", IF(I11="","",(INDIRECT("M" &amp; ROW() - 1) - M11)),IF(I11="", "", INDIRECT("M" &amp; ROW() - 1) - M11))</f>
+        <v/>
+      </c>
+      <c r="H11" s="31" t="str">
+        <f aca="false">IF(D11="", "", IF(I11="-", "", E11 * IF(F11="",1,F11)))</f>
+        <v/>
+      </c>
+      <c r="J11" s="9" t="n">
+        <f aca="true">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E11 * F11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="0" t="n">
+        <f aca="true">IF(I11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J11)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="0" t="n">
+        <f aca="false">IF(I11="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="0" t="n">
+        <f aca="true">IF(K11 = 0, INDIRECT("M" &amp; ROW() - 1), K11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="25" t="str">
+        <f aca="false">IF(D12="","",VLOOKUP(D12,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C12" s="25" t="str">
+        <f aca="false">IF(D12="","",VLOOKUP(D12, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G12" s="31" t="str">
+        <f aca="true">IF(H12="", IF(I12="","",(INDIRECT("M" &amp; ROW() - 1) - M12)),IF(I12="", "", INDIRECT("M" &amp; ROW() - 1) - M12))</f>
+        <v/>
+      </c>
+      <c r="H12" s="31" t="str">
+        <f aca="false">IF(D12="", "", IF(I12="-", "", E12 * IF(F12="",1,F12)))</f>
+        <v/>
+      </c>
+      <c r="J12" s="9" t="n">
+        <f aca="true">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E12 * F12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="0" t="n">
+        <f aca="true">IF(I12 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J12)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="0" t="n">
+        <f aca="false">IF(I12="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="0" t="n">
+        <f aca="true">IF(K12 = 0, INDIRECT("M" &amp; ROW() - 1), K12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="25" t="str">
+        <f aca="false">IF(D13="","",VLOOKUP(D13,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C13" s="25" t="str">
+        <f aca="false">IF(D13="","",VLOOKUP(D13, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G13" s="31" t="str">
+        <f aca="true">IF(H13="", IF(I13="","",(INDIRECT("M" &amp; ROW() - 1) - M13)),IF(I13="", "", INDIRECT("M" &amp; ROW() - 1) - M13))</f>
+        <v/>
+      </c>
+      <c r="H13" s="31" t="str">
+        <f aca="false">IF(D13="", "", IF(I13="-", "", E13 * IF(F13="",1,F13)))</f>
+        <v/>
+      </c>
+      <c r="J13" s="9" t="n">
+        <f aca="true">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E13 * F13)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="0" t="n">
+        <f aca="true">IF(I13 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J13)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="0" t="n">
+        <f aca="false">IF(I13="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="0" t="n">
+        <f aca="true">IF(K13 = 0, INDIRECT("M" &amp; ROW() - 1), K13)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="25" t="str">
+        <f aca="false">IF(D14="","",VLOOKUP(D14,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C14" s="25" t="str">
+        <f aca="false">IF(D14="","",VLOOKUP(D14, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G14" s="31" t="str">
+        <f aca="true">IF(H14="", IF(I14="","",(INDIRECT("M" &amp; ROW() - 1) - M14)),IF(I14="", "", INDIRECT("M" &amp; ROW() - 1) - M14))</f>
+        <v/>
+      </c>
+      <c r="H14" s="31" t="str">
+        <f aca="false">IF(D14="", "", IF(I14="-", "", E14 * IF(F14="",1,F14)))</f>
+        <v/>
+      </c>
+      <c r="J14" s="9" t="n">
+        <f aca="true">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E14 * F14)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="0" t="n">
+        <f aca="true">IF(I14 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J14)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L14" s="0" t="n">
+        <f aca="false">IF(I14="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="0" t="n">
+        <f aca="true">IF(K14 = 0, INDIRECT("M" &amp; ROW() - 1), K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="25" t="str">
+        <f aca="false">IF(D15="","",VLOOKUP(D15,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C15" s="25" t="str">
+        <f aca="false">IF(D15="","",VLOOKUP(D15, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G15" s="31" t="str">
+        <f aca="true">IF(H15="", IF(I15="","",(INDIRECT("M" &amp; ROW() - 1) - M15)),IF(I15="", "", INDIRECT("M" &amp; ROW() - 1) - M15))</f>
+        <v/>
+      </c>
+      <c r="H15" s="31" t="str">
+        <f aca="false">IF(D15="", "", IF(I15="-", "", E15 * IF(F15="",1,F15)))</f>
+        <v/>
+      </c>
+      <c r="J15" s="9" t="n">
+        <f aca="true">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E15 * F15)</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="0" t="n">
+        <f aca="true">IF(I15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J15)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L15" s="0" t="n">
+        <f aca="false">IF(I15="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="0" t="n">
+        <f aca="true">IF(K15 = 0, INDIRECT("M" &amp; ROW() - 1), K15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="25" t="str">
+        <f aca="false">IF(D16="","",VLOOKUP(D16,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C16" s="25" t="str">
+        <f aca="false">IF(D16="","",VLOOKUP(D16, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G16" s="31" t="str">
+        <f aca="true">IF(H16="", IF(I16="","",(INDIRECT("M" &amp; ROW() - 1) - M16)),IF(I16="", "", INDIRECT("M" &amp; ROW() - 1) - M16))</f>
+        <v/>
+      </c>
+      <c r="H16" s="31" t="str">
+        <f aca="false">IF(D16="", "", IF(I16="-", "", E16 * IF(F16="",1,F16)))</f>
+        <v/>
+      </c>
+      <c r="J16" s="9" t="n">
+        <f aca="true">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E16 * F16)</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <f aca="true">IF(I16 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J16)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <f aca="false">IF(I16="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <f aca="true">IF(K16 = 0, INDIRECT("M" &amp; ROW() - 1), K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="25" t="str">
+        <f aca="false">IF(D17="","",VLOOKUP(D17,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C17" s="25" t="str">
+        <f aca="false">IF(D17="","",VLOOKUP(D17, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G17" s="31" t="str">
+        <f aca="true">IF(H17="", IF(I17="","",(INDIRECT("M" &amp; ROW() - 1) - M17)),IF(I17="", "", INDIRECT("M" &amp; ROW() - 1) - M17))</f>
+        <v/>
+      </c>
+      <c r="H17" s="31" t="str">
+        <f aca="false">IF(D17="", "", IF(I17="-", "", E17 * IF(F17="",1,F17)))</f>
+        <v/>
+      </c>
+      <c r="J17" s="9" t="n">
+        <f aca="true">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E17 * F17)</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="0" t="n">
+        <f aca="true">IF(I17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J17)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="0" t="n">
+        <f aca="false">IF(I17="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="0" t="n">
+        <f aca="true">IF(K17 = 0, INDIRECT("M" &amp; ROW() - 1), K17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="25" t="str">
+        <f aca="false">IF(D18="","",VLOOKUP(D18,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C18" s="25" t="str">
+        <f aca="false">IF(D18="","",VLOOKUP(D18, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G18" s="31" t="str">
+        <f aca="true">IF(H18="", IF(I18="","",(INDIRECT("M" &amp; ROW() - 1) - M18)),IF(I18="", "", INDIRECT("M" &amp; ROW() - 1) - M18))</f>
+        <v/>
+      </c>
+      <c r="H18" s="31" t="str">
+        <f aca="false">IF(D18="", "", IF(I18="-", "", E18 * IF(F18="",1,F18)))</f>
+        <v/>
+      </c>
+      <c r="J18" s="9" t="n">
+        <f aca="true">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E18 * F18)</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="0" t="n">
+        <f aca="true">IF(I18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J18)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="0" t="n">
+        <f aca="false">IF(I18="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="0" t="n">
+        <f aca="true">IF(K18 = 0, INDIRECT("M" &amp; ROW() - 1), K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="25" t="str">
+        <f aca="false">IF(D19="","",VLOOKUP(D19,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C19" s="25" t="str">
+        <f aca="false">IF(D19="","",VLOOKUP(D19, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G19" s="31" t="str">
+        <f aca="true">IF(H19="", IF(I19="","",(INDIRECT("M" &amp; ROW() - 1) - M19)),IF(I19="", "", INDIRECT("M" &amp; ROW() - 1) - M19))</f>
+        <v/>
+      </c>
+      <c r="H19" s="31" t="str">
+        <f aca="false">IF(D19="", "", IF(I19="-", "", E19 * IF(F19="",1,F19)))</f>
+        <v/>
+      </c>
+      <c r="J19" s="9" t="n">
+        <f aca="true">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E19 * F19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <f aca="true">IF(I19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J19)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <f aca="false">IF(I19="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="0" t="n">
+        <f aca="true">IF(K19 = 0, INDIRECT("M" &amp; ROW() - 1), K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="25" t="str">
+        <f aca="false">IF(D20="","",VLOOKUP(D20,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C20" s="25" t="str">
+        <f aca="false">IF(D20="","",VLOOKUP(D20, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G20" s="31" t="str">
+        <f aca="true">IF(H20="", IF(I20="","",(INDIRECT("M" &amp; ROW() - 1) - M20)),IF(I20="", "", INDIRECT("M" &amp; ROW() - 1) - M20))</f>
+        <v/>
+      </c>
+      <c r="H20" s="31" t="str">
+        <f aca="false">IF(D20="", "", IF(I20="-", "", E20 * IF(F20="",1,F20)))</f>
+        <v/>
+      </c>
+      <c r="J20" s="9" t="n">
+        <f aca="true">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E20 * F20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <f aca="true">IF(I20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J20)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <f aca="false">IF(I20="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <f aca="true">IF(K20 = 0, INDIRECT("M" &amp; ROW() - 1), K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="25" t="str">
+        <f aca="false">IF(D21="","",VLOOKUP(D21,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C21" s="25" t="str">
+        <f aca="false">IF(D21="","",VLOOKUP(D21, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G21" s="31" t="str">
+        <f aca="true">IF(H21="", IF(I21="","",(INDIRECT("M" &amp; ROW() - 1) - M21)),IF(I21="", "", INDIRECT("M" &amp; ROW() - 1) - M21))</f>
+        <v/>
+      </c>
+      <c r="H21" s="31" t="str">
+        <f aca="false">IF(D21="", "", IF(I21="-", "", E21 * IF(F21="",1,F21)))</f>
+        <v/>
+      </c>
+      <c r="J21" s="9" t="n">
+        <f aca="true">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E21 * F21)</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <f aca="true">IF(I21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J21)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <f aca="false">IF(I21="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <f aca="true">IF(K21 = 0, INDIRECT("M" &amp; ROW() - 1), K21)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="25" t="str">
+        <f aca="false">IF(D22="","",VLOOKUP(D22,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C22" s="25" t="str">
+        <f aca="false">IF(D22="","",VLOOKUP(D22, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G22" s="31" t="str">
+        <f aca="true">IF(H22="", IF(I22="","",(INDIRECT("M" &amp; ROW() - 1) - M22)),IF(I22="", "", INDIRECT("M" &amp; ROW() - 1) - M22))</f>
+        <v/>
+      </c>
+      <c r="H22" s="31" t="str">
+        <f aca="false">IF(D22="", "", IF(I22="-", "", E22 * IF(F22="",1,F22)))</f>
+        <v/>
+      </c>
+      <c r="J22" s="9" t="n">
+        <f aca="true">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E22 * F22)</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="0" t="n">
+        <f aca="true">IF(I22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J22)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <f aca="false">IF(I22="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <f aca="true">IF(K22 = 0, INDIRECT("M" &amp; ROW() - 1), K22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="25" t="str">
+        <f aca="false">IF(D23="","",VLOOKUP(D23,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C23" s="25" t="str">
+        <f aca="false">IF(D23="","",VLOOKUP(D23, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G23" s="31" t="str">
+        <f aca="true">IF(H23="", IF(I23="","",(INDIRECT("M" &amp; ROW() - 1) - M23)),IF(I23="", "", INDIRECT("M" &amp; ROW() - 1) - M23))</f>
+        <v/>
+      </c>
+      <c r="H23" s="31" t="str">
+        <f aca="false">IF(D23="", "", IF(I23="-", "", E23 * IF(F23="",1,F23)))</f>
+        <v/>
+      </c>
+      <c r="J23" s="9" t="n">
+        <f aca="true">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E23 * F23)</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <f aca="true">IF(I23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J23)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <f aca="false">IF(I23="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <f aca="true">IF(K23 = 0, INDIRECT("M" &amp; ROW() - 1), K23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="25" t="str">
+        <f aca="false">IF(D24="","",VLOOKUP(D24,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C24" s="25" t="str">
+        <f aca="false">IF(D24="","",VLOOKUP(D24, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G24" s="31" t="str">
+        <f aca="true">IF(H24="", IF(I24="","",(INDIRECT("M" &amp; ROW() - 1) - M24)),IF(I24="", "", INDIRECT("M" &amp; ROW() - 1) - M24))</f>
+        <v/>
+      </c>
+      <c r="H24" s="31" t="str">
+        <f aca="false">IF(D24="", "", IF(I24="-", "", E24 * IF(F24="",1,F24)))</f>
+        <v/>
+      </c>
+      <c r="J24" s="9" t="n">
+        <f aca="true">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E24 * F24)</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <f aca="true">IF(I24 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J24)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <f aca="false">IF(I24="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <f aca="true">IF(K24 = 0, INDIRECT("M" &amp; ROW() - 1), K24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="25" t="str">
+        <f aca="false">IF(D25="","",VLOOKUP(D25,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C25" s="25" t="str">
+        <f aca="false">IF(D25="","",VLOOKUP(D25, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G25" s="31" t="str">
+        <f aca="true">IF(H25="", IF(I25="","",(INDIRECT("M" &amp; ROW() - 1) - M25)),IF(I25="", "", INDIRECT("M" &amp; ROW() - 1) - M25))</f>
+        <v/>
+      </c>
+      <c r="H25" s="31" t="str">
+        <f aca="false">IF(D25="", "", IF(I25="-", "", E25 * IF(F25="",1,F25)))</f>
+        <v/>
+      </c>
+      <c r="J25" s="9" t="n">
+        <f aca="true">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E25 * F25)</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <f aca="true">IF(I25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J25)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <f aca="false">IF(I25="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <f aca="true">IF(K25 = 0, INDIRECT("M" &amp; ROW() - 1), K25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="25" t="str">
+        <f aca="false">IF(D26="","",VLOOKUP(D26,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C26" s="25" t="str">
+        <f aca="false">IF(D26="","",VLOOKUP(D26, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G26" s="31" t="str">
+        <f aca="true">IF(H26="", IF(I26="","",(INDIRECT("M" &amp; ROW() - 1) - M26)),IF(I26="", "", INDIRECT("M" &amp; ROW() - 1) - M26))</f>
+        <v/>
+      </c>
+      <c r="H26" s="31" t="str">
+        <f aca="false">IF(D26="", "", IF(I26="-", "", E26 * IF(F26="",1,F26)))</f>
+        <v/>
+      </c>
+      <c r="J26" s="9" t="n">
+        <f aca="true">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E26 * F26)</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="0" t="n">
+        <f aca="true">IF(I26 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J26)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="0" t="n">
+        <f aca="false">IF(I26="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="0" t="n">
+        <f aca="true">IF(K26 = 0, INDIRECT("M" &amp; ROW() - 1), K26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="25" t="str">
+        <f aca="false">IF(D27="","",VLOOKUP(D27,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C27" s="25" t="str">
+        <f aca="false">IF(D27="","",VLOOKUP(D27, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G27" s="31" t="str">
+        <f aca="true">IF(H27="", IF(I27="","",(INDIRECT("M" &amp; ROW() - 1) - M27)),IF(I27="", "", INDIRECT("M" &amp; ROW() - 1) - M27))</f>
+        <v/>
+      </c>
+      <c r="H27" s="31" t="str">
+        <f aca="false">IF(D27="", "", IF(I27="-", "", E27 * IF(F27="",1,F27)))</f>
+        <v/>
+      </c>
+      <c r="J27" s="9" t="n">
+        <f aca="true">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E27 * F27)</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="0" t="n">
+        <f aca="true">IF(I27 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J27)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="0" t="n">
+        <f aca="false">IF(I27="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="0" t="n">
+        <f aca="true">IF(K27 = 0, INDIRECT("M" &amp; ROW() - 1), K27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="25" t="str">
+        <f aca="false">IF(D28="","",VLOOKUP(D28,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C28" s="25" t="str">
+        <f aca="false">IF(D28="","",VLOOKUP(D28, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G28" s="31" t="str">
+        <f aca="true">IF(H28="", IF(I28="","",(INDIRECT("M" &amp; ROW() - 1) - M28)),IF(I28="", "", INDIRECT("M" &amp; ROW() - 1) - M28))</f>
+        <v/>
+      </c>
+      <c r="H28" s="31" t="str">
+        <f aca="false">IF(D28="", "", IF(I28="-", "", E28 * IF(F28="",1,F28)))</f>
+        <v/>
+      </c>
+      <c r="J28" s="9" t="n">
+        <f aca="true">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E28 * F28)</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="0" t="n">
+        <f aca="true">IF(I28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J28)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="0" t="n">
+        <f aca="false">IF(I28="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="0" t="n">
+        <f aca="true">IF(K28 = 0, INDIRECT("M" &amp; ROW() - 1), K28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="25" t="str">
+        <f aca="false">IF(D29="","",VLOOKUP(D29,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C29" s="25" t="str">
+        <f aca="false">IF(D29="","",VLOOKUP(D29, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G29" s="31" t="str">
+        <f aca="true">IF(H29="", IF(I29="","",(INDIRECT("M" &amp; ROW() - 1) - M29)),IF(I29="", "", INDIRECT("M" &amp; ROW() - 1) - M29))</f>
+        <v/>
+      </c>
+      <c r="H29" s="31" t="str">
+        <f aca="false">IF(D29="", "", IF(I29="-", "", E29 * IF(F29="",1,F29)))</f>
+        <v/>
+      </c>
+      <c r="J29" s="9" t="n">
+        <f aca="true">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E29 * F29)</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="0" t="n">
+        <f aca="true">IF(I29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J29)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="0" t="n">
+        <f aca="false">IF(I29="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="0" t="n">
+        <f aca="true">IF(K29 = 0, INDIRECT("M" &amp; ROW() - 1), K29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="25" t="str">
+        <f aca="false">IF(D30="","",VLOOKUP(D30,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C30" s="25" t="str">
+        <f aca="false">IF(D30="","",VLOOKUP(D30, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G30" s="31" t="str">
+        <f aca="true">IF(H30="", IF(I30="","",(INDIRECT("M" &amp; ROW() - 1) - M30)),IF(I30="", "", INDIRECT("M" &amp; ROW() - 1) - M30))</f>
+        <v/>
+      </c>
+      <c r="H30" s="31" t="str">
+        <f aca="false">IF(D30="", "", IF(I30="-", "", E30 * IF(F30="",1,F30)))</f>
+        <v/>
+      </c>
+      <c r="J30" s="9" t="n">
+        <f aca="true">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E30 * F30)</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="0" t="n">
+        <f aca="true">IF(I30 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J30)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="0" t="n">
+        <f aca="false">IF(I30="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="0" t="n">
+        <f aca="true">IF(K30 = 0, INDIRECT("M" &amp; ROW() - 1), K30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="25" t="str">
+        <f aca="false">IF(D31="","",VLOOKUP(D31,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C31" s="25" t="str">
+        <f aca="false">IF(D31="","",VLOOKUP(D31, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G31" s="31" t="str">
+        <f aca="true">IF(H31="", IF(I31="","",(INDIRECT("M" &amp; ROW() - 1) - M31)),IF(I31="", "", INDIRECT("M" &amp; ROW() - 1) - M31))</f>
+        <v/>
+      </c>
+      <c r="H31" s="31" t="str">
+        <f aca="false">IF(D31="", "", IF(I31="-", "", E31 * IF(F31="",1,F31)))</f>
+        <v/>
+      </c>
+      <c r="J31" s="9" t="n">
+        <f aca="true">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E31 * F31)</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="0" t="n">
+        <f aca="true">IF(I31 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J31)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="0" t="n">
+        <f aca="false">IF(I31="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="0" t="n">
+        <f aca="true">IF(K31 = 0, INDIRECT("M" &amp; ROW() - 1), K31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="25" t="str">
+        <f aca="false">IF(D32="","",VLOOKUP(D32,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C32" s="25" t="str">
+        <f aca="false">IF(D32="","",VLOOKUP(D32, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G32" s="31" t="str">
+        <f aca="true">IF(H32="", IF(I32="","",(INDIRECT("M" &amp; ROW() - 1) - M32)),IF(I32="", "", INDIRECT("M" &amp; ROW() - 1) - M32))</f>
+        <v/>
+      </c>
+      <c r="H32" s="31" t="str">
+        <f aca="false">IF(D32="", "", IF(I32="-", "", E32 * IF(F32="",1,F32)))</f>
+        <v/>
+      </c>
+      <c r="J32" s="9" t="n">
+        <f aca="true">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E32 * F32)</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="0" t="n">
+        <f aca="true">IF(I32 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J32)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="0" t="n">
+        <f aca="false">IF(I32="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="0" t="n">
+        <f aca="true">IF(K32 = 0, INDIRECT("M" &amp; ROW() - 1), K32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="25" t="str">
+        <f aca="false">IF(D33="","",VLOOKUP(D33,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C33" s="25" t="str">
+        <f aca="false">IF(D33="","",VLOOKUP(D33, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G33" s="31" t="str">
+        <f aca="true">IF(H33="", IF(I33="","",(INDIRECT("M" &amp; ROW() - 1) - M33)),IF(I33="", "", INDIRECT("M" &amp; ROW() - 1) - M33))</f>
+        <v/>
+      </c>
+      <c r="H33" s="31" t="str">
+        <f aca="false">IF(D33="", "", IF(I33="-", "", E33 * IF(F33="",1,F33)))</f>
+        <v/>
+      </c>
+      <c r="J33" s="9" t="n">
+        <f aca="true">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E33 * F33)</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="0" t="n">
+        <f aca="true">IF(I33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J33)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="0" t="n">
+        <f aca="false">IF(I33="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="0" t="n">
+        <f aca="true">IF(K33 = 0, INDIRECT("M" &amp; ROW() - 1), K33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="25" t="str">
+        <f aca="false">IF(D34="","",VLOOKUP(D34,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C34" s="25" t="str">
+        <f aca="false">IF(D34="","",VLOOKUP(D34, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G34" s="31" t="str">
+        <f aca="true">IF(H34="", IF(I34="","",(INDIRECT("M" &amp; ROW() - 1) - M34)),IF(I34="", "", INDIRECT("M" &amp; ROW() - 1) - M34))</f>
+        <v/>
+      </c>
+      <c r="H34" s="31" t="str">
+        <f aca="false">IF(D34="", "", IF(I34="-", "", E34 * IF(F34="",1,F34)))</f>
+        <v/>
+      </c>
+      <c r="J34" s="9" t="n">
+        <f aca="true">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E34 * F34)</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="0" t="n">
+        <f aca="true">IF(I34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J34)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="0" t="n">
+        <f aca="false">IF(I34="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="0" t="n">
+        <f aca="true">IF(K34 = 0, INDIRECT("M" &amp; ROW() - 1), K34)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="25" t="str">
+        <f aca="false">IF(D35="","",VLOOKUP(D35,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C35" s="25" t="str">
+        <f aca="false">IF(D35="","",VLOOKUP(D35, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G35" s="31" t="str">
+        <f aca="true">IF(H35="", IF(I35="","",(INDIRECT("M" &amp; ROW() - 1) - M35)),IF(I35="", "", INDIRECT("M" &amp; ROW() - 1) - M35))</f>
+        <v/>
+      </c>
+      <c r="H35" s="31" t="str">
+        <f aca="false">IF(D35="", "", IF(I35="-", "", E35 * IF(F35="",1,F35)))</f>
+        <v/>
+      </c>
+      <c r="J35" s="9" t="n">
+        <f aca="true">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E35 * F35)</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="0" t="n">
+        <f aca="true">IF(I35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J35)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="0" t="n">
+        <f aca="false">IF(I35="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="0" t="n">
+        <f aca="true">IF(K35 = 0, INDIRECT("M" &amp; ROW() - 1), K35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="25" t="str">
+        <f aca="false">IF(D36="","",VLOOKUP(D36,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C36" s="25" t="str">
+        <f aca="false">IF(D36="","",VLOOKUP(D36, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G36" s="31" t="str">
+        <f aca="true">IF(H36="", IF(I36="","",(INDIRECT("M" &amp; ROW() - 1) - M36)),IF(I36="", "", INDIRECT("M" &amp; ROW() - 1) - M36))</f>
+        <v/>
+      </c>
+      <c r="H36" s="31" t="str">
+        <f aca="false">IF(D36="", "", IF(I36="-", "", E36 * IF(F36="",1,F36)))</f>
+        <v/>
+      </c>
+      <c r="J36" s="9" t="n">
+        <f aca="true">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E36 * F36)</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="0" t="n">
+        <f aca="true">IF(I36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J36)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="0" t="n">
+        <f aca="false">IF(I36="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="0" t="n">
+        <f aca="true">IF(K36 = 0, INDIRECT("M" &amp; ROW() - 1), K36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="25" t="str">
+        <f aca="false">IF(D37="","",VLOOKUP(D37,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C37" s="25" t="str">
+        <f aca="false">IF(D37="","",VLOOKUP(D37, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G37" s="31" t="str">
+        <f aca="true">IF(H37="", IF(I37="","",(INDIRECT("M" &amp; ROW() - 1) - M37)),IF(I37="", "", INDIRECT("M" &amp; ROW() - 1) - M37))</f>
+        <v/>
+      </c>
+      <c r="H37" s="31" t="str">
+        <f aca="false">IF(D37="", "", IF(I37="-", "", E37 * IF(F37="",1,F37)))</f>
+        <v/>
+      </c>
+      <c r="J37" s="9" t="n">
+        <f aca="true">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E37 * F37)</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="0" t="n">
+        <f aca="true">IF(I37 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J37)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="0" t="n">
+        <f aca="false">IF(I37="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="0" t="n">
+        <f aca="true">IF(K37 = 0, INDIRECT("M" &amp; ROW() - 1), K37)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="25" t="str">
+        <f aca="false">IF(D38="","",VLOOKUP(D38,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C38" s="25" t="str">
+        <f aca="false">IF(D38="","",VLOOKUP(D38, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G38" s="31" t="str">
+        <f aca="true">IF(H38="", IF(I38="","",(INDIRECT("M" &amp; ROW() - 1) - M38)),IF(I38="", "", INDIRECT("M" &amp; ROW() - 1) - M38))</f>
+        <v/>
+      </c>
+      <c r="H38" s="31" t="str">
+        <f aca="false">IF(D38="", "", IF(I38="-", "", E38 * IF(F38="",1,F38)))</f>
+        <v/>
+      </c>
+      <c r="J38" s="9" t="n">
+        <f aca="true">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E38 * F38)</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="0" t="n">
+        <f aca="true">IF(I38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J38)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="0" t="n">
+        <f aca="false">IF(I38="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="0" t="n">
+        <f aca="true">IF(K38 = 0, INDIRECT("M" &amp; ROW() - 1), K38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="25" t="str">
+        <f aca="false">IF(D39="","",VLOOKUP(D39,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C39" s="25" t="str">
+        <f aca="false">IF(D39="","",VLOOKUP(D39, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G39" s="31" t="str">
+        <f aca="true">IF(H39="", IF(I39="","",(INDIRECT("M" &amp; ROW() - 1) - M39)),IF(I39="", "", INDIRECT("M" &amp; ROW() - 1) - M39))</f>
+        <v/>
+      </c>
+      <c r="H39" s="31" t="str">
+        <f aca="false">IF(D39="", "", IF(I39="-", "", E39 * IF(F39="",1,F39)))</f>
+        <v/>
+      </c>
+      <c r="J39" s="9" t="n">
+        <f aca="true">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E39 * F39)</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <f aca="true">IF(I39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J39)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <f aca="false">IF(I39="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <f aca="true">IF(K39 = 0, INDIRECT("M" &amp; ROW() - 1), K39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="25" t="str">
+        <f aca="false">IF(D40="","",VLOOKUP(D40,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C40" s="25" t="str">
+        <f aca="false">IF(D40="","",VLOOKUP(D40, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G40" s="31" t="str">
+        <f aca="true">IF(H40="", IF(I40="","",(INDIRECT("M" &amp; ROW() - 1) - M40)),IF(I40="", "", INDIRECT("M" &amp; ROW() - 1) - M40))</f>
+        <v/>
+      </c>
+      <c r="H40" s="31" t="str">
+        <f aca="false">IF(D40="", "", IF(I40="-", "", E40 * IF(F40="",1,F40)))</f>
+        <v/>
+      </c>
+      <c r="J40" s="9" t="n">
+        <f aca="true">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E40 * F40)</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="0" t="n">
+        <f aca="true">IF(I40 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J40)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="0" t="n">
+        <f aca="false">IF(I40="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="0" t="n">
+        <f aca="true">IF(K40 = 0, INDIRECT("M" &amp; ROW() - 1), K40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="25" t="str">
+        <f aca="false">IF(D41="","",VLOOKUP(D41,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C41" s="25" t="str">
+        <f aca="false">IF(D41="","",VLOOKUP(D41, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G41" s="31" t="str">
+        <f aca="true">IF(H41="", IF(I41="","",(INDIRECT("M" &amp; ROW() - 1) - M41)),IF(I41="", "", INDIRECT("M" &amp; ROW() - 1) - M41))</f>
+        <v/>
+      </c>
+      <c r="H41" s="31" t="str">
+        <f aca="false">IF(D41="", "", IF(I41="-", "", E41 * IF(F41="",1,F41)))</f>
+        <v/>
+      </c>
+      <c r="J41" s="9" t="n">
+        <f aca="true">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E41 * F41)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="0" t="n">
+        <f aca="true">IF(I41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J41)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="0" t="n">
+        <f aca="false">IF(I41="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="0" t="n">
+        <f aca="true">IF(K41 = 0, INDIRECT("M" &amp; ROW() - 1), K41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="25" t="str">
+        <f aca="false">IF(D42="","",VLOOKUP(D42,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C42" s="25" t="str">
+        <f aca="false">IF(D42="","",VLOOKUP(D42, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G42" s="31" t="str">
+        <f aca="true">IF(H42="", IF(I42="","",(INDIRECT("M" &amp; ROW() - 1) - M42)),IF(I42="", "", INDIRECT("M" &amp; ROW() - 1) - M42))</f>
+        <v/>
+      </c>
+      <c r="H42" s="31" t="str">
+        <f aca="false">IF(D42="", "", IF(I42="-", "", E42 * IF(F42="",1,F42)))</f>
+        <v/>
+      </c>
+      <c r="J42" s="9" t="n">
+        <f aca="true">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E42 * F42)</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="0" t="n">
+        <f aca="true">IF(I42 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J42)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="0" t="n">
+        <f aca="false">IF(I42="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="0" t="n">
+        <f aca="true">IF(K42 = 0, INDIRECT("M" &amp; ROW() - 1), K42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="25" t="str">
+        <f aca="false">IF(D43="","",VLOOKUP(D43,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C43" s="25" t="str">
+        <f aca="false">IF(D43="","",VLOOKUP(D43, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G43" s="31" t="str">
+        <f aca="true">IF(H43="", IF(I43="","",(INDIRECT("M" &amp; ROW() - 1) - M43)),IF(I43="", "", INDIRECT("M" &amp; ROW() - 1) - M43))</f>
+        <v/>
+      </c>
+      <c r="H43" s="31" t="str">
+        <f aca="false">IF(D43="", "", IF(I43="-", "", E43 * IF(F43="",1,F43)))</f>
+        <v/>
+      </c>
+      <c r="J43" s="9" t="n">
+        <f aca="true">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E43 * F43)</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="0" t="n">
+        <f aca="true">IF(I43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J43)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="0" t="n">
+        <f aca="false">IF(I43="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="0" t="n">
+        <f aca="true">IF(K43 = 0, INDIRECT("M" &amp; ROW() - 1), K43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="25" t="str">
+        <f aca="false">IF(D44="","",VLOOKUP(D44,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C44" s="25" t="str">
+        <f aca="false">IF(D44="","",VLOOKUP(D44, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G44" s="31" t="str">
+        <f aca="true">IF(H44="", IF(I44="","",(INDIRECT("M" &amp; ROW() - 1) - M44)),IF(I44="", "", INDIRECT("M" &amp; ROW() - 1) - M44))</f>
+        <v/>
+      </c>
+      <c r="H44" s="31" t="str">
+        <f aca="false">IF(D44="", "", IF(I44="-", "", E44 * IF(F44="",1,F44)))</f>
+        <v/>
+      </c>
+      <c r="J44" s="9" t="n">
+        <f aca="true">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E44 * F44)</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="0" t="n">
+        <f aca="true">IF(I44 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J44)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="0" t="n">
+        <f aca="false">IF(I44="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="0" t="n">
+        <f aca="true">IF(K44 = 0, INDIRECT("M" &amp; ROW() - 1), K44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="25" t="str">
+        <f aca="false">IF(D45="","",VLOOKUP(D45,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C45" s="25" t="str">
+        <f aca="false">IF(D45="","",VLOOKUP(D45, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G45" s="31" t="str">
+        <f aca="true">IF(H45="", IF(I45="","",(INDIRECT("M" &amp; ROW() - 1) - M45)),IF(I45="", "", INDIRECT("M" &amp; ROW() - 1) - M45))</f>
+        <v/>
+      </c>
+      <c r="H45" s="31" t="str">
+        <f aca="false">IF(D45="", "", IF(I45="-", "", E45 * IF(F45="",1,F45)))</f>
+        <v/>
+      </c>
+      <c r="J45" s="9" t="n">
+        <f aca="true">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E45 * F45)</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="0" t="n">
+        <f aca="true">IF(I45 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J45)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J45)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="0" t="n">
+        <f aca="false">IF(I45="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="0" t="n">
+        <f aca="true">IF(K45 = 0, INDIRECT("M" &amp; ROW() - 1), K45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="25" t="str">
+        <f aca="false">IF(D46="","",VLOOKUP(D46,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C46" s="25" t="str">
+        <f aca="false">IF(D46="","",VLOOKUP(D46, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G46" s="31" t="str">
+        <f aca="true">IF(H46="", IF(I46="","",(INDIRECT("M" &amp; ROW() - 1) - M46)),IF(I46="", "", INDIRECT("M" &amp; ROW() - 1) - M46))</f>
+        <v/>
+      </c>
+      <c r="H46" s="31" t="str">
+        <f aca="false">IF(D46="", "", IF(I46="-", "", E46 * IF(F46="",1,F46)))</f>
+        <v/>
+      </c>
+      <c r="J46" s="9" t="n">
+        <f aca="true">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E46 * F46)</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="0" t="n">
+        <f aca="true">IF(I46 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J46)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J46)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="0" t="n">
+        <f aca="false">IF(I46="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="0" t="n">
+        <f aca="true">IF(K46 = 0, INDIRECT("M" &amp; ROW() - 1), K46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="25" t="str">
+        <f aca="false">IF(D47="","",VLOOKUP(D47,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C47" s="25" t="str">
+        <f aca="false">IF(D47="","",VLOOKUP(D47, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G47" s="31" t="str">
+        <f aca="true">IF(H47="", IF(I47="","",(INDIRECT("M" &amp; ROW() - 1) - M47)),IF(I47="", "", INDIRECT("M" &amp; ROW() - 1) - M47))</f>
+        <v/>
+      </c>
+      <c r="H47" s="31" t="str">
+        <f aca="false">IF(D47="", "", IF(I47="-", "", E47 * IF(F47="",1,F47)))</f>
+        <v/>
+      </c>
+      <c r="J47" s="9" t="n">
+        <f aca="true">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E47 * F47)</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="0" t="n">
+        <f aca="true">IF(I47 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J47)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J47)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="0" t="n">
+        <f aca="false">IF(I47="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="0" t="n">
+        <f aca="true">IF(K47 = 0, INDIRECT("M" &amp; ROW() - 1), K47)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="25" t="str">
+        <f aca="false">IF(D48="","",VLOOKUP(D48,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C48" s="25" t="str">
+        <f aca="false">IF(D48="","",VLOOKUP(D48, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G48" s="31" t="str">
+        <f aca="true">IF(H48="", IF(I48="","",(INDIRECT("M" &amp; ROW() - 1) - M48)),IF(I48="", "", INDIRECT("M" &amp; ROW() - 1) - M48))</f>
+        <v/>
+      </c>
+      <c r="H48" s="31" t="str">
+        <f aca="false">IF(D48="", "", IF(I48="-", "", E48 * IF(F48="",1,F48)))</f>
+        <v/>
+      </c>
+      <c r="J48" s="9" t="n">
+        <f aca="true">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E48 * F48)</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="0" t="n">
+        <f aca="true">IF(I48 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J48)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J48)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="0" t="n">
+        <f aca="false">IF(I48="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="0" t="n">
+        <f aca="true">IF(K48 = 0, INDIRECT("M" &amp; ROW() - 1), K48)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="25" t="str">
+        <f aca="false">IF(D49="","",VLOOKUP(D49,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C49" s="25" t="str">
+        <f aca="false">IF(D49="","",VLOOKUP(D49, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G49" s="31" t="str">
+        <f aca="true">IF(H49="", IF(I49="","",(INDIRECT("M" &amp; ROW() - 1) - M49)),IF(I49="", "", INDIRECT("M" &amp; ROW() - 1) - M49))</f>
+        <v/>
+      </c>
+      <c r="H49" s="31" t="str">
+        <f aca="false">IF(D49="", "", IF(I49="-", "", E49 * IF(F49="",1,F49)))</f>
+        <v/>
+      </c>
+      <c r="J49" s="9" t="n">
+        <f aca="true">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E49 * F49)</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="0" t="n">
+        <f aca="true">IF(I49 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J49)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J49)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="0" t="n">
+        <f aca="false">IF(I49="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="0" t="n">
+        <f aca="true">IF(K49 = 0, INDIRECT("M" &amp; ROW() - 1), K49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="25" t="str">
+        <f aca="false">IF(D50="","",VLOOKUP(D50,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C50" s="25" t="str">
+        <f aca="false">IF(D50="","",VLOOKUP(D50, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G50" s="31" t="str">
+        <f aca="true">IF(H50="", IF(I50="","",(INDIRECT("M" &amp; ROW() - 1) - M50)),IF(I50="", "", INDIRECT("M" &amp; ROW() - 1) - M50))</f>
+        <v/>
+      </c>
+      <c r="H50" s="31" t="str">
+        <f aca="false">IF(D50="", "", IF(I50="-", "", E50 * IF(F50="",1,F50)))</f>
+        <v/>
+      </c>
+      <c r="J50" s="9" t="n">
+        <f aca="true">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E50 * F50)</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="0" t="n">
+        <f aca="true">IF(I50 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J50)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J50)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="0" t="n">
+        <f aca="false">IF(I50="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="0" t="n">
+        <f aca="true">IF(K50 = 0, INDIRECT("M" &amp; ROW() - 1), K50)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="25" t="str">
+        <f aca="false">IF(D51="","",VLOOKUP(D51,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C51" s="25" t="str">
+        <f aca="false">IF(D51="","",VLOOKUP(D51, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G51" s="31" t="str">
+        <f aca="true">IF(H51="", IF(I51="","",(INDIRECT("M" &amp; ROW() - 1) - M51)),IF(I51="", "", INDIRECT("M" &amp; ROW() - 1) - M51))</f>
+        <v/>
+      </c>
+      <c r="H51" s="31" t="str">
+        <f aca="false">IF(D51="", "", IF(I51="-", "", E51 * IF(F51="",1,F51)))</f>
+        <v/>
+      </c>
+      <c r="J51" s="9" t="n">
+        <f aca="true">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E51 * F51)</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="0" t="n">
+        <f aca="true">IF(I51 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J51)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="0" t="n">
+        <f aca="false">IF(I51="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="0" t="n">
+        <f aca="true">IF(K51 = 0, INDIRECT("M" &amp; ROW() - 1), K51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="25" t="str">
+        <f aca="false">IF(D52="","",VLOOKUP(D52,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C52" s="25" t="str">
+        <f aca="false">IF(D52="","",VLOOKUP(D52, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G52" s="31" t="str">
+        <f aca="true">IF(H52="", IF(I52="","",(INDIRECT("M" &amp; ROW() - 1) - M52)),IF(I52="", "", INDIRECT("M" &amp; ROW() - 1) - M52))</f>
+        <v/>
+      </c>
+      <c r="H52" s="31" t="str">
+        <f aca="false">IF(D52="", "", IF(I52="-", "", E52 * IF(F52="",1,F52)))</f>
+        <v/>
+      </c>
+      <c r="J52" s="9" t="n">
+        <f aca="true">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E52 * F52)</f>
+        <v>0</v>
+      </c>
+      <c r="K52" s="0" t="n">
+        <f aca="true">IF(I52 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J52)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J52)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L52" s="0" t="n">
+        <f aca="false">IF(I52="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M52" s="0" t="n">
+        <f aca="true">IF(K52 = 0, INDIRECT("M" &amp; ROW() - 1), K52)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="25" t="str">
+        <f aca="false">IF(D53="","",VLOOKUP(D53,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C53" s="25" t="str">
+        <f aca="false">IF(D53="","",VLOOKUP(D53, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G53" s="31" t="str">
+        <f aca="true">IF(H53="", IF(I53="","",(INDIRECT("M" &amp; ROW() - 1) - M53)),IF(I53="", "", INDIRECT("M" &amp; ROW() - 1) - M53))</f>
+        <v/>
+      </c>
+      <c r="H53" s="31" t="str">
+        <f aca="false">IF(D53="", "", IF(I53="-", "", E53 * IF(F53="",1,F53)))</f>
+        <v/>
+      </c>
+      <c r="J53" s="9" t="n">
+        <f aca="true">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E53 * F53)</f>
+        <v>0</v>
+      </c>
+      <c r="K53" s="0" t="n">
+        <f aca="true">IF(I53 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J53)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J53)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L53" s="0" t="n">
+        <f aca="false">IF(I53="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M53" s="0" t="n">
+        <f aca="true">IF(K53 = 0, INDIRECT("M" &amp; ROW() - 1), K53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="25" t="str">
+        <f aca="false">IF(D54="","",VLOOKUP(D54,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C54" s="25" t="str">
+        <f aca="false">IF(D54="","",VLOOKUP(D54, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G54" s="31" t="str">
+        <f aca="true">IF(H54="", IF(I54="","",(INDIRECT("M" &amp; ROW() - 1) - M54)),IF(I54="", "", INDIRECT("M" &amp; ROW() - 1) - M54))</f>
+        <v/>
+      </c>
+      <c r="H54" s="31" t="str">
+        <f aca="false">IF(D54="", "", IF(I54="-", "", E54 * IF(F54="",1,F54)))</f>
+        <v/>
+      </c>
+      <c r="J54" s="9" t="n">
+        <f aca="true">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E54 * F54)</f>
+        <v>0</v>
+      </c>
+      <c r="K54" s="0" t="n">
+        <f aca="true">IF(I54 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J54)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J54)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L54" s="0" t="n">
+        <f aca="false">IF(I54="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M54" s="0" t="n">
+        <f aca="true">IF(K54 = 0, INDIRECT("M" &amp; ROW() - 1), K54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="25" t="str">
+        <f aca="false">IF(D55="","",VLOOKUP(D55,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C55" s="25" t="str">
+        <f aca="false">IF(D55="","",VLOOKUP(D55, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G55" s="31" t="str">
+        <f aca="true">IF(H55="", IF(I55="","",(INDIRECT("M" &amp; ROW() - 1) - M55)),IF(I55="", "", INDIRECT("M" &amp; ROW() - 1) - M55))</f>
+        <v/>
+      </c>
+      <c r="H55" s="31" t="str">
+        <f aca="false">IF(D55="", "", IF(I55="-", "", E55 * IF(F55="",1,F55)))</f>
+        <v/>
+      </c>
+      <c r="J55" s="9" t="n">
+        <f aca="true">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E55 * F55)</f>
+        <v>0</v>
+      </c>
+      <c r="K55" s="0" t="n">
+        <f aca="true">IF(I55 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J55)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J55)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L55" s="0" t="n">
+        <f aca="false">IF(I55="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M55" s="0" t="n">
+        <f aca="true">IF(K55 = 0, INDIRECT("M" &amp; ROW() - 1), K55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="25" t="str">
+        <f aca="false">IF(D56="","",VLOOKUP(D56,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C56" s="25" t="str">
+        <f aca="false">IF(D56="","",VLOOKUP(D56, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G56" s="31" t="str">
+        <f aca="true">IF(H56="", IF(I56="","",(INDIRECT("M" &amp; ROW() - 1) - M56)),IF(I56="", "", INDIRECT("M" &amp; ROW() - 1) - M56))</f>
+        <v/>
+      </c>
+      <c r="H56" s="31" t="str">
+        <f aca="false">IF(D56="", "", IF(I56="-", "", E56 * IF(F56="",1,F56)))</f>
+        <v/>
+      </c>
+      <c r="J56" s="9" t="n">
+        <f aca="true">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E56 * F56)</f>
+        <v>0</v>
+      </c>
+      <c r="K56" s="0" t="n">
+        <f aca="true">IF(I56 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J56)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J56)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L56" s="0" t="n">
+        <f aca="false">IF(I56="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M56" s="0" t="n">
+        <f aca="true">IF(K56 = 0, INDIRECT("M" &amp; ROW() - 1), K56)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="25" t="str">
+        <f aca="false">IF(D57="","",VLOOKUP(D57,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C57" s="25" t="str">
+        <f aca="false">IF(D57="","",VLOOKUP(D57, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G57" s="31" t="str">
+        <f aca="true">IF(H57="", IF(I57="","",(INDIRECT("M" &amp; ROW() - 1) - M57)),IF(I57="", "", INDIRECT("M" &amp; ROW() - 1) - M57))</f>
+        <v/>
+      </c>
+      <c r="H57" s="31" t="str">
+        <f aca="false">IF(D57="", "", IF(I57="-", "", E57 * IF(F57="",1,F57)))</f>
+        <v/>
+      </c>
+      <c r="J57" s="9" t="n">
+        <f aca="true">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E57 * F57)</f>
+        <v>0</v>
+      </c>
+      <c r="K57" s="0" t="n">
+        <f aca="true">IF(I57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J57)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L57" s="0" t="n">
+        <f aca="false">IF(I57="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M57" s="0" t="n">
+        <f aca="true">IF(K57 = 0, INDIRECT("M" &amp; ROW() - 1), K57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="25" t="str">
+        <f aca="false">IF(D58="","",VLOOKUP(D58,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C58" s="25" t="str">
+        <f aca="false">IF(D58="","",VLOOKUP(D58, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G58" s="31" t="str">
+        <f aca="true">IF(H58="", IF(I58="","",(INDIRECT("M" &amp; ROW() - 1) - M58)),IF(I58="", "", INDIRECT("M" &amp; ROW() - 1) - M58))</f>
+        <v/>
+      </c>
+      <c r="H58" s="31" t="str">
+        <f aca="false">IF(D58="", "", IF(I58="-", "", E58 * IF(F58="",1,F58)))</f>
+        <v/>
+      </c>
+      <c r="J58" s="9" t="n">
+        <f aca="true">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E58 * F58)</f>
+        <v>0</v>
+      </c>
+      <c r="K58" s="0" t="n">
+        <f aca="true">IF(I58 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J58)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J58)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L58" s="0" t="n">
+        <f aca="false">IF(I58="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M58" s="0" t="n">
+        <f aca="true">IF(K58 = 0, INDIRECT("M" &amp; ROW() - 1), K58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="25" t="str">
+        <f aca="false">IF(D59="","",VLOOKUP(D59,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C59" s="25" t="str">
+        <f aca="false">IF(D59="","",VLOOKUP(D59, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G59" s="31" t="str">
+        <f aca="true">IF(H59="", IF(I59="","",(INDIRECT("M" &amp; ROW() - 1) - M59)),IF(I59="", "", INDIRECT("M" &amp; ROW() - 1) - M59))</f>
+        <v/>
+      </c>
+      <c r="H59" s="31" t="str">
+        <f aca="false">IF(D59="", "", IF(I59="-", "", E59 * IF(F59="",1,F59)))</f>
+        <v/>
+      </c>
+      <c r="J59" s="9" t="n">
+        <f aca="true">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E59 * F59)</f>
+        <v>0</v>
+      </c>
+      <c r="K59" s="0" t="n">
+        <f aca="true">IF(I59 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J59)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L59" s="0" t="n">
+        <f aca="false">IF(I59="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M59" s="0" t="n">
+        <f aca="true">IF(K59 = 0, INDIRECT("M" &amp; ROW() - 1), K59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="25" t="str">
+        <f aca="false">IF(D60="","",VLOOKUP(D60,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C60" s="25" t="str">
+        <f aca="false">IF(D60="","",VLOOKUP(D60, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G60" s="31" t="str">
+        <f aca="true">IF(H60="", IF(I60="","",(INDIRECT("M" &amp; ROW() - 1) - M60)),IF(I60="", "", INDIRECT("M" &amp; ROW() - 1) - M60))</f>
+        <v/>
+      </c>
+      <c r="H60" s="31" t="str">
+        <f aca="false">IF(D60="", "", IF(I60="-", "", E60 * IF(F60="",1,F60)))</f>
+        <v/>
+      </c>
+      <c r="J60" s="9" t="n">
+        <f aca="true">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E60 * F60)</f>
+        <v>0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <f aca="true">IF(I60 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J60)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J60)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <f aca="false">IF(I60="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <f aca="true">IF(K60 = 0, INDIRECT("M" &amp; ROW() - 1), K60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="25" t="str">
+        <f aca="false">IF(D61="","",VLOOKUP(D61,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C61" s="25" t="str">
+        <f aca="false">IF(D61="","",VLOOKUP(D61, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G61" s="31" t="str">
+        <f aca="true">IF(H61="", IF(I61="","",(INDIRECT("M" &amp; ROW() - 1) - M61)),IF(I61="", "", INDIRECT("M" &amp; ROW() - 1) - M61))</f>
+        <v/>
+      </c>
+      <c r="H61" s="31" t="str">
+        <f aca="false">IF(D61="", "", IF(I61="-", "", E61 * IF(F61="",1,F61)))</f>
+        <v/>
+      </c>
+      <c r="J61" s="9" t="n">
+        <f aca="true">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E61 * F61)</f>
+        <v>0</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <f aca="true">IF(I61 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J61)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J61)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <f aca="false">IF(I61="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M61" s="0" t="n">
+        <f aca="true">IF(K61 = 0, INDIRECT("M" &amp; ROW() - 1), K61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="25" t="str">
+        <f aca="false">IF(D62="","",VLOOKUP(D62,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C62" s="25" t="str">
+        <f aca="false">IF(D62="","",VLOOKUP(D62, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G62" s="31" t="str">
+        <f aca="true">IF(H62="", IF(I62="","",(INDIRECT("M" &amp; ROW() - 1) - M62)),IF(I62="", "", INDIRECT("M" &amp; ROW() - 1) - M62))</f>
+        <v/>
+      </c>
+      <c r="H62" s="31" t="str">
+        <f aca="false">IF(D62="", "", IF(I62="-", "", E62 * IF(F62="",1,F62)))</f>
+        <v/>
+      </c>
+      <c r="J62" s="9" t="n">
+        <f aca="true">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E62 * F62)</f>
+        <v>0</v>
+      </c>
+      <c r="K62" s="0" t="n">
+        <f aca="true">IF(I62 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J62)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J62)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L62" s="0" t="n">
+        <f aca="false">IF(I62="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M62" s="0" t="n">
+        <f aca="true">IF(K62 = 0, INDIRECT("M" &amp; ROW() - 1), K62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="25" t="str">
+        <f aca="false">IF(D63="","",VLOOKUP(D63,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C63" s="25" t="str">
+        <f aca="false">IF(D63="","",VLOOKUP(D63, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G63" s="31" t="str">
+        <f aca="true">IF(H63="", IF(I63="","",(INDIRECT("M" &amp; ROW() - 1) - M63)),IF(I63="", "", INDIRECT("M" &amp; ROW() - 1) - M63))</f>
+        <v/>
+      </c>
+      <c r="H63" s="31" t="str">
+        <f aca="false">IF(D63="", "", IF(I63="-", "", E63 * IF(F63="",1,F63)))</f>
+        <v/>
+      </c>
+      <c r="J63" s="9" t="n">
+        <f aca="true">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E63 * F63)</f>
+        <v>0</v>
+      </c>
+      <c r="K63" s="0" t="n">
+        <f aca="true">IF(I63 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J63)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L63" s="0" t="n">
+        <f aca="false">IF(I63="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M63" s="0" t="n">
+        <f aca="true">IF(K63 = 0, INDIRECT("M" &amp; ROW() - 1), K63)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="25" t="str">
+        <f aca="false">IF(D64="","",VLOOKUP(D64,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C64" s="25" t="str">
+        <f aca="false">IF(D64="","",VLOOKUP(D64, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G64" s="31" t="str">
+        <f aca="true">IF(H64="", IF(I64="","",(INDIRECT("M" &amp; ROW() - 1) - M64)),IF(I64="", "", INDIRECT("M" &amp; ROW() - 1) - M64))</f>
+        <v/>
+      </c>
+      <c r="H64" s="31" t="str">
+        <f aca="false">IF(D64="", "", IF(I64="-", "", E64 * IF(F64="",1,F64)))</f>
+        <v/>
+      </c>
+      <c r="J64" s="9" t="n">
+        <f aca="true">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E64 * F64)</f>
+        <v>0</v>
+      </c>
+      <c r="K64" s="0" t="n">
+        <f aca="true">IF(I64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J64)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L64" s="0" t="n">
+        <f aca="false">IF(I64="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M64" s="0" t="n">
+        <f aca="true">IF(K64 = 0, INDIRECT("M" &amp; ROW() - 1), K64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="25" t="str">
+        <f aca="false">IF(D65="","",VLOOKUP(D65,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C65" s="25" t="str">
+        <f aca="false">IF(D65="","",VLOOKUP(D65, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G65" s="31" t="str">
+        <f aca="true">IF(H65="", IF(I65="","",(INDIRECT("M" &amp; ROW() - 1) - M65)),IF(I65="", "", INDIRECT("M" &amp; ROW() - 1) - M65))</f>
+        <v/>
+      </c>
+      <c r="H65" s="31" t="str">
+        <f aca="false">IF(D65="", "", IF(I65="-", "", E65 * IF(F65="",1,F65)))</f>
+        <v/>
+      </c>
+      <c r="J65" s="9" t="n">
+        <f aca="true">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E65 * F65)</f>
+        <v>0</v>
+      </c>
+      <c r="K65" s="0" t="n">
+        <f aca="true">IF(I65 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J65)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J65)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L65" s="0" t="n">
+        <f aca="false">IF(I65="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M65" s="0" t="n">
+        <f aca="true">IF(K65 = 0, INDIRECT("M" &amp; ROW() - 1), K65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="25" t="str">
+        <f aca="false">IF(D66="","",VLOOKUP(D66,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C66" s="25" t="str">
+        <f aca="false">IF(D66="","",VLOOKUP(D66, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G66" s="31" t="str">
+        <f aca="true">IF(H66="", IF(I66="","",(INDIRECT("M" &amp; ROW() - 1) - M66)),IF(I66="", "", INDIRECT("M" &amp; ROW() - 1) - M66))</f>
+        <v/>
+      </c>
+      <c r="H66" s="31" t="str">
+        <f aca="false">IF(D66="", "", IF(I66="-", "", E66 * IF(F66="",1,F66)))</f>
+        <v/>
+      </c>
+      <c r="J66" s="9" t="n">
+        <f aca="true">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E66 * F66)</f>
+        <v>0</v>
+      </c>
+      <c r="K66" s="0" t="n">
+        <f aca="true">IF(I66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J66)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L66" s="0" t="n">
+        <f aca="false">IF(I66="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M66" s="0" t="n">
+        <f aca="true">IF(K66 = 0, INDIRECT("M" &amp; ROW() - 1), K66)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="25" t="str">
+        <f aca="false">IF(D67="","",VLOOKUP(D67,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C67" s="25" t="str">
+        <f aca="false">IF(D67="","",VLOOKUP(D67, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G67" s="31" t="str">
+        <f aca="true">IF(H67="", IF(I67="","",(INDIRECT("M" &amp; ROW() - 1) - M67)),IF(I67="", "", INDIRECT("M" &amp; ROW() - 1) - M67))</f>
+        <v/>
+      </c>
+      <c r="H67" s="31" t="str">
+        <f aca="false">IF(D67="", "", IF(I67="-", "", E67 * IF(F67="",1,F67)))</f>
+        <v/>
+      </c>
+      <c r="J67" s="9" t="n">
+        <f aca="true">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E67 * F67)</f>
+        <v>0</v>
+      </c>
+      <c r="K67" s="0" t="n">
+        <f aca="true">IF(I67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J67)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L67" s="0" t="n">
+        <f aca="false">IF(I67="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M67" s="0" t="n">
+        <f aca="true">IF(K67 = 0, INDIRECT("M" &amp; ROW() - 1), K67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="25" t="str">
+        <f aca="false">IF(D68="","",VLOOKUP(D68,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C68" s="25" t="str">
+        <f aca="false">IF(D68="","",VLOOKUP(D68, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G68" s="31" t="str">
+        <f aca="true">IF(H68="", IF(I68="","",(INDIRECT("M" &amp; ROW() - 1) - M68)),IF(I68="", "", INDIRECT("M" &amp; ROW() - 1) - M68))</f>
+        <v/>
+      </c>
+      <c r="H68" s="31" t="str">
+        <f aca="false">IF(D68="", "", IF(I68="-", "", E68 * IF(F68="",1,F68)))</f>
+        <v/>
+      </c>
+      <c r="J68" s="9" t="n">
+        <f aca="true">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E68 * F68)</f>
+        <v>0</v>
+      </c>
+      <c r="K68" s="0" t="n">
+        <f aca="true">IF(I68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J68)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L68" s="0" t="n">
+        <f aca="false">IF(I68="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M68" s="0" t="n">
+        <f aca="true">IF(K68 = 0, INDIRECT("M" &amp; ROW() - 1), K68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="25" t="str">
+        <f aca="false">IF(D69="","",VLOOKUP(D69,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C69" s="25" t="str">
+        <f aca="false">IF(D69="","",VLOOKUP(D69, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G69" s="31" t="str">
+        <f aca="true">IF(H69="", IF(I69="","",(INDIRECT("M" &amp; ROW() - 1) - M69)),IF(I69="", "", INDIRECT("M" &amp; ROW() - 1) - M69))</f>
+        <v/>
+      </c>
+      <c r="H69" s="31" t="str">
+        <f aca="false">IF(D69="", "", IF(I69="-", "", E69 * IF(F69="",1,F69)))</f>
+        <v/>
+      </c>
+      <c r="J69" s="9" t="n">
+        <f aca="true">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E69 * F69)</f>
+        <v>0</v>
+      </c>
+      <c r="K69" s="0" t="n">
+        <f aca="true">IF(I69 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J69)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J69)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L69" s="0" t="n">
+        <f aca="false">IF(I69="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="0" t="n">
+        <f aca="true">IF(K69 = 0, INDIRECT("M" &amp; ROW() - 1), K69)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="25" t="str">
+        <f aca="false">IF(D70="","",VLOOKUP(D70,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C70" s="25" t="str">
+        <f aca="false">IF(D70="","",VLOOKUP(D70, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G70" s="31" t="str">
+        <f aca="true">IF(H70="", IF(I70="","",(INDIRECT("M" &amp; ROW() - 1) - M70)),IF(I70="", "", INDIRECT("M" &amp; ROW() - 1) - M70))</f>
+        <v/>
+      </c>
+      <c r="H70" s="31" t="str">
+        <f aca="false">IF(D70="", "", IF(I70="-", "", E70 * IF(F70="",1,F70)))</f>
+        <v/>
+      </c>
+      <c r="J70" s="9" t="n">
+        <f aca="true">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E70 * F70)</f>
+        <v>0</v>
+      </c>
+      <c r="K70" s="0" t="n">
+        <f aca="true">IF(I70 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J70)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J70)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L70" s="0" t="n">
+        <f aca="false">IF(I70="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M70" s="0" t="n">
+        <f aca="true">IF(K70 = 0, INDIRECT("M" &amp; ROW() - 1), K70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="25" t="str">
+        <f aca="false">IF(D71="","",VLOOKUP(D71,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C71" s="25" t="str">
+        <f aca="false">IF(D71="","",VLOOKUP(D71, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G71" s="31" t="str">
+        <f aca="true">IF(H71="", IF(I71="","",(INDIRECT("M" &amp; ROW() - 1) - M71)),IF(I71="", "", INDIRECT("M" &amp; ROW() - 1) - M71))</f>
+        <v/>
+      </c>
+      <c r="H71" s="31" t="str">
+        <f aca="false">IF(D71="", "", IF(I71="-", "", E71 * IF(F71="",1,F71)))</f>
+        <v/>
+      </c>
+      <c r="J71" s="9" t="n">
+        <f aca="true">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E71 * F71)</f>
+        <v>0</v>
+      </c>
+      <c r="K71" s="0" t="n">
+        <f aca="true">IF(I71 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J71)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J71)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L71" s="0" t="n">
+        <f aca="false">IF(I71="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M71" s="0" t="n">
+        <f aca="true">IF(K71 = 0, INDIRECT("M" &amp; ROW() - 1), K71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="25" t="str">
+        <f aca="false">IF(D72="","",VLOOKUP(D72,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C72" s="25" t="str">
+        <f aca="false">IF(D72="","",VLOOKUP(D72, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G72" s="31" t="str">
+        <f aca="true">IF(H72="", IF(I72="","",(INDIRECT("M" &amp; ROW() - 1) - M72)),IF(I72="", "", INDIRECT("M" &amp; ROW() - 1) - M72))</f>
+        <v/>
+      </c>
+      <c r="H72" s="31" t="str">
+        <f aca="false">IF(D72="", "", IF(I72="-", "", E72 * IF(F72="",1,F72)))</f>
+        <v/>
+      </c>
+      <c r="J72" s="9" t="n">
+        <f aca="true">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E72 * F72)</f>
+        <v>0</v>
+      </c>
+      <c r="K72" s="0" t="n">
+        <f aca="true">IF(I72 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J72)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J72)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L72" s="0" t="n">
+        <f aca="false">IF(I72="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M72" s="0" t="n">
+        <f aca="true">IF(K72 = 0, INDIRECT("M" &amp; ROW() - 1), K72)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="25" t="str">
+        <f aca="false">IF(D73="","",VLOOKUP(D73,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C73" s="25" t="str">
+        <f aca="false">IF(D73="","",VLOOKUP(D73, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G73" s="31" t="str">
+        <f aca="true">IF(H73="", IF(I73="","",(INDIRECT("M" &amp; ROW() - 1) - M73)),IF(I73="", "", INDIRECT("M" &amp; ROW() - 1) - M73))</f>
+        <v/>
+      </c>
+      <c r="H73" s="31" t="str">
+        <f aca="false">IF(D73="", "", IF(I73="-", "", E73 * IF(F73="",1,F73)))</f>
+        <v/>
+      </c>
+      <c r="J73" s="9" t="n">
+        <f aca="true">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E73 * F73)</f>
+        <v>0</v>
+      </c>
+      <c r="K73" s="0" t="n">
+        <f aca="true">IF(I73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J73)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L73" s="0" t="n">
+        <f aca="false">IF(I73="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M73" s="0" t="n">
+        <f aca="true">IF(K73 = 0, INDIRECT("M" &amp; ROW() - 1), K73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="25" t="str">
+        <f aca="false">IF(D74="","",VLOOKUP(D74,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C74" s="25" t="str">
+        <f aca="false">IF(D74="","",VLOOKUP(D74, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G74" s="31" t="str">
+        <f aca="true">IF(H74="", IF(I74="","",(INDIRECT("M" &amp; ROW() - 1) - M74)),IF(I74="", "", INDIRECT("M" &amp; ROW() - 1) - M74))</f>
+        <v/>
+      </c>
+      <c r="H74" s="31" t="str">
+        <f aca="false">IF(D74="", "", IF(I74="-", "", E74 * IF(F74="",1,F74)))</f>
+        <v/>
+      </c>
+      <c r="J74" s="9" t="n">
+        <f aca="true">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E74 * F74)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="0" t="n">
+        <f aca="true">IF(I74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J74)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L74" s="0" t="n">
+        <f aca="false">IF(I74="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M74" s="0" t="n">
+        <f aca="true">IF(K74 = 0, INDIRECT("M" &amp; ROW() - 1), K74)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="25" t="str">
+        <f aca="false">IF(D75="","",VLOOKUP(D75,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C75" s="25" t="str">
+        <f aca="false">IF(D75="","",VLOOKUP(D75, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G75" s="31" t="str">
+        <f aca="true">IF(H75="", IF(I75="","",(INDIRECT("M" &amp; ROW() - 1) - M75)),IF(I75="", "", INDIRECT("M" &amp; ROW() - 1) - M75))</f>
+        <v/>
+      </c>
+      <c r="H75" s="31" t="str">
+        <f aca="false">IF(D75="", "", IF(I75="-", "", E75 * IF(F75="",1,F75)))</f>
+        <v/>
+      </c>
+      <c r="J75" s="9" t="n">
+        <f aca="true">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E75 * F75)</f>
+        <v>0</v>
+      </c>
+      <c r="K75" s="0" t="n">
+        <f aca="true">IF(I75="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J75)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L75" s="0" t="n">
+        <f aca="false">IF(I75="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M75" s="0" t="n">
+        <f aca="true">IF(K75 = 0, INDIRECT("M" &amp; ROW() - 1), K75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="25" t="str">
+        <f aca="false">IF(D76="","",VLOOKUP(D76,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C76" s="25" t="str">
+        <f aca="false">IF(D76="","",VLOOKUP(D76, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G76" s="31" t="str">
+        <f aca="true">IF(H76="", IF(I76="","",(INDIRECT("M" &amp; ROW() - 1) - M76)),IF(I76="", "", INDIRECT("M" &amp; ROW() - 1) - M76))</f>
+        <v/>
+      </c>
+      <c r="H76" s="31" t="str">
+        <f aca="false">IF(D76="", "", IF(I76="-", "", E76 * IF(F76="",1,F76)))</f>
+        <v/>
+      </c>
+      <c r="J76" s="9" t="n">
+        <f aca="true">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E76 * F76)</f>
+        <v>0</v>
+      </c>
+      <c r="K76" s="0" t="n">
+        <f aca="true">IF(I76="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J76)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L76" s="0" t="n">
+        <f aca="false">IF(I76="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M76" s="0" t="n">
+        <f aca="true">IF(K76 = 0, INDIRECT("M" &amp; ROW() - 1), K76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="25" t="str">
+        <f aca="false">IF(D77="","",VLOOKUP(D77,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C77" s="25" t="str">
+        <f aca="false">IF(D77="","",VLOOKUP(D77, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G77" s="31" t="str">
+        <f aca="true">IF(H77="", IF(I77="","",(INDIRECT("M" &amp; ROW() - 1) - M77)),IF(I77="", "", INDIRECT("M" &amp; ROW() - 1) - M77))</f>
+        <v/>
+      </c>
+      <c r="H77" s="31" t="str">
+        <f aca="false">IF(D77="", "", IF(I77="-", "", E77 * IF(F77="",1,F77)))</f>
+        <v/>
+      </c>
+      <c r="J77" s="9" t="n">
+        <f aca="true">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E77 * F77)</f>
+        <v>0</v>
+      </c>
+      <c r="K77" s="0" t="n">
+        <f aca="true">IF(I77="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J77)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L77" s="0" t="n">
+        <f aca="false">IF(I77="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M77" s="0" t="n">
+        <f aca="true">IF(K77 = 0, INDIRECT("M" &amp; ROW() - 1), K77)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="25" t="str">
+        <f aca="false">IF(D78="","",VLOOKUP(D78,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C78" s="25" t="str">
+        <f aca="false">IF(D78="","",VLOOKUP(D78, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G78" s="31" t="str">
+        <f aca="true">IF(H78="", IF(I78="","",(INDIRECT("M" &amp; ROW() - 1) - M78)),IF(I78="", "", INDIRECT("M" &amp; ROW() - 1) - M78))</f>
+        <v/>
+      </c>
+      <c r="H78" s="31" t="str">
+        <f aca="false">IF(D78="", "", IF(I78="-", "", E78 * IF(F78="",1,F78)))</f>
+        <v/>
+      </c>
+      <c r="J78" s="9" t="n">
+        <f aca="true">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E78 * F78)</f>
+        <v>0</v>
+      </c>
+      <c r="K78" s="0" t="n">
+        <f aca="true">IF(I78="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J78))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J78)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L78" s="0" t="n">
+        <f aca="false">IF(I78="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M78" s="0" t="n">
+        <f aca="true">IF(K78 = 0, INDIRECT("M" &amp; ROW() - 1), K78)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="25" t="str">
+        <f aca="false">IF(D79="","",VLOOKUP(D79,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C79" s="25" t="str">
+        <f aca="false">IF(D79="","",VLOOKUP(D79, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G79" s="31" t="str">
+        <f aca="true">IF(H79="", IF(I79="","",(INDIRECT("M" &amp; ROW() - 1) - M79)),IF(I79="", "", INDIRECT("M" &amp; ROW() - 1) - M79))</f>
+        <v/>
+      </c>
+      <c r="H79" s="31" t="str">
+        <f aca="false">IF(D79="", "", IF(I79="-", "", E79 * IF(F79="",1,F79)))</f>
+        <v/>
+      </c>
+      <c r="J79" s="9" t="n">
+        <f aca="true">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E79 * F79)</f>
+        <v>0</v>
+      </c>
+      <c r="K79" s="0" t="n">
+        <f aca="true">IF(I79="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J79))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J79)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L79" s="0" t="n">
+        <f aca="false">IF(I79="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M79" s="0" t="n">
+        <f aca="true">IF(K79 = 0, INDIRECT("M" &amp; ROW() - 1), K79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="25" t="str">
+        <f aca="false">IF(D80="","",VLOOKUP(D80,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C80" s="25" t="str">
+        <f aca="false">IF(D80="","",VLOOKUP(D80, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G80" s="31" t="str">
+        <f aca="true">IF(H80="", IF(I80="","",(INDIRECT("M" &amp; ROW() - 1) - M80)),IF(I80="", "", INDIRECT("M" &amp; ROW() - 1) - M80))</f>
+        <v/>
+      </c>
+      <c r="H80" s="31" t="str">
+        <f aca="false">IF(D80="", "", IF(I80="-", "", E80 * IF(F80="",1,F80)))</f>
+        <v/>
+      </c>
+      <c r="J80" s="9" t="n">
+        <f aca="true">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E80 * F80)</f>
+        <v>0</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <f aca="true">IF(I80="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J80))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J80)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <f aca="false">IF(I80="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <f aca="true">IF(K80 = 0, INDIRECT("M" &amp; ROW() - 1), K80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="25" t="str">
+        <f aca="false">IF(D81="","",VLOOKUP(D81,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C81" s="25" t="str">
+        <f aca="false">IF(D81="","",VLOOKUP(D81, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G81" s="31" t="str">
+        <f aca="true">IF(H81="", IF(I81="","",(INDIRECT("M" &amp; ROW() - 1) - M81)),IF(I81="", "", INDIRECT("M" &amp; ROW() - 1) - M81))</f>
+        <v/>
+      </c>
+      <c r="H81" s="31" t="str">
+        <f aca="false">IF(D81="", "", IF(I81="-", "", E81 * IF(F81="",1,F81)))</f>
+        <v/>
+      </c>
+      <c r="J81" s="9" t="n">
+        <f aca="true">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E81 * F81)</f>
+        <v>0</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <f aca="true">IF(I81="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J81))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J81)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <f aca="false">IF(I81="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <f aca="true">IF(K81 = 0, INDIRECT("M" &amp; ROW() - 1), K81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="25" t="str">
+        <f aca="false">IF(D82="","",VLOOKUP(D82,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C82" s="25" t="str">
+        <f aca="false">IF(D82="","",VLOOKUP(D82, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G82" s="31" t="str">
+        <f aca="true">IF(H82="", IF(I82="","",(INDIRECT("M" &amp; ROW() - 1) - M82)),IF(I82="", "", INDIRECT("M" &amp; ROW() - 1) - M82))</f>
+        <v/>
+      </c>
+      <c r="H82" s="31" t="str">
+        <f aca="false">IF(D82="", "", IF(I82="-", "", E82 * IF(F82="",1,F82)))</f>
+        <v/>
+      </c>
+      <c r="J82" s="9" t="n">
+        <f aca="true">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E82 * F82)</f>
+        <v>0</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <f aca="true">IF(I82="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J82))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J82)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <f aca="false">IF(I82="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <f aca="true">IF(K82 = 0, INDIRECT("M" &amp; ROW() - 1), K82)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="25" t="str">
+        <f aca="false">IF(D83="","",VLOOKUP(D83,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C83" s="25" t="str">
+        <f aca="false">IF(D83="","",VLOOKUP(D83, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G83" s="31" t="str">
+        <f aca="true">IF(H83="", IF(I83="","",(INDIRECT("M" &amp; ROW() - 1) - M83)),IF(I83="", "", INDIRECT("M" &amp; ROW() - 1) - M83))</f>
+        <v/>
+      </c>
+      <c r="H83" s="31" t="str">
+        <f aca="false">IF(D83="", "", IF(I83="-", "", E83 * IF(F83="",1,F83)))</f>
+        <v/>
+      </c>
+      <c r="J83" s="9" t="n">
+        <f aca="true">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E83 * F83)</f>
+        <v>0</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <f aca="true">IF(I83="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J83))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J83)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <f aca="false">IF(I83="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <f aca="true">IF(K83 = 0, INDIRECT("M" &amp; ROW() - 1), K83)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="25" t="str">
+        <f aca="false">IF(D84="","",VLOOKUP(D84,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C84" s="25" t="str">
+        <f aca="false">IF(D84="","",VLOOKUP(D84, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G84" s="31" t="str">
+        <f aca="true">IF(H84="", IF(I84="","",(INDIRECT("M" &amp; ROW() - 1) - M84)),IF(I84="", "", INDIRECT("M" &amp; ROW() - 1) - M84))</f>
+        <v/>
+      </c>
+      <c r="H84" s="31" t="str">
+        <f aca="false">IF(D84="", "", IF(I84="-", "", E84 * IF(F84="",1,F84)))</f>
+        <v/>
+      </c>
+      <c r="J84" s="9" t="n">
+        <f aca="true">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E84 * F84)</f>
+        <v>0</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <f aca="true">IF(I84="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J84))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J84)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <f aca="false">IF(I84="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <f aca="true">IF(K84 = 0, INDIRECT("M" &amp; ROW() - 1), K84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="25" t="str">
+        <f aca="false">IF(D85="","",VLOOKUP(D85,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C85" s="25" t="str">
+        <f aca="false">IF(D85="","",VLOOKUP(D85, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G85" s="31" t="str">
+        <f aca="true">IF(H85="", IF(I85="","",(INDIRECT("M" &amp; ROW() - 1) - M85)),IF(I85="", "", INDIRECT("M" &amp; ROW() - 1) - M85))</f>
+        <v/>
+      </c>
+      <c r="H85" s="31" t="str">
+        <f aca="false">IF(D85="", "", IF(I85="-", "", E85 * IF(F85="",1,F85)))</f>
+        <v/>
+      </c>
+      <c r="J85" s="9" t="n">
+        <f aca="true">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E85 * F85)</f>
+        <v>0</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <f aca="true">IF(I85="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J85))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J85)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <f aca="false">IF(I85="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <f aca="true">IF(K85 = 0, INDIRECT("M" &amp; ROW() - 1), K85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="25" t="str">
+        <f aca="false">IF(D86="","",VLOOKUP(D86,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C86" s="25" t="str">
+        <f aca="false">IF(D86="","",VLOOKUP(D86, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G86" s="31" t="str">
+        <f aca="true">IF(H86="", IF(I86="","",(INDIRECT("M" &amp; ROW() - 1) - M86)),IF(I86="", "", INDIRECT("M" &amp; ROW() - 1) - M86))</f>
+        <v/>
+      </c>
+      <c r="H86" s="31" t="str">
+        <f aca="false">IF(D86="", "", IF(I86="-", "", E86 * IF(F86="",1,F86)))</f>
+        <v/>
+      </c>
+      <c r="J86" s="9" t="n">
+        <f aca="true">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E86 * F86)</f>
+        <v>0</v>
+      </c>
+      <c r="K86" s="0" t="n">
+        <f aca="true">IF(I86="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J86))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J86)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L86" s="0" t="n">
+        <f aca="false">IF(I86="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M86" s="0" t="n">
+        <f aca="true">IF(K86 = 0, INDIRECT("M" &amp; ROW() - 1), K86)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="25" t="str">
+        <f aca="false">IF(D87="","",VLOOKUP(D87,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C87" s="25" t="str">
+        <f aca="false">IF(D87="","",VLOOKUP(D87, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G87" s="31" t="str">
+        <f aca="true">IF(H87="", IF(I87="","",(INDIRECT("M" &amp; ROW() - 1) - M87)),IF(I87="", "", INDIRECT("M" &amp; ROW() - 1) - M87))</f>
+        <v/>
+      </c>
+      <c r="H87" s="31" t="str">
+        <f aca="false">IF(D87="", "", IF(I87="-", "", E87 * IF(F87="",1,F87)))</f>
+        <v/>
+      </c>
+      <c r="J87" s="9" t="n">
+        <f aca="true">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E87 * F87)</f>
+        <v>0</v>
+      </c>
+      <c r="K87" s="0" t="n">
+        <f aca="true">IF(I87="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J87))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J87)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L87" s="0" t="n">
+        <f aca="false">IF(I87="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="0" t="n">
+        <f aca="true">IF(K87 = 0, INDIRECT("M" &amp; ROW() - 1), K87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="25" t="str">
+        <f aca="false">IF(D88="","",VLOOKUP(D88,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C88" s="25" t="str">
+        <f aca="false">IF(D88="","",VLOOKUP(D88, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G88" s="31" t="str">
+        <f aca="true">IF(H88="", IF(I88="","",(INDIRECT("M" &amp; ROW() - 1) - M88)),IF(I88="", "", INDIRECT("M" &amp; ROW() - 1) - M88))</f>
+        <v/>
+      </c>
+      <c r="H88" s="31" t="str">
+        <f aca="false">IF(D88="", "", IF(I88="-", "", E88 * IF(F88="",1,F88)))</f>
+        <v/>
+      </c>
+      <c r="J88" s="9" t="n">
+        <f aca="true">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E88 * F88)</f>
+        <v>0</v>
+      </c>
+      <c r="K88" s="0" t="n">
+        <f aca="true">IF(I88="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J88))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J88)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L88" s="0" t="n">
+        <f aca="false">IF(I88="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M88" s="0" t="n">
+        <f aca="true">IF(K88 = 0, INDIRECT("M" &amp; ROW() - 1), K88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="25" t="str">
+        <f aca="false">IF(D89="","",VLOOKUP(D89,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C89" s="25" t="str">
+        <f aca="false">IF(D89="","",VLOOKUP(D89, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G89" s="31" t="str">
+        <f aca="true">IF(H89="", IF(I89="","",(INDIRECT("M" &amp; ROW() - 1) - M89)),IF(I89="", "", INDIRECT("M" &amp; ROW() - 1) - M89))</f>
+        <v/>
+      </c>
+      <c r="H89" s="31" t="str">
+        <f aca="false">IF(D89="", "", IF(I89="-", "", E89 * IF(F89="",1,F89)))</f>
+        <v/>
+      </c>
+      <c r="J89" s="9" t="n">
+        <f aca="true">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E89 * F89)</f>
+        <v>0</v>
+      </c>
+      <c r="K89" s="0" t="n">
+        <f aca="true">IF(I89="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J89))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J89)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L89" s="0" t="n">
+        <f aca="false">IF(I89="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M89" s="0" t="n">
+        <f aca="true">IF(K89 = 0, INDIRECT("M" &amp; ROW() - 1), K89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="25" t="str">
+        <f aca="false">IF(D90="","",VLOOKUP(D90,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C90" s="25" t="str">
+        <f aca="false">IF(D90="","",VLOOKUP(D90, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G90" s="31" t="str">
+        <f aca="true">IF(H90="", IF(I90="","",(INDIRECT("M" &amp; ROW() - 1) - M90)),IF(I90="", "", INDIRECT("M" &amp; ROW() - 1) - M90))</f>
+        <v/>
+      </c>
+      <c r="H90" s="31" t="str">
+        <f aca="false">IF(D90="", "", IF(I90="-", "", E90 * IF(F90="",1,F90)))</f>
+        <v/>
+      </c>
+      <c r="J90" s="9" t="n">
+        <f aca="true">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E90 * F90)</f>
+        <v>0</v>
+      </c>
+      <c r="K90" s="0" t="n">
+        <f aca="true">IF(I90="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J90))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J90)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L90" s="0" t="n">
+        <f aca="false">IF(I90="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M90" s="0" t="n">
+        <f aca="true">IF(K90 = 0, INDIRECT("M" &amp; ROW() - 1), K90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="25" t="str">
+        <f aca="false">IF(D91="","",VLOOKUP(D91,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C91" s="25" t="str">
+        <f aca="false">IF(D91="","",VLOOKUP(D91, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G91" s="31" t="str">
+        <f aca="true">IF(H91="", IF(I91="","",(INDIRECT("M" &amp; ROW() - 1) - M91)),IF(I91="", "", INDIRECT("M" &amp; ROW() - 1) - M91))</f>
+        <v/>
+      </c>
+      <c r="H91" s="31" t="str">
+        <f aca="false">IF(D91="", "", IF(I91="-", "", E91 * IF(F91="",1,F91)))</f>
+        <v/>
+      </c>
+      <c r="J91" s="9" t="n">
+        <f aca="true">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E91 * F91)</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="0" t="n">
+        <f aca="true">IF(I91="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J91))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J91)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L91" s="0" t="n">
+        <f aca="false">IF(I91="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M91" s="0" t="n">
+        <f aca="true">IF(K91 = 0, INDIRECT("M" &amp; ROW() - 1), K91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="25" t="str">
+        <f aca="false">IF(D92="","",VLOOKUP(D92,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C92" s="25" t="str">
+        <f aca="false">IF(D92="","",VLOOKUP(D92, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G92" s="31" t="str">
+        <f aca="true">IF(H92="", IF(I92="","",(INDIRECT("M" &amp; ROW() - 1) - M92)),IF(I92="", "", INDIRECT("M" &amp; ROW() - 1) - M92))</f>
+        <v/>
+      </c>
+      <c r="H92" s="31" t="str">
+        <f aca="false">IF(D92="", "", IF(I92="-", "", E92 * IF(F92="",1,F92)))</f>
+        <v/>
+      </c>
+      <c r="J92" s="9" t="n">
+        <f aca="true">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E92 * F92)</f>
+        <v>0</v>
+      </c>
+      <c r="K92" s="0" t="n">
+        <f aca="true">IF(I92="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J92))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J92)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L92" s="0" t="n">
+        <f aca="false">IF(I92="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M92" s="0" t="n">
+        <f aca="true">IF(K92 = 0, INDIRECT("M" &amp; ROW() - 1), K92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="25" t="str">
+        <f aca="false">IF(D93="","",VLOOKUP(D93,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C93" s="25" t="str">
+        <f aca="false">IF(D93="","",VLOOKUP(D93, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G93" s="31" t="str">
+        <f aca="true">IF(H93="", IF(I93="","",(INDIRECT("M" &amp; ROW() - 1) - M93)),IF(I93="", "", INDIRECT("M" &amp; ROW() - 1) - M93))</f>
+        <v/>
+      </c>
+      <c r="H93" s="31" t="str">
+        <f aca="false">IF(D93="", "", IF(I93="-", "", E93 * IF(F93="",1,F93)))</f>
+        <v/>
+      </c>
+      <c r="J93" s="9" t="n">
+        <f aca="true">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E93 * F93)</f>
+        <v>0</v>
+      </c>
+      <c r="K93" s="0" t="n">
+        <f aca="true">IF(I93="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J93))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J93)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L93" s="0" t="n">
+        <f aca="false">IF(I93="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M93" s="0" t="n">
+        <f aca="true">IF(K93 = 0, INDIRECT("M" &amp; ROW() - 1), K93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="25" t="str">
+        <f aca="false">IF(D94="","",VLOOKUP(D94,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C94" s="25" t="str">
+        <f aca="false">IF(D94="","",VLOOKUP(D94, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G94" s="31" t="str">
+        <f aca="true">IF(H94="", IF(I94="","",(INDIRECT("M" &amp; ROW() - 1) - M94)),IF(I94="", "", INDIRECT("M" &amp; ROW() - 1) - M94))</f>
+        <v/>
+      </c>
+      <c r="H94" s="31" t="str">
+        <f aca="false">IF(D94="", "", IF(I94="-", "", E94 * IF(F94="",1,F94)))</f>
+        <v/>
+      </c>
+      <c r="J94" s="9" t="n">
+        <f aca="true">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E94 * F94)</f>
+        <v>0</v>
+      </c>
+      <c r="K94" s="0" t="n">
+        <f aca="true">IF(I94="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J94))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J94)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L94" s="0" t="n">
+        <f aca="false">IF(I94="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M94" s="0" t="n">
+        <f aca="true">IF(K94 = 0, INDIRECT("M" &amp; ROW() - 1), K94)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="25" t="str">
+        <f aca="false">IF(D95="","",VLOOKUP(D95,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C95" s="25" t="str">
+        <f aca="false">IF(D95="","",VLOOKUP(D95, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G95" s="31" t="str">
+        <f aca="true">IF(H95="", IF(I95="","",(INDIRECT("M" &amp; ROW() - 1) - M95)),IF(I95="", "", INDIRECT("M" &amp; ROW() - 1) - M95))</f>
+        <v/>
+      </c>
+      <c r="H95" s="31" t="str">
+        <f aca="false">IF(D95="", "", IF(I95="-", "", E95 * IF(F95="",1,F95)))</f>
+        <v/>
+      </c>
+      <c r="J95" s="9" t="n">
+        <f aca="true">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E95 * F95)</f>
+        <v>0</v>
+      </c>
+      <c r="K95" s="0" t="n">
+        <f aca="true">IF(I95="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J95))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J95)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L95" s="0" t="n">
+        <f aca="false">IF(I95="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M95" s="0" t="n">
+        <f aca="true">IF(K95 = 0, INDIRECT("M" &amp; ROW() - 1), K95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="25" t="str">
+        <f aca="false">IF(D96="","",VLOOKUP(D96,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C96" s="25" t="str">
+        <f aca="false">IF(D96="","",VLOOKUP(D96, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G96" s="31" t="str">
+        <f aca="true">IF(H96="", IF(I96="","",(INDIRECT("M" &amp; ROW() - 1) - M96)),IF(I96="", "", INDIRECT("M" &amp; ROW() - 1) - M96))</f>
+        <v/>
+      </c>
+      <c r="H96" s="31" t="str">
+        <f aca="false">IF(D96="", "", IF(I96="-", "", E96 * IF(F96="",1,F96)))</f>
+        <v/>
+      </c>
+      <c r="J96" s="9" t="n">
+        <f aca="true">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E96 * F96)</f>
+        <v>0</v>
+      </c>
+      <c r="K96" s="0" t="n">
+        <f aca="true">IF(I96="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J96))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J96)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L96" s="0" t="n">
+        <f aca="false">IF(I96="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M96" s="0" t="n">
+        <f aca="true">IF(K96 = 0, INDIRECT("M" &amp; ROW() - 1), K96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="25" t="str">
+        <f aca="false">IF(D97="","",VLOOKUP(D97,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C97" s="25" t="str">
+        <f aca="false">IF(D97="","",VLOOKUP(D97, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G97" s="31" t="str">
+        <f aca="true">IF(H97="", IF(I97="","",(INDIRECT("M" &amp; ROW() - 1) - M97)),IF(I97="", "", INDIRECT("M" &amp; ROW() - 1) - M97))</f>
+        <v/>
+      </c>
+      <c r="H97" s="31" t="str">
+        <f aca="false">IF(D97="", "", IF(I97="-", "", E97 * IF(F97="",1,F97)))</f>
+        <v/>
+      </c>
+      <c r="J97" s="9" t="n">
+        <f aca="true">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E97 * F97)</f>
+        <v>0</v>
+      </c>
+      <c r="K97" s="0" t="n">
+        <f aca="true">IF(I97="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J97))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J97)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L97" s="0" t="n">
+        <f aca="false">IF(I97="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M97" s="0" t="n">
+        <f aca="true">IF(K97 = 0, INDIRECT("M" &amp; ROW() - 1), K97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="25" t="str">
+        <f aca="false">IF(D98="","",VLOOKUP(D98,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C98" s="25" t="str">
+        <f aca="false">IF(D98="","",VLOOKUP(D98, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G98" s="31" t="str">
+        <f aca="true">IF(H98="", IF(I98="","",(INDIRECT("M" &amp; ROW() - 1) - M98)),IF(I98="", "", INDIRECT("M" &amp; ROW() - 1) - M98))</f>
+        <v/>
+      </c>
+      <c r="H98" s="31" t="str">
+        <f aca="false">IF(D98="", "", IF(I98="-", "", E98 * IF(F98="",1,F98)))</f>
+        <v/>
+      </c>
+      <c r="J98" s="9" t="n">
+        <f aca="true">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E98 * F98)</f>
+        <v>0</v>
+      </c>
+      <c r="K98" s="0" t="n">
+        <f aca="true">IF(I98="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J98))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J98)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L98" s="0" t="n">
+        <f aca="false">IF(I98="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M98" s="0" t="n">
+        <f aca="true">IF(K98 = 0, INDIRECT("M" &amp; ROW() - 1), K98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="25" t="str">
+        <f aca="false">IF(D99="","",VLOOKUP(D99,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C99" s="25" t="str">
+        <f aca="false">IF(D99="","",VLOOKUP(D99, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G99" s="31" t="str">
+        <f aca="true">IF(H99="", IF(I99="","",(INDIRECT("M" &amp; ROW() - 1) - M99)),IF(I99="", "", INDIRECT("M" &amp; ROW() - 1) - M99))</f>
+        <v/>
+      </c>
+      <c r="H99" s="31" t="str">
+        <f aca="false">IF(D99="", "", IF(I99="-", "", E99 * IF(F99="",1,F99)))</f>
+        <v/>
+      </c>
+      <c r="J99" s="9" t="n">
+        <f aca="true">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E99 * F99)</f>
+        <v>0</v>
+      </c>
+      <c r="K99" s="0" t="n">
+        <f aca="true">IF(I99="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J99))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J99)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L99" s="0" t="n">
+        <f aca="false">IF(I99="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M99" s="0" t="n">
+        <f aca="true">IF(K99 = 0, INDIRECT("M" &amp; ROW() - 1), K99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="25" t="str">
+        <f aca="false">IF(D100="","",VLOOKUP(D100,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C100" s="25" t="str">
+        <f aca="false">IF(D100="","",VLOOKUP(D100, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G100" s="31" t="str">
+        <f aca="true">IF(H100="", IF(I100="","",(INDIRECT("M" &amp; ROW() - 1) - M100)),IF(I100="", "", INDIRECT("M" &amp; ROW() - 1) - M100))</f>
+        <v/>
+      </c>
+      <c r="H100" s="31" t="str">
+        <f aca="false">IF(D100="", "", IF(I100="-", "", E100 * IF(F100="",1,F100)))</f>
+        <v/>
+      </c>
+      <c r="J100" s="9" t="n">
+        <f aca="true">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E100 * F100)</f>
+        <v>0</v>
+      </c>
+      <c r="K100" s="0" t="n">
+        <f aca="true">IF(I100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J100)))),0)</f>
+        <v>0</v>
+      </c>
+      <c r="L100" s="0" t="n">
+        <f aca="false">IF(I100="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M100" s="0" t="n">
+        <f aca="true">IF(K100 = 0, INDIRECT("M" &amp; ROW() - 1), K100)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="25" t="str">
+        <f aca="false">IF(D101="","",VLOOKUP(D101,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C101" s="25" t="str">
+        <f aca="false">IF(D101="","",VLOOKUP(D101, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G101" s="31" t="str">
+        <f aca="true">IF(H101="", IF(I101="","",(INDIRECT("M" &amp; ROW() - 1) - M101)),IF(I101="", "", INDIRECT("M" &amp; ROW() - 1) - M101))</f>
+        <v/>
+      </c>
+      <c r="H101" s="31" t="str">
+        <f aca="false">IF(D101="", "", IF(I101="-", "", E101 * IF(F101="",1,F101)))</f>
+        <v/>
+      </c>
+      <c r="J101" s="9" t="n">
+        <f aca="true">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E101 * F101)</f>
+        <v>0</v>
+      </c>
+      <c r="K101" s="0" t="n">
+        <f aca="true">IF(I101 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J101)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L101" s="0" t="n">
+        <f aca="false">IF(I101="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M101" s="0" t="n">
+        <f aca="true">IF(K101 = 0, INDIRECT("M" &amp; ROW() - 1), K101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="25" t="str">
+        <f aca="false">IF(D102="","",VLOOKUP(D102,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C102" s="25" t="str">
+        <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G102" s="31" t="str">
+        <f aca="true">IF(H102="", IF(I102="","",(INDIRECT("M" &amp; ROW() - 1) - M102)),IF(I102="", "", INDIRECT("M" &amp; ROW() - 1) - M102))</f>
+        <v/>
+      </c>
+      <c r="H102" s="31" t="str">
+        <f aca="false">IF(D102="", "", IF(I102="-", "", E102 * IF(F102="",1,F102)))</f>
+        <v/>
+      </c>
+      <c r="J102" s="9" t="n">
+        <f aca="true">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E102 * F102)</f>
+        <v>0</v>
+      </c>
+      <c r="K102" s="0" t="n">
+        <f aca="true">IF(I102 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J102)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L102" s="0" t="n">
+        <f aca="false">IF(I102="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M102" s="0" t="n">
+        <f aca="true">IF(K102 = 0, INDIRECT("M" &amp; ROW() - 1), K102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="25" t="str">
+        <f aca="false">IF(D103="","",VLOOKUP(D103,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C103" s="25" t="str">
+        <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G103" s="31" t="str">
+        <f aca="true">IF(H103="", IF(I103="","",(INDIRECT("M" &amp; ROW() - 1) - M103)),IF(I103="", "", INDIRECT("M" &amp; ROW() - 1) - M103))</f>
+        <v/>
+      </c>
+      <c r="H103" s="31" t="str">
+        <f aca="false">IF(D103="", "", IF(I103="-", "", E103 * IF(F103="",1,F103)))</f>
+        <v/>
+      </c>
+      <c r="J103" s="9" t="n">
+        <f aca="true">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E103 * F103)</f>
+        <v>0</v>
+      </c>
+      <c r="K103" s="0" t="n">
+        <f aca="true">IF(I103 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J103)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J103)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L103" s="0" t="n">
+        <f aca="false">IF(I103="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M103" s="0" t="n">
+        <f aca="true">IF(K103 = 0, INDIRECT("M" &amp; ROW() - 1), K103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="25" t="str">
+        <f aca="false">IF(D104="","",VLOOKUP(D104,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C104" s="25" t="str">
+        <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G104" s="31" t="str">
+        <f aca="true">IF(H104="", IF(I104="","",(INDIRECT("M" &amp; ROW() - 1) - M104)),IF(I104="", "", INDIRECT("M" &amp; ROW() - 1) - M104))</f>
+        <v/>
+      </c>
+      <c r="H104" s="31" t="str">
+        <f aca="false">IF(D104="", "", IF(I104="-", "", E104 * IF(F104="",1,F104)))</f>
+        <v/>
+      </c>
+      <c r="J104" s="9" t="n">
+        <f aca="true">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E104 * F104)</f>
+        <v>0</v>
+      </c>
+      <c r="K104" s="0" t="n">
+        <f aca="true">IF(I104 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J104)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J104)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L104" s="0" t="n">
+        <f aca="false">IF(I104="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M104" s="0" t="n">
+        <f aca="true">IF(K104 = 0, INDIRECT("M" &amp; ROW() - 1), K104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="25" t="str">
+        <f aca="false">IF(D105="","",VLOOKUP(D105,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C105" s="25" t="str">
+        <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G105" s="31" t="str">
+        <f aca="true">IF(H105="", IF(I105="","",(INDIRECT("M" &amp; ROW() - 1) - M105)),IF(I105="", "", INDIRECT("M" &amp; ROW() - 1) - M105))</f>
+        <v/>
+      </c>
+      <c r="H105" s="31" t="str">
+        <f aca="false">IF(D105="", "", IF(I105="-", "", E105 * IF(F105="",1,F105)))</f>
+        <v/>
+      </c>
+      <c r="J105" s="9" t="n">
+        <f aca="true">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E105 * F105)</f>
+        <v>0</v>
+      </c>
+      <c r="K105" s="0" t="n">
+        <f aca="true">IF(I105 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J105)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J105)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L105" s="0" t="n">
+        <f aca="false">IF(I105="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M105" s="0" t="n">
+        <f aca="true">IF(K105 = 0, INDIRECT("M" &amp; ROW() - 1), K105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="25" t="str">
+        <f aca="false">IF(D106="","",VLOOKUP(D106,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C106" s="25" t="str">
+        <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G106" s="31" t="str">
+        <f aca="true">IF(H106="", IF(I106="","",(INDIRECT("M" &amp; ROW() - 1) - M106)),IF(I106="", "", INDIRECT("M" &amp; ROW() - 1) - M106))</f>
+        <v/>
+      </c>
+      <c r="H106" s="31" t="str">
+        <f aca="false">IF(D106="", "", IF(I106="-", "", E106 * IF(F106="",1,F106)))</f>
+        <v/>
+      </c>
+      <c r="J106" s="9" t="n">
+        <f aca="true">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E106 * F106)</f>
+        <v>0</v>
+      </c>
+      <c r="K106" s="0" t="n">
+        <f aca="true">IF(I106 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J106)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J106)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L106" s="0" t="n">
+        <f aca="false">IF(I106="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M106" s="0" t="n">
+        <f aca="true">IF(K106 = 0, INDIRECT("M" &amp; ROW() - 1), K106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="25" t="str">
+        <f aca="false">IF(D107="","",VLOOKUP(D107,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C107" s="25" t="str">
+        <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G107" s="31" t="str">
+        <f aca="true">IF(H107="", IF(I107="","",(INDIRECT("M" &amp; ROW() - 1) - M107)),IF(I107="", "", INDIRECT("M" &amp; ROW() - 1) - M107))</f>
+        <v/>
+      </c>
+      <c r="H107" s="31" t="str">
+        <f aca="false">IF(D107="", "", IF(I107="-", "", E107 * IF(F107="",1,F107)))</f>
+        <v/>
+      </c>
+      <c r="J107" s="9" t="n">
+        <f aca="true">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E107 * F107)</f>
+        <v>0</v>
+      </c>
+      <c r="K107" s="0" t="n">
+        <f aca="true">IF(I107 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J107)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L107" s="0" t="n">
+        <f aca="false">IF(I107="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M107" s="0" t="n">
+        <f aca="true">IF(K107 = 0, INDIRECT("M" &amp; ROW() - 1), K107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="25" t="str">
+        <f aca="false">IF(D108="","",VLOOKUP(D108,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C108" s="25" t="str">
+        <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G108" s="31" t="str">
+        <f aca="true">IF(H108="", IF(I108="","",(INDIRECT("M" &amp; ROW() - 1) - M108)),IF(I108="", "", INDIRECT("M" &amp; ROW() - 1) - M108))</f>
+        <v/>
+      </c>
+      <c r="H108" s="31" t="str">
+        <f aca="false">IF(D108="", "", IF(I108="-", "", E108 * IF(F108="",1,F108)))</f>
+        <v/>
+      </c>
+      <c r="J108" s="9" t="n">
+        <f aca="true">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E108 * F108)</f>
+        <v>0</v>
+      </c>
+      <c r="K108" s="0" t="n">
+        <f aca="true">IF(I108 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J108)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J108)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L108" s="0" t="n">
+        <f aca="false">IF(I108="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M108" s="0" t="n">
+        <f aca="true">IF(K108 = 0, INDIRECT("M" &amp; ROW() - 1), K108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="25" t="str">
+        <f aca="false">IF(D109="","",VLOOKUP(D109,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C109" s="25" t="str">
+        <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G109" s="31" t="str">
+        <f aca="true">IF(H109="", IF(I109="","",(INDIRECT("M" &amp; ROW() - 1) - M109)),IF(I109="", "", INDIRECT("M" &amp; ROW() - 1) - M109))</f>
+        <v/>
+      </c>
+      <c r="H109" s="31" t="str">
+        <f aca="false">IF(D109="", "", IF(I109="-", "", E109 * IF(F109="",1,F109)))</f>
+        <v/>
+      </c>
+      <c r="J109" s="9" t="n">
+        <f aca="true">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E109 * F109)</f>
+        <v>0</v>
+      </c>
+      <c r="K109" s="0" t="n">
+        <f aca="true">IF(I109 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J109)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J109)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L109" s="0" t="n">
+        <f aca="false">IF(I109="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M109" s="0" t="n">
+        <f aca="true">IF(K109 = 0, INDIRECT("M" &amp; ROW() - 1), K109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="25" t="str">
+        <f aca="false">IF(D110="","",VLOOKUP(D110,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C110" s="25" t="str">
+        <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G110" s="31" t="str">
+        <f aca="true">IF(H110="", IF(I110="","",(INDIRECT("M" &amp; ROW() - 1) - M110)),IF(I110="", "", INDIRECT("M" &amp; ROW() - 1) - M110))</f>
+        <v/>
+      </c>
+      <c r="H110" s="31" t="str">
+        <f aca="false">IF(D110="", "", IF(I110="-", "", E110 * IF(F110="",1,F110)))</f>
+        <v/>
+      </c>
+      <c r="J110" s="9" t="n">
+        <f aca="true">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E110 * F110)</f>
+        <v>0</v>
+      </c>
+      <c r="K110" s="0" t="n">
+        <f aca="true">IF(I110 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J110)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J110)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L110" s="0" t="n">
+        <f aca="false">IF(I110="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M110" s="0" t="n">
+        <f aca="true">IF(K110 = 0, INDIRECT("M" &amp; ROW() - 1), K110)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="25" t="str">
+        <f aca="false">IF(D111="","",VLOOKUP(D111,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C111" s="25" t="str">
+        <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G111" s="31" t="str">
+        <f aca="true">IF(H111="", IF(I111="","",(INDIRECT("M" &amp; ROW() - 1) - M111)),IF(I111="", "", INDIRECT("M" &amp; ROW() - 1) - M111))</f>
+        <v/>
+      </c>
+      <c r="H111" s="31" t="str">
+        <f aca="false">IF(D111="", "", IF(I111="-", "", E111 * IF(F111="",1,F111)))</f>
+        <v/>
+      </c>
+      <c r="J111" s="9" t="n">
+        <f aca="true">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E111 * F111)</f>
+        <v>0</v>
+      </c>
+      <c r="K111" s="0" t="n">
+        <f aca="true">IF(I111 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J111)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J111)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L111" s="0" t="n">
+        <f aca="false">IF(I111="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M111" s="0" t="n">
+        <f aca="true">IF(K111 = 0, INDIRECT("M" &amp; ROW() - 1), K111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="25" t="str">
+        <f aca="false">IF(D112="","",VLOOKUP(D112,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C112" s="25" t="str">
+        <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G112" s="31" t="str">
+        <f aca="true">IF(H112="", IF(I112="","",(INDIRECT("M" &amp; ROW() - 1) - M112)),IF(I112="", "", INDIRECT("M" &amp; ROW() - 1) - M112))</f>
+        <v/>
+      </c>
+      <c r="H112" s="31" t="str">
+        <f aca="false">IF(D112="", "", IF(I112="-", "", E112 * IF(F112="",1,F112)))</f>
+        <v/>
+      </c>
+      <c r="J112" s="9" t="n">
+        <f aca="true">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E112 * F112)</f>
+        <v>0</v>
+      </c>
+      <c r="K112" s="0" t="n">
+        <f aca="true">IF(I112 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J112)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J112)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L112" s="0" t="n">
+        <f aca="false">IF(I112="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M112" s="0" t="n">
+        <f aca="true">IF(K112 = 0, INDIRECT("M" &amp; ROW() - 1), K112)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="25" t="str">
+        <f aca="false">IF(D113="","",VLOOKUP(D113,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C113" s="25" t="str">
+        <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G113" s="31" t="str">
+        <f aca="true">IF(H113="", IF(I113="","",(INDIRECT("M" &amp; ROW() - 1) - M113)),IF(I113="", "", INDIRECT("M" &amp; ROW() - 1) - M113))</f>
+        <v/>
+      </c>
+      <c r="H113" s="31" t="str">
+        <f aca="false">IF(D113="", "", IF(I113="-", "", E113 * IF(F113="",1,F113)))</f>
+        <v/>
+      </c>
+      <c r="J113" s="9" t="n">
+        <f aca="true">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E113 * F113)</f>
+        <v>0</v>
+      </c>
+      <c r="K113" s="0" t="n">
+        <f aca="true">IF(I113 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J113)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J113)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L113" s="0" t="n">
+        <f aca="false">IF(I113="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M113" s="0" t="n">
+        <f aca="true">IF(K113 = 0, INDIRECT("M" &amp; ROW() - 1), K113)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="25" t="str">
+        <f aca="false">IF(D114="","",VLOOKUP(D114,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C114" s="25" t="str">
+        <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G114" s="31" t="str">
+        <f aca="true">IF(H114="", IF(I114="","",(INDIRECT("M" &amp; ROW() - 1) - M114)),IF(I114="", "", INDIRECT("M" &amp; ROW() - 1) - M114))</f>
+        <v/>
+      </c>
+      <c r="H114" s="31" t="str">
+        <f aca="false">IF(D114="", "", IF(I114="-", "", E114 * IF(F114="",1,F114)))</f>
+        <v/>
+      </c>
+      <c r="J114" s="9" t="n">
+        <f aca="true">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E114 * F114)</f>
+        <v>0</v>
+      </c>
+      <c r="K114" s="0" t="n">
+        <f aca="true">IF(I114 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J114)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J114)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L114" s="0" t="n">
+        <f aca="false">IF(I114="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M114" s="0" t="n">
+        <f aca="true">IF(K114 = 0, INDIRECT("M" &amp; ROW() - 1), K114)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="25" t="str">
+        <f aca="false">IF(D115="","",VLOOKUP(D115,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C115" s="25" t="str">
+        <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G115" s="31" t="str">
+        <f aca="true">IF(H115="", IF(I115="","",(INDIRECT("M" &amp; ROW() - 1) - M115)),IF(I115="", "", INDIRECT("M" &amp; ROW() - 1) - M115))</f>
+        <v/>
+      </c>
+      <c r="H115" s="31" t="str">
+        <f aca="false">IF(D115="", "", IF(I115="-", "", E115 * IF(F115="",1,F115)))</f>
+        <v/>
+      </c>
+      <c r="J115" s="9" t="n">
+        <f aca="true">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E115 * F115)</f>
+        <v>0</v>
+      </c>
+      <c r="K115" s="0" t="n">
+        <f aca="true">IF(I115 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J115)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J115)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L115" s="0" t="n">
+        <f aca="false">IF(I115="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M115" s="0" t="n">
+        <f aca="true">IF(K115 = 0, INDIRECT("M" &amp; ROW() - 1), K115)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="25" t="str">
+        <f aca="false">IF(D116="","",VLOOKUP(D116,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C116" s="25" t="str">
+        <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G116" s="31" t="str">
+        <f aca="true">IF(H116="", IF(I116="","",(INDIRECT("M" &amp; ROW() - 1) - M116)),IF(I116="", "", INDIRECT("M" &amp; ROW() - 1) - M116))</f>
+        <v/>
+      </c>
+      <c r="H116" s="31" t="str">
+        <f aca="false">IF(D116="", "", IF(I116="-", "", E116 * IF(F116="",1,F116)))</f>
+        <v/>
+      </c>
+      <c r="J116" s="9" t="n">
+        <f aca="true">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E116 * F116)</f>
+        <v>0</v>
+      </c>
+      <c r="K116" s="0" t="n">
+        <f aca="true">IF(I116 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J116)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J116)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L116" s="0" t="n">
+        <f aca="false">IF(I116="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M116" s="0" t="n">
+        <f aca="true">IF(K116 = 0, INDIRECT("M" &amp; ROW() - 1), K116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="25" t="str">
+        <f aca="false">IF(D117="","",VLOOKUP(D117,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C117" s="25" t="str">
+        <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G117" s="31" t="str">
+        <f aca="true">IF(H117="", IF(I117="","",(INDIRECT("M" &amp; ROW() - 1) - M117)),IF(I117="", "", INDIRECT("M" &amp; ROW() - 1) - M117))</f>
+        <v/>
+      </c>
+      <c r="H117" s="31" t="str">
+        <f aca="false">IF(D117="", "", IF(I117="-", "", E117 * IF(F117="",1,F117)))</f>
+        <v/>
+      </c>
+      <c r="J117" s="9" t="n">
+        <f aca="true">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E117 * F117)</f>
+        <v>0</v>
+      </c>
+      <c r="K117" s="0" t="n">
+        <f aca="true">IF(I117 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J117)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J117)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L117" s="0" t="n">
+        <f aca="false">IF(I117="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M117" s="0" t="n">
+        <f aca="true">IF(K117 = 0, INDIRECT("M" &amp; ROW() - 1), K117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="25" t="str">
+        <f aca="false">IF(D118="","",VLOOKUP(D118,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C118" s="25" t="str">
+        <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G118" s="31" t="str">
+        <f aca="true">IF(H118="", IF(I118="","",(INDIRECT("M" &amp; ROW() - 1) - M118)),IF(I118="", "", INDIRECT("M" &amp; ROW() - 1) - M118))</f>
+        <v/>
+      </c>
+      <c r="H118" s="31" t="str">
+        <f aca="false">IF(D118="", "", IF(I118="-", "", E118 * IF(F118="",1,F118)))</f>
+        <v/>
+      </c>
+      <c r="J118" s="9" t="n">
+        <f aca="true">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E118 * F118)</f>
+        <v>0</v>
+      </c>
+      <c r="K118" s="0" t="n">
+        <f aca="true">IF(I118 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J118)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J118)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L118" s="0" t="n">
+        <f aca="false">IF(I118="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M118" s="0" t="n">
+        <f aca="true">IF(K118 = 0, INDIRECT("M" &amp; ROW() - 1), K118)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="25" t="str">
+        <f aca="false">IF(D119="","",VLOOKUP(D119,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C119" s="25" t="str">
+        <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G119" s="31" t="str">
+        <f aca="true">IF(H119="", IF(I119="","",(INDIRECT("M" &amp; ROW() - 1) - M119)),IF(I119="", "", INDIRECT("M" &amp; ROW() - 1) - M119))</f>
+        <v/>
+      </c>
+      <c r="H119" s="31" t="str">
+        <f aca="false">IF(D119="", "", IF(I119="-", "", E119 * IF(F119="",1,F119)))</f>
+        <v/>
+      </c>
+      <c r="J119" s="9" t="n">
+        <f aca="true">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E119 * F119)</f>
+        <v>0</v>
+      </c>
+      <c r="K119" s="0" t="n">
+        <f aca="true">IF(I119 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J119)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J119)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L119" s="0" t="n">
+        <f aca="false">IF(I119="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M119" s="0" t="n">
+        <f aca="true">IF(K119 = 0, INDIRECT("M" &amp; ROW() - 1), K119)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="25" t="str">
+        <f aca="false">IF(D120="","",VLOOKUP(D120,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C120" s="25" t="str">
+        <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G120" s="31" t="str">
+        <f aca="true">IF(H120="", IF(I120="","",(INDIRECT("M" &amp; ROW() - 1) - M120)),IF(I120="", "", INDIRECT("M" &amp; ROW() - 1) - M120))</f>
+        <v/>
+      </c>
+      <c r="H120" s="31" t="str">
+        <f aca="false">IF(D120="", "", IF(I120="-", "", E120 * IF(F120="",1,F120)))</f>
+        <v/>
+      </c>
+      <c r="J120" s="9" t="n">
+        <f aca="true">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E120 * F120)</f>
+        <v>0</v>
+      </c>
+      <c r="K120" s="0" t="n">
+        <f aca="true">IF(I120 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J120)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J120)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L120" s="0" t="n">
+        <f aca="false">IF(I120="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M120" s="0" t="n">
+        <f aca="true">IF(K120 = 0, INDIRECT("M" &amp; ROW() - 1), K120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="25" t="str">
+        <f aca="false">IF(D121="","",VLOOKUP(D121,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C121" s="25" t="str">
+        <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G121" s="31" t="str">
+        <f aca="true">IF(H121="", IF(I121="","",(INDIRECT("M" &amp; ROW() - 1) - M121)),IF(I121="", "", INDIRECT("M" &amp; ROW() - 1) - M121))</f>
+        <v/>
+      </c>
+      <c r="H121" s="31" t="str">
+        <f aca="false">IF(D121="", "", IF(I121="-", "", E121 * IF(F121="",1,F121)))</f>
+        <v/>
+      </c>
+      <c r="J121" s="9" t="n">
+        <f aca="true">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E121 * F121)</f>
+        <v>0</v>
+      </c>
+      <c r="K121" s="0" t="n">
+        <f aca="true">IF(I121 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J121)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L121" s="0" t="n">
+        <f aca="false">IF(I121="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M121" s="0" t="n">
+        <f aca="true">IF(K121 = 0, INDIRECT("M" &amp; ROW() - 1), K121)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="25" t="str">
+        <f aca="false">IF(D122="","",VLOOKUP(D122,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C122" s="25" t="str">
+        <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G122" s="31" t="str">
+        <f aca="true">IF(H122="", IF(I122="","",(INDIRECT("M" &amp; ROW() - 1) - M122)),IF(I122="", "", INDIRECT("M" &amp; ROW() - 1) - M122))</f>
+        <v/>
+      </c>
+      <c r="H122" s="31" t="str">
+        <f aca="false">IF(D122="", "", IF(I122="-", "", E122 * IF(F122="",1,F122)))</f>
+        <v/>
+      </c>
+      <c r="J122" s="9" t="n">
+        <f aca="true">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E122 * F122)</f>
+        <v>0</v>
+      </c>
+      <c r="K122" s="0" t="n">
+        <f aca="true">IF(I122 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J122)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J122)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L122" s="0" t="n">
+        <f aca="false">IF(I122="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M122" s="0" t="n">
+        <f aca="true">IF(K122 = 0, INDIRECT("M" &amp; ROW() - 1), K122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="25" t="str">
+        <f aca="false">IF(D123="","",VLOOKUP(D123,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C123" s="25" t="str">
+        <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G123" s="31" t="str">
+        <f aca="true">IF(H123="", IF(I123="","",(INDIRECT("M" &amp; ROW() - 1) - M123)),IF(I123="", "", INDIRECT("M" &amp; ROW() - 1) - M123))</f>
+        <v/>
+      </c>
+      <c r="H123" s="31" t="str">
+        <f aca="false">IF(D123="", "", IF(I123="-", "", E123 * IF(F123="",1,F123)))</f>
+        <v/>
+      </c>
+      <c r="J123" s="9" t="n">
+        <f aca="true">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E123 * F123)</f>
+        <v>0</v>
+      </c>
+      <c r="K123" s="0" t="n">
+        <f aca="true">IF(I123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J123)))), 0)</f>
+        <v>0</v>
+      </c>
+      <c r="L123" s="0" t="n">
+        <f aca="false">IF(I123="-",1,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M123" s="0" t="n">
+        <f aca="true">IF(K123 = 0, INDIRECT("M" &amp; ROW() - 1), K123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="25" t="str">
+        <f aca="false">IF(D124="","",VLOOKUP(D124,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C124" s="25" t="str">
+        <f aca="false">IF(D124="","",VLOOKUP(D124, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G124" s="31" t="str">
+        <f aca="true">IF(H124="", IF(I124="","",(INDIRECT("M" &amp; ROW() - 1) - M124)),IF(I124="", "", INDIRECT("M" &amp; ROW() - 1) - M124))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="25" t="str">
+        <f aca="false">IF(D125="","",VLOOKUP(D125,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C125" s="25" t="str">
+        <f aca="false">IF(D125="","",VLOOKUP(D125, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G125" s="31" t="str">
+        <f aca="true">IF(H125="", IF(I125="","",(INDIRECT("M" &amp; ROW() - 1) - M125)),IF(I125="", "", INDIRECT("M" &amp; ROW() - 1) - M125))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="25" t="str">
+        <f aca="false">IF(D126="","",VLOOKUP(D126,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C126" s="25" t="str">
+        <f aca="false">IF(D126="","",VLOOKUP(D126, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G126" s="31" t="str">
+        <f aca="true">IF(H126="", IF(I126="","",(INDIRECT("M" &amp; ROW() - 1) - M126)),IF(I126="", "", INDIRECT("M" &amp; ROW() - 1) - M126))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="25" t="str">
+        <f aca="false">IF(D127="","",VLOOKUP(D127,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C127" s="25" t="str">
+        <f aca="false">IF(D127="","",VLOOKUP(D127, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G127" s="31" t="str">
+        <f aca="true">IF(H127="", IF(I127="","",(INDIRECT("M" &amp; ROW() - 1) - M127)),IF(I127="", "", INDIRECT("M" &amp; ROW() - 1) - M127))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="25" t="str">
+        <f aca="false">IF(D128="","",VLOOKUP(D128,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C128" s="25" t="str">
+        <f aca="false">IF(D128="","",VLOOKUP(D128, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G128" s="31" t="str">
+        <f aca="true">IF(H128="", IF(I128="","",(INDIRECT("M" &amp; ROW() - 1) - M128)),IF(I128="", "", INDIRECT("M" &amp; ROW() - 1) - M128))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="25" t="str">
+        <f aca="false">IF(D129="","",VLOOKUP(D129,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C129" s="25" t="str">
+        <f aca="false">IF(D129="","",VLOOKUP(D129, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G129" s="31" t="str">
+        <f aca="true">IF(H129="", IF(I129="","",(INDIRECT("M" &amp; ROW() - 1) - M129)),IF(I129="", "", INDIRECT("M" &amp; ROW() - 1) - M129))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="25" t="str">
+        <f aca="false">IF(D130="","",VLOOKUP(D130,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C130" s="25" t="str">
+        <f aca="false">IF(D130="","",VLOOKUP(D130, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G130" s="31" t="str">
+        <f aca="true">IF(H130="", IF(I130="","",(INDIRECT("M" &amp; ROW() - 1) - M130)),IF(I130="", "", INDIRECT("M" &amp; ROW() - 1) - M130))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="25" t="str">
+        <f aca="false">IF(D131="","",VLOOKUP(D131,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C131" s="25" t="str">
+        <f aca="false">IF(D131="","",VLOOKUP(D131, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G131" s="31" t="str">
+        <f aca="true">IF(H131="", IF(I131="","",(INDIRECT("M" &amp; ROW() - 1) - M131)),IF(I131="", "", INDIRECT("M" &amp; ROW() - 1) - M131))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="25" t="str">
+        <f aca="false">IF(D132="","",VLOOKUP(D132,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C132" s="25" t="str">
+        <f aca="false">IF(D132="","",VLOOKUP(D132, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G132" s="31" t="str">
+        <f aca="true">IF(H132="", IF(I132="","",(INDIRECT("M" &amp; ROW() - 1) - M132)),IF(I132="", "", INDIRECT("M" &amp; ROW() - 1) - M132))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="25" t="str">
+        <f aca="false">IF(D133="","",VLOOKUP(D133,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C133" s="25" t="str">
+        <f aca="false">IF(D133="","",VLOOKUP(D133, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G133" s="31" t="str">
+        <f aca="true">IF(H133="", IF(I133="","",(INDIRECT("M" &amp; ROW() - 1) - M133)),IF(I133="", "", INDIRECT("M" &amp; ROW() - 1) - M133))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="25" t="str">
+        <f aca="false">IF(D134="","",VLOOKUP(D134,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C134" s="25" t="str">
+        <f aca="false">IF(D134="","",VLOOKUP(D134, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G134" s="31" t="str">
+        <f aca="true">IF(H134="", IF(I134="","",(INDIRECT("M" &amp; ROW() - 1) - M134)),IF(I134="", "", INDIRECT("M" &amp; ROW() - 1) - M134))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="25" t="str">
+        <f aca="false">IF(D135="","",VLOOKUP(D135,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C135" s="25" t="str">
+        <f aca="false">IF(D135="","",VLOOKUP(D135, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G135" s="31" t="str">
+        <f aca="true">IF(H135="", IF(I135="","",(INDIRECT("M" &amp; ROW() - 1) - M135)),IF(I135="", "", INDIRECT("M" &amp; ROW() - 1) - M135))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="25" t="str">
+        <f aca="false">IF(D136="","",VLOOKUP(D136,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C136" s="25" t="str">
+        <f aca="false">IF(D136="","",VLOOKUP(D136, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G136" s="31" t="str">
+        <f aca="true">IF(H136="", IF(I136="","",(INDIRECT("M" &amp; ROW() - 1) - M136)),IF(I136="", "", INDIRECT("M" &amp; ROW() - 1) - M136))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="25" t="str">
+        <f aca="false">IF(D137="","",VLOOKUP(D137,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C137" s="25" t="str">
+        <f aca="false">IF(D137="","",VLOOKUP(D137, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G137" s="31" t="str">
+        <f aca="true">IF(H137="", IF(I137="","",(INDIRECT("M" &amp; ROW() - 1) - M137)),IF(I137="", "", INDIRECT("M" &amp; ROW() - 1) - M137))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="25" t="str">
+        <f aca="false">IF(D138="","",VLOOKUP(D138,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C138" s="25" t="str">
+        <f aca="false">IF(D138="","",VLOOKUP(D138, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G138" s="31" t="str">
+        <f aca="true">IF(H138="", IF(I138="","",(INDIRECT("M" &amp; ROW() - 1) - M138)),IF(I138="", "", INDIRECT("M" &amp; ROW() - 1) - M138))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="25" t="str">
+        <f aca="false">IF(D139="","",VLOOKUP(D139,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C139" s="25" t="str">
+        <f aca="false">IF(D139="","",VLOOKUP(D139, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G139" s="31" t="str">
+        <f aca="true">IF(H139="", IF(I139="","",(INDIRECT("M" &amp; ROW() - 1) - M139)),IF(I139="", "", INDIRECT("M" &amp; ROW() - 1) - M139))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="25" t="str">
+        <f aca="false">IF(D140="","",VLOOKUP(D140,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C140" s="25" t="str">
+        <f aca="false">IF(D140="","",VLOOKUP(D140, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G140" s="31" t="str">
+        <f aca="true">IF(H140="", IF(I140="","",(INDIRECT("M" &amp; ROW() - 1) - M140)),IF(I140="", "", INDIRECT("M" &amp; ROW() - 1) - M140))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="25" t="str">
+        <f aca="false">IF(D141="","",VLOOKUP(D141,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C141" s="25" t="str">
+        <f aca="false">IF(D141="","",VLOOKUP(D141, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G141" s="31" t="str">
+        <f aca="true">IF(H141="", IF(I141="","",(INDIRECT("M" &amp; ROW() - 1) - M141)),IF(I141="", "", INDIRECT("M" &amp; ROW() - 1) - M141))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="25" t="str">
+        <f aca="false">IF(D142="","",VLOOKUP(D142,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C142" s="25" t="str">
+        <f aca="false">IF(D142="","",VLOOKUP(D142, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G142" s="31" t="str">
+        <f aca="true">IF(H142="", IF(I142="","",(INDIRECT("M" &amp; ROW() - 1) - M142)),IF(I142="", "", INDIRECT("M" &amp; ROW() - 1) - M142))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="25" t="str">
+        <f aca="false">IF(D143="","",VLOOKUP(D143,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C143" s="25" t="str">
+        <f aca="false">IF(D143="","",VLOOKUP(D143, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G143" s="31" t="str">
+        <f aca="true">IF(H143="", IF(I143="","",(INDIRECT("M" &amp; ROW() - 1) - M143)),IF(I143="", "", INDIRECT("M" &amp; ROW() - 1) - M143))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="25" t="str">
+        <f aca="false">IF(D144="","",VLOOKUP(D144,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C144" s="25" t="str">
+        <f aca="false">IF(D144="","",VLOOKUP(D144, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G144" s="31" t="str">
+        <f aca="true">IF(H144="", IF(I144="","",(INDIRECT("M" &amp; ROW() - 1) - M144)),IF(I144="", "", INDIRECT("M" &amp; ROW() - 1) - M144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="25" t="str">
+        <f aca="false">IF(D145="","",VLOOKUP(D145,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C145" s="25" t="str">
+        <f aca="false">IF(D145="","",VLOOKUP(D145, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G145" s="31" t="str">
+        <f aca="true">IF(H145="", IF(I145="","",(INDIRECT("M" &amp; ROW() - 1) - M145)),IF(I145="", "", INDIRECT("M" &amp; ROW() - 1) - M145))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="25" t="str">
+        <f aca="false">IF(D146="","",VLOOKUP(D146,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C146" s="25" t="str">
+        <f aca="false">IF(D146="","",VLOOKUP(D146, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G146" s="31" t="str">
+        <f aca="true">IF(H146="", IF(I146="","",(INDIRECT("M" &amp; ROW() - 1) - M146)),IF(I146="", "", INDIRECT("M" &amp; ROW() - 1) - M146))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="25" t="str">
+        <f aca="false">IF(D147="","",VLOOKUP(D147,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C147" s="25" t="str">
+        <f aca="false">IF(D147="","",VLOOKUP(D147, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G147" s="31" t="str">
+        <f aca="true">IF(H147="", IF(I147="","",(INDIRECT("M" &amp; ROW() - 1) - M147)),IF(I147="", "", INDIRECT("M" &amp; ROW() - 1) - M147))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="25" t="str">
+        <f aca="false">IF(D148="","",VLOOKUP(D148,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C148" s="25" t="str">
+        <f aca="false">IF(D148="","",VLOOKUP(D148, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G148" s="31" t="str">
+        <f aca="true">IF(H148="", IF(I148="","",(INDIRECT("M" &amp; ROW() - 1) - M148)),IF(I148="", "", INDIRECT("M" &amp; ROW() - 1) - M148))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="25" t="str">
+        <f aca="false">IF(D149="","",VLOOKUP(D149,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C149" s="25" t="str">
+        <f aca="false">IF(D149="","",VLOOKUP(D149, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G149" s="31" t="str">
+        <f aca="true">IF(H149="", IF(I149="","",(INDIRECT("M" &amp; ROW() - 1) - M149)),IF(I149="", "", INDIRECT("M" &amp; ROW() - 1) - M149))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="25" t="str">
+        <f aca="false">IF(D150="","",VLOOKUP(D150,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C150" s="25" t="str">
+        <f aca="false">IF(D150="","",VLOOKUP(D150, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G150" s="31" t="str">
+        <f aca="true">IF(H150="", IF(I150="","",(INDIRECT("M" &amp; ROW() - 1) - M150)),IF(I150="", "", INDIRECT("M" &amp; ROW() - 1) - M150))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="25" t="str">
+        <f aca="false">IF(D151="","",VLOOKUP(D151,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C151" s="25" t="str">
+        <f aca="false">IF(D151="","",VLOOKUP(D151, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G151" s="31" t="str">
+        <f aca="true">IF(H151="", IF(I151="","",(INDIRECT("M" &amp; ROW() - 1) - M151)),IF(I151="", "", INDIRECT("M" &amp; ROW() - 1) - M151))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="25" t="str">
+        <f aca="false">IF(D152="","",VLOOKUP(D152,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C152" s="25" t="str">
+        <f aca="false">IF(D152="","",VLOOKUP(D152, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G152" s="31" t="str">
+        <f aca="true">IF(H152="", IF(I152="","",(INDIRECT("M" &amp; ROW() - 1) - M152)),IF(I152="", "", INDIRECT("M" &amp; ROW() - 1) - M152))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="25" t="str">
+        <f aca="false">IF(D153="","",VLOOKUP(D153,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C153" s="25" t="str">
+        <f aca="false">IF(D153="","",VLOOKUP(D153, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G153" s="31" t="str">
+        <f aca="true">IF(H153="", IF(I153="","",(INDIRECT("M" &amp; ROW() - 1) - M153)),IF(I153="", "", INDIRECT("M" &amp; ROW() - 1) - M153))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="25" t="str">
+        <f aca="false">IF(D154="","",VLOOKUP(D154,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C154" s="25" t="str">
+        <f aca="false">IF(D154="","",VLOOKUP(D154, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G154" s="31" t="str">
+        <f aca="true">IF(H154="", IF(I154="","",(INDIRECT("M" &amp; ROW() - 1) - M154)),IF(I154="", "", INDIRECT("M" &amp; ROW() - 1) - M154))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="25" t="str">
+        <f aca="false">IF(D155="","",VLOOKUP(D155,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C155" s="25" t="str">
+        <f aca="false">IF(D155="","",VLOOKUP(D155, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G155" s="31" t="str">
+        <f aca="true">IF(H155="", IF(I155="","",(INDIRECT("M" &amp; ROW() - 1) - M155)),IF(I155="", "", INDIRECT("M" &amp; ROW() - 1) - M155))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="25" t="str">
+        <f aca="false">IF(D156="","",VLOOKUP(D156,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C156" s="25" t="str">
+        <f aca="false">IF(D156="","",VLOOKUP(D156, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G156" s="31" t="str">
+        <f aca="true">IF(H156="", IF(I156="","",(INDIRECT("M" &amp; ROW() - 1) - M156)),IF(I156="", "", INDIRECT("M" &amp; ROW() - 1) - M156))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="25" t="str">
+        <f aca="false">IF(D157="","",VLOOKUP(D157,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C157" s="25" t="str">
+        <f aca="false">IF(D157="","",VLOOKUP(D157, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G157" s="31" t="str">
+        <f aca="true">IF(H157="", IF(I157="","",(INDIRECT("M" &amp; ROW() - 1) - M157)),IF(I157="", "", INDIRECT("M" &amp; ROW() - 1) - M157))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="25" t="str">
+        <f aca="false">IF(D158="","",VLOOKUP(D158,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C158" s="25" t="str">
+        <f aca="false">IF(D158="","",VLOOKUP(D158, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G158" s="31" t="str">
+        <f aca="true">IF(H158="", IF(I158="","",(INDIRECT("M" &amp; ROW() - 1) - M158)),IF(I158="", "", INDIRECT("M" &amp; ROW() - 1) - M158))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="25" t="str">
+        <f aca="false">IF(D159="","",VLOOKUP(D159,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C159" s="25" t="str">
+        <f aca="false">IF(D159="","",VLOOKUP(D159, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G159" s="31" t="str">
+        <f aca="true">IF(H159="", IF(I159="","",(INDIRECT("M" &amp; ROW() - 1) - M159)),IF(I159="", "", INDIRECT("M" &amp; ROW() - 1) - M159))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="25" t="str">
+        <f aca="false">IF(D160="","",VLOOKUP(D160,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C160" s="25" t="str">
+        <f aca="false">IF(D160="","",VLOOKUP(D160, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G160" s="31" t="str">
+        <f aca="true">IF(H160="", IF(I160="","",(INDIRECT("M" &amp; ROW() - 1) - M160)),IF(I160="", "", INDIRECT("M" &amp; ROW() - 1) - M160))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="25" t="str">
+        <f aca="false">IF(D161="","",VLOOKUP(D161,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C161" s="25" t="str">
+        <f aca="false">IF(D161="","",VLOOKUP(D161, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G161" s="31" t="str">
+        <f aca="true">IF(H161="", IF(I161="","",(INDIRECT("M" &amp; ROW() - 1) - M161)),IF(I161="", "", INDIRECT("M" &amp; ROW() - 1) - M161))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="25" t="str">
+        <f aca="false">IF(D162="","",VLOOKUP(D162,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C162" s="25" t="str">
+        <f aca="false">IF(D162="","",VLOOKUP(D162, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G162" s="31" t="str">
+        <f aca="true">IF(H162="", IF(I162="","",(INDIRECT("M" &amp; ROW() - 1) - M162)),IF(I162="", "", INDIRECT("M" &amp; ROW() - 1) - M162))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="25" t="str">
+        <f aca="false">IF(D163="","",VLOOKUP(D163,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C163" s="25" t="str">
+        <f aca="false">IF(D163="","",VLOOKUP(D163, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G163" s="31" t="str">
+        <f aca="true">IF(H163="", IF(I163="","",(INDIRECT("M" &amp; ROW() - 1) - M163)),IF(I163="", "", INDIRECT("M" &amp; ROW() - 1) - M163))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="25" t="str">
+        <f aca="false">IF(D164="","",VLOOKUP(D164,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C164" s="25" t="str">
+        <f aca="false">IF(D164="","",VLOOKUP(D164, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G164" s="31" t="str">
+        <f aca="true">IF(H164="", IF(I164="","",(INDIRECT("M" &amp; ROW() - 1) - M164)),IF(I164="", "", INDIRECT("M" &amp; ROW() - 1) - M164))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="25" t="str">
+        <f aca="false">IF(D165="","",VLOOKUP(D165,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C165" s="25" t="str">
+        <f aca="false">IF(D165="","",VLOOKUP(D165, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G165" s="31" t="str">
+        <f aca="true">IF(H165="", IF(I165="","",(INDIRECT("M" &amp; ROW() - 1) - M165)),IF(I165="", "", INDIRECT("M" &amp; ROW() - 1) - M165))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="25" t="str">
+        <f aca="false">IF(D166="","",VLOOKUP(D166,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C166" s="25" t="str">
+        <f aca="false">IF(D166="","",VLOOKUP(D166, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G166" s="31" t="str">
+        <f aca="true">IF(H166="", IF(I166="","",(INDIRECT("M" &amp; ROW() - 1) - M166)),IF(I166="", "", INDIRECT("M" &amp; ROW() - 1) - M166))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="25" t="str">
+        <f aca="false">IF(D167="","",VLOOKUP(D167,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C167" s="25" t="str">
+        <f aca="false">IF(D167="","",VLOOKUP(D167, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G167" s="31" t="str">
+        <f aca="true">IF(H167="", IF(I167="","",(INDIRECT("M" &amp; ROW() - 1) - M167)),IF(I167="", "", INDIRECT("M" &amp; ROW() - 1) - M167))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="25" t="str">
+        <f aca="false">IF(D168="","",VLOOKUP(D168,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C168" s="25" t="str">
+        <f aca="false">IF(D168="","",VLOOKUP(D168, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G168" s="31" t="str">
+        <f aca="true">IF(H168="", IF(I168="","",(INDIRECT("M" &amp; ROW() - 1) - M168)),IF(I168="", "", INDIRECT("M" &amp; ROW() - 1) - M168))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="25" t="str">
+        <f aca="false">IF(D169="","",VLOOKUP(D169,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C169" s="25" t="str">
+        <f aca="false">IF(D169="","",VLOOKUP(D169, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G169" s="31" t="str">
+        <f aca="true">IF(H169="", IF(I169="","",(INDIRECT("M" &amp; ROW() - 1) - M169)),IF(I169="", "", INDIRECT("M" &amp; ROW() - 1) - M169))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="25" t="str">
+        <f aca="false">IF(D170="","",VLOOKUP(D170,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C170" s="25" t="str">
+        <f aca="false">IF(D170="","",VLOOKUP(D170, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G170" s="31" t="str">
+        <f aca="true">IF(H170="", IF(I170="","",(INDIRECT("M" &amp; ROW() - 1) - M170)),IF(I170="", "", INDIRECT("M" &amp; ROW() - 1) - M170))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="25" t="str">
+        <f aca="false">IF(D171="","",VLOOKUP(D171,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C171" s="25" t="str">
+        <f aca="false">IF(D171="","",VLOOKUP(D171, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G171" s="31" t="str">
+        <f aca="true">IF(H171="", IF(I171="","",(INDIRECT("M" &amp; ROW() - 1) - M171)),IF(I171="", "", INDIRECT("M" &amp; ROW() - 1) - M171))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="25" t="str">
+        <f aca="false">IF(D172="","",VLOOKUP(D172,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C172" s="25" t="str">
+        <f aca="false">IF(D172="","",VLOOKUP(D172, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G172" s="31" t="str">
+        <f aca="true">IF(H172="", IF(I172="","",(INDIRECT("M" &amp; ROW() - 1) - M172)),IF(I172="", "", INDIRECT("M" &amp; ROW() - 1) - M172))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="25" t="str">
+        <f aca="false">IF(D173="","",VLOOKUP(D173,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C173" s="25" t="str">
+        <f aca="false">IF(D173="","",VLOOKUP(D173, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G173" s="31" t="str">
+        <f aca="true">IF(H173="", IF(I173="","",(INDIRECT("M" &amp; ROW() - 1) - M173)),IF(I173="", "", INDIRECT("M" &amp; ROW() - 1) - M173))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="25" t="str">
+        <f aca="false">IF(D174="","",VLOOKUP(D174,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C174" s="25" t="str">
+        <f aca="false">IF(D174="","",VLOOKUP(D174, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G174" s="31" t="str">
+        <f aca="true">IF(H174="", IF(I174="","",(INDIRECT("M" &amp; ROW() - 1) - M174)),IF(I174="", "", INDIRECT("M" &amp; ROW() - 1) - M174))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="25" t="str">
+        <f aca="false">IF(D175="","",VLOOKUP(D175,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C175" s="25" t="str">
+        <f aca="false">IF(D175="","",VLOOKUP(D175, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G175" s="31" t="str">
+        <f aca="true">IF(H175="", IF(I175="","",(INDIRECT("M" &amp; ROW() - 1) - M175)),IF(I175="", "", INDIRECT("M" &amp; ROW() - 1) - M175))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="25" t="str">
+        <f aca="false">IF(D176="","",VLOOKUP(D176,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C176" s="25" t="str">
+        <f aca="false">IF(D176="","",VLOOKUP(D176, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G176" s="31" t="str">
+        <f aca="true">IF(H176="", IF(I176="","",(INDIRECT("M" &amp; ROW() - 1) - M176)),IF(I176="", "", INDIRECT("M" &amp; ROW() - 1) - M176))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="25" t="str">
+        <f aca="false">IF(D177="","",VLOOKUP(D177,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C177" s="25" t="str">
+        <f aca="false">IF(D177="","",VLOOKUP(D177, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G177" s="31" t="str">
+        <f aca="true">IF(H177="", IF(I177="","",(INDIRECT("M" &amp; ROW() - 1) - M177)),IF(I177="", "", INDIRECT("M" &amp; ROW() - 1) - M177))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="25" t="str">
+        <f aca="false">IF(D178="","",VLOOKUP(D178,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C178" s="25" t="str">
+        <f aca="false">IF(D178="","",VLOOKUP(D178, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G178" s="31" t="str">
+        <f aca="true">IF(H178="", IF(I178="","",(INDIRECT("M" &amp; ROW() - 1) - M178)),IF(I178="", "", INDIRECT("M" &amp; ROW() - 1) - M178))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="25" t="str">
+        <f aca="false">IF(D179="","",VLOOKUP(D179,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C179" s="25" t="str">
+        <f aca="false">IF(D179="","",VLOOKUP(D179, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G179" s="31" t="str">
+        <f aca="true">IF(H179="", IF(I179="","",(INDIRECT("M" &amp; ROW() - 1) - M179)),IF(I179="", "", INDIRECT("M" &amp; ROW() - 1) - M179))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="25" t="str">
+        <f aca="false">IF(D180="","",VLOOKUP(D180,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C180" s="25" t="str">
+        <f aca="false">IF(D180="","",VLOOKUP(D180, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G180" s="31" t="str">
+        <f aca="true">IF(H180="", IF(I180="","",(INDIRECT("M" &amp; ROW() - 1) - M180)),IF(I180="", "", INDIRECT("M" &amp; ROW() - 1) - M180))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="25" t="str">
+        <f aca="false">IF(D181="","",VLOOKUP(D181,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C181" s="25" t="str">
+        <f aca="false">IF(D181="","",VLOOKUP(D181, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G181" s="31" t="str">
+        <f aca="true">IF(H181="", IF(I181="","",(INDIRECT("M" &amp; ROW() - 1) - M181)),IF(I181="", "", INDIRECT("M" &amp; ROW() - 1) - M181))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="25" t="str">
+        <f aca="false">IF(D182="","",VLOOKUP(D182,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C182" s="25" t="str">
+        <f aca="false">IF(D182="","",VLOOKUP(D182, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G182" s="31" t="str">
+        <f aca="true">IF(H182="", IF(I182="","",(INDIRECT("M" &amp; ROW() - 1) - M182)),IF(I182="", "", INDIRECT("M" &amp; ROW() - 1) - M182))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="25" t="str">
+        <f aca="false">IF(D183="","",VLOOKUP(D183,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C183" s="25" t="str">
+        <f aca="false">IF(D183="","",VLOOKUP(D183, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G183" s="31" t="str">
+        <f aca="true">IF(H183="", IF(I183="","",(INDIRECT("M" &amp; ROW() - 1) - M183)),IF(I183="", "", INDIRECT("M" &amp; ROW() - 1) - M183))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="25" t="str">
+        <f aca="false">IF(D184="","",VLOOKUP(D184,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C184" s="25" t="str">
+        <f aca="false">IF(D184="","",VLOOKUP(D184, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G184" s="31" t="str">
+        <f aca="true">IF(H184="", IF(I184="","",(INDIRECT("M" &amp; ROW() - 1) - M184)),IF(I184="", "", INDIRECT("M" &amp; ROW() - 1) - M184))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="25" t="str">
+        <f aca="false">IF(D185="","",VLOOKUP(D185,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C185" s="25" t="str">
+        <f aca="false">IF(D185="","",VLOOKUP(D185, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G185" s="31" t="str">
+        <f aca="true">IF(H185="", IF(I185="","",(INDIRECT("M" &amp; ROW() - 1) - M185)),IF(I185="", "", INDIRECT("M" &amp; ROW() - 1) - M185))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="25" t="str">
+        <f aca="false">IF(D186="","",VLOOKUP(D186,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C186" s="25" t="str">
+        <f aca="false">IF(D186="","",VLOOKUP(D186, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G186" s="31" t="str">
+        <f aca="true">IF(H186="", IF(I186="","",(INDIRECT("M" &amp; ROW() - 1) - M186)),IF(I186="", "", INDIRECT("M" &amp; ROW() - 1) - M186))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="25" t="str">
+        <f aca="false">IF(D187="","",VLOOKUP(D187,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C187" s="25" t="str">
+        <f aca="false">IF(D187="","",VLOOKUP(D187, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G187" s="31" t="str">
+        <f aca="true">IF(H187="", IF(I187="","",(INDIRECT("M" &amp; ROW() - 1) - M187)),IF(I187="", "", INDIRECT("M" &amp; ROW() - 1) - M187))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="25" t="str">
+        <f aca="false">IF(D188="","",VLOOKUP(D188,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C188" s="25" t="str">
+        <f aca="false">IF(D188="","",VLOOKUP(D188, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G188" s="31" t="str">
+        <f aca="true">IF(H188="", IF(I188="","",(INDIRECT("M" &amp; ROW() - 1) - M188)),IF(I188="", "", INDIRECT("M" &amp; ROW() - 1) - M188))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="25" t="str">
+        <f aca="false">IF(D189="","",VLOOKUP(D189,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C189" s="25" t="str">
+        <f aca="false">IF(D189="","",VLOOKUP(D189, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G189" s="31" t="str">
+        <f aca="true">IF(H189="", IF(I189="","",(INDIRECT("M" &amp; ROW() - 1) - M189)),IF(I189="", "", INDIRECT("M" &amp; ROW() - 1) - M189))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="25" t="str">
+        <f aca="false">IF(D190="","",VLOOKUP(D190,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C190" s="25" t="str">
+        <f aca="false">IF(D190="","",VLOOKUP(D190, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G190" s="31" t="str">
+        <f aca="true">IF(H190="", IF(I190="","",(INDIRECT("M" &amp; ROW() - 1) - M190)),IF(I190="", "", INDIRECT("M" &amp; ROW() - 1) - M190))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="25" t="str">
+        <f aca="false">IF(D191="","",VLOOKUP(D191,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C191" s="25" t="str">
+        <f aca="false">IF(D191="","",VLOOKUP(D191, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G191" s="31" t="str">
+        <f aca="true">IF(H191="", IF(I191="","",(INDIRECT("M" &amp; ROW() - 1) - M191)),IF(I191="", "", INDIRECT("M" &amp; ROW() - 1) - M191))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="25" t="str">
+        <f aca="false">IF(D192="","",VLOOKUP(D192,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C192" s="25" t="str">
+        <f aca="false">IF(D192="","",VLOOKUP(D192, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G192" s="31" t="str">
+        <f aca="true">IF(H192="", IF(I192="","",(INDIRECT("M" &amp; ROW() - 1) - M192)),IF(I192="", "", INDIRECT("M" &amp; ROW() - 1) - M192))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="25" t="str">
+        <f aca="false">IF(D193="","",VLOOKUP(D193,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C193" s="25" t="str">
+        <f aca="false">IF(D193="","",VLOOKUP(D193, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G193" s="31" t="str">
+        <f aca="true">IF(H193="", IF(I193="","",(INDIRECT("M" &amp; ROW() - 1) - M193)),IF(I193="", "", INDIRECT("M" &amp; ROW() - 1) - M193))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="25" t="str">
+        <f aca="false">IF(D194="","",VLOOKUP(D194,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C194" s="25" t="str">
+        <f aca="false">IF(D194="","",VLOOKUP(D194, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G194" s="31" t="str">
+        <f aca="true">IF(H194="", IF(I194="","",(INDIRECT("M" &amp; ROW() - 1) - M194)),IF(I194="", "", INDIRECT("M" &amp; ROW() - 1) - M194))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="25" t="str">
+        <f aca="false">IF(D195="","",VLOOKUP(D195,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C195" s="25" t="str">
+        <f aca="false">IF(D195="","",VLOOKUP(D195, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G195" s="31" t="str">
+        <f aca="true">IF(H195="", IF(I195="","",(INDIRECT("M" &amp; ROW() - 1) - M195)),IF(I195="", "", INDIRECT("M" &amp; ROW() - 1) - M195))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="25" t="str">
+        <f aca="false">IF(D196="","",VLOOKUP(D196,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C196" s="25" t="str">
+        <f aca="false">IF(D196="","",VLOOKUP(D196, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G196" s="31" t="str">
+        <f aca="true">IF(H196="", IF(I196="","",(INDIRECT("M" &amp; ROW() - 1) - M196)),IF(I196="", "", INDIRECT("M" &amp; ROW() - 1) - M196))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="25" t="str">
+        <f aca="false">IF(D197="","",VLOOKUP(D197,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C197" s="25" t="str">
+        <f aca="false">IF(D197="","",VLOOKUP(D197, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G197" s="31" t="str">
+        <f aca="true">IF(H197="", IF(I197="","",(INDIRECT("M" &amp; ROW() - 1) - M197)),IF(I197="", "", INDIRECT("M" &amp; ROW() - 1) - M197))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="25" t="str">
+        <f aca="false">IF(D198="","",VLOOKUP(D198,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C198" s="25" t="str">
+        <f aca="false">IF(D198="","",VLOOKUP(D198, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G198" s="31" t="str">
+        <f aca="true">IF(H198="", IF(I198="","",(INDIRECT("M" &amp; ROW() - 1) - M198)),IF(I198="", "", INDIRECT("M" &amp; ROW() - 1) - M198))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="25" t="str">
+        <f aca="false">IF(D199="","",VLOOKUP(D199,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C199" s="25" t="str">
+        <f aca="false">IF(D199="","",VLOOKUP(D199, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G199" s="31" t="str">
+        <f aca="true">IF(H199="", IF(I199="","",(INDIRECT("M" &amp; ROW() - 1) - M199)),IF(I199="", "", INDIRECT("M" &amp; ROW() - 1) - M199))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="25" t="str">
+        <f aca="false">IF(D200="","",VLOOKUP(D200,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C200" s="25" t="str">
+        <f aca="false">IF(D200="","",VLOOKUP(D200, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G200" s="31" t="str">
+        <f aca="true">IF(H200="", IF(I200="","",(INDIRECT("M" &amp; ROW() - 1) - M200)),IF(I200="", "", INDIRECT("M" &amp; ROW() - 1) - M200))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="25" t="str">
+        <f aca="false">IF(D201="","",VLOOKUP(D201,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C201" s="25" t="str">
+        <f aca="false">IF(D201="","",VLOOKUP(D201, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G201" s="31" t="str">
+        <f aca="true">IF(H201="", IF(I201="","",(INDIRECT("M" &amp; ROW() - 1) - M201)),IF(I201="", "", INDIRECT("M" &amp; ROW() - 1) - M201))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="25" t="str">
+        <f aca="false">IF(D202="","",VLOOKUP(D202,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C202" s="25" t="str">
+        <f aca="false">IF(D202="","",VLOOKUP(D202, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G202" s="31" t="str">
+        <f aca="true">IF(H202="", IF(I202="","",(INDIRECT("M" &amp; ROW() - 1) - M202)),IF(I202="", "", INDIRECT("M" &amp; ROW() - 1) - M202))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="25" t="str">
+        <f aca="false">IF(D203="","",VLOOKUP(D203,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C203" s="25" t="str">
+        <f aca="false">IF(D203="","",VLOOKUP(D203, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G203" s="31" t="str">
+        <f aca="true">IF(H203="", IF(I203="","",(INDIRECT("M" &amp; ROW() - 1) - M203)),IF(I203="", "", INDIRECT("M" &amp; ROW() - 1) - M203))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="25" t="str">
+        <f aca="false">IF(D204="","",VLOOKUP(D204,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C204" s="25" t="str">
+        <f aca="false">IF(D204="","",VLOOKUP(D204, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G204" s="31" t="str">
+        <f aca="true">IF(H204="", IF(I204="","",(INDIRECT("M" &amp; ROW() - 1) - M204)),IF(I204="", "", INDIRECT("M" &amp; ROW() - 1) - M204))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="25" t="str">
+        <f aca="false">IF(D205="","",VLOOKUP(D205,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C205" s="25" t="str">
+        <f aca="false">IF(D205="","",VLOOKUP(D205, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G205" s="31" t="str">
+        <f aca="true">IF(H205="", IF(I205="","",(INDIRECT("M" &amp; ROW() - 1) - M205)),IF(I205="", "", INDIRECT("M" &amp; ROW() - 1) - M205))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="25" t="str">
+        <f aca="false">IF(D206="","",VLOOKUP(D206,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C206" s="25" t="str">
+        <f aca="false">IF(D206="","",VLOOKUP(D206, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+      <c r="G206" s="31" t="str">
+        <f aca="true">IF(H206="", IF(I206="","",(INDIRECT("M" &amp; ROW() - 1) - M206)),IF(I206="", "", INDIRECT("M" &amp; ROW() - 1) - M206))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="25" t="str">
+        <f aca="false">IF(D207="","",VLOOKUP(D207,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C207" s="25" t="str">
+        <f aca="false">IF(D207="","",VLOOKUP(D207, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="25" t="str">
+        <f aca="false">IF(D208="","",VLOOKUP(D208,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C208" s="25" t="str">
+        <f aca="false">IF(D208="","",VLOOKUP(D208, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="25" t="str">
+        <f aca="false">IF(D209="","",VLOOKUP(D209,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C209" s="25" t="str">
+        <f aca="false">IF(D209="","",VLOOKUP(D209, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="25" t="str">
+        <f aca="false">IF(D210="","",VLOOKUP(D210,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C210" s="25" t="str">
+        <f aca="false">IF(D210="","",VLOOKUP(D210, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="25" t="str">
+        <f aca="false">IF(D211="","",VLOOKUP(D211,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C211" s="25" t="str">
+        <f aca="false">IF(D211="","",VLOOKUP(D211, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="25" t="str">
+        <f aca="false">IF(D212="","",VLOOKUP(D212,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C212" s="25" t="str">
+        <f aca="false">IF(D212="","",VLOOKUP(D212, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="25" t="str">
+        <f aca="false">IF(D213="","",VLOOKUP(D213,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C213" s="25" t="str">
+        <f aca="false">IF(D213="","",VLOOKUP(D213, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="25" t="str">
+        <f aca="false">IF(D214="","",VLOOKUP(D214,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C214" s="25" t="str">
+        <f aca="false">IF(D214="","",VLOOKUP(D214, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="25" t="str">
+        <f aca="false">IF(D215="","",VLOOKUP(D215,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C215" s="25" t="str">
+        <f aca="false">IF(D215="","",VLOOKUP(D215, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="25" t="str">
+        <f aca="false">IF(D216="","",VLOOKUP(D216,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C216" s="25" t="str">
+        <f aca="false">IF(D216="","",VLOOKUP(D216, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="25" t="str">
+        <f aca="false">IF(D217="","",VLOOKUP(D217,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C217" s="25" t="str">
+        <f aca="false">IF(D217="","",VLOOKUP(D217, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B218" s="25" t="str">
+        <f aca="false">IF(D218="","",VLOOKUP(D218,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C218" s="25" t="str">
+        <f aca="false">IF(D218="","",VLOOKUP(D218, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B219" s="25" t="str">
+        <f aca="false">IF(D219="","",VLOOKUP(D219,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C219" s="25" t="str">
+        <f aca="false">IF(D219="","",VLOOKUP(D219, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B220" s="25" t="str">
+        <f aca="false">IF(D220="","",VLOOKUP(D220,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C220" s="25" t="str">
+        <f aca="false">IF(D220="","",VLOOKUP(D220, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B221" s="25" t="str">
+        <f aca="false">IF(D221="","",VLOOKUP(D221,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C221" s="25" t="str">
+        <f aca="false">IF(D221="","",VLOOKUP(D221, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B222" s="25" t="str">
+        <f aca="false">IF(D222="","",VLOOKUP(D222,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C222" s="25" t="str">
+        <f aca="false">IF(D222="","",VLOOKUP(D222, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B223" s="25" t="str">
+        <f aca="false">IF(D223="","",VLOOKUP(D223,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C223" s="25" t="str">
+        <f aca="false">IF(D223="","",VLOOKUP(D223, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B224" s="25" t="str">
+        <f aca="false">IF(D224="","",VLOOKUP(D224,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C224" s="25" t="str">
+        <f aca="false">IF(D224="","",VLOOKUP(D224, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B225" s="25" t="str">
+        <f aca="false">IF(D225="","",VLOOKUP(D225,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C225" s="25" t="str">
+        <f aca="false">IF(D225="","",VLOOKUP(D225, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B226" s="25" t="str">
+        <f aca="false">IF(D226="","",VLOOKUP(D226,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C226" s="25" t="str">
+        <f aca="false">IF(D226="","",VLOOKUP(D226, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B227" s="25" t="str">
+        <f aca="false">IF(D227="","",VLOOKUP(D227,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C227" s="25" t="str">
+        <f aca="false">IF(D227="","",VLOOKUP(D227, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B228" s="25" t="str">
+        <f aca="false">IF(D228="","",VLOOKUP(D228,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C228" s="25" t="str">
+        <f aca="false">IF(D228="","",VLOOKUP(D228, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B229" s="25" t="str">
+        <f aca="false">IF(D229="","",VLOOKUP(D229,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C229" s="25" t="str">
+        <f aca="false">IF(D229="","",VLOOKUP(D229, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B230" s="25" t="str">
+        <f aca="false">IF(D230="","",VLOOKUP(D230,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C230" s="25" t="str">
+        <f aca="false">IF(D230="","",VLOOKUP(D230, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B231" s="25" t="str">
+        <f aca="false">IF(D231="","",VLOOKUP(D231,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C231" s="25" t="str">
+        <f aca="false">IF(D231="","",VLOOKUP(D231, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B232" s="25" t="str">
+        <f aca="false">IF(D232="","",VLOOKUP(D232,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C232" s="25" t="str">
+        <f aca="false">IF(D232="","",VLOOKUP(D232, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B233" s="25" t="str">
+        <f aca="false">IF(D233="","",VLOOKUP(D233,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C233" s="25" t="str">
+        <f aca="false">IF(D233="","",VLOOKUP(D233, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B234" s="25" t="str">
+        <f aca="false">IF(D234="","",VLOOKUP(D234,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C234" s="25" t="str">
+        <f aca="false">IF(D234="","",VLOOKUP(D234, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B235" s="25" t="str">
+        <f aca="false">IF(D235="","",VLOOKUP(D235,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C235" s="25" t="str">
+        <f aca="false">IF(D235="","",VLOOKUP(D235, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B236" s="25" t="str">
+        <f aca="false">IF(D236="","",VLOOKUP(D236,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C236" s="25" t="str">
+        <f aca="false">IF(D236="","",VLOOKUP(D236, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B237" s="25" t="str">
+        <f aca="false">IF(D237="","",VLOOKUP(D237,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C237" s="25" t="str">
+        <f aca="false">IF(D237="","",VLOOKUP(D237, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B238" s="25" t="str">
+        <f aca="false">IF(D238="","",VLOOKUP(D238,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C238" s="25" t="str">
+        <f aca="false">IF(D238="","",VLOOKUP(D238, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B239" s="25" t="str">
+        <f aca="false">IF(D239="","",VLOOKUP(D239,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C239" s="25" t="str">
+        <f aca="false">IF(D239="","",VLOOKUP(D239, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B240" s="25" t="str">
+        <f aca="false">IF(D240="","",VLOOKUP(D240,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C240" s="25" t="str">
+        <f aca="false">IF(D240="","",VLOOKUP(D240, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B241" s="25" t="str">
+        <f aca="false">IF(D241="","",VLOOKUP(D241,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C241" s="25" t="str">
+        <f aca="false">IF(D241="","",VLOOKUP(D241, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B242" s="25" t="str">
+        <f aca="false">IF(D242="","",VLOOKUP(D242,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C242" s="25" t="str">
+        <f aca="false">IF(D242="","",VLOOKUP(D242, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B243" s="25" t="str">
+        <f aca="false">IF(D243="","",VLOOKUP(D243,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C243" s="25" t="str">
+        <f aca="false">IF(D243="","",VLOOKUP(D243, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B244" s="25" t="str">
+        <f aca="false">IF(D244="","",VLOOKUP(D244,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C244" s="25" t="str">
+        <f aca="false">IF(D244="","",VLOOKUP(D244, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B245" s="25" t="str">
+        <f aca="false">IF(D245="","",VLOOKUP(D245,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C245" s="25" t="str">
+        <f aca="false">IF(D245="","",VLOOKUP(D245, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B246" s="25" t="str">
+        <f aca="false">IF(D246="","",VLOOKUP(D246,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C246" s="25" t="str">
+        <f aca="false">IF(D246="","",VLOOKUP(D246, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B247" s="25" t="str">
+        <f aca="false">IF(D247="","",VLOOKUP(D247,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C247" s="25" t="str">
+        <f aca="false">IF(D247="","",VLOOKUP(D247, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B248" s="25" t="str">
+        <f aca="false">IF(D248="","",VLOOKUP(D248,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C248" s="25" t="str">
+        <f aca="false">IF(D248="","",VLOOKUP(D248, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B249" s="25" t="str">
+        <f aca="false">IF(D249="","",VLOOKUP(D249,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C249" s="25" t="str">
+        <f aca="false">IF(D249="","",VLOOKUP(D249, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B250" s="25" t="str">
+        <f aca="false">IF(D250="","",VLOOKUP(D250,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C250" s="25" t="str">
+        <f aca="false">IF(D250="","",VLOOKUP(D250, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B251" s="25" t="str">
+        <f aca="false">IF(D251="","",VLOOKUP(D251,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C251" s="25" t="str">
+        <f aca="false">IF(D251="","",VLOOKUP(D251, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B252" s="25" t="str">
+        <f aca="false">IF(D252="","",VLOOKUP(D252,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C252" s="25" t="str">
+        <f aca="false">IF(D252="","",VLOOKUP(D252, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B253" s="25" t="str">
+        <f aca="false">IF(D253="","",VLOOKUP(D253,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C253" s="25" t="str">
+        <f aca="false">IF(D253="","",VLOOKUP(D253, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B254" s="25" t="str">
+        <f aca="false">IF(D254="","",VLOOKUP(D254,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C254" s="25" t="str">
+        <f aca="false">IF(D254="","",VLOOKUP(D254, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B255" s="25" t="str">
+        <f aca="false">IF(D255="","",VLOOKUP(D255,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C255" s="25" t="str">
+        <f aca="false">IF(D255="","",VLOOKUP(D255, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B256" s="25" t="str">
+        <f aca="false">IF(D256="","",VLOOKUP(D256,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C256" s="25" t="str">
+        <f aca="false">IF(D256="","",VLOOKUP(D256, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B257" s="25" t="str">
+        <f aca="false">IF(D257="","",VLOOKUP(D257,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C257" s="25" t="str">
+        <f aca="false">IF(D257="","",VLOOKUP(D257, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B258" s="25" t="str">
+        <f aca="false">IF(D258="","",VLOOKUP(D258,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C258" s="25" t="str">
+        <f aca="false">IF(D258="","",VLOOKUP(D258, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B259" s="25" t="str">
+        <f aca="false">IF(D259="","",VLOOKUP(D259,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C259" s="25" t="str">
+        <f aca="false">IF(D259="","",VLOOKUP(D259, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B260" s="25" t="str">
+        <f aca="false">IF(D260="","",VLOOKUP(D260,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C260" s="25" t="str">
+        <f aca="false">IF(D260="","",VLOOKUP(D260, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B261" s="25" t="str">
+        <f aca="false">IF(D261="","",VLOOKUP(D261,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C261" s="25" t="str">
+        <f aca="false">IF(D261="","",VLOOKUP(D261, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B262" s="25" t="str">
+        <f aca="false">IF(D262="","",VLOOKUP(D262,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C262" s="25" t="str">
+        <f aca="false">IF(D262="","",VLOOKUP(D262, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B263" s="25" t="str">
+        <f aca="false">IF(D263="","",VLOOKUP(D263,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C263" s="25" t="str">
+        <f aca="false">IF(D263="","",VLOOKUP(D263, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B264" s="25" t="str">
+        <f aca="false">IF(D264="","",VLOOKUP(D264,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C264" s="25" t="str">
+        <f aca="false">IF(D264="","",VLOOKUP(D264, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B265" s="25" t="str">
+        <f aca="false">IF(D265="","",VLOOKUP(D265,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C265" s="25" t="str">
+        <f aca="false">IF(D265="","",VLOOKUP(D265, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B266" s="25" t="str">
+        <f aca="false">IF(D266="","",VLOOKUP(D266,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C266" s="25" t="str">
+        <f aca="false">IF(D266="","",VLOOKUP(D266, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B267" s="25" t="str">
+        <f aca="false">IF(D267="","",VLOOKUP(D267,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C267" s="25" t="str">
+        <f aca="false">IF(D267="","",VLOOKUP(D267, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B268" s="25" t="str">
+        <f aca="false">IF(D268="","",VLOOKUP(D268,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C268" s="25" t="str">
+        <f aca="false">IF(D268="","",VLOOKUP(D268, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B269" s="25" t="str">
+        <f aca="false">IF(D269="","",VLOOKUP(D269,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C269" s="25" t="str">
+        <f aca="false">IF(D269="","",VLOOKUP(D269, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B270" s="25" t="str">
+        <f aca="false">IF(D270="","",VLOOKUP(D270,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C270" s="25" t="str">
+        <f aca="false">IF(D270="","",VLOOKUP(D270, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B271" s="25" t="str">
+        <f aca="false">IF(D271="","",VLOOKUP(D271,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C271" s="25" t="str">
+        <f aca="false">IF(D271="","",VLOOKUP(D271, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B272" s="25" t="str">
+        <f aca="false">IF(D272="","",VLOOKUP(D272,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
+        <v/>
+      </c>
+      <c r="C272" s="25" t="str">
+        <f aca="false">IF(D272="","",VLOOKUP(D272, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C273" s="25" t="str">
+        <f aca="false">IF(D273="","",VLOOKUP(D273, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C274" s="25" t="str">
+        <f aca="false">IF(D274="","",VLOOKUP(D274, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C275" s="25" t="str">
+        <f aca="false">IF(D275="","",VLOOKUP(D275, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C276" s="25" t="str">
+        <f aca="false">IF(D276="","",VLOOKUP(D276, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C277" s="25" t="str">
+        <f aca="false">IF(D277="","",VLOOKUP(D277, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C278" s="25" t="str">
+        <f aca="false">IF(D278="","",VLOOKUP(D278, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C279" s="25" t="str">
+        <f aca="false">IF(D279="","",VLOOKUP(D279, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C280" s="25" t="str">
+        <f aca="false">IF(D280="","",VLOOKUP(D280, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C281" s="25" t="str">
+        <f aca="false">IF(D281="","",VLOOKUP(D281, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C282" s="25" t="str">
+        <f aca="false">IF(D282="","",VLOOKUP(D282, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C283" s="25" t="str">
+        <f aca="false">IF(D283="","",VLOOKUP(D283, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C284" s="25" t="str">
+        <f aca="false">IF(D284="","",VLOOKUP(D284, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C285" s="25" t="str">
+        <f aca="false">IF(D285="","",VLOOKUP(D285, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C286" s="25" t="str">
+        <f aca="false">IF(D286="","",VLOOKUP(D286, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C287" s="25" t="str">
+        <f aca="false">IF(D287="","",VLOOKUP(D287, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C288" s="25" t="str">
+        <f aca="false">IF(D288="","",VLOOKUP(D288, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C289" s="25" t="str">
+        <f aca="false">IF(D289="","",VLOOKUP(D289, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C290" s="25" t="str">
+        <f aca="false">IF(D290="","",VLOOKUP(D290, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C291" s="25" t="str">
+        <f aca="false">IF(D291="","",VLOOKUP(D291, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C292" s="25" t="str">
+        <f aca="false">IF(D292="","",VLOOKUP(D292, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C293" s="25" t="str">
+        <f aca="false">IF(D293="","",VLOOKUP(D293, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C294" s="25" t="str">
+        <f aca="false">IF(D294="","",VLOOKUP(D294, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C295" s="25" t="str">
+        <f aca="false">IF(D295="","",VLOOKUP(D295, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C296" s="25" t="str">
+        <f aca="false">IF(D296="","",VLOOKUP(D296, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C297" s="25" t="str">
+        <f aca="false">IF(D297="","",VLOOKUP(D297, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C298" s="25" t="str">
+        <f aca="false">IF(D298="","",VLOOKUP(D298, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C299" s="25" t="str">
+        <f aca="false">IF(D299="","",VLOOKUP(D299, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C300" s="25" t="str">
+        <f aca="false">IF(D300="","",VLOOKUP(D300, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C301" s="25" t="str">
+        <f aca="false">IF(D301="","",VLOOKUP(D301, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C302" s="25" t="str">
+        <f aca="false">IF(D302="","",VLOOKUP(D302, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C303" s="25" t="str">
+        <f aca="false">IF(D303="","",VLOOKUP(D303, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C304" s="25" t="str">
+        <f aca="false">IF(D304="","",VLOOKUP(D304, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C305" s="25" t="str">
+        <f aca="false">IF(D305="","",VLOOKUP(D305, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C306" s="25" t="str">
+        <f aca="false">IF(D306="","",VLOOKUP(D306, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C307" s="25" t="str">
+        <f aca="false">IF(D307="","",VLOOKUP(D307, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C308" s="25" t="str">
+        <f aca="false">IF(D308="","",VLOOKUP(D308, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C309" s="25" t="str">
+        <f aca="false">IF(D309="","",VLOOKUP(D309, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C310" s="25" t="str">
+        <f aca="false">IF(D310="","",VLOOKUP(D310, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C311" s="25" t="str">
+        <f aca="false">IF(D311="","",VLOOKUP(D311, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C312" s="25" t="str">
+        <f aca="false">IF(D312="","",VLOOKUP(D312, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C313" s="25" t="str">
+        <f aca="false">IF(D313="","",VLOOKUP(D313, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C314" s="25" t="str">
+        <f aca="false">IF(D314="","",VLOOKUP(D314, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C315" s="25" t="str">
+        <f aca="false">IF(D315="","",VLOOKUP(D315, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C316" s="25" t="str">
+        <f aca="false">IF(D316="","",VLOOKUP(D316, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C317" s="25" t="str">
+        <f aca="false">IF(D317="","",VLOOKUP(D317, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G3:G206">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
+      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &lt; - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
+    </cfRule>
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &gt;= - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3) &lt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &lt;= 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3) &gt; 0)</formula>
+    </cfRule>
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
+      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0,G3)  &gt; 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="2">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B272" type="list">
+      <formula1>'План варок адыгейский'!$A$1:$A$102</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D60" type="list">
+      <formula1>'SKU Милкпроджект'!$A$1:$A$137</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
@@ -9639,4 +16018,57 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.14"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+  </cols>
+  <sheetData/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/app/data/static/templates/constructor_milk_project.xlsx
+++ b/app/data/static/templates/constructor_milk_project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -193,7 +193,6 @@
     </font>
     <font>
       <sz val="7"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -241,7 +240,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -350,6 +349,10 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -362,11 +365,15 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -529,10 +536,10 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -618,7 +625,7 @@
   </sheetPr>
   <dimension ref="A1:S326"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="U29" activeCellId="0" sqref="U29"/>
     </sheetView>
   </sheetViews>
@@ -9666,10 +9673,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M317"/>
+  <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9679,40 +9686,42 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="9" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.7"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="3"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="4"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="14" style="0" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="27" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="15" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1010" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="30" t="s">
         <v>19</v>
       </c>
       <c r="F1" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G1" s="29" t="s">
-        <v>20</v>
-      </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="15"/>
@@ -9721,14 +9730,14 @@
       <c r="M1" s="15"/>
     </row>
     <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="30"/>
       <c r="F2" s="30"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
       <c r="I2" s="15" t="s">
         <v>21</v>
       </c>
@@ -9751,17 +9760,21 @@
         <f aca="false">IF(D3="","",VLOOKUP(D3, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G3" s="31" t="str">
-        <f aca="true">IF(H3="", IF(I3="","",(INDIRECT("M" &amp; ROW() - 1) - M3)),IF(I3="", "", INDIRECT("M" &amp; ROW() - 1) - M3))</f>
-        <v/>
-      </c>
-      <c r="H3" s="31" t="str">
-        <f aca="false">IF(D3="", "", IF(I3="-", "", E3 * IF(F3="",1,F3)))</f>
-        <v/>
-      </c>
-      <c r="J3" s="9" t="n">
-        <f aca="true">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E3 * F3)</f>
-        <v>0</v>
+      <c r="F3" s="32" t="str">
+        <f aca="true">IF(L3=0, "", H3 - G3 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G3" s="32" t="str">
+        <f aca="true">IF(L3=0, "", _xlfn.CEILING.MATH(H3 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H3" s="32" t="str">
+        <f aca="false">IF(L3=0, "", -N3)</f>
+        <v/>
+      </c>
+      <c r="J3" s="9" t="e">
+        <f aca="false">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E3 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="true">IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
@@ -9773,6 +9786,10 @@
       </c>
       <c r="M3" s="0" t="n">
         <f aca="true">IF(K3 = 0, INDIRECT("M" &amp; ROW() - 1), K3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="33" t="n">
+        <f aca="true">IF(L3=0,E3,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9785,17 +9802,21 @@
         <f aca="false">IF(D4="","",VLOOKUP(D4, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G4" s="31" t="str">
-        <f aca="true">IF(H4="", IF(I4="","",(INDIRECT("M" &amp; ROW() - 1) - M4)),IF(I4="", "", INDIRECT("M" &amp; ROW() - 1) - M4))</f>
-        <v/>
-      </c>
-      <c r="H4" s="31" t="str">
-        <f aca="false">IF(D4="", "", IF(I4="-", "", E4 * IF(F4="",1,F4)))</f>
-        <v/>
-      </c>
-      <c r="J4" s="9" t="n">
-        <f aca="true">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E4 * F4)</f>
-        <v>0</v>
+      <c r="F4" s="32" t="str">
+        <f aca="true">IF(L4=0, "", H4 - G4 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G4" s="32" t="str">
+        <f aca="true">IF(L4=0, "", _xlfn.CEILING.MATH(H4 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H4" s="32" t="str">
+        <f aca="false">IF(L4=0, "", -N4)</f>
+        <v/>
+      </c>
+      <c r="J4" s="9" t="e">
+        <f aca="false">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E4 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="true">IF(I4 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J4)))), 0)</f>
@@ -9807,6 +9828,10 @@
       </c>
       <c r="M4" s="0" t="n">
         <f aca="true">IF(K4 = 0, INDIRECT("M" &amp; ROW() - 1), K4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="33" t="n">
+        <f aca="true">IF(L4=0,E4,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9819,17 +9844,21 @@
         <f aca="false">IF(D5="","",VLOOKUP(D5, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G5" s="31" t="str">
-        <f aca="true">IF(H5="", IF(I5="","",(INDIRECT("M" &amp; ROW() - 1) - M5)),IF(I5="", "", INDIRECT("M" &amp; ROW() - 1) - M5))</f>
-        <v/>
-      </c>
-      <c r="H5" s="31" t="str">
-        <f aca="false">IF(D5="", "", IF(I5="-", "", E5 * IF(F5="",1,F5)))</f>
-        <v/>
-      </c>
-      <c r="J5" s="9" t="n">
-        <f aca="true">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E5 * F5)</f>
-        <v>0</v>
+      <c r="F5" s="32" t="str">
+        <f aca="true">IF(L5=0, "", H5 - G5 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G5" s="32" t="str">
+        <f aca="true">IF(L5=0, "", _xlfn.CEILING.MATH(H5 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H5" s="32" t="str">
+        <f aca="false">IF(L5=0, "", -N5)</f>
+        <v/>
+      </c>
+      <c r="J5" s="9" t="e">
+        <f aca="false">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E5 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="true">IF(I5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J5)))), 0)</f>
@@ -9841,6 +9870,10 @@
       </c>
       <c r="M5" s="0" t="n">
         <f aca="true">IF(K5 = 0, INDIRECT("M" &amp; ROW() - 1), K5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="33" t="n">
+        <f aca="true">IF(L5=0,E5,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9853,17 +9886,21 @@
         <f aca="false">IF(D6="","",VLOOKUP(D6, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G6" s="31" t="str">
-        <f aca="true">IF(H6="", IF(I6="","",(INDIRECT("M" &amp; ROW() - 1) - M6)),IF(I6="", "", INDIRECT("M" &amp; ROW() - 1) - M6))</f>
-        <v/>
-      </c>
-      <c r="H6" s="31" t="str">
-        <f aca="false">IF(D6="", "", IF(I6="-", "", E6 * IF(F6="",1,F6)))</f>
-        <v/>
-      </c>
-      <c r="J6" s="9" t="n">
-        <f aca="true">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E6 * F6)</f>
-        <v>0</v>
+      <c r="F6" s="32" t="str">
+        <f aca="true">IF(L6=0, "", H6 - G6 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G6" s="32" t="str">
+        <f aca="true">IF(L6=0, "", _xlfn.CEILING.MATH(H6 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H6" s="32" t="str">
+        <f aca="false">IF(L6=0, "", -N6)</f>
+        <v/>
+      </c>
+      <c r="J6" s="9" t="e">
+        <f aca="false">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E6 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="true">IF(I6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J6)))), 0)</f>
@@ -9875,6 +9912,10 @@
       </c>
       <c r="M6" s="0" t="n">
         <f aca="true">IF(K6 = 0, INDIRECT("M" &amp; ROW() - 1), K6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="33" t="n">
+        <f aca="true">IF(L6=0,E6,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9887,17 +9928,21 @@
         <f aca="false">IF(D7="","",VLOOKUP(D7, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G7" s="31" t="str">
-        <f aca="true">IF(H7="", IF(I7="","",(INDIRECT("M" &amp; ROW() - 1) - M7)),IF(I7="", "", INDIRECT("M" &amp; ROW() - 1) - M7))</f>
-        <v/>
-      </c>
-      <c r="H7" s="31" t="str">
-        <f aca="false">IF(D7="", "", IF(I7="-", "", E7 * IF(F7="",1,F7)))</f>
-        <v/>
-      </c>
-      <c r="J7" s="9" t="n">
-        <f aca="true">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E7 * F7)</f>
-        <v>0</v>
+      <c r="F7" s="32" t="str">
+        <f aca="true">IF(L7=0, "", H7 - G7 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G7" s="32" t="str">
+        <f aca="true">IF(L7=0, "", _xlfn.CEILING.MATH(H7 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H7" s="32" t="str">
+        <f aca="false">IF(L7=0, "", -N7)</f>
+        <v/>
+      </c>
+      <c r="J7" s="9" t="e">
+        <f aca="false">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E7 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="true">IF(I7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J7)))), 0)</f>
@@ -9909,6 +9954,10 @@
       </c>
       <c r="M7" s="0" t="n">
         <f aca="true">IF(K7 = 0, INDIRECT("M" &amp; ROW() - 1), K7)</f>
+        <v>0</v>
+      </c>
+      <c r="N7" s="33" t="n">
+        <f aca="true">IF(L7=0,E7,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9921,17 +9970,21 @@
         <f aca="false">IF(D8="","",VLOOKUP(D8, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G8" s="31" t="str">
-        <f aca="true">IF(H8="", IF(I8="","",(INDIRECT("M" &amp; ROW() - 1) - M8)),IF(I8="", "", INDIRECT("M" &amp; ROW() - 1) - M8))</f>
-        <v/>
-      </c>
-      <c r="H8" s="31" t="str">
-        <f aca="false">IF(D8="", "", IF(I8="-", "", E8 * IF(F8="",1,F8)))</f>
-        <v/>
-      </c>
-      <c r="J8" s="9" t="n">
-        <f aca="true">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E8 * F8)</f>
-        <v>0</v>
+      <c r="F8" s="32" t="str">
+        <f aca="true">IF(L8=0, "", H8 - G8 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G8" s="32" t="str">
+        <f aca="true">IF(L8=0, "", _xlfn.CEILING.MATH(H8 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H8" s="32" t="str">
+        <f aca="false">IF(L8=0, "", -N8)</f>
+        <v/>
+      </c>
+      <c r="J8" s="9" t="e">
+        <f aca="false">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E8 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="true">IF(I8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J8)))), 0)</f>
@@ -9943,6 +9996,10 @@
       </c>
       <c r="M8" s="0" t="n">
         <f aca="true">IF(K8 = 0, INDIRECT("M" &amp; ROW() - 1), K8)</f>
+        <v>0</v>
+      </c>
+      <c r="N8" s="33" t="n">
+        <f aca="true">IF(L8=0,E8,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9955,17 +10012,21 @@
         <f aca="false">IF(D9="","",VLOOKUP(D9, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G9" s="31" t="str">
-        <f aca="true">IF(H9="", IF(I9="","",(INDIRECT("M" &amp; ROW() - 1) - M9)),IF(I9="", "", INDIRECT("M" &amp; ROW() - 1) - M9))</f>
-        <v/>
-      </c>
-      <c r="H9" s="31" t="str">
-        <f aca="false">IF(D9="", "", IF(I9="-", "", E9 * IF(F9="",1,F9)))</f>
-        <v/>
-      </c>
-      <c r="J9" s="9" t="n">
-        <f aca="true">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E9 * F9)</f>
-        <v>0</v>
+      <c r="F9" s="32" t="str">
+        <f aca="true">IF(L9=0, "", H9 - G9 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G9" s="32" t="str">
+        <f aca="true">IF(L9=0, "", _xlfn.CEILING.MATH(H9 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H9" s="32" t="str">
+        <f aca="false">IF(L9=0, "", -N9)</f>
+        <v/>
+      </c>
+      <c r="J9" s="9" t="e">
+        <f aca="false">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E9 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="true">IF(I9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J9)))), 0)</f>
@@ -9977,6 +10038,10 @@
       </c>
       <c r="M9" s="0" t="n">
         <f aca="true">IF(K9 = 0, INDIRECT("M" &amp; ROW() - 1), K9)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="33" t="n">
+        <f aca="true">IF(L9=0,E9,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -9989,17 +10054,21 @@
         <f aca="false">IF(D10="","",VLOOKUP(D10, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G10" s="31" t="str">
-        <f aca="true">IF(H10="", IF(I10="","",(INDIRECT("M" &amp; ROW() - 1) - M10)),IF(I10="", "", INDIRECT("M" &amp; ROW() - 1) - M10))</f>
-        <v/>
-      </c>
-      <c r="H10" s="31" t="str">
-        <f aca="false">IF(D10="", "", IF(I10="-", "", E10 * IF(F10="",1,F10)))</f>
-        <v/>
-      </c>
-      <c r="J10" s="9" t="n">
-        <f aca="true">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E10 * F10)</f>
-        <v>0</v>
+      <c r="F10" s="32" t="str">
+        <f aca="true">IF(L10=0, "", H10 - G10 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G10" s="32" t="str">
+        <f aca="true">IF(L10=0, "", _xlfn.CEILING.MATH(H10 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H10" s="32" t="str">
+        <f aca="false">IF(L10=0, "", -N10)</f>
+        <v/>
+      </c>
+      <c r="J10" s="9" t="e">
+        <f aca="false">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E10 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="true">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
@@ -10011,6 +10080,10 @@
       </c>
       <c r="M10" s="0" t="n">
         <f aca="true">IF(K10 = 0, INDIRECT("M" &amp; ROW() - 1), K10)</f>
+        <v>0</v>
+      </c>
+      <c r="N10" s="33" t="n">
+        <f aca="true">IF(L10=0,E10,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10023,17 +10096,21 @@
         <f aca="false">IF(D11="","",VLOOKUP(D11, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G11" s="31" t="str">
-        <f aca="true">IF(H11="", IF(I11="","",(INDIRECT("M" &amp; ROW() - 1) - M11)),IF(I11="", "", INDIRECT("M" &amp; ROW() - 1) - M11))</f>
-        <v/>
-      </c>
-      <c r="H11" s="31" t="str">
-        <f aca="false">IF(D11="", "", IF(I11="-", "", E11 * IF(F11="",1,F11)))</f>
-        <v/>
-      </c>
-      <c r="J11" s="9" t="n">
-        <f aca="true">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E11 * F11)</f>
-        <v>0</v>
+      <c r="F11" s="32" t="str">
+        <f aca="true">IF(L11=0, "", H11 - G11 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G11" s="32" t="str">
+        <f aca="true">IF(L11=0, "", _xlfn.CEILING.MATH(H11 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H11" s="32" t="str">
+        <f aca="false">IF(L11=0, "", -N11)</f>
+        <v/>
+      </c>
+      <c r="J11" s="9" t="e">
+        <f aca="false">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E11 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="true">IF(I11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J11)))), 0)</f>
@@ -10045,6 +10122,10 @@
       </c>
       <c r="M11" s="0" t="n">
         <f aca="true">IF(K11 = 0, INDIRECT("M" &amp; ROW() - 1), K11)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="33" t="n">
+        <f aca="true">IF(L11=0,E11,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10057,17 +10138,21 @@
         <f aca="false">IF(D12="","",VLOOKUP(D12, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G12" s="31" t="str">
-        <f aca="true">IF(H12="", IF(I12="","",(INDIRECT("M" &amp; ROW() - 1) - M12)),IF(I12="", "", INDIRECT("M" &amp; ROW() - 1) - M12))</f>
-        <v/>
-      </c>
-      <c r="H12" s="31" t="str">
-        <f aca="false">IF(D12="", "", IF(I12="-", "", E12 * IF(F12="",1,F12)))</f>
-        <v/>
-      </c>
-      <c r="J12" s="9" t="n">
-        <f aca="true">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E12 * F12)</f>
-        <v>0</v>
+      <c r="F12" s="32" t="str">
+        <f aca="true">IF(L12=0, "", H12 - G12 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G12" s="32" t="str">
+        <f aca="true">IF(L12=0, "", _xlfn.CEILING.MATH(H12 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H12" s="32" t="str">
+        <f aca="false">IF(L12=0, "", -N12)</f>
+        <v/>
+      </c>
+      <c r="J12" s="9" t="e">
+        <f aca="false">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E12 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="true">IF(I12 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J12)))), 0)</f>
@@ -10079,6 +10164,10 @@
       </c>
       <c r="M12" s="0" t="n">
         <f aca="true">IF(K12 = 0, INDIRECT("M" &amp; ROW() - 1), K12)</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="33" t="n">
+        <f aca="true">IF(L12=0,E12,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10091,17 +10180,21 @@
         <f aca="false">IF(D13="","",VLOOKUP(D13, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G13" s="31" t="str">
-        <f aca="true">IF(H13="", IF(I13="","",(INDIRECT("M" &amp; ROW() - 1) - M13)),IF(I13="", "", INDIRECT("M" &amp; ROW() - 1) - M13))</f>
-        <v/>
-      </c>
-      <c r="H13" s="31" t="str">
-        <f aca="false">IF(D13="", "", IF(I13="-", "", E13 * IF(F13="",1,F13)))</f>
-        <v/>
-      </c>
-      <c r="J13" s="9" t="n">
-        <f aca="true">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E13 * F13)</f>
-        <v>0</v>
+      <c r="F13" s="32" t="str">
+        <f aca="true">IF(L13=0, "", H13 - G13 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G13" s="32" t="str">
+        <f aca="true">IF(L13=0, "", _xlfn.CEILING.MATH(H13 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H13" s="32" t="str">
+        <f aca="false">IF(L13=0, "", -N13)</f>
+        <v/>
+      </c>
+      <c r="J13" s="9" t="e">
+        <f aca="false">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E13 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="true">IF(I13 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J13)))), 0)</f>
@@ -10113,6 +10206,10 @@
       </c>
       <c r="M13" s="0" t="n">
         <f aca="true">IF(K13 = 0, INDIRECT("M" &amp; ROW() - 1), K13)</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="33" t="n">
+        <f aca="true">IF(L13=0,E13,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10125,17 +10222,21 @@
         <f aca="false">IF(D14="","",VLOOKUP(D14, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G14" s="31" t="str">
-        <f aca="true">IF(H14="", IF(I14="","",(INDIRECT("M" &amp; ROW() - 1) - M14)),IF(I14="", "", INDIRECT("M" &amp; ROW() - 1) - M14))</f>
-        <v/>
-      </c>
-      <c r="H14" s="31" t="str">
-        <f aca="false">IF(D14="", "", IF(I14="-", "", E14 * IF(F14="",1,F14)))</f>
-        <v/>
-      </c>
-      <c r="J14" s="9" t="n">
-        <f aca="true">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E14 * F14)</f>
-        <v>0</v>
+      <c r="F14" s="32" t="str">
+        <f aca="true">IF(L14=0, "", H14 - G14 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G14" s="32" t="str">
+        <f aca="true">IF(L14=0, "", _xlfn.CEILING.MATH(H14 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H14" s="32" t="str">
+        <f aca="false">IF(L14=0, "", -N14)</f>
+        <v/>
+      </c>
+      <c r="J14" s="9" t="e">
+        <f aca="false">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E14 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="true">IF(I14 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J14)))), 0)</f>
@@ -10147,6 +10248,10 @@
       </c>
       <c r="M14" s="0" t="n">
         <f aca="true">IF(K14 = 0, INDIRECT("M" &amp; ROW() - 1), K14)</f>
+        <v>0</v>
+      </c>
+      <c r="N14" s="33" t="n">
+        <f aca="true">IF(L14=0,E14,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10159,17 +10264,21 @@
         <f aca="false">IF(D15="","",VLOOKUP(D15, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G15" s="31" t="str">
-        <f aca="true">IF(H15="", IF(I15="","",(INDIRECT("M" &amp; ROW() - 1) - M15)),IF(I15="", "", INDIRECT("M" &amp; ROW() - 1) - M15))</f>
-        <v/>
-      </c>
-      <c r="H15" s="31" t="str">
-        <f aca="false">IF(D15="", "", IF(I15="-", "", E15 * IF(F15="",1,F15)))</f>
-        <v/>
-      </c>
-      <c r="J15" s="9" t="n">
-        <f aca="true">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E15 * F15)</f>
-        <v>0</v>
+      <c r="F15" s="32" t="str">
+        <f aca="true">IF(L15=0, "", H15 - G15 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G15" s="32" t="str">
+        <f aca="true">IF(L15=0, "", _xlfn.CEILING.MATH(H15 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H15" s="32" t="str">
+        <f aca="false">IF(L15=0, "", -N15)</f>
+        <v/>
+      </c>
+      <c r="J15" s="9" t="e">
+        <f aca="false">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E15 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="true">IF(I15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J15)))), 0)</f>
@@ -10181,6 +10290,10 @@
       </c>
       <c r="M15" s="0" t="n">
         <f aca="true">IF(K15 = 0, INDIRECT("M" &amp; ROW() - 1), K15)</f>
+        <v>0</v>
+      </c>
+      <c r="N15" s="33" t="n">
+        <f aca="true">IF(L15=0,E15,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10193,17 +10306,21 @@
         <f aca="false">IF(D16="","",VLOOKUP(D16, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G16" s="31" t="str">
-        <f aca="true">IF(H16="", IF(I16="","",(INDIRECT("M" &amp; ROW() - 1) - M16)),IF(I16="", "", INDIRECT("M" &amp; ROW() - 1) - M16))</f>
-        <v/>
-      </c>
-      <c r="H16" s="31" t="str">
-        <f aca="false">IF(D16="", "", IF(I16="-", "", E16 * IF(F16="",1,F16)))</f>
-        <v/>
-      </c>
-      <c r="J16" s="9" t="n">
-        <f aca="true">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E16 * F16)</f>
-        <v>0</v>
+      <c r="F16" s="32" t="str">
+        <f aca="true">IF(L16=0, "", H16 - G16 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G16" s="32" t="str">
+        <f aca="true">IF(L16=0, "", _xlfn.CEILING.MATH(H16 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H16" s="32" t="str">
+        <f aca="false">IF(L16=0, "", -N16)</f>
+        <v/>
+      </c>
+      <c r="J16" s="9" t="e">
+        <f aca="false">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E16 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="true">IF(I16 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J16)))), 0)</f>
@@ -10215,6 +10332,10 @@
       </c>
       <c r="M16" s="0" t="n">
         <f aca="true">IF(K16 = 0, INDIRECT("M" &amp; ROW() - 1), K16)</f>
+        <v>0</v>
+      </c>
+      <c r="N16" s="33" t="n">
+        <f aca="true">IF(L16=0,E16,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10227,17 +10348,21 @@
         <f aca="false">IF(D17="","",VLOOKUP(D17, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G17" s="31" t="str">
-        <f aca="true">IF(H17="", IF(I17="","",(INDIRECT("M" &amp; ROW() - 1) - M17)),IF(I17="", "", INDIRECT("M" &amp; ROW() - 1) - M17))</f>
-        <v/>
-      </c>
-      <c r="H17" s="31" t="str">
-        <f aca="false">IF(D17="", "", IF(I17="-", "", E17 * IF(F17="",1,F17)))</f>
-        <v/>
-      </c>
-      <c r="J17" s="9" t="n">
-        <f aca="true">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E17 * F17)</f>
-        <v>0</v>
+      <c r="F17" s="32" t="str">
+        <f aca="true">IF(L17=0, "", H17 - G17 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G17" s="32" t="str">
+        <f aca="true">IF(L17=0, "", _xlfn.CEILING.MATH(H17 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H17" s="32" t="str">
+        <f aca="false">IF(L17=0, "", -N17)</f>
+        <v/>
+      </c>
+      <c r="J17" s="9" t="e">
+        <f aca="false">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E17 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="true">IF(I17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J17)))), 0)</f>
@@ -10249,6 +10374,10 @@
       </c>
       <c r="M17" s="0" t="n">
         <f aca="true">IF(K17 = 0, INDIRECT("M" &amp; ROW() - 1), K17)</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="33" t="n">
+        <f aca="true">IF(L17=0,E17,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10261,17 +10390,21 @@
         <f aca="false">IF(D18="","",VLOOKUP(D18, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G18" s="31" t="str">
-        <f aca="true">IF(H18="", IF(I18="","",(INDIRECT("M" &amp; ROW() - 1) - M18)),IF(I18="", "", INDIRECT("M" &amp; ROW() - 1) - M18))</f>
-        <v/>
-      </c>
-      <c r="H18" s="31" t="str">
-        <f aca="false">IF(D18="", "", IF(I18="-", "", E18 * IF(F18="",1,F18)))</f>
-        <v/>
-      </c>
-      <c r="J18" s="9" t="n">
-        <f aca="true">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E18 * F18)</f>
-        <v>0</v>
+      <c r="F18" s="32" t="str">
+        <f aca="true">IF(L18=0, "", H18 - G18 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G18" s="32" t="str">
+        <f aca="true">IF(L18=0, "", _xlfn.CEILING.MATH(H18 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H18" s="32" t="str">
+        <f aca="false">IF(L18=0, "", -N18)</f>
+        <v/>
+      </c>
+      <c r="J18" s="9" t="e">
+        <f aca="false">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E18 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="true">IF(I18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J18)))), 0)</f>
@@ -10283,6 +10416,10 @@
       </c>
       <c r="M18" s="0" t="n">
         <f aca="true">IF(K18 = 0, INDIRECT("M" &amp; ROW() - 1), K18)</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="33" t="n">
+        <f aca="true">IF(L18=0,E18,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10295,17 +10432,21 @@
         <f aca="false">IF(D19="","",VLOOKUP(D19, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G19" s="31" t="str">
-        <f aca="true">IF(H19="", IF(I19="","",(INDIRECT("M" &amp; ROW() - 1) - M19)),IF(I19="", "", INDIRECT("M" &amp; ROW() - 1) - M19))</f>
-        <v/>
-      </c>
-      <c r="H19" s="31" t="str">
-        <f aca="false">IF(D19="", "", IF(I19="-", "", E19 * IF(F19="",1,F19)))</f>
-        <v/>
-      </c>
-      <c r="J19" s="9" t="n">
-        <f aca="true">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E19 * F19)</f>
-        <v>0</v>
+      <c r="F19" s="32" t="str">
+        <f aca="true">IF(L19=0, "", H19 - G19 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G19" s="32" t="str">
+        <f aca="true">IF(L19=0, "", _xlfn.CEILING.MATH(H19 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H19" s="32" t="str">
+        <f aca="false">IF(L19=0, "", -N19)</f>
+        <v/>
+      </c>
+      <c r="J19" s="9" t="e">
+        <f aca="false">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E19 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="true">IF(I19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J19)))), 0)</f>
@@ -10317,6 +10458,10 @@
       </c>
       <c r="M19" s="0" t="n">
         <f aca="true">IF(K19 = 0, INDIRECT("M" &amp; ROW() - 1), K19)</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="33" t="n">
+        <f aca="true">IF(L19=0,E19,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10329,17 +10474,21 @@
         <f aca="false">IF(D20="","",VLOOKUP(D20, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G20" s="31" t="str">
-        <f aca="true">IF(H20="", IF(I20="","",(INDIRECT("M" &amp; ROW() - 1) - M20)),IF(I20="", "", INDIRECT("M" &amp; ROW() - 1) - M20))</f>
-        <v/>
-      </c>
-      <c r="H20" s="31" t="str">
-        <f aca="false">IF(D20="", "", IF(I20="-", "", E20 * IF(F20="",1,F20)))</f>
-        <v/>
-      </c>
-      <c r="J20" s="9" t="n">
-        <f aca="true">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E20 * F20)</f>
-        <v>0</v>
+      <c r="F20" s="32" t="str">
+        <f aca="true">IF(L20=0, "", H20 - G20 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G20" s="32" t="str">
+        <f aca="true">IF(L20=0, "", _xlfn.CEILING.MATH(H20 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H20" s="32" t="str">
+        <f aca="false">IF(L20=0, "", -N20)</f>
+        <v/>
+      </c>
+      <c r="J20" s="9" t="e">
+        <f aca="false">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E20 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="true">IF(I20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J20)))), 0)</f>
@@ -10351,6 +10500,10 @@
       </c>
       <c r="M20" s="0" t="n">
         <f aca="true">IF(K20 = 0, INDIRECT("M" &amp; ROW() - 1), K20)</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="33" t="n">
+        <f aca="true">IF(L20=0,E20,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10363,17 +10516,21 @@
         <f aca="false">IF(D21="","",VLOOKUP(D21, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G21" s="31" t="str">
-        <f aca="true">IF(H21="", IF(I21="","",(INDIRECT("M" &amp; ROW() - 1) - M21)),IF(I21="", "", INDIRECT("M" &amp; ROW() - 1) - M21))</f>
-        <v/>
-      </c>
-      <c r="H21" s="31" t="str">
-        <f aca="false">IF(D21="", "", IF(I21="-", "", E21 * IF(F21="",1,F21)))</f>
-        <v/>
-      </c>
-      <c r="J21" s="9" t="n">
-        <f aca="true">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E21 * F21)</f>
-        <v>0</v>
+      <c r="F21" s="32" t="str">
+        <f aca="true">IF(L21=0, "", H21 - G21 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G21" s="32" t="str">
+        <f aca="true">IF(L21=0, "", _xlfn.CEILING.MATH(H21 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H21" s="32" t="str">
+        <f aca="false">IF(L21=0, "", -N21)</f>
+        <v/>
+      </c>
+      <c r="J21" s="9" t="e">
+        <f aca="false">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E21 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="true">IF(I21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J21)))), 0)</f>
@@ -10385,6 +10542,10 @@
       </c>
       <c r="M21" s="0" t="n">
         <f aca="true">IF(K21 = 0, INDIRECT("M" &amp; ROW() - 1), K21)</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="33" t="n">
+        <f aca="true">IF(L21=0,E21,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10397,17 +10558,21 @@
         <f aca="false">IF(D22="","",VLOOKUP(D22, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G22" s="31" t="str">
-        <f aca="true">IF(H22="", IF(I22="","",(INDIRECT("M" &amp; ROW() - 1) - M22)),IF(I22="", "", INDIRECT("M" &amp; ROW() - 1) - M22))</f>
-        <v/>
-      </c>
-      <c r="H22" s="31" t="str">
-        <f aca="false">IF(D22="", "", IF(I22="-", "", E22 * IF(F22="",1,F22)))</f>
-        <v/>
-      </c>
-      <c r="J22" s="9" t="n">
-        <f aca="true">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E22 * F22)</f>
-        <v>0</v>
+      <c r="F22" s="32" t="str">
+        <f aca="true">IF(L22=0, "", H22 - G22 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G22" s="32" t="str">
+        <f aca="true">IF(L22=0, "", _xlfn.CEILING.MATH(H22 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H22" s="32" t="str">
+        <f aca="false">IF(L22=0, "", -N22)</f>
+        <v/>
+      </c>
+      <c r="J22" s="9" t="e">
+        <f aca="false">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E22 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="true">IF(I22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J22)))), 0)</f>
@@ -10419,6 +10584,10 @@
       </c>
       <c r="M22" s="0" t="n">
         <f aca="true">IF(K22 = 0, INDIRECT("M" &amp; ROW() - 1), K22)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="33" t="n">
+        <f aca="true">IF(L22=0,E22,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10431,17 +10600,21 @@
         <f aca="false">IF(D23="","",VLOOKUP(D23, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G23" s="31" t="str">
-        <f aca="true">IF(H23="", IF(I23="","",(INDIRECT("M" &amp; ROW() - 1) - M23)),IF(I23="", "", INDIRECT("M" &amp; ROW() - 1) - M23))</f>
-        <v/>
-      </c>
-      <c r="H23" s="31" t="str">
-        <f aca="false">IF(D23="", "", IF(I23="-", "", E23 * IF(F23="",1,F23)))</f>
-        <v/>
-      </c>
-      <c r="J23" s="9" t="n">
-        <f aca="true">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E23 * F23)</f>
-        <v>0</v>
+      <c r="F23" s="32" t="str">
+        <f aca="true">IF(L23=0, "", H23 - G23 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G23" s="32" t="str">
+        <f aca="true">IF(L23=0, "", _xlfn.CEILING.MATH(H23 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H23" s="32" t="str">
+        <f aca="false">IF(L23=0, "", -N23)</f>
+        <v/>
+      </c>
+      <c r="J23" s="9" t="e">
+        <f aca="false">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E23 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K23" s="0" t="n">
         <f aca="true">IF(I23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J23)))), 0)</f>
@@ -10453,6 +10626,10 @@
       </c>
       <c r="M23" s="0" t="n">
         <f aca="true">IF(K23 = 0, INDIRECT("M" &amp; ROW() - 1), K23)</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="33" t="n">
+        <f aca="true">IF(L23=0,E23,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10465,17 +10642,21 @@
         <f aca="false">IF(D24="","",VLOOKUP(D24, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G24" s="31" t="str">
-        <f aca="true">IF(H24="", IF(I24="","",(INDIRECT("M" &amp; ROW() - 1) - M24)),IF(I24="", "", INDIRECT("M" &amp; ROW() - 1) - M24))</f>
-        <v/>
-      </c>
-      <c r="H24" s="31" t="str">
-        <f aca="false">IF(D24="", "", IF(I24="-", "", E24 * IF(F24="",1,F24)))</f>
-        <v/>
-      </c>
-      <c r="J24" s="9" t="n">
-        <f aca="true">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E24 * F24)</f>
-        <v>0</v>
+      <c r="F24" s="32" t="str">
+        <f aca="true">IF(L24=0, "", H24 - G24 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G24" s="32" t="str">
+        <f aca="true">IF(L24=0, "", _xlfn.CEILING.MATH(H24 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H24" s="32" t="str">
+        <f aca="false">IF(L24=0, "", -N24)</f>
+        <v/>
+      </c>
+      <c r="J24" s="9" t="e">
+        <f aca="false">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E24 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K24" s="0" t="n">
         <f aca="true">IF(I24 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J24)))), 0)</f>
@@ -10487,6 +10668,10 @@
       </c>
       <c r="M24" s="0" t="n">
         <f aca="true">IF(K24 = 0, INDIRECT("M" &amp; ROW() - 1), K24)</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="33" t="n">
+        <f aca="true">IF(L24=0,E24,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10499,17 +10684,21 @@
         <f aca="false">IF(D25="","",VLOOKUP(D25, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G25" s="31" t="str">
-        <f aca="true">IF(H25="", IF(I25="","",(INDIRECT("M" &amp; ROW() - 1) - M25)),IF(I25="", "", INDIRECT("M" &amp; ROW() - 1) - M25))</f>
-        <v/>
-      </c>
-      <c r="H25" s="31" t="str">
-        <f aca="false">IF(D25="", "", IF(I25="-", "", E25 * IF(F25="",1,F25)))</f>
-        <v/>
-      </c>
-      <c r="J25" s="9" t="n">
-        <f aca="true">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E25 * F25)</f>
-        <v>0</v>
+      <c r="F25" s="32" t="str">
+        <f aca="true">IF(L25=0, "", H25 - G25 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G25" s="32" t="str">
+        <f aca="true">IF(L25=0, "", _xlfn.CEILING.MATH(H25 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H25" s="32" t="str">
+        <f aca="false">IF(L25=0, "", -N25)</f>
+        <v/>
+      </c>
+      <c r="J25" s="9" t="e">
+        <f aca="false">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E25 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K25" s="0" t="n">
         <f aca="true">IF(I25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J25)))), 0)</f>
@@ -10521,6 +10710,10 @@
       </c>
       <c r="M25" s="0" t="n">
         <f aca="true">IF(K25 = 0, INDIRECT("M" &amp; ROW() - 1), K25)</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="33" t="n">
+        <f aca="true">IF(L25=0,E25,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10533,17 +10726,21 @@
         <f aca="false">IF(D26="","",VLOOKUP(D26, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G26" s="31" t="str">
-        <f aca="true">IF(H26="", IF(I26="","",(INDIRECT("M" &amp; ROW() - 1) - M26)),IF(I26="", "", INDIRECT("M" &amp; ROW() - 1) - M26))</f>
-        <v/>
-      </c>
-      <c r="H26" s="31" t="str">
-        <f aca="false">IF(D26="", "", IF(I26="-", "", E26 * IF(F26="",1,F26)))</f>
-        <v/>
-      </c>
-      <c r="J26" s="9" t="n">
-        <f aca="true">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E26 * F26)</f>
-        <v>0</v>
+      <c r="F26" s="32" t="str">
+        <f aca="true">IF(L26=0, "", H26 - G26 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G26" s="32" t="str">
+        <f aca="true">IF(L26=0, "", _xlfn.CEILING.MATH(H26 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H26" s="32" t="str">
+        <f aca="false">IF(L26=0, "", -N26)</f>
+        <v/>
+      </c>
+      <c r="J26" s="9" t="e">
+        <f aca="false">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E26 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K26" s="0" t="n">
         <f aca="true">IF(I26 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J26)))), 0)</f>
@@ -10555,6 +10752,10 @@
       </c>
       <c r="M26" s="0" t="n">
         <f aca="true">IF(K26 = 0, INDIRECT("M" &amp; ROW() - 1), K26)</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="33" t="n">
+        <f aca="true">IF(L26=0,E26,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10567,17 +10768,21 @@
         <f aca="false">IF(D27="","",VLOOKUP(D27, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G27" s="31" t="str">
-        <f aca="true">IF(H27="", IF(I27="","",(INDIRECT("M" &amp; ROW() - 1) - M27)),IF(I27="", "", INDIRECT("M" &amp; ROW() - 1) - M27))</f>
-        <v/>
-      </c>
-      <c r="H27" s="31" t="str">
-        <f aca="false">IF(D27="", "", IF(I27="-", "", E27 * IF(F27="",1,F27)))</f>
-        <v/>
-      </c>
-      <c r="J27" s="9" t="n">
-        <f aca="true">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E27 * F27)</f>
-        <v>0</v>
+      <c r="F27" s="32" t="str">
+        <f aca="true">IF(L27=0, "", H27 - G27 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G27" s="32" t="str">
+        <f aca="true">IF(L27=0, "", _xlfn.CEILING.MATH(H27 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H27" s="32" t="str">
+        <f aca="false">IF(L27=0, "", -N27)</f>
+        <v/>
+      </c>
+      <c r="J27" s="9" t="e">
+        <f aca="false">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E27 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K27" s="0" t="n">
         <f aca="true">IF(I27 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J27)))), 0)</f>
@@ -10589,6 +10794,10 @@
       </c>
       <c r="M27" s="0" t="n">
         <f aca="true">IF(K27 = 0, INDIRECT("M" &amp; ROW() - 1), K27)</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="33" t="n">
+        <f aca="true">IF(L27=0,E27,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10601,17 +10810,21 @@
         <f aca="false">IF(D28="","",VLOOKUP(D28, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G28" s="31" t="str">
-        <f aca="true">IF(H28="", IF(I28="","",(INDIRECT("M" &amp; ROW() - 1) - M28)),IF(I28="", "", INDIRECT("M" &amp; ROW() - 1) - M28))</f>
-        <v/>
-      </c>
-      <c r="H28" s="31" t="str">
-        <f aca="false">IF(D28="", "", IF(I28="-", "", E28 * IF(F28="",1,F28)))</f>
-        <v/>
-      </c>
-      <c r="J28" s="9" t="n">
-        <f aca="true">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E28 * F28)</f>
-        <v>0</v>
+      <c r="F28" s="32" t="str">
+        <f aca="true">IF(L28=0, "", H28 - G28 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G28" s="32" t="str">
+        <f aca="true">IF(L28=0, "", _xlfn.CEILING.MATH(H28 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H28" s="32" t="str">
+        <f aca="false">IF(L28=0, "", -N28)</f>
+        <v/>
+      </c>
+      <c r="J28" s="9" t="e">
+        <f aca="false">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E28 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K28" s="0" t="n">
         <f aca="true">IF(I28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J28)))), 0)</f>
@@ -10623,6 +10836,10 @@
       </c>
       <c r="M28" s="0" t="n">
         <f aca="true">IF(K28 = 0, INDIRECT("M" &amp; ROW() - 1), K28)</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="33" t="n">
+        <f aca="true">IF(L28=0,E28,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10635,17 +10852,21 @@
         <f aca="false">IF(D29="","",VLOOKUP(D29, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G29" s="31" t="str">
-        <f aca="true">IF(H29="", IF(I29="","",(INDIRECT("M" &amp; ROW() - 1) - M29)),IF(I29="", "", INDIRECT("M" &amp; ROW() - 1) - M29))</f>
-        <v/>
-      </c>
-      <c r="H29" s="31" t="str">
-        <f aca="false">IF(D29="", "", IF(I29="-", "", E29 * IF(F29="",1,F29)))</f>
-        <v/>
-      </c>
-      <c r="J29" s="9" t="n">
-        <f aca="true">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E29 * F29)</f>
-        <v>0</v>
+      <c r="F29" s="32" t="str">
+        <f aca="true">IF(L29=0, "", H29 - G29 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G29" s="32" t="str">
+        <f aca="true">IF(L29=0, "", _xlfn.CEILING.MATH(H29 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H29" s="32" t="str">
+        <f aca="false">IF(L29=0, "", -N29)</f>
+        <v/>
+      </c>
+      <c r="J29" s="9" t="e">
+        <f aca="false">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E29 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K29" s="0" t="n">
         <f aca="true">IF(I29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J29)))), 0)</f>
@@ -10657,6 +10878,10 @@
       </c>
       <c r="M29" s="0" t="n">
         <f aca="true">IF(K29 = 0, INDIRECT("M" &amp; ROW() - 1), K29)</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="33" t="n">
+        <f aca="true">IF(L29=0,E29,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10669,17 +10894,21 @@
         <f aca="false">IF(D30="","",VLOOKUP(D30, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G30" s="31" t="str">
-        <f aca="true">IF(H30="", IF(I30="","",(INDIRECT("M" &amp; ROW() - 1) - M30)),IF(I30="", "", INDIRECT("M" &amp; ROW() - 1) - M30))</f>
-        <v/>
-      </c>
-      <c r="H30" s="31" t="str">
-        <f aca="false">IF(D30="", "", IF(I30="-", "", E30 * IF(F30="",1,F30)))</f>
-        <v/>
-      </c>
-      <c r="J30" s="9" t="n">
-        <f aca="true">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E30 * F30)</f>
-        <v>0</v>
+      <c r="F30" s="32" t="str">
+        <f aca="true">IF(L30=0, "", H30 - G30 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G30" s="32" t="str">
+        <f aca="true">IF(L30=0, "", _xlfn.CEILING.MATH(H30 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H30" s="32" t="str">
+        <f aca="false">IF(L30=0, "", -N30)</f>
+        <v/>
+      </c>
+      <c r="J30" s="9" t="e">
+        <f aca="false">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E30 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K30" s="0" t="n">
         <f aca="true">IF(I30 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J30)))), 0)</f>
@@ -10691,6 +10920,10 @@
       </c>
       <c r="M30" s="0" t="n">
         <f aca="true">IF(K30 = 0, INDIRECT("M" &amp; ROW() - 1), K30)</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="33" t="n">
+        <f aca="true">IF(L30=0,E30,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10703,17 +10936,21 @@
         <f aca="false">IF(D31="","",VLOOKUP(D31, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G31" s="31" t="str">
-        <f aca="true">IF(H31="", IF(I31="","",(INDIRECT("M" &amp; ROW() - 1) - M31)),IF(I31="", "", INDIRECT("M" &amp; ROW() - 1) - M31))</f>
-        <v/>
-      </c>
-      <c r="H31" s="31" t="str">
-        <f aca="false">IF(D31="", "", IF(I31="-", "", E31 * IF(F31="",1,F31)))</f>
-        <v/>
-      </c>
-      <c r="J31" s="9" t="n">
-        <f aca="true">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E31 * F31)</f>
-        <v>0</v>
+      <c r="F31" s="32" t="str">
+        <f aca="true">IF(L31=0, "", H31 - G31 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G31" s="32" t="str">
+        <f aca="true">IF(L31=0, "", _xlfn.CEILING.MATH(H31 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H31" s="32" t="str">
+        <f aca="false">IF(L31=0, "", -N31)</f>
+        <v/>
+      </c>
+      <c r="J31" s="9" t="e">
+        <f aca="false">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E31 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K31" s="0" t="n">
         <f aca="true">IF(I31 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J31)))), 0)</f>
@@ -10725,6 +10962,10 @@
       </c>
       <c r="M31" s="0" t="n">
         <f aca="true">IF(K31 = 0, INDIRECT("M" &amp; ROW() - 1), K31)</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="33" t="n">
+        <f aca="true">IF(L31=0,E31,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10737,17 +10978,21 @@
         <f aca="false">IF(D32="","",VLOOKUP(D32, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G32" s="31" t="str">
-        <f aca="true">IF(H32="", IF(I32="","",(INDIRECT("M" &amp; ROW() - 1) - M32)),IF(I32="", "", INDIRECT("M" &amp; ROW() - 1) - M32))</f>
-        <v/>
-      </c>
-      <c r="H32" s="31" t="str">
-        <f aca="false">IF(D32="", "", IF(I32="-", "", E32 * IF(F32="",1,F32)))</f>
-        <v/>
-      </c>
-      <c r="J32" s="9" t="n">
-        <f aca="true">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E32 * F32)</f>
-        <v>0</v>
+      <c r="F32" s="32" t="str">
+        <f aca="true">IF(L32=0, "", H32 - G32 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G32" s="32" t="str">
+        <f aca="true">IF(L32=0, "", _xlfn.CEILING.MATH(H32 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H32" s="32" t="str">
+        <f aca="false">IF(L32=0, "", -N32)</f>
+        <v/>
+      </c>
+      <c r="J32" s="9" t="e">
+        <f aca="false">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E32 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K32" s="0" t="n">
         <f aca="true">IF(I32 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J32)))), 0)</f>
@@ -10759,6 +11004,10 @@
       </c>
       <c r="M32" s="0" t="n">
         <f aca="true">IF(K32 = 0, INDIRECT("M" &amp; ROW() - 1), K32)</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="33" t="n">
+        <f aca="true">IF(L32=0,E32,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10771,17 +11020,21 @@
         <f aca="false">IF(D33="","",VLOOKUP(D33, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G33" s="31" t="str">
-        <f aca="true">IF(H33="", IF(I33="","",(INDIRECT("M" &amp; ROW() - 1) - M33)),IF(I33="", "", INDIRECT("M" &amp; ROW() - 1) - M33))</f>
-        <v/>
-      </c>
-      <c r="H33" s="31" t="str">
-        <f aca="false">IF(D33="", "", IF(I33="-", "", E33 * IF(F33="",1,F33)))</f>
-        <v/>
-      </c>
-      <c r="J33" s="9" t="n">
-        <f aca="true">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E33 * F33)</f>
-        <v>0</v>
+      <c r="F33" s="32" t="str">
+        <f aca="true">IF(L33=0, "", H33 - G33 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G33" s="32" t="str">
+        <f aca="true">IF(L33=0, "", _xlfn.CEILING.MATH(H33 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H33" s="32" t="str">
+        <f aca="false">IF(L33=0, "", -N33)</f>
+        <v/>
+      </c>
+      <c r="J33" s="9" t="e">
+        <f aca="false">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E33 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K33" s="0" t="n">
         <f aca="true">IF(I33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J33)))), 0)</f>
@@ -10793,6 +11046,10 @@
       </c>
       <c r="M33" s="0" t="n">
         <f aca="true">IF(K33 = 0, INDIRECT("M" &amp; ROW() - 1), K33)</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="33" t="n">
+        <f aca="true">IF(L33=0,E33,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10805,17 +11062,21 @@
         <f aca="false">IF(D34="","",VLOOKUP(D34, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G34" s="31" t="str">
-        <f aca="true">IF(H34="", IF(I34="","",(INDIRECT("M" &amp; ROW() - 1) - M34)),IF(I34="", "", INDIRECT("M" &amp; ROW() - 1) - M34))</f>
-        <v/>
-      </c>
-      <c r="H34" s="31" t="str">
-        <f aca="false">IF(D34="", "", IF(I34="-", "", E34 * IF(F34="",1,F34)))</f>
-        <v/>
-      </c>
-      <c r="J34" s="9" t="n">
-        <f aca="true">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E34 * F34)</f>
-        <v>0</v>
+      <c r="F34" s="32" t="str">
+        <f aca="true">IF(L34=0, "", H34 - G34 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G34" s="32" t="str">
+        <f aca="true">IF(L34=0, "", _xlfn.CEILING.MATH(H34 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H34" s="32" t="str">
+        <f aca="false">IF(L34=0, "", -N34)</f>
+        <v/>
+      </c>
+      <c r="J34" s="9" t="e">
+        <f aca="false">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E34 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K34" s="0" t="n">
         <f aca="true">IF(I34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J34)))), 0)</f>
@@ -10827,6 +11088,10 @@
       </c>
       <c r="M34" s="0" t="n">
         <f aca="true">IF(K34 = 0, INDIRECT("M" &amp; ROW() - 1), K34)</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="33" t="n">
+        <f aca="true">IF(L34=0,E34,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10839,17 +11104,21 @@
         <f aca="false">IF(D35="","",VLOOKUP(D35, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G35" s="31" t="str">
-        <f aca="true">IF(H35="", IF(I35="","",(INDIRECT("M" &amp; ROW() - 1) - M35)),IF(I35="", "", INDIRECT("M" &amp; ROW() - 1) - M35))</f>
-        <v/>
-      </c>
-      <c r="H35" s="31" t="str">
-        <f aca="false">IF(D35="", "", IF(I35="-", "", E35 * IF(F35="",1,F35)))</f>
-        <v/>
-      </c>
-      <c r="J35" s="9" t="n">
-        <f aca="true">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E35 * F35)</f>
-        <v>0</v>
+      <c r="F35" s="32" t="str">
+        <f aca="true">IF(L35=0, "", H35 - G35 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G35" s="32" t="str">
+        <f aca="true">IF(L35=0, "", _xlfn.CEILING.MATH(H35 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H35" s="32" t="str">
+        <f aca="false">IF(L35=0, "", -N35)</f>
+        <v/>
+      </c>
+      <c r="J35" s="9" t="e">
+        <f aca="false">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E35 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K35" s="0" t="n">
         <f aca="true">IF(I35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J35)))), 0)</f>
@@ -10861,6 +11130,10 @@
       </c>
       <c r="M35" s="0" t="n">
         <f aca="true">IF(K35 = 0, INDIRECT("M" &amp; ROW() - 1), K35)</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="33" t="n">
+        <f aca="true">IF(L35=0,E35,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10873,17 +11146,21 @@
         <f aca="false">IF(D36="","",VLOOKUP(D36, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G36" s="31" t="str">
-        <f aca="true">IF(H36="", IF(I36="","",(INDIRECT("M" &amp; ROW() - 1) - M36)),IF(I36="", "", INDIRECT("M" &amp; ROW() - 1) - M36))</f>
-        <v/>
-      </c>
-      <c r="H36" s="31" t="str">
-        <f aca="false">IF(D36="", "", IF(I36="-", "", E36 * IF(F36="",1,F36)))</f>
-        <v/>
-      </c>
-      <c r="J36" s="9" t="n">
-        <f aca="true">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E36 * F36)</f>
-        <v>0</v>
+      <c r="F36" s="32" t="str">
+        <f aca="true">IF(L36=0, "", H36 - G36 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G36" s="32" t="str">
+        <f aca="true">IF(L36=0, "", _xlfn.CEILING.MATH(H36 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H36" s="32" t="str">
+        <f aca="false">IF(L36=0, "", -N36)</f>
+        <v/>
+      </c>
+      <c r="J36" s="9" t="e">
+        <f aca="false">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E36 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K36" s="0" t="n">
         <f aca="true">IF(I36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J36)))), 0)</f>
@@ -10895,6 +11172,10 @@
       </c>
       <c r="M36" s="0" t="n">
         <f aca="true">IF(K36 = 0, INDIRECT("M" &amp; ROW() - 1), K36)</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="33" t="n">
+        <f aca="true">IF(L36=0,E36,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10907,17 +11188,21 @@
         <f aca="false">IF(D37="","",VLOOKUP(D37, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G37" s="31" t="str">
-        <f aca="true">IF(H37="", IF(I37="","",(INDIRECT("M" &amp; ROW() - 1) - M37)),IF(I37="", "", INDIRECT("M" &amp; ROW() - 1) - M37))</f>
-        <v/>
-      </c>
-      <c r="H37" s="31" t="str">
-        <f aca="false">IF(D37="", "", IF(I37="-", "", E37 * IF(F37="",1,F37)))</f>
-        <v/>
-      </c>
-      <c r="J37" s="9" t="n">
-        <f aca="true">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E37 * F37)</f>
-        <v>0</v>
+      <c r="F37" s="32" t="str">
+        <f aca="true">IF(L37=0, "", H37 - G37 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G37" s="32" t="str">
+        <f aca="true">IF(L37=0, "", _xlfn.CEILING.MATH(H37 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H37" s="32" t="str">
+        <f aca="false">IF(L37=0, "", -N37)</f>
+        <v/>
+      </c>
+      <c r="J37" s="9" t="e">
+        <f aca="false">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E37 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K37" s="0" t="n">
         <f aca="true">IF(I37 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J37)))), 0)</f>
@@ -10929,6 +11214,10 @@
       </c>
       <c r="M37" s="0" t="n">
         <f aca="true">IF(K37 = 0, INDIRECT("M" &amp; ROW() - 1), K37)</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="33" t="n">
+        <f aca="true">IF(L37=0,E37,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10941,17 +11230,21 @@
         <f aca="false">IF(D38="","",VLOOKUP(D38, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G38" s="31" t="str">
-        <f aca="true">IF(H38="", IF(I38="","",(INDIRECT("M" &amp; ROW() - 1) - M38)),IF(I38="", "", INDIRECT("M" &amp; ROW() - 1) - M38))</f>
-        <v/>
-      </c>
-      <c r="H38" s="31" t="str">
-        <f aca="false">IF(D38="", "", IF(I38="-", "", E38 * IF(F38="",1,F38)))</f>
-        <v/>
-      </c>
-      <c r="J38" s="9" t="n">
-        <f aca="true">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E38 * F38)</f>
-        <v>0</v>
+      <c r="F38" s="32" t="str">
+        <f aca="true">IF(L38=0, "", H38 - G38 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G38" s="32" t="str">
+        <f aca="true">IF(L38=0, "", _xlfn.CEILING.MATH(H38 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H38" s="32" t="str">
+        <f aca="false">IF(L38=0, "", -N38)</f>
+        <v/>
+      </c>
+      <c r="J38" s="9" t="e">
+        <f aca="false">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E38 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K38" s="0" t="n">
         <f aca="true">IF(I38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J38)))), 0)</f>
@@ -10963,6 +11256,10 @@
       </c>
       <c r="M38" s="0" t="n">
         <f aca="true">IF(K38 = 0, INDIRECT("M" &amp; ROW() - 1), K38)</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="33" t="n">
+        <f aca="true">IF(L38=0,E38,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -10975,17 +11272,21 @@
         <f aca="false">IF(D39="","",VLOOKUP(D39, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G39" s="31" t="str">
-        <f aca="true">IF(H39="", IF(I39="","",(INDIRECT("M" &amp; ROW() - 1) - M39)),IF(I39="", "", INDIRECT("M" &amp; ROW() - 1) - M39))</f>
-        <v/>
-      </c>
-      <c r="H39" s="31" t="str">
-        <f aca="false">IF(D39="", "", IF(I39="-", "", E39 * IF(F39="",1,F39)))</f>
-        <v/>
-      </c>
-      <c r="J39" s="9" t="n">
-        <f aca="true">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E39 * F39)</f>
-        <v>0</v>
+      <c r="F39" s="32" t="str">
+        <f aca="true">IF(L39=0, "", H39 - G39 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G39" s="32" t="str">
+        <f aca="true">IF(L39=0, "", _xlfn.CEILING.MATH(H39 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H39" s="32" t="str">
+        <f aca="false">IF(L39=0, "", -N39)</f>
+        <v/>
+      </c>
+      <c r="J39" s="9" t="e">
+        <f aca="false">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E39 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K39" s="0" t="n">
         <f aca="true">IF(I39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J39)))), 0)</f>
@@ -10997,6 +11298,10 @@
       </c>
       <c r="M39" s="0" t="n">
         <f aca="true">IF(K39 = 0, INDIRECT("M" &amp; ROW() - 1), K39)</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="33" t="n">
+        <f aca="true">IF(L39=0,E39,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11009,17 +11314,21 @@
         <f aca="false">IF(D40="","",VLOOKUP(D40, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G40" s="31" t="str">
-        <f aca="true">IF(H40="", IF(I40="","",(INDIRECT("M" &amp; ROW() - 1) - M40)),IF(I40="", "", INDIRECT("M" &amp; ROW() - 1) - M40))</f>
-        <v/>
-      </c>
-      <c r="H40" s="31" t="str">
-        <f aca="false">IF(D40="", "", IF(I40="-", "", E40 * IF(F40="",1,F40)))</f>
-        <v/>
-      </c>
-      <c r="J40" s="9" t="n">
-        <f aca="true">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E40 * F40)</f>
-        <v>0</v>
+      <c r="F40" s="32" t="str">
+        <f aca="true">IF(L40=0, "", H40 - G40 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G40" s="32" t="str">
+        <f aca="true">IF(L40=0, "", _xlfn.CEILING.MATH(H40 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H40" s="32" t="str">
+        <f aca="false">IF(L40=0, "", -N40)</f>
+        <v/>
+      </c>
+      <c r="J40" s="9" t="e">
+        <f aca="false">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E40 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K40" s="0" t="n">
         <f aca="true">IF(I40 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J40)))), 0)</f>
@@ -11031,6 +11340,10 @@
       </c>
       <c r="M40" s="0" t="n">
         <f aca="true">IF(K40 = 0, INDIRECT("M" &amp; ROW() - 1), K40)</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="33" t="n">
+        <f aca="true">IF(L40=0,E40,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11043,17 +11356,21 @@
         <f aca="false">IF(D41="","",VLOOKUP(D41, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G41" s="31" t="str">
-        <f aca="true">IF(H41="", IF(I41="","",(INDIRECT("M" &amp; ROW() - 1) - M41)),IF(I41="", "", INDIRECT("M" &amp; ROW() - 1) - M41))</f>
-        <v/>
-      </c>
-      <c r="H41" s="31" t="str">
-        <f aca="false">IF(D41="", "", IF(I41="-", "", E41 * IF(F41="",1,F41)))</f>
-        <v/>
-      </c>
-      <c r="J41" s="9" t="n">
-        <f aca="true">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E41 * F41)</f>
-        <v>0</v>
+      <c r="F41" s="32" t="str">
+        <f aca="true">IF(L41=0, "", H41 - G41 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G41" s="32" t="str">
+        <f aca="true">IF(L41=0, "", _xlfn.CEILING.MATH(H41 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H41" s="32" t="str">
+        <f aca="false">IF(L41=0, "", -N41)</f>
+        <v/>
+      </c>
+      <c r="J41" s="9" t="e">
+        <f aca="false">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E41 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K41" s="0" t="n">
         <f aca="true">IF(I41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J41)))), 0)</f>
@@ -11065,6 +11382,10 @@
       </c>
       <c r="M41" s="0" t="n">
         <f aca="true">IF(K41 = 0, INDIRECT("M" &amp; ROW() - 1), K41)</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="33" t="n">
+        <f aca="true">IF(L41=0,E41,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11077,17 +11398,21 @@
         <f aca="false">IF(D42="","",VLOOKUP(D42, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G42" s="31" t="str">
-        <f aca="true">IF(H42="", IF(I42="","",(INDIRECT("M" &amp; ROW() - 1) - M42)),IF(I42="", "", INDIRECT("M" &amp; ROW() - 1) - M42))</f>
-        <v/>
-      </c>
-      <c r="H42" s="31" t="str">
-        <f aca="false">IF(D42="", "", IF(I42="-", "", E42 * IF(F42="",1,F42)))</f>
-        <v/>
-      </c>
-      <c r="J42" s="9" t="n">
-        <f aca="true">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E42 * F42)</f>
-        <v>0</v>
+      <c r="F42" s="32" t="str">
+        <f aca="true">IF(L42=0, "", H42 - G42 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G42" s="32" t="str">
+        <f aca="true">IF(L42=0, "", _xlfn.CEILING.MATH(H42 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H42" s="32" t="str">
+        <f aca="false">IF(L42=0, "", -N42)</f>
+        <v/>
+      </c>
+      <c r="J42" s="9" t="e">
+        <f aca="false">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E42 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K42" s="0" t="n">
         <f aca="true">IF(I42 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J42)))), 0)</f>
@@ -11099,6 +11424,10 @@
       </c>
       <c r="M42" s="0" t="n">
         <f aca="true">IF(K42 = 0, INDIRECT("M" &amp; ROW() - 1), K42)</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="33" t="n">
+        <f aca="true">IF(L42=0,E42,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11111,17 +11440,21 @@
         <f aca="false">IF(D43="","",VLOOKUP(D43, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G43" s="31" t="str">
-        <f aca="true">IF(H43="", IF(I43="","",(INDIRECT("M" &amp; ROW() - 1) - M43)),IF(I43="", "", INDIRECT("M" &amp; ROW() - 1) - M43))</f>
-        <v/>
-      </c>
-      <c r="H43" s="31" t="str">
-        <f aca="false">IF(D43="", "", IF(I43="-", "", E43 * IF(F43="",1,F43)))</f>
-        <v/>
-      </c>
-      <c r="J43" s="9" t="n">
-        <f aca="true">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E43 * F43)</f>
-        <v>0</v>
+      <c r="F43" s="32" t="str">
+        <f aca="true">IF(L43=0, "", H43 - G43 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G43" s="32" t="str">
+        <f aca="true">IF(L43=0, "", _xlfn.CEILING.MATH(H43 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H43" s="32" t="str">
+        <f aca="false">IF(L43=0, "", -N43)</f>
+        <v/>
+      </c>
+      <c r="J43" s="9" t="e">
+        <f aca="false">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E43 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K43" s="0" t="n">
         <f aca="true">IF(I43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J43)))), 0)</f>
@@ -11133,6 +11466,10 @@
       </c>
       <c r="M43" s="0" t="n">
         <f aca="true">IF(K43 = 0, INDIRECT("M" &amp; ROW() - 1), K43)</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="33" t="n">
+        <f aca="true">IF(L43=0,E43,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11145,17 +11482,21 @@
         <f aca="false">IF(D44="","",VLOOKUP(D44, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G44" s="31" t="str">
-        <f aca="true">IF(H44="", IF(I44="","",(INDIRECT("M" &amp; ROW() - 1) - M44)),IF(I44="", "", INDIRECT("M" &amp; ROW() - 1) - M44))</f>
-        <v/>
-      </c>
-      <c r="H44" s="31" t="str">
-        <f aca="false">IF(D44="", "", IF(I44="-", "", E44 * IF(F44="",1,F44)))</f>
-        <v/>
-      </c>
-      <c r="J44" s="9" t="n">
-        <f aca="true">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E44 * F44)</f>
-        <v>0</v>
+      <c r="F44" s="32" t="str">
+        <f aca="true">IF(L44=0, "", H44 - G44 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G44" s="32" t="str">
+        <f aca="true">IF(L44=0, "", _xlfn.CEILING.MATH(H44 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H44" s="32" t="str">
+        <f aca="false">IF(L44=0, "", -N44)</f>
+        <v/>
+      </c>
+      <c r="J44" s="9" t="e">
+        <f aca="false">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E44 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K44" s="0" t="n">
         <f aca="true">IF(I44 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J44)))), 0)</f>
@@ -11167,6 +11508,10 @@
       </c>
       <c r="M44" s="0" t="n">
         <f aca="true">IF(K44 = 0, INDIRECT("M" &amp; ROW() - 1), K44)</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="33" t="n">
+        <f aca="true">IF(L44=0,E44,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11179,17 +11524,21 @@
         <f aca="false">IF(D45="","",VLOOKUP(D45, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G45" s="31" t="str">
-        <f aca="true">IF(H45="", IF(I45="","",(INDIRECT("M" &amp; ROW() - 1) - M45)),IF(I45="", "", INDIRECT("M" &amp; ROW() - 1) - M45))</f>
-        <v/>
-      </c>
-      <c r="H45" s="31" t="str">
-        <f aca="false">IF(D45="", "", IF(I45="-", "", E45 * IF(F45="",1,F45)))</f>
-        <v/>
-      </c>
-      <c r="J45" s="9" t="n">
-        <f aca="true">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E45 * F45)</f>
-        <v>0</v>
+      <c r="F45" s="32" t="str">
+        <f aca="true">IF(L45=0, "", H45 - G45 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G45" s="32" t="str">
+        <f aca="true">IF(L45=0, "", _xlfn.CEILING.MATH(H45 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H45" s="32" t="str">
+        <f aca="false">IF(L45=0, "", -N45)</f>
+        <v/>
+      </c>
+      <c r="J45" s="9" t="e">
+        <f aca="false">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E45 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K45" s="0" t="n">
         <f aca="true">IF(I45 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J45)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J45)))), 0)</f>
@@ -11201,6 +11550,10 @@
       </c>
       <c r="M45" s="0" t="n">
         <f aca="true">IF(K45 = 0, INDIRECT("M" &amp; ROW() - 1), K45)</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="33" t="n">
+        <f aca="true">IF(L45=0,E45,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11213,17 +11566,21 @@
         <f aca="false">IF(D46="","",VLOOKUP(D46, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G46" s="31" t="str">
-        <f aca="true">IF(H46="", IF(I46="","",(INDIRECT("M" &amp; ROW() - 1) - M46)),IF(I46="", "", INDIRECT("M" &amp; ROW() - 1) - M46))</f>
-        <v/>
-      </c>
-      <c r="H46" s="31" t="str">
-        <f aca="false">IF(D46="", "", IF(I46="-", "", E46 * IF(F46="",1,F46)))</f>
-        <v/>
-      </c>
-      <c r="J46" s="9" t="n">
-        <f aca="true">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E46 * F46)</f>
-        <v>0</v>
+      <c r="F46" s="32" t="str">
+        <f aca="true">IF(L46=0, "", H46 - G46 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G46" s="32" t="str">
+        <f aca="true">IF(L46=0, "", _xlfn.CEILING.MATH(H46 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H46" s="32" t="str">
+        <f aca="false">IF(L46=0, "", -N46)</f>
+        <v/>
+      </c>
+      <c r="J46" s="9" t="e">
+        <f aca="false">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E46 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K46" s="0" t="n">
         <f aca="true">IF(I46 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J46)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J46)))), 0)</f>
@@ -11235,6 +11592,10 @@
       </c>
       <c r="M46" s="0" t="n">
         <f aca="true">IF(K46 = 0, INDIRECT("M" &amp; ROW() - 1), K46)</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="33" t="n">
+        <f aca="true">IF(L46=0,E46,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11247,17 +11608,21 @@
         <f aca="false">IF(D47="","",VLOOKUP(D47, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G47" s="31" t="str">
-        <f aca="true">IF(H47="", IF(I47="","",(INDIRECT("M" &amp; ROW() - 1) - M47)),IF(I47="", "", INDIRECT("M" &amp; ROW() - 1) - M47))</f>
-        <v/>
-      </c>
-      <c r="H47" s="31" t="str">
-        <f aca="false">IF(D47="", "", IF(I47="-", "", E47 * IF(F47="",1,F47)))</f>
-        <v/>
-      </c>
-      <c r="J47" s="9" t="n">
-        <f aca="true">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E47 * F47)</f>
-        <v>0</v>
+      <c r="F47" s="32" t="str">
+        <f aca="true">IF(L47=0, "", H47 - G47 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G47" s="32" t="str">
+        <f aca="true">IF(L47=0, "", _xlfn.CEILING.MATH(H47 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H47" s="32" t="str">
+        <f aca="false">IF(L47=0, "", -N47)</f>
+        <v/>
+      </c>
+      <c r="J47" s="9" t="e">
+        <f aca="false">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E47 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K47" s="0" t="n">
         <f aca="true">IF(I47 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J47)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J47)))), 0)</f>
@@ -11269,6 +11634,10 @@
       </c>
       <c r="M47" s="0" t="n">
         <f aca="true">IF(K47 = 0, INDIRECT("M" &amp; ROW() - 1), K47)</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="33" t="n">
+        <f aca="true">IF(L47=0,E47,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11281,17 +11650,21 @@
         <f aca="false">IF(D48="","",VLOOKUP(D48, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G48" s="31" t="str">
-        <f aca="true">IF(H48="", IF(I48="","",(INDIRECT("M" &amp; ROW() - 1) - M48)),IF(I48="", "", INDIRECT("M" &amp; ROW() - 1) - M48))</f>
-        <v/>
-      </c>
-      <c r="H48" s="31" t="str">
-        <f aca="false">IF(D48="", "", IF(I48="-", "", E48 * IF(F48="",1,F48)))</f>
-        <v/>
-      </c>
-      <c r="J48" s="9" t="n">
-        <f aca="true">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E48 * F48)</f>
-        <v>0</v>
+      <c r="F48" s="32" t="str">
+        <f aca="true">IF(L48=0, "", H48 - G48 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G48" s="32" t="str">
+        <f aca="true">IF(L48=0, "", _xlfn.CEILING.MATH(H48 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H48" s="32" t="str">
+        <f aca="false">IF(L48=0, "", -N48)</f>
+        <v/>
+      </c>
+      <c r="J48" s="9" t="e">
+        <f aca="false">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E48 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K48" s="0" t="n">
         <f aca="true">IF(I48 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J48)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J48)))), 0)</f>
@@ -11303,6 +11676,10 @@
       </c>
       <c r="M48" s="0" t="n">
         <f aca="true">IF(K48 = 0, INDIRECT("M" &amp; ROW() - 1), K48)</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="33" t="n">
+        <f aca="true">IF(L48=0,E48,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11315,17 +11692,21 @@
         <f aca="false">IF(D49="","",VLOOKUP(D49, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G49" s="31" t="str">
-        <f aca="true">IF(H49="", IF(I49="","",(INDIRECT("M" &amp; ROW() - 1) - M49)),IF(I49="", "", INDIRECT("M" &amp; ROW() - 1) - M49))</f>
-        <v/>
-      </c>
-      <c r="H49" s="31" t="str">
-        <f aca="false">IF(D49="", "", IF(I49="-", "", E49 * IF(F49="",1,F49)))</f>
-        <v/>
-      </c>
-      <c r="J49" s="9" t="n">
-        <f aca="true">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E49 * F49)</f>
-        <v>0</v>
+      <c r="F49" s="32" t="str">
+        <f aca="true">IF(L49=0, "", H49 - G49 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G49" s="32" t="str">
+        <f aca="true">IF(L49=0, "", _xlfn.CEILING.MATH(H49 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H49" s="32" t="str">
+        <f aca="false">IF(L49=0, "", -N49)</f>
+        <v/>
+      </c>
+      <c r="J49" s="9" t="e">
+        <f aca="false">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E49 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K49" s="0" t="n">
         <f aca="true">IF(I49 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J49)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J49)))), 0)</f>
@@ -11337,6 +11718,10 @@
       </c>
       <c r="M49" s="0" t="n">
         <f aca="true">IF(K49 = 0, INDIRECT("M" &amp; ROW() - 1), K49)</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="33" t="n">
+        <f aca="true">IF(L49=0,E49,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11349,17 +11734,21 @@
         <f aca="false">IF(D50="","",VLOOKUP(D50, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G50" s="31" t="str">
-        <f aca="true">IF(H50="", IF(I50="","",(INDIRECT("M" &amp; ROW() - 1) - M50)),IF(I50="", "", INDIRECT("M" &amp; ROW() - 1) - M50))</f>
-        <v/>
-      </c>
-      <c r="H50" s="31" t="str">
-        <f aca="false">IF(D50="", "", IF(I50="-", "", E50 * IF(F50="",1,F50)))</f>
-        <v/>
-      </c>
-      <c r="J50" s="9" t="n">
-        <f aca="true">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E50 * F50)</f>
-        <v>0</v>
+      <c r="F50" s="32" t="str">
+        <f aca="true">IF(L50=0, "", H50 - G50 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G50" s="32" t="str">
+        <f aca="true">IF(L50=0, "", _xlfn.CEILING.MATH(H50 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H50" s="32" t="str">
+        <f aca="false">IF(L50=0, "", -N50)</f>
+        <v/>
+      </c>
+      <c r="J50" s="9" t="e">
+        <f aca="false">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E50 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K50" s="0" t="n">
         <f aca="true">IF(I50 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J50)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J50)))), 0)</f>
@@ -11371,6 +11760,10 @@
       </c>
       <c r="M50" s="0" t="n">
         <f aca="true">IF(K50 = 0, INDIRECT("M" &amp; ROW() - 1), K50)</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="33" t="n">
+        <f aca="true">IF(L50=0,E50,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11383,17 +11776,21 @@
         <f aca="false">IF(D51="","",VLOOKUP(D51, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G51" s="31" t="str">
-        <f aca="true">IF(H51="", IF(I51="","",(INDIRECT("M" &amp; ROW() - 1) - M51)),IF(I51="", "", INDIRECT("M" &amp; ROW() - 1) - M51))</f>
-        <v/>
-      </c>
-      <c r="H51" s="31" t="str">
-        <f aca="false">IF(D51="", "", IF(I51="-", "", E51 * IF(F51="",1,F51)))</f>
-        <v/>
-      </c>
-      <c r="J51" s="9" t="n">
-        <f aca="true">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E51 * F51)</f>
-        <v>0</v>
+      <c r="F51" s="32" t="str">
+        <f aca="true">IF(L51=0, "", H51 - G51 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G51" s="32" t="str">
+        <f aca="true">IF(L51=0, "", _xlfn.CEILING.MATH(H51 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H51" s="32" t="str">
+        <f aca="false">IF(L51=0, "", -N51)</f>
+        <v/>
+      </c>
+      <c r="J51" s="9" t="e">
+        <f aca="false">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E51 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K51" s="0" t="n">
         <f aca="true">IF(I51 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J51)))), 0)</f>
@@ -11405,6 +11802,10 @@
       </c>
       <c r="M51" s="0" t="n">
         <f aca="true">IF(K51 = 0, INDIRECT("M" &amp; ROW() - 1), K51)</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="33" t="n">
+        <f aca="true">IF(L51=0,E51,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11417,17 +11818,21 @@
         <f aca="false">IF(D52="","",VLOOKUP(D52, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G52" s="31" t="str">
-        <f aca="true">IF(H52="", IF(I52="","",(INDIRECT("M" &amp; ROW() - 1) - M52)),IF(I52="", "", INDIRECT("M" &amp; ROW() - 1) - M52))</f>
-        <v/>
-      </c>
-      <c r="H52" s="31" t="str">
-        <f aca="false">IF(D52="", "", IF(I52="-", "", E52 * IF(F52="",1,F52)))</f>
-        <v/>
-      </c>
-      <c r="J52" s="9" t="n">
-        <f aca="true">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E52 * F52)</f>
-        <v>0</v>
+      <c r="F52" s="32" t="str">
+        <f aca="true">IF(L52=0, "", H52 - G52 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G52" s="32" t="str">
+        <f aca="true">IF(L52=0, "", _xlfn.CEILING.MATH(H52 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H52" s="32" t="str">
+        <f aca="false">IF(L52=0, "", -N52)</f>
+        <v/>
+      </c>
+      <c r="J52" s="9" t="e">
+        <f aca="false">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E52 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K52" s="0" t="n">
         <f aca="true">IF(I52 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J52)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J52)))), 0)</f>
@@ -11439,6 +11844,10 @@
       </c>
       <c r="M52" s="0" t="n">
         <f aca="true">IF(K52 = 0, INDIRECT("M" &amp; ROW() - 1), K52)</f>
+        <v>0</v>
+      </c>
+      <c r="N52" s="33" t="n">
+        <f aca="true">IF(L52=0,E52,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11451,17 +11860,21 @@
         <f aca="false">IF(D53="","",VLOOKUP(D53, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G53" s="31" t="str">
-        <f aca="true">IF(H53="", IF(I53="","",(INDIRECT("M" &amp; ROW() - 1) - M53)),IF(I53="", "", INDIRECT("M" &amp; ROW() - 1) - M53))</f>
-        <v/>
-      </c>
-      <c r="H53" s="31" t="str">
-        <f aca="false">IF(D53="", "", IF(I53="-", "", E53 * IF(F53="",1,F53)))</f>
-        <v/>
-      </c>
-      <c r="J53" s="9" t="n">
-        <f aca="true">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E53 * F53)</f>
-        <v>0</v>
+      <c r="F53" s="32" t="str">
+        <f aca="true">IF(L53=0, "", H53 - G53 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G53" s="32" t="str">
+        <f aca="true">IF(L53=0, "", _xlfn.CEILING.MATH(H53 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H53" s="32" t="str">
+        <f aca="false">IF(L53=0, "", -N53)</f>
+        <v/>
+      </c>
+      <c r="J53" s="9" t="e">
+        <f aca="false">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E53 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K53" s="0" t="n">
         <f aca="true">IF(I53 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J53)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J53)))), 0)</f>
@@ -11473,6 +11886,10 @@
       </c>
       <c r="M53" s="0" t="n">
         <f aca="true">IF(K53 = 0, INDIRECT("M" &amp; ROW() - 1), K53)</f>
+        <v>0</v>
+      </c>
+      <c r="N53" s="33" t="n">
+        <f aca="true">IF(L53=0,E53,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11485,17 +11902,21 @@
         <f aca="false">IF(D54="","",VLOOKUP(D54, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G54" s="31" t="str">
-        <f aca="true">IF(H54="", IF(I54="","",(INDIRECT("M" &amp; ROW() - 1) - M54)),IF(I54="", "", INDIRECT("M" &amp; ROW() - 1) - M54))</f>
-        <v/>
-      </c>
-      <c r="H54" s="31" t="str">
-        <f aca="false">IF(D54="", "", IF(I54="-", "", E54 * IF(F54="",1,F54)))</f>
-        <v/>
-      </c>
-      <c r="J54" s="9" t="n">
-        <f aca="true">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E54 * F54)</f>
-        <v>0</v>
+      <c r="F54" s="32" t="str">
+        <f aca="true">IF(L54=0, "", H54 - G54 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G54" s="32" t="str">
+        <f aca="true">IF(L54=0, "", _xlfn.CEILING.MATH(H54 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H54" s="32" t="str">
+        <f aca="false">IF(L54=0, "", -N54)</f>
+        <v/>
+      </c>
+      <c r="J54" s="9" t="e">
+        <f aca="false">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E54 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K54" s="0" t="n">
         <f aca="true">IF(I54 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J54)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J54)))), 0)</f>
@@ -11507,6 +11928,10 @@
       </c>
       <c r="M54" s="0" t="n">
         <f aca="true">IF(K54 = 0, INDIRECT("M" &amp; ROW() - 1), K54)</f>
+        <v>0</v>
+      </c>
+      <c r="N54" s="33" t="n">
+        <f aca="true">IF(L54=0,E54,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11519,17 +11944,21 @@
         <f aca="false">IF(D55="","",VLOOKUP(D55, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G55" s="31" t="str">
-        <f aca="true">IF(H55="", IF(I55="","",(INDIRECT("M" &amp; ROW() - 1) - M55)),IF(I55="", "", INDIRECT("M" &amp; ROW() - 1) - M55))</f>
-        <v/>
-      </c>
-      <c r="H55" s="31" t="str">
-        <f aca="false">IF(D55="", "", IF(I55="-", "", E55 * IF(F55="",1,F55)))</f>
-        <v/>
-      </c>
-      <c r="J55" s="9" t="n">
-        <f aca="true">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E55 * F55)</f>
-        <v>0</v>
+      <c r="F55" s="32" t="str">
+        <f aca="true">IF(L55=0, "", H55 - G55 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G55" s="32" t="str">
+        <f aca="true">IF(L55=0, "", _xlfn.CEILING.MATH(H55 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H55" s="32" t="str">
+        <f aca="false">IF(L55=0, "", -N55)</f>
+        <v/>
+      </c>
+      <c r="J55" s="9" t="e">
+        <f aca="false">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E55 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K55" s="0" t="n">
         <f aca="true">IF(I55 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J55)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J55)))), 0)</f>
@@ -11541,6 +11970,10 @@
       </c>
       <c r="M55" s="0" t="n">
         <f aca="true">IF(K55 = 0, INDIRECT("M" &amp; ROW() - 1), K55)</f>
+        <v>0</v>
+      </c>
+      <c r="N55" s="33" t="n">
+        <f aca="true">IF(L55=0,E55,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11553,17 +11986,21 @@
         <f aca="false">IF(D56="","",VLOOKUP(D56, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G56" s="31" t="str">
-        <f aca="true">IF(H56="", IF(I56="","",(INDIRECT("M" &amp; ROW() - 1) - M56)),IF(I56="", "", INDIRECT("M" &amp; ROW() - 1) - M56))</f>
-        <v/>
-      </c>
-      <c r="H56" s="31" t="str">
-        <f aca="false">IF(D56="", "", IF(I56="-", "", E56 * IF(F56="",1,F56)))</f>
-        <v/>
-      </c>
-      <c r="J56" s="9" t="n">
-        <f aca="true">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E56 * F56)</f>
-        <v>0</v>
+      <c r="F56" s="32" t="str">
+        <f aca="true">IF(L56=0, "", H56 - G56 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G56" s="32" t="str">
+        <f aca="true">IF(L56=0, "", _xlfn.CEILING.MATH(H56 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H56" s="32" t="str">
+        <f aca="false">IF(L56=0, "", -N56)</f>
+        <v/>
+      </c>
+      <c r="J56" s="9" t="e">
+        <f aca="false">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E56 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K56" s="0" t="n">
         <f aca="true">IF(I56 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J56)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J56)))), 0)</f>
@@ -11575,6 +12012,10 @@
       </c>
       <c r="M56" s="0" t="n">
         <f aca="true">IF(K56 = 0, INDIRECT("M" &amp; ROW() - 1), K56)</f>
+        <v>0</v>
+      </c>
+      <c r="N56" s="33" t="n">
+        <f aca="true">IF(L56=0,E56,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11587,17 +12028,21 @@
         <f aca="false">IF(D57="","",VLOOKUP(D57, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G57" s="31" t="str">
-        <f aca="true">IF(H57="", IF(I57="","",(INDIRECT("M" &amp; ROW() - 1) - M57)),IF(I57="", "", INDIRECT("M" &amp; ROW() - 1) - M57))</f>
-        <v/>
-      </c>
-      <c r="H57" s="31" t="str">
-        <f aca="false">IF(D57="", "", IF(I57="-", "", E57 * IF(F57="",1,F57)))</f>
-        <v/>
-      </c>
-      <c r="J57" s="9" t="n">
-        <f aca="true">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E57 * F57)</f>
-        <v>0</v>
+      <c r="F57" s="32" t="str">
+        <f aca="true">IF(L57=0, "", H57 - G57 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G57" s="32" t="str">
+        <f aca="true">IF(L57=0, "", _xlfn.CEILING.MATH(H57 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H57" s="32" t="str">
+        <f aca="false">IF(L57=0, "", -N57)</f>
+        <v/>
+      </c>
+      <c r="J57" s="9" t="e">
+        <f aca="false">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E57 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K57" s="0" t="n">
         <f aca="true">IF(I57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J57)))), 0)</f>
@@ -11609,6 +12054,10 @@
       </c>
       <c r="M57" s="0" t="n">
         <f aca="true">IF(K57 = 0, INDIRECT("M" &amp; ROW() - 1), K57)</f>
+        <v>0</v>
+      </c>
+      <c r="N57" s="33" t="n">
+        <f aca="true">IF(L57=0,E57,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11621,17 +12070,21 @@
         <f aca="false">IF(D58="","",VLOOKUP(D58, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G58" s="31" t="str">
-        <f aca="true">IF(H58="", IF(I58="","",(INDIRECT("M" &amp; ROW() - 1) - M58)),IF(I58="", "", INDIRECT("M" &amp; ROW() - 1) - M58))</f>
-        <v/>
-      </c>
-      <c r="H58" s="31" t="str">
-        <f aca="false">IF(D58="", "", IF(I58="-", "", E58 * IF(F58="",1,F58)))</f>
-        <v/>
-      </c>
-      <c r="J58" s="9" t="n">
-        <f aca="true">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E58 * F58)</f>
-        <v>0</v>
+      <c r="F58" s="32" t="str">
+        <f aca="true">IF(L58=0, "", H58 - G58 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G58" s="32" t="str">
+        <f aca="true">IF(L58=0, "", _xlfn.CEILING.MATH(H58 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H58" s="32" t="str">
+        <f aca="false">IF(L58=0, "", -N58)</f>
+        <v/>
+      </c>
+      <c r="J58" s="9" t="e">
+        <f aca="false">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E58 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K58" s="0" t="n">
         <f aca="true">IF(I58 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J58)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J58)))), 0)</f>
@@ -11643,6 +12096,10 @@
       </c>
       <c r="M58" s="0" t="n">
         <f aca="true">IF(K58 = 0, INDIRECT("M" &amp; ROW() - 1), K58)</f>
+        <v>0</v>
+      </c>
+      <c r="N58" s="33" t="n">
+        <f aca="true">IF(L58=0,E58,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11655,17 +12112,21 @@
         <f aca="false">IF(D59="","",VLOOKUP(D59, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G59" s="31" t="str">
-        <f aca="true">IF(H59="", IF(I59="","",(INDIRECT("M" &amp; ROW() - 1) - M59)),IF(I59="", "", INDIRECT("M" &amp; ROW() - 1) - M59))</f>
-        <v/>
-      </c>
-      <c r="H59" s="31" t="str">
-        <f aca="false">IF(D59="", "", IF(I59="-", "", E59 * IF(F59="",1,F59)))</f>
-        <v/>
-      </c>
-      <c r="J59" s="9" t="n">
-        <f aca="true">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E59 * F59)</f>
-        <v>0</v>
+      <c r="F59" s="32" t="str">
+        <f aca="true">IF(L59=0, "", H59 - G59 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G59" s="32" t="str">
+        <f aca="true">IF(L59=0, "", _xlfn.CEILING.MATH(H59 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H59" s="32" t="str">
+        <f aca="false">IF(L59=0, "", -N59)</f>
+        <v/>
+      </c>
+      <c r="J59" s="9" t="e">
+        <f aca="false">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E59 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K59" s="0" t="n">
         <f aca="true">IF(I59 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J59)))), 0)</f>
@@ -11677,6 +12138,10 @@
       </c>
       <c r="M59" s="0" t="n">
         <f aca="true">IF(K59 = 0, INDIRECT("M" &amp; ROW() - 1), K59)</f>
+        <v>0</v>
+      </c>
+      <c r="N59" s="33" t="n">
+        <f aca="true">IF(L59=0,E59,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11689,17 +12154,21 @@
         <f aca="false">IF(D60="","",VLOOKUP(D60, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G60" s="31" t="str">
-        <f aca="true">IF(H60="", IF(I60="","",(INDIRECT("M" &amp; ROW() - 1) - M60)),IF(I60="", "", INDIRECT("M" &amp; ROW() - 1) - M60))</f>
-        <v/>
-      </c>
-      <c r="H60" s="31" t="str">
-        <f aca="false">IF(D60="", "", IF(I60="-", "", E60 * IF(F60="",1,F60)))</f>
-        <v/>
-      </c>
-      <c r="J60" s="9" t="n">
-        <f aca="true">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E60 * F60)</f>
-        <v>0</v>
+      <c r="F60" s="32" t="str">
+        <f aca="true">IF(L60=0, "", H60 - G60 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G60" s="32" t="str">
+        <f aca="true">IF(L60=0, "", _xlfn.CEILING.MATH(H60 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H60" s="32" t="str">
+        <f aca="false">IF(L60=0, "", -N60)</f>
+        <v/>
+      </c>
+      <c r="J60" s="9" t="e">
+        <f aca="false">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E60 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K60" s="0" t="n">
         <f aca="true">IF(I60 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J60)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J60)))), 0)</f>
@@ -11711,6 +12180,10 @@
       </c>
       <c r="M60" s="0" t="n">
         <f aca="true">IF(K60 = 0, INDIRECT("M" &amp; ROW() - 1), K60)</f>
+        <v>0</v>
+      </c>
+      <c r="N60" s="33" t="n">
+        <f aca="true">IF(L60=0,E60,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11723,17 +12196,21 @@
         <f aca="false">IF(D61="","",VLOOKUP(D61, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G61" s="31" t="str">
-        <f aca="true">IF(H61="", IF(I61="","",(INDIRECT("M" &amp; ROW() - 1) - M61)),IF(I61="", "", INDIRECT("M" &amp; ROW() - 1) - M61))</f>
-        <v/>
-      </c>
-      <c r="H61" s="31" t="str">
-        <f aca="false">IF(D61="", "", IF(I61="-", "", E61 * IF(F61="",1,F61)))</f>
-        <v/>
-      </c>
-      <c r="J61" s="9" t="n">
-        <f aca="true">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E61 * F61)</f>
-        <v>0</v>
+      <c r="F61" s="32" t="str">
+        <f aca="true">IF(L61=0, "", H61 - G61 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G61" s="32" t="str">
+        <f aca="true">IF(L61=0, "", _xlfn.CEILING.MATH(H61 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H61" s="32" t="str">
+        <f aca="false">IF(L61=0, "", -N61)</f>
+        <v/>
+      </c>
+      <c r="J61" s="9" t="e">
+        <f aca="false">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E61 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K61" s="0" t="n">
         <f aca="true">IF(I61 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J61)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J61)))), 0)</f>
@@ -11745,6 +12222,10 @@
       </c>
       <c r="M61" s="0" t="n">
         <f aca="true">IF(K61 = 0, INDIRECT("M" &amp; ROW() - 1), K61)</f>
+        <v>0</v>
+      </c>
+      <c r="N61" s="33" t="n">
+        <f aca="true">IF(L61=0,E61,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11757,17 +12238,21 @@
         <f aca="false">IF(D62="","",VLOOKUP(D62, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G62" s="31" t="str">
-        <f aca="true">IF(H62="", IF(I62="","",(INDIRECT("M" &amp; ROW() - 1) - M62)),IF(I62="", "", INDIRECT("M" &amp; ROW() - 1) - M62))</f>
-        <v/>
-      </c>
-      <c r="H62" s="31" t="str">
-        <f aca="false">IF(D62="", "", IF(I62="-", "", E62 * IF(F62="",1,F62)))</f>
-        <v/>
-      </c>
-      <c r="J62" s="9" t="n">
-        <f aca="true">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E62 * F62)</f>
-        <v>0</v>
+      <c r="F62" s="32" t="str">
+        <f aca="true">IF(L62=0, "", H62 - G62 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G62" s="32" t="str">
+        <f aca="true">IF(L62=0, "", _xlfn.CEILING.MATH(H62 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H62" s="32" t="str">
+        <f aca="false">IF(L62=0, "", -N62)</f>
+        <v/>
+      </c>
+      <c r="J62" s="9" t="e">
+        <f aca="false">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E62 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K62" s="0" t="n">
         <f aca="true">IF(I62 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J62)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J62)))), 0)</f>
@@ -11779,6 +12264,10 @@
       </c>
       <c r="M62" s="0" t="n">
         <f aca="true">IF(K62 = 0, INDIRECT("M" &amp; ROW() - 1), K62)</f>
+        <v>0</v>
+      </c>
+      <c r="N62" s="33" t="n">
+        <f aca="true">IF(L62=0,E62,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11791,17 +12280,21 @@
         <f aca="false">IF(D63="","",VLOOKUP(D63, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G63" s="31" t="str">
-        <f aca="true">IF(H63="", IF(I63="","",(INDIRECT("M" &amp; ROW() - 1) - M63)),IF(I63="", "", INDIRECT("M" &amp; ROW() - 1) - M63))</f>
-        <v/>
-      </c>
-      <c r="H63" s="31" t="str">
-        <f aca="false">IF(D63="", "", IF(I63="-", "", E63 * IF(F63="",1,F63)))</f>
-        <v/>
-      </c>
-      <c r="J63" s="9" t="n">
-        <f aca="true">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E63 * F63)</f>
-        <v>0</v>
+      <c r="F63" s="32" t="str">
+        <f aca="true">IF(L63=0, "", H63 - G63 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G63" s="32" t="str">
+        <f aca="true">IF(L63=0, "", _xlfn.CEILING.MATH(H63 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H63" s="32" t="str">
+        <f aca="false">IF(L63=0, "", -N63)</f>
+        <v/>
+      </c>
+      <c r="J63" s="9" t="e">
+        <f aca="false">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E63 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K63" s="0" t="n">
         <f aca="true">IF(I63 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J63)))), 0)</f>
@@ -11813,6 +12306,10 @@
       </c>
       <c r="M63" s="0" t="n">
         <f aca="true">IF(K63 = 0, INDIRECT("M" &amp; ROW() - 1), K63)</f>
+        <v>0</v>
+      </c>
+      <c r="N63" s="33" t="n">
+        <f aca="true">IF(L63=0,E63,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11825,17 +12322,21 @@
         <f aca="false">IF(D64="","",VLOOKUP(D64, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G64" s="31" t="str">
-        <f aca="true">IF(H64="", IF(I64="","",(INDIRECT("M" &amp; ROW() - 1) - M64)),IF(I64="", "", INDIRECT("M" &amp; ROW() - 1) - M64))</f>
-        <v/>
-      </c>
-      <c r="H64" s="31" t="str">
-        <f aca="false">IF(D64="", "", IF(I64="-", "", E64 * IF(F64="",1,F64)))</f>
-        <v/>
-      </c>
-      <c r="J64" s="9" t="n">
-        <f aca="true">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E64 * F64)</f>
-        <v>0</v>
+      <c r="F64" s="32" t="str">
+        <f aca="true">IF(L64=0, "", H64 - G64 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G64" s="32" t="str">
+        <f aca="true">IF(L64=0, "", _xlfn.CEILING.MATH(H64 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H64" s="32" t="str">
+        <f aca="false">IF(L64=0, "", -N64)</f>
+        <v/>
+      </c>
+      <c r="J64" s="9" t="e">
+        <f aca="false">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E64 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K64" s="0" t="n">
         <f aca="true">IF(I64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J64)))), 0)</f>
@@ -11847,6 +12348,10 @@
       </c>
       <c r="M64" s="0" t="n">
         <f aca="true">IF(K64 = 0, INDIRECT("M" &amp; ROW() - 1), K64)</f>
+        <v>0</v>
+      </c>
+      <c r="N64" s="33" t="n">
+        <f aca="true">IF(L64=0,E64,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11859,17 +12364,21 @@
         <f aca="false">IF(D65="","",VLOOKUP(D65, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G65" s="31" t="str">
-        <f aca="true">IF(H65="", IF(I65="","",(INDIRECT("M" &amp; ROW() - 1) - M65)),IF(I65="", "", INDIRECT("M" &amp; ROW() - 1) - M65))</f>
-        <v/>
-      </c>
-      <c r="H65" s="31" t="str">
-        <f aca="false">IF(D65="", "", IF(I65="-", "", E65 * IF(F65="",1,F65)))</f>
-        <v/>
-      </c>
-      <c r="J65" s="9" t="n">
-        <f aca="true">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E65 * F65)</f>
-        <v>0</v>
+      <c r="F65" s="32" t="str">
+        <f aca="true">IF(L65=0, "", H65 - G65 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G65" s="32" t="str">
+        <f aca="true">IF(L65=0, "", _xlfn.CEILING.MATH(H65 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H65" s="32" t="str">
+        <f aca="false">IF(L65=0, "", -N65)</f>
+        <v/>
+      </c>
+      <c r="J65" s="9" t="e">
+        <f aca="false">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E65 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K65" s="0" t="n">
         <f aca="true">IF(I65 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J65)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J65)))), 0)</f>
@@ -11881,6 +12390,10 @@
       </c>
       <c r="M65" s="0" t="n">
         <f aca="true">IF(K65 = 0, INDIRECT("M" &amp; ROW() - 1), K65)</f>
+        <v>0</v>
+      </c>
+      <c r="N65" s="33" t="n">
+        <f aca="true">IF(L65=0,E65,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11893,17 +12406,21 @@
         <f aca="false">IF(D66="","",VLOOKUP(D66, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G66" s="31" t="str">
-        <f aca="true">IF(H66="", IF(I66="","",(INDIRECT("M" &amp; ROW() - 1) - M66)),IF(I66="", "", INDIRECT("M" &amp; ROW() - 1) - M66))</f>
-        <v/>
-      </c>
-      <c r="H66" s="31" t="str">
-        <f aca="false">IF(D66="", "", IF(I66="-", "", E66 * IF(F66="",1,F66)))</f>
-        <v/>
-      </c>
-      <c r="J66" s="9" t="n">
-        <f aca="true">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E66 * F66)</f>
-        <v>0</v>
+      <c r="F66" s="32" t="str">
+        <f aca="true">IF(L66=0, "", H66 - G66 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G66" s="32" t="str">
+        <f aca="true">IF(L66=0, "", _xlfn.CEILING.MATH(H66 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H66" s="32" t="str">
+        <f aca="false">IF(L66=0, "", -N66)</f>
+        <v/>
+      </c>
+      <c r="J66" s="9" t="e">
+        <f aca="false">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E66 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K66" s="0" t="n">
         <f aca="true">IF(I66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J66)))), 0)</f>
@@ -11915,6 +12432,10 @@
       </c>
       <c r="M66" s="0" t="n">
         <f aca="true">IF(K66 = 0, INDIRECT("M" &amp; ROW() - 1), K66)</f>
+        <v>0</v>
+      </c>
+      <c r="N66" s="33" t="n">
+        <f aca="true">IF(L66=0,E66,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11927,17 +12448,21 @@
         <f aca="false">IF(D67="","",VLOOKUP(D67, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G67" s="31" t="str">
-        <f aca="true">IF(H67="", IF(I67="","",(INDIRECT("M" &amp; ROW() - 1) - M67)),IF(I67="", "", INDIRECT("M" &amp; ROW() - 1) - M67))</f>
-        <v/>
-      </c>
-      <c r="H67" s="31" t="str">
-        <f aca="false">IF(D67="", "", IF(I67="-", "", E67 * IF(F67="",1,F67)))</f>
-        <v/>
-      </c>
-      <c r="J67" s="9" t="n">
-        <f aca="true">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E67 * F67)</f>
-        <v>0</v>
+      <c r="F67" s="32" t="str">
+        <f aca="true">IF(L67=0, "", H67 - G67 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G67" s="32" t="str">
+        <f aca="true">IF(L67=0, "", _xlfn.CEILING.MATH(H67 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H67" s="32" t="str">
+        <f aca="false">IF(L67=0, "", -N67)</f>
+        <v/>
+      </c>
+      <c r="J67" s="9" t="e">
+        <f aca="false">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E67 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K67" s="0" t="n">
         <f aca="true">IF(I67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J67)))), 0)</f>
@@ -11949,6 +12474,10 @@
       </c>
       <c r="M67" s="0" t="n">
         <f aca="true">IF(K67 = 0, INDIRECT("M" &amp; ROW() - 1), K67)</f>
+        <v>0</v>
+      </c>
+      <c r="N67" s="33" t="n">
+        <f aca="true">IF(L67=0,E67,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11961,17 +12490,21 @@
         <f aca="false">IF(D68="","",VLOOKUP(D68, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G68" s="31" t="str">
-        <f aca="true">IF(H68="", IF(I68="","",(INDIRECT("M" &amp; ROW() - 1) - M68)),IF(I68="", "", INDIRECT("M" &amp; ROW() - 1) - M68))</f>
-        <v/>
-      </c>
-      <c r="H68" s="31" t="str">
-        <f aca="false">IF(D68="", "", IF(I68="-", "", E68 * IF(F68="",1,F68)))</f>
-        <v/>
-      </c>
-      <c r="J68" s="9" t="n">
-        <f aca="true">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E68 * F68)</f>
-        <v>0</v>
+      <c r="F68" s="32" t="str">
+        <f aca="true">IF(L68=0, "", H68 - G68 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G68" s="32" t="str">
+        <f aca="true">IF(L68=0, "", _xlfn.CEILING.MATH(H68 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H68" s="32" t="str">
+        <f aca="false">IF(L68=0, "", -N68)</f>
+        <v/>
+      </c>
+      <c r="J68" s="9" t="e">
+        <f aca="false">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E68 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K68" s="0" t="n">
         <f aca="true">IF(I68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J68)))), 0)</f>
@@ -11983,6 +12516,10 @@
       </c>
       <c r="M68" s="0" t="n">
         <f aca="true">IF(K68 = 0, INDIRECT("M" &amp; ROW() - 1), K68)</f>
+        <v>0</v>
+      </c>
+      <c r="N68" s="33" t="n">
+        <f aca="true">IF(L68=0,E68,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -11995,17 +12532,21 @@
         <f aca="false">IF(D69="","",VLOOKUP(D69, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G69" s="31" t="str">
-        <f aca="true">IF(H69="", IF(I69="","",(INDIRECT("M" &amp; ROW() - 1) - M69)),IF(I69="", "", INDIRECT("M" &amp; ROW() - 1) - M69))</f>
-        <v/>
-      </c>
-      <c r="H69" s="31" t="str">
-        <f aca="false">IF(D69="", "", IF(I69="-", "", E69 * IF(F69="",1,F69)))</f>
-        <v/>
-      </c>
-      <c r="J69" s="9" t="n">
-        <f aca="true">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E69 * F69)</f>
-        <v>0</v>
+      <c r="F69" s="32" t="str">
+        <f aca="true">IF(L69=0, "", H69 - G69 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G69" s="32" t="str">
+        <f aca="true">IF(L69=0, "", _xlfn.CEILING.MATH(H69 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H69" s="32" t="str">
+        <f aca="false">IF(L69=0, "", -N69)</f>
+        <v/>
+      </c>
+      <c r="J69" s="9" t="e">
+        <f aca="false">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E69 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K69" s="0" t="n">
         <f aca="true">IF(I69 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J69)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J69)))), 0)</f>
@@ -12017,6 +12558,10 @@
       </c>
       <c r="M69" s="0" t="n">
         <f aca="true">IF(K69 = 0, INDIRECT("M" &amp; ROW() - 1), K69)</f>
+        <v>0</v>
+      </c>
+      <c r="N69" s="33" t="n">
+        <f aca="true">IF(L69=0,E69,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12029,17 +12574,21 @@
         <f aca="false">IF(D70="","",VLOOKUP(D70, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G70" s="31" t="str">
-        <f aca="true">IF(H70="", IF(I70="","",(INDIRECT("M" &amp; ROW() - 1) - M70)),IF(I70="", "", INDIRECT("M" &amp; ROW() - 1) - M70))</f>
-        <v/>
-      </c>
-      <c r="H70" s="31" t="str">
-        <f aca="false">IF(D70="", "", IF(I70="-", "", E70 * IF(F70="",1,F70)))</f>
-        <v/>
-      </c>
-      <c r="J70" s="9" t="n">
-        <f aca="true">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E70 * F70)</f>
-        <v>0</v>
+      <c r="F70" s="32" t="str">
+        <f aca="true">IF(L70=0, "", H70 - G70 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G70" s="32" t="str">
+        <f aca="true">IF(L70=0, "", _xlfn.CEILING.MATH(H70 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H70" s="32" t="str">
+        <f aca="false">IF(L70=0, "", -N70)</f>
+        <v/>
+      </c>
+      <c r="J70" s="9" t="e">
+        <f aca="false">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E70 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K70" s="0" t="n">
         <f aca="true">IF(I70 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J70)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J70)))), 0)</f>
@@ -12051,6 +12600,10 @@
       </c>
       <c r="M70" s="0" t="n">
         <f aca="true">IF(K70 = 0, INDIRECT("M" &amp; ROW() - 1), K70)</f>
+        <v>0</v>
+      </c>
+      <c r="N70" s="33" t="n">
+        <f aca="true">IF(L70=0,E70,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12063,17 +12616,21 @@
         <f aca="false">IF(D71="","",VLOOKUP(D71, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G71" s="31" t="str">
-        <f aca="true">IF(H71="", IF(I71="","",(INDIRECT("M" &amp; ROW() - 1) - M71)),IF(I71="", "", INDIRECT("M" &amp; ROW() - 1) - M71))</f>
-        <v/>
-      </c>
-      <c r="H71" s="31" t="str">
-        <f aca="false">IF(D71="", "", IF(I71="-", "", E71 * IF(F71="",1,F71)))</f>
-        <v/>
-      </c>
-      <c r="J71" s="9" t="n">
-        <f aca="true">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E71 * F71)</f>
-        <v>0</v>
+      <c r="F71" s="32" t="str">
+        <f aca="true">IF(L71=0, "", H71 - G71 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G71" s="32" t="str">
+        <f aca="true">IF(L71=0, "", _xlfn.CEILING.MATH(H71 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H71" s="32" t="str">
+        <f aca="false">IF(L71=0, "", -N71)</f>
+        <v/>
+      </c>
+      <c r="J71" s="9" t="e">
+        <f aca="false">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E71 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K71" s="0" t="n">
         <f aca="true">IF(I71 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J71)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J71)))), 0)</f>
@@ -12085,6 +12642,10 @@
       </c>
       <c r="M71" s="0" t="n">
         <f aca="true">IF(K71 = 0, INDIRECT("M" &amp; ROW() - 1), K71)</f>
+        <v>0</v>
+      </c>
+      <c r="N71" s="33" t="n">
+        <f aca="true">IF(L71=0,E71,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12097,17 +12658,21 @@
         <f aca="false">IF(D72="","",VLOOKUP(D72, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G72" s="31" t="str">
-        <f aca="true">IF(H72="", IF(I72="","",(INDIRECT("M" &amp; ROW() - 1) - M72)),IF(I72="", "", INDIRECT("M" &amp; ROW() - 1) - M72))</f>
-        <v/>
-      </c>
-      <c r="H72" s="31" t="str">
-        <f aca="false">IF(D72="", "", IF(I72="-", "", E72 * IF(F72="",1,F72)))</f>
-        <v/>
-      </c>
-      <c r="J72" s="9" t="n">
-        <f aca="true">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E72 * F72)</f>
-        <v>0</v>
+      <c r="F72" s="32" t="str">
+        <f aca="true">IF(L72=0, "", H72 - G72 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G72" s="32" t="str">
+        <f aca="true">IF(L72=0, "", _xlfn.CEILING.MATH(H72 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H72" s="32" t="str">
+        <f aca="false">IF(L72=0, "", -N72)</f>
+        <v/>
+      </c>
+      <c r="J72" s="9" t="e">
+        <f aca="false">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E72 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K72" s="0" t="n">
         <f aca="true">IF(I72 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J72)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J72)))), 0)</f>
@@ -12119,6 +12684,10 @@
       </c>
       <c r="M72" s="0" t="n">
         <f aca="true">IF(K72 = 0, INDIRECT("M" &amp; ROW() - 1), K72)</f>
+        <v>0</v>
+      </c>
+      <c r="N72" s="33" t="n">
+        <f aca="true">IF(L72=0,E72,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12131,17 +12700,21 @@
         <f aca="false">IF(D73="","",VLOOKUP(D73, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G73" s="31" t="str">
-        <f aca="true">IF(H73="", IF(I73="","",(INDIRECT("M" &amp; ROW() - 1) - M73)),IF(I73="", "", INDIRECT("M" &amp; ROW() - 1) - M73))</f>
-        <v/>
-      </c>
-      <c r="H73" s="31" t="str">
-        <f aca="false">IF(D73="", "", IF(I73="-", "", E73 * IF(F73="",1,F73)))</f>
-        <v/>
-      </c>
-      <c r="J73" s="9" t="n">
-        <f aca="true">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E73 * F73)</f>
-        <v>0</v>
+      <c r="F73" s="32" t="str">
+        <f aca="true">IF(L73=0, "", H73 - G73 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G73" s="32" t="str">
+        <f aca="true">IF(L73=0, "", _xlfn.CEILING.MATH(H73 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H73" s="32" t="str">
+        <f aca="false">IF(L73=0, "", -N73)</f>
+        <v/>
+      </c>
+      <c r="J73" s="9" t="e">
+        <f aca="false">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E73 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K73" s="0" t="n">
         <f aca="true">IF(I73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J73)))), 0)</f>
@@ -12153,6 +12726,10 @@
       </c>
       <c r="M73" s="0" t="n">
         <f aca="true">IF(K73 = 0, INDIRECT("M" &amp; ROW() - 1), K73)</f>
+        <v>0</v>
+      </c>
+      <c r="N73" s="33" t="n">
+        <f aca="true">IF(L73=0,E73,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12165,17 +12742,21 @@
         <f aca="false">IF(D74="","",VLOOKUP(D74, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G74" s="31" t="str">
-        <f aca="true">IF(H74="", IF(I74="","",(INDIRECT("M" &amp; ROW() - 1) - M74)),IF(I74="", "", INDIRECT("M" &amp; ROW() - 1) - M74))</f>
-        <v/>
-      </c>
-      <c r="H74" s="31" t="str">
-        <f aca="false">IF(D74="", "", IF(I74="-", "", E74 * IF(F74="",1,F74)))</f>
-        <v/>
-      </c>
-      <c r="J74" s="9" t="n">
-        <f aca="true">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E74 * F74)</f>
-        <v>0</v>
+      <c r="F74" s="32" t="str">
+        <f aca="true">IF(L74=0, "", H74 - G74 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G74" s="32" t="str">
+        <f aca="true">IF(L74=0, "", _xlfn.CEILING.MATH(H74 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H74" s="32" t="str">
+        <f aca="false">IF(L74=0, "", -N74)</f>
+        <v/>
+      </c>
+      <c r="J74" s="9" t="e">
+        <f aca="false">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E74 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K74" s="0" t="n">
         <f aca="true">IF(I74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J74)))), 0)</f>
@@ -12187,6 +12768,10 @@
       </c>
       <c r="M74" s="0" t="n">
         <f aca="true">IF(K74 = 0, INDIRECT("M" &amp; ROW() - 1), K74)</f>
+        <v>0</v>
+      </c>
+      <c r="N74" s="33" t="n">
+        <f aca="true">IF(L74=0,E74,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12199,17 +12784,21 @@
         <f aca="false">IF(D75="","",VLOOKUP(D75, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G75" s="31" t="str">
-        <f aca="true">IF(H75="", IF(I75="","",(INDIRECT("M" &amp; ROW() - 1) - M75)),IF(I75="", "", INDIRECT("M" &amp; ROW() - 1) - M75))</f>
-        <v/>
-      </c>
-      <c r="H75" s="31" t="str">
-        <f aca="false">IF(D75="", "", IF(I75="-", "", E75 * IF(F75="",1,F75)))</f>
-        <v/>
-      </c>
-      <c r="J75" s="9" t="n">
-        <f aca="true">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E75 * F75)</f>
-        <v>0</v>
+      <c r="F75" s="32" t="str">
+        <f aca="true">IF(L75=0, "", H75 - G75 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G75" s="32" t="str">
+        <f aca="true">IF(L75=0, "", _xlfn.CEILING.MATH(H75 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H75" s="32" t="str">
+        <f aca="false">IF(L75=0, "", -N75)</f>
+        <v/>
+      </c>
+      <c r="J75" s="9" t="e">
+        <f aca="false">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E75 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K75" s="0" t="n">
         <f aca="true">IF(I75="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J75)))),0)</f>
@@ -12221,6 +12810,10 @@
       </c>
       <c r="M75" s="0" t="n">
         <f aca="true">IF(K75 = 0, INDIRECT("M" &amp; ROW() - 1), K75)</f>
+        <v>0</v>
+      </c>
+      <c r="N75" s="33" t="n">
+        <f aca="true">IF(L75=0,E75,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12233,17 +12826,21 @@
         <f aca="false">IF(D76="","",VLOOKUP(D76, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G76" s="31" t="str">
-        <f aca="true">IF(H76="", IF(I76="","",(INDIRECT("M" &amp; ROW() - 1) - M76)),IF(I76="", "", INDIRECT("M" &amp; ROW() - 1) - M76))</f>
-        <v/>
-      </c>
-      <c r="H76" s="31" t="str">
-        <f aca="false">IF(D76="", "", IF(I76="-", "", E76 * IF(F76="",1,F76)))</f>
-        <v/>
-      </c>
-      <c r="J76" s="9" t="n">
-        <f aca="true">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E76 * F76)</f>
-        <v>0</v>
+      <c r="F76" s="32" t="str">
+        <f aca="true">IF(L76=0, "", H76 - G76 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G76" s="32" t="str">
+        <f aca="true">IF(L76=0, "", _xlfn.CEILING.MATH(H76 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H76" s="32" t="str">
+        <f aca="false">IF(L76=0, "", -N76)</f>
+        <v/>
+      </c>
+      <c r="J76" s="9" t="e">
+        <f aca="false">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E76 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K76" s="0" t="n">
         <f aca="true">IF(I76="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J76)))),0)</f>
@@ -12255,6 +12852,10 @@
       </c>
       <c r="M76" s="0" t="n">
         <f aca="true">IF(K76 = 0, INDIRECT("M" &amp; ROW() - 1), K76)</f>
+        <v>0</v>
+      </c>
+      <c r="N76" s="33" t="n">
+        <f aca="true">IF(L76=0,E76,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12267,17 +12868,21 @@
         <f aca="false">IF(D77="","",VLOOKUP(D77, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G77" s="31" t="str">
-        <f aca="true">IF(H77="", IF(I77="","",(INDIRECT("M" &amp; ROW() - 1) - M77)),IF(I77="", "", INDIRECT("M" &amp; ROW() - 1) - M77))</f>
-        <v/>
-      </c>
-      <c r="H77" s="31" t="str">
-        <f aca="false">IF(D77="", "", IF(I77="-", "", E77 * IF(F77="",1,F77)))</f>
-        <v/>
-      </c>
-      <c r="J77" s="9" t="n">
-        <f aca="true">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E77 * F77)</f>
-        <v>0</v>
+      <c r="F77" s="32" t="str">
+        <f aca="true">IF(L77=0, "", H77 - G77 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G77" s="32" t="str">
+        <f aca="true">IF(L77=0, "", _xlfn.CEILING.MATH(H77 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H77" s="32" t="str">
+        <f aca="false">IF(L77=0, "", -N77)</f>
+        <v/>
+      </c>
+      <c r="J77" s="9" t="e">
+        <f aca="false">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E77 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K77" s="0" t="n">
         <f aca="true">IF(I77="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J77)))),0)</f>
@@ -12289,6 +12894,10 @@
       </c>
       <c r="M77" s="0" t="n">
         <f aca="true">IF(K77 = 0, INDIRECT("M" &amp; ROW() - 1), K77)</f>
+        <v>0</v>
+      </c>
+      <c r="N77" s="33" t="n">
+        <f aca="true">IF(L77=0,E77,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12301,17 +12910,21 @@
         <f aca="false">IF(D78="","",VLOOKUP(D78, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G78" s="31" t="str">
-        <f aca="true">IF(H78="", IF(I78="","",(INDIRECT("M" &amp; ROW() - 1) - M78)),IF(I78="", "", INDIRECT("M" &amp; ROW() - 1) - M78))</f>
-        <v/>
-      </c>
-      <c r="H78" s="31" t="str">
-        <f aca="false">IF(D78="", "", IF(I78="-", "", E78 * IF(F78="",1,F78)))</f>
-        <v/>
-      </c>
-      <c r="J78" s="9" t="n">
-        <f aca="true">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E78 * F78)</f>
-        <v>0</v>
+      <c r="F78" s="32" t="str">
+        <f aca="true">IF(L78=0, "", H78 - G78 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G78" s="32" t="str">
+        <f aca="true">IF(L78=0, "", _xlfn.CEILING.MATH(H78 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H78" s="32" t="str">
+        <f aca="false">IF(L78=0, "", -N78)</f>
+        <v/>
+      </c>
+      <c r="J78" s="9" t="e">
+        <f aca="false">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E78 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K78" s="0" t="n">
         <f aca="true">IF(I78="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J78))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J78)))),0)</f>
@@ -12323,6 +12936,10 @@
       </c>
       <c r="M78" s="0" t="n">
         <f aca="true">IF(K78 = 0, INDIRECT("M" &amp; ROW() - 1), K78)</f>
+        <v>0</v>
+      </c>
+      <c r="N78" s="33" t="n">
+        <f aca="true">IF(L78=0,E78,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12335,17 +12952,21 @@
         <f aca="false">IF(D79="","",VLOOKUP(D79, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G79" s="31" t="str">
-        <f aca="true">IF(H79="", IF(I79="","",(INDIRECT("M" &amp; ROW() - 1) - M79)),IF(I79="", "", INDIRECT("M" &amp; ROW() - 1) - M79))</f>
-        <v/>
-      </c>
-      <c r="H79" s="31" t="str">
-        <f aca="false">IF(D79="", "", IF(I79="-", "", E79 * IF(F79="",1,F79)))</f>
-        <v/>
-      </c>
-      <c r="J79" s="9" t="n">
-        <f aca="true">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E79 * F79)</f>
-        <v>0</v>
+      <c r="F79" s="32" t="str">
+        <f aca="true">IF(L79=0, "", H79 - G79 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G79" s="32" t="str">
+        <f aca="true">IF(L79=0, "", _xlfn.CEILING.MATH(H79 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H79" s="32" t="str">
+        <f aca="false">IF(L79=0, "", -N79)</f>
+        <v/>
+      </c>
+      <c r="J79" s="9" t="e">
+        <f aca="false">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E79 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K79" s="0" t="n">
         <f aca="true">IF(I79="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J79))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J79)))),0)</f>
@@ -12357,6 +12978,10 @@
       </c>
       <c r="M79" s="0" t="n">
         <f aca="true">IF(K79 = 0, INDIRECT("M" &amp; ROW() - 1), K79)</f>
+        <v>0</v>
+      </c>
+      <c r="N79" s="33" t="n">
+        <f aca="true">IF(L79=0,E79,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12369,17 +12994,21 @@
         <f aca="false">IF(D80="","",VLOOKUP(D80, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G80" s="31" t="str">
-        <f aca="true">IF(H80="", IF(I80="","",(INDIRECT("M" &amp; ROW() - 1) - M80)),IF(I80="", "", INDIRECT("M" &amp; ROW() - 1) - M80))</f>
-        <v/>
-      </c>
-      <c r="H80" s="31" t="str">
-        <f aca="false">IF(D80="", "", IF(I80="-", "", E80 * IF(F80="",1,F80)))</f>
-        <v/>
-      </c>
-      <c r="J80" s="9" t="n">
-        <f aca="true">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E80 * F80)</f>
-        <v>0</v>
+      <c r="F80" s="32" t="str">
+        <f aca="true">IF(L80=0, "", H80 - G80 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G80" s="32" t="str">
+        <f aca="true">IF(L80=0, "", _xlfn.CEILING.MATH(H80 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H80" s="32" t="str">
+        <f aca="false">IF(L80=0, "", -N80)</f>
+        <v/>
+      </c>
+      <c r="J80" s="9" t="e">
+        <f aca="false">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E80 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K80" s="0" t="n">
         <f aca="true">IF(I80="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J80))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J80)))),0)</f>
@@ -12391,6 +13020,10 @@
       </c>
       <c r="M80" s="0" t="n">
         <f aca="true">IF(K80 = 0, INDIRECT("M" &amp; ROW() - 1), K80)</f>
+        <v>0</v>
+      </c>
+      <c r="N80" s="33" t="n">
+        <f aca="true">IF(L80=0,E80,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12403,17 +13036,21 @@
         <f aca="false">IF(D81="","",VLOOKUP(D81, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G81" s="31" t="str">
-        <f aca="true">IF(H81="", IF(I81="","",(INDIRECT("M" &amp; ROW() - 1) - M81)),IF(I81="", "", INDIRECT("M" &amp; ROW() - 1) - M81))</f>
-        <v/>
-      </c>
-      <c r="H81" s="31" t="str">
-        <f aca="false">IF(D81="", "", IF(I81="-", "", E81 * IF(F81="",1,F81)))</f>
-        <v/>
-      </c>
-      <c r="J81" s="9" t="n">
-        <f aca="true">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E81 * F81)</f>
-        <v>0</v>
+      <c r="F81" s="32" t="str">
+        <f aca="true">IF(L81=0, "", H81 - G81 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G81" s="32" t="str">
+        <f aca="true">IF(L81=0, "", _xlfn.CEILING.MATH(H81 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H81" s="32" t="str">
+        <f aca="false">IF(L81=0, "", -N81)</f>
+        <v/>
+      </c>
+      <c r="J81" s="9" t="e">
+        <f aca="false">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E81 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K81" s="0" t="n">
         <f aca="true">IF(I81="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J81))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J81)))),0)</f>
@@ -12425,6 +13062,10 @@
       </c>
       <c r="M81" s="0" t="n">
         <f aca="true">IF(K81 = 0, INDIRECT("M" &amp; ROW() - 1), K81)</f>
+        <v>0</v>
+      </c>
+      <c r="N81" s="33" t="n">
+        <f aca="true">IF(L81=0,E81,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12437,17 +13078,21 @@
         <f aca="false">IF(D82="","",VLOOKUP(D82, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G82" s="31" t="str">
-        <f aca="true">IF(H82="", IF(I82="","",(INDIRECT("M" &amp; ROW() - 1) - M82)),IF(I82="", "", INDIRECT("M" &amp; ROW() - 1) - M82))</f>
-        <v/>
-      </c>
-      <c r="H82" s="31" t="str">
-        <f aca="false">IF(D82="", "", IF(I82="-", "", E82 * IF(F82="",1,F82)))</f>
-        <v/>
-      </c>
-      <c r="J82" s="9" t="n">
-        <f aca="true">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E82 * F82)</f>
-        <v>0</v>
+      <c r="F82" s="32" t="str">
+        <f aca="true">IF(L82=0, "", H82 - G82 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G82" s="32" t="str">
+        <f aca="true">IF(L82=0, "", _xlfn.CEILING.MATH(H82 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H82" s="32" t="str">
+        <f aca="false">IF(L82=0, "", -N82)</f>
+        <v/>
+      </c>
+      <c r="J82" s="9" t="e">
+        <f aca="false">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E82 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K82" s="0" t="n">
         <f aca="true">IF(I82="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J82))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J82)))),0)</f>
@@ -12459,6 +13104,10 @@
       </c>
       <c r="M82" s="0" t="n">
         <f aca="true">IF(K82 = 0, INDIRECT("M" &amp; ROW() - 1), K82)</f>
+        <v>0</v>
+      </c>
+      <c r="N82" s="33" t="n">
+        <f aca="true">IF(L82=0,E82,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12471,17 +13120,21 @@
         <f aca="false">IF(D83="","",VLOOKUP(D83, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G83" s="31" t="str">
-        <f aca="true">IF(H83="", IF(I83="","",(INDIRECT("M" &amp; ROW() - 1) - M83)),IF(I83="", "", INDIRECT("M" &amp; ROW() - 1) - M83))</f>
-        <v/>
-      </c>
-      <c r="H83" s="31" t="str">
-        <f aca="false">IF(D83="", "", IF(I83="-", "", E83 * IF(F83="",1,F83)))</f>
-        <v/>
-      </c>
-      <c r="J83" s="9" t="n">
-        <f aca="true">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E83 * F83)</f>
-        <v>0</v>
+      <c r="F83" s="32" t="str">
+        <f aca="true">IF(L83=0, "", H83 - G83 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G83" s="32" t="str">
+        <f aca="true">IF(L83=0, "", _xlfn.CEILING.MATH(H83 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H83" s="32" t="str">
+        <f aca="false">IF(L83=0, "", -N83)</f>
+        <v/>
+      </c>
+      <c r="J83" s="9" t="e">
+        <f aca="false">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E83 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K83" s="0" t="n">
         <f aca="true">IF(I83="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J83))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J83)))),0)</f>
@@ -12493,6 +13146,10 @@
       </c>
       <c r="M83" s="0" t="n">
         <f aca="true">IF(K83 = 0, INDIRECT("M" &amp; ROW() - 1), K83)</f>
+        <v>0</v>
+      </c>
+      <c r="N83" s="33" t="n">
+        <f aca="true">IF(L83=0,E83,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12505,17 +13162,21 @@
         <f aca="false">IF(D84="","",VLOOKUP(D84, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G84" s="31" t="str">
-        <f aca="true">IF(H84="", IF(I84="","",(INDIRECT("M" &amp; ROW() - 1) - M84)),IF(I84="", "", INDIRECT("M" &amp; ROW() - 1) - M84))</f>
-        <v/>
-      </c>
-      <c r="H84" s="31" t="str">
-        <f aca="false">IF(D84="", "", IF(I84="-", "", E84 * IF(F84="",1,F84)))</f>
-        <v/>
-      </c>
-      <c r="J84" s="9" t="n">
-        <f aca="true">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E84 * F84)</f>
-        <v>0</v>
+      <c r="F84" s="32" t="str">
+        <f aca="true">IF(L84=0, "", H84 - G84 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G84" s="32" t="str">
+        <f aca="true">IF(L84=0, "", _xlfn.CEILING.MATH(H84 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H84" s="32" t="str">
+        <f aca="false">IF(L84=0, "", -N84)</f>
+        <v/>
+      </c>
+      <c r="J84" s="9" t="e">
+        <f aca="false">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E84 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K84" s="0" t="n">
         <f aca="true">IF(I84="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J84))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J84)))),0)</f>
@@ -12527,6 +13188,10 @@
       </c>
       <c r="M84" s="0" t="n">
         <f aca="true">IF(K84 = 0, INDIRECT("M" &amp; ROW() - 1), K84)</f>
+        <v>0</v>
+      </c>
+      <c r="N84" s="33" t="n">
+        <f aca="true">IF(L84=0,E84,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12539,17 +13204,21 @@
         <f aca="false">IF(D85="","",VLOOKUP(D85, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G85" s="31" t="str">
-        <f aca="true">IF(H85="", IF(I85="","",(INDIRECT("M" &amp; ROW() - 1) - M85)),IF(I85="", "", INDIRECT("M" &amp; ROW() - 1) - M85))</f>
-        <v/>
-      </c>
-      <c r="H85" s="31" t="str">
-        <f aca="false">IF(D85="", "", IF(I85="-", "", E85 * IF(F85="",1,F85)))</f>
-        <v/>
-      </c>
-      <c r="J85" s="9" t="n">
-        <f aca="true">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E85 * F85)</f>
-        <v>0</v>
+      <c r="F85" s="32" t="str">
+        <f aca="true">IF(L85=0, "", H85 - G85 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G85" s="32" t="str">
+        <f aca="true">IF(L85=0, "", _xlfn.CEILING.MATH(H85 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H85" s="32" t="str">
+        <f aca="false">IF(L85=0, "", -N85)</f>
+        <v/>
+      </c>
+      <c r="J85" s="9" t="e">
+        <f aca="false">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E85 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K85" s="0" t="n">
         <f aca="true">IF(I85="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J85))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J85)))),0)</f>
@@ -12561,6 +13230,10 @@
       </c>
       <c r="M85" s="0" t="n">
         <f aca="true">IF(K85 = 0, INDIRECT("M" &amp; ROW() - 1), K85)</f>
+        <v>0</v>
+      </c>
+      <c r="N85" s="33" t="n">
+        <f aca="true">IF(L85=0,E85,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12573,17 +13246,21 @@
         <f aca="false">IF(D86="","",VLOOKUP(D86, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G86" s="31" t="str">
-        <f aca="true">IF(H86="", IF(I86="","",(INDIRECT("M" &amp; ROW() - 1) - M86)),IF(I86="", "", INDIRECT("M" &amp; ROW() - 1) - M86))</f>
-        <v/>
-      </c>
-      <c r="H86" s="31" t="str">
-        <f aca="false">IF(D86="", "", IF(I86="-", "", E86 * IF(F86="",1,F86)))</f>
-        <v/>
-      </c>
-      <c r="J86" s="9" t="n">
-        <f aca="true">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E86 * F86)</f>
-        <v>0</v>
+      <c r="F86" s="32" t="str">
+        <f aca="true">IF(L86=0, "", H86 - G86 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G86" s="32" t="str">
+        <f aca="true">IF(L86=0, "", _xlfn.CEILING.MATH(H86 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H86" s="32" t="str">
+        <f aca="false">IF(L86=0, "", -N86)</f>
+        <v/>
+      </c>
+      <c r="J86" s="9" t="e">
+        <f aca="false">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E86 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K86" s="0" t="n">
         <f aca="true">IF(I86="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J86))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J86)))),0)</f>
@@ -12595,6 +13272,10 @@
       </c>
       <c r="M86" s="0" t="n">
         <f aca="true">IF(K86 = 0, INDIRECT("M" &amp; ROW() - 1), K86)</f>
+        <v>0</v>
+      </c>
+      <c r="N86" s="33" t="n">
+        <f aca="true">IF(L86=0,E86,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12607,17 +13288,21 @@
         <f aca="false">IF(D87="","",VLOOKUP(D87, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G87" s="31" t="str">
-        <f aca="true">IF(H87="", IF(I87="","",(INDIRECT("M" &amp; ROW() - 1) - M87)),IF(I87="", "", INDIRECT("M" &amp; ROW() - 1) - M87))</f>
-        <v/>
-      </c>
-      <c r="H87" s="31" t="str">
-        <f aca="false">IF(D87="", "", IF(I87="-", "", E87 * IF(F87="",1,F87)))</f>
-        <v/>
-      </c>
-      <c r="J87" s="9" t="n">
-        <f aca="true">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E87 * F87)</f>
-        <v>0</v>
+      <c r="F87" s="32" t="str">
+        <f aca="true">IF(L87=0, "", H87 - G87 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G87" s="32" t="str">
+        <f aca="true">IF(L87=0, "", _xlfn.CEILING.MATH(H87 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H87" s="32" t="str">
+        <f aca="false">IF(L87=0, "", -N87)</f>
+        <v/>
+      </c>
+      <c r="J87" s="9" t="e">
+        <f aca="false">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E87 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K87" s="0" t="n">
         <f aca="true">IF(I87="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J87))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J87)))),0)</f>
@@ -12629,6 +13314,10 @@
       </c>
       <c r="M87" s="0" t="n">
         <f aca="true">IF(K87 = 0, INDIRECT("M" &amp; ROW() - 1), K87)</f>
+        <v>0</v>
+      </c>
+      <c r="N87" s="33" t="n">
+        <f aca="true">IF(L87=0,E87,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12641,17 +13330,21 @@
         <f aca="false">IF(D88="","",VLOOKUP(D88, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G88" s="31" t="str">
-        <f aca="true">IF(H88="", IF(I88="","",(INDIRECT("M" &amp; ROW() - 1) - M88)),IF(I88="", "", INDIRECT("M" &amp; ROW() - 1) - M88))</f>
-        <v/>
-      </c>
-      <c r="H88" s="31" t="str">
-        <f aca="false">IF(D88="", "", IF(I88="-", "", E88 * IF(F88="",1,F88)))</f>
-        <v/>
-      </c>
-      <c r="J88" s="9" t="n">
-        <f aca="true">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E88 * F88)</f>
-        <v>0</v>
+      <c r="F88" s="32" t="str">
+        <f aca="true">IF(L88=0, "", H88 - G88 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G88" s="32" t="str">
+        <f aca="true">IF(L88=0, "", _xlfn.CEILING.MATH(H88 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H88" s="32" t="str">
+        <f aca="false">IF(L88=0, "", -N88)</f>
+        <v/>
+      </c>
+      <c r="J88" s="9" t="e">
+        <f aca="false">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E88 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K88" s="0" t="n">
         <f aca="true">IF(I88="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J88))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J88)))),0)</f>
@@ -12663,6 +13356,10 @@
       </c>
       <c r="M88" s="0" t="n">
         <f aca="true">IF(K88 = 0, INDIRECT("M" &amp; ROW() - 1), K88)</f>
+        <v>0</v>
+      </c>
+      <c r="N88" s="33" t="n">
+        <f aca="true">IF(L88=0,E88,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12675,17 +13372,21 @@
         <f aca="false">IF(D89="","",VLOOKUP(D89, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G89" s="31" t="str">
-        <f aca="true">IF(H89="", IF(I89="","",(INDIRECT("M" &amp; ROW() - 1) - M89)),IF(I89="", "", INDIRECT("M" &amp; ROW() - 1) - M89))</f>
-        <v/>
-      </c>
-      <c r="H89" s="31" t="str">
-        <f aca="false">IF(D89="", "", IF(I89="-", "", E89 * IF(F89="",1,F89)))</f>
-        <v/>
-      </c>
-      <c r="J89" s="9" t="n">
-        <f aca="true">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E89 * F89)</f>
-        <v>0</v>
+      <c r="F89" s="32" t="str">
+        <f aca="true">IF(L89=0, "", H89 - G89 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G89" s="32" t="str">
+        <f aca="true">IF(L89=0, "", _xlfn.CEILING.MATH(H89 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H89" s="32" t="str">
+        <f aca="false">IF(L89=0, "", -N89)</f>
+        <v/>
+      </c>
+      <c r="J89" s="9" t="e">
+        <f aca="false">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E89 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K89" s="0" t="n">
         <f aca="true">IF(I89="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J89))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J89)))),0)</f>
@@ -12697,6 +13398,10 @@
       </c>
       <c r="M89" s="0" t="n">
         <f aca="true">IF(K89 = 0, INDIRECT("M" &amp; ROW() - 1), K89)</f>
+        <v>0</v>
+      </c>
+      <c r="N89" s="33" t="n">
+        <f aca="true">IF(L89=0,E89,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12709,17 +13414,21 @@
         <f aca="false">IF(D90="","",VLOOKUP(D90, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G90" s="31" t="str">
-        <f aca="true">IF(H90="", IF(I90="","",(INDIRECT("M" &amp; ROW() - 1) - M90)),IF(I90="", "", INDIRECT("M" &amp; ROW() - 1) - M90))</f>
-        <v/>
-      </c>
-      <c r="H90" s="31" t="str">
-        <f aca="false">IF(D90="", "", IF(I90="-", "", E90 * IF(F90="",1,F90)))</f>
-        <v/>
-      </c>
-      <c r="J90" s="9" t="n">
-        <f aca="true">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E90 * F90)</f>
-        <v>0</v>
+      <c r="F90" s="32" t="str">
+        <f aca="true">IF(L90=0, "", H90 - G90 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G90" s="32" t="str">
+        <f aca="true">IF(L90=0, "", _xlfn.CEILING.MATH(H90 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H90" s="32" t="str">
+        <f aca="false">IF(L90=0, "", -N90)</f>
+        <v/>
+      </c>
+      <c r="J90" s="9" t="e">
+        <f aca="false">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E90 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K90" s="0" t="n">
         <f aca="true">IF(I90="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J90))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J90)))),0)</f>
@@ -12731,6 +13440,10 @@
       </c>
       <c r="M90" s="0" t="n">
         <f aca="true">IF(K90 = 0, INDIRECT("M" &amp; ROW() - 1), K90)</f>
+        <v>0</v>
+      </c>
+      <c r="N90" s="33" t="n">
+        <f aca="true">IF(L90=0,E90,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12743,17 +13456,21 @@
         <f aca="false">IF(D91="","",VLOOKUP(D91, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G91" s="31" t="str">
-        <f aca="true">IF(H91="", IF(I91="","",(INDIRECT("M" &amp; ROW() - 1) - M91)),IF(I91="", "", INDIRECT("M" &amp; ROW() - 1) - M91))</f>
-        <v/>
-      </c>
-      <c r="H91" s="31" t="str">
-        <f aca="false">IF(D91="", "", IF(I91="-", "", E91 * IF(F91="",1,F91)))</f>
-        <v/>
-      </c>
-      <c r="J91" s="9" t="n">
-        <f aca="true">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E91 * F91)</f>
-        <v>0</v>
+      <c r="F91" s="32" t="str">
+        <f aca="true">IF(L91=0, "", H91 - G91 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G91" s="32" t="str">
+        <f aca="true">IF(L91=0, "", _xlfn.CEILING.MATH(H91 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H91" s="32" t="str">
+        <f aca="false">IF(L91=0, "", -N91)</f>
+        <v/>
+      </c>
+      <c r="J91" s="9" t="e">
+        <f aca="false">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E91 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K91" s="0" t="n">
         <f aca="true">IF(I91="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J91))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J91)))),0)</f>
@@ -12765,6 +13482,10 @@
       </c>
       <c r="M91" s="0" t="n">
         <f aca="true">IF(K91 = 0, INDIRECT("M" &amp; ROW() - 1), K91)</f>
+        <v>0</v>
+      </c>
+      <c r="N91" s="33" t="n">
+        <f aca="true">IF(L91=0,E91,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12777,17 +13498,21 @@
         <f aca="false">IF(D92="","",VLOOKUP(D92, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G92" s="31" t="str">
-        <f aca="true">IF(H92="", IF(I92="","",(INDIRECT("M" &amp; ROW() - 1) - M92)),IF(I92="", "", INDIRECT("M" &amp; ROW() - 1) - M92))</f>
-        <v/>
-      </c>
-      <c r="H92" s="31" t="str">
-        <f aca="false">IF(D92="", "", IF(I92="-", "", E92 * IF(F92="",1,F92)))</f>
-        <v/>
-      </c>
-      <c r="J92" s="9" t="n">
-        <f aca="true">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E92 * F92)</f>
-        <v>0</v>
+      <c r="F92" s="32" t="str">
+        <f aca="true">IF(L92=0, "", H92 - G92 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G92" s="32" t="str">
+        <f aca="true">IF(L92=0, "", _xlfn.CEILING.MATH(H92 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H92" s="32" t="str">
+        <f aca="false">IF(L92=0, "", -N92)</f>
+        <v/>
+      </c>
+      <c r="J92" s="9" t="e">
+        <f aca="false">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E92 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K92" s="0" t="n">
         <f aca="true">IF(I92="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J92))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J92)))),0)</f>
@@ -12799,6 +13524,10 @@
       </c>
       <c r="M92" s="0" t="n">
         <f aca="true">IF(K92 = 0, INDIRECT("M" &amp; ROW() - 1), K92)</f>
+        <v>0</v>
+      </c>
+      <c r="N92" s="33" t="n">
+        <f aca="true">IF(L92=0,E92,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12811,17 +13540,21 @@
         <f aca="false">IF(D93="","",VLOOKUP(D93, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G93" s="31" t="str">
-        <f aca="true">IF(H93="", IF(I93="","",(INDIRECT("M" &amp; ROW() - 1) - M93)),IF(I93="", "", INDIRECT("M" &amp; ROW() - 1) - M93))</f>
-        <v/>
-      </c>
-      <c r="H93" s="31" t="str">
-        <f aca="false">IF(D93="", "", IF(I93="-", "", E93 * IF(F93="",1,F93)))</f>
-        <v/>
-      </c>
-      <c r="J93" s="9" t="n">
-        <f aca="true">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E93 * F93)</f>
-        <v>0</v>
+      <c r="F93" s="32" t="str">
+        <f aca="true">IF(L93=0, "", H93 - G93 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G93" s="32" t="str">
+        <f aca="true">IF(L93=0, "", _xlfn.CEILING.MATH(H93 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H93" s="32" t="str">
+        <f aca="false">IF(L93=0, "", -N93)</f>
+        <v/>
+      </c>
+      <c r="J93" s="9" t="e">
+        <f aca="false">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E93 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K93" s="0" t="n">
         <f aca="true">IF(I93="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J93))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J93)))),0)</f>
@@ -12833,6 +13566,10 @@
       </c>
       <c r="M93" s="0" t="n">
         <f aca="true">IF(K93 = 0, INDIRECT("M" &amp; ROW() - 1), K93)</f>
+        <v>0</v>
+      </c>
+      <c r="N93" s="33" t="n">
+        <f aca="true">IF(L93=0,E93,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12845,17 +13582,21 @@
         <f aca="false">IF(D94="","",VLOOKUP(D94, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G94" s="31" t="str">
-        <f aca="true">IF(H94="", IF(I94="","",(INDIRECT("M" &amp; ROW() - 1) - M94)),IF(I94="", "", INDIRECT("M" &amp; ROW() - 1) - M94))</f>
-        <v/>
-      </c>
-      <c r="H94" s="31" t="str">
-        <f aca="false">IF(D94="", "", IF(I94="-", "", E94 * IF(F94="",1,F94)))</f>
-        <v/>
-      </c>
-      <c r="J94" s="9" t="n">
-        <f aca="true">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E94 * F94)</f>
-        <v>0</v>
+      <c r="F94" s="32" t="str">
+        <f aca="true">IF(L94=0, "", H94 - G94 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G94" s="32" t="str">
+        <f aca="true">IF(L94=0, "", _xlfn.CEILING.MATH(H94 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H94" s="32" t="str">
+        <f aca="false">IF(L94=0, "", -N94)</f>
+        <v/>
+      </c>
+      <c r="J94" s="9" t="e">
+        <f aca="false">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E94 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K94" s="0" t="n">
         <f aca="true">IF(I94="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J94))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J94)))),0)</f>
@@ -12867,6 +13608,10 @@
       </c>
       <c r="M94" s="0" t="n">
         <f aca="true">IF(K94 = 0, INDIRECT("M" &amp; ROW() - 1), K94)</f>
+        <v>0</v>
+      </c>
+      <c r="N94" s="33" t="n">
+        <f aca="true">IF(L94=0,E94,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12879,17 +13624,21 @@
         <f aca="false">IF(D95="","",VLOOKUP(D95, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G95" s="31" t="str">
-        <f aca="true">IF(H95="", IF(I95="","",(INDIRECT("M" &amp; ROW() - 1) - M95)),IF(I95="", "", INDIRECT("M" &amp; ROW() - 1) - M95))</f>
-        <v/>
-      </c>
-      <c r="H95" s="31" t="str">
-        <f aca="false">IF(D95="", "", IF(I95="-", "", E95 * IF(F95="",1,F95)))</f>
-        <v/>
-      </c>
-      <c r="J95" s="9" t="n">
-        <f aca="true">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E95 * F95)</f>
-        <v>0</v>
+      <c r="F95" s="32" t="str">
+        <f aca="true">IF(L95=0, "", H95 - G95 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G95" s="32" t="str">
+        <f aca="true">IF(L95=0, "", _xlfn.CEILING.MATH(H95 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H95" s="32" t="str">
+        <f aca="false">IF(L95=0, "", -N95)</f>
+        <v/>
+      </c>
+      <c r="J95" s="9" t="e">
+        <f aca="false">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E95 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K95" s="0" t="n">
         <f aca="true">IF(I95="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J95))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J95)))),0)</f>
@@ -12901,6 +13650,10 @@
       </c>
       <c r="M95" s="0" t="n">
         <f aca="true">IF(K95 = 0, INDIRECT("M" &amp; ROW() - 1), K95)</f>
+        <v>0</v>
+      </c>
+      <c r="N95" s="33" t="n">
+        <f aca="true">IF(L95=0,E95,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12913,17 +13666,21 @@
         <f aca="false">IF(D96="","",VLOOKUP(D96, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G96" s="31" t="str">
-        <f aca="true">IF(H96="", IF(I96="","",(INDIRECT("M" &amp; ROW() - 1) - M96)),IF(I96="", "", INDIRECT("M" &amp; ROW() - 1) - M96))</f>
-        <v/>
-      </c>
-      <c r="H96" s="31" t="str">
-        <f aca="false">IF(D96="", "", IF(I96="-", "", E96 * IF(F96="",1,F96)))</f>
-        <v/>
-      </c>
-      <c r="J96" s="9" t="n">
-        <f aca="true">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E96 * F96)</f>
-        <v>0</v>
+      <c r="F96" s="32" t="str">
+        <f aca="true">IF(L96=0, "", H96 - G96 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G96" s="32" t="str">
+        <f aca="true">IF(L96=0, "", _xlfn.CEILING.MATH(H96 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H96" s="32" t="str">
+        <f aca="false">IF(L96=0, "", -N96)</f>
+        <v/>
+      </c>
+      <c r="J96" s="9" t="e">
+        <f aca="false">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E96 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K96" s="0" t="n">
         <f aca="true">IF(I96="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J96))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J96)))),0)</f>
@@ -12935,6 +13692,10 @@
       </c>
       <c r="M96" s="0" t="n">
         <f aca="true">IF(K96 = 0, INDIRECT("M" &amp; ROW() - 1), K96)</f>
+        <v>0</v>
+      </c>
+      <c r="N96" s="33" t="n">
+        <f aca="true">IF(L96=0,E96,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12947,17 +13708,21 @@
         <f aca="false">IF(D97="","",VLOOKUP(D97, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G97" s="31" t="str">
-        <f aca="true">IF(H97="", IF(I97="","",(INDIRECT("M" &amp; ROW() - 1) - M97)),IF(I97="", "", INDIRECT("M" &amp; ROW() - 1) - M97))</f>
-        <v/>
-      </c>
-      <c r="H97" s="31" t="str">
-        <f aca="false">IF(D97="", "", IF(I97="-", "", E97 * IF(F97="",1,F97)))</f>
-        <v/>
-      </c>
-      <c r="J97" s="9" t="n">
-        <f aca="true">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E97 * F97)</f>
-        <v>0</v>
+      <c r="F97" s="32" t="str">
+        <f aca="true">IF(L97=0, "", H97 - G97 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G97" s="32" t="str">
+        <f aca="true">IF(L97=0, "", _xlfn.CEILING.MATH(H97 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H97" s="32" t="str">
+        <f aca="false">IF(L97=0, "", -N97)</f>
+        <v/>
+      </c>
+      <c r="J97" s="9" t="e">
+        <f aca="false">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E97 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K97" s="0" t="n">
         <f aca="true">IF(I97="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J97))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J97)))),0)</f>
@@ -12969,6 +13734,10 @@
       </c>
       <c r="M97" s="0" t="n">
         <f aca="true">IF(K97 = 0, INDIRECT("M" &amp; ROW() - 1), K97)</f>
+        <v>0</v>
+      </c>
+      <c r="N97" s="33" t="n">
+        <f aca="true">IF(L97=0,E97,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -12981,17 +13750,21 @@
         <f aca="false">IF(D98="","",VLOOKUP(D98, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G98" s="31" t="str">
-        <f aca="true">IF(H98="", IF(I98="","",(INDIRECT("M" &amp; ROW() - 1) - M98)),IF(I98="", "", INDIRECT("M" &amp; ROW() - 1) - M98))</f>
-        <v/>
-      </c>
-      <c r="H98" s="31" t="str">
-        <f aca="false">IF(D98="", "", IF(I98="-", "", E98 * IF(F98="",1,F98)))</f>
-        <v/>
-      </c>
-      <c r="J98" s="9" t="n">
-        <f aca="true">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E98 * F98)</f>
-        <v>0</v>
+      <c r="F98" s="32" t="str">
+        <f aca="true">IF(L98=0, "", H98 - G98 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G98" s="32" t="str">
+        <f aca="true">IF(L98=0, "", _xlfn.CEILING.MATH(H98 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H98" s="32" t="str">
+        <f aca="false">IF(L98=0, "", -N98)</f>
+        <v/>
+      </c>
+      <c r="J98" s="9" t="e">
+        <f aca="false">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E98 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K98" s="0" t="n">
         <f aca="true">IF(I98="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J98))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J98)))),0)</f>
@@ -13003,6 +13776,10 @@
       </c>
       <c r="M98" s="0" t="n">
         <f aca="true">IF(K98 = 0, INDIRECT("M" &amp; ROW() - 1), K98)</f>
+        <v>0</v>
+      </c>
+      <c r="N98" s="33" t="n">
+        <f aca="true">IF(L98=0,E98,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13015,17 +13792,21 @@
         <f aca="false">IF(D99="","",VLOOKUP(D99, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G99" s="31" t="str">
-        <f aca="true">IF(H99="", IF(I99="","",(INDIRECT("M" &amp; ROW() - 1) - M99)),IF(I99="", "", INDIRECT("M" &amp; ROW() - 1) - M99))</f>
-        <v/>
-      </c>
-      <c r="H99" s="31" t="str">
-        <f aca="false">IF(D99="", "", IF(I99="-", "", E99 * IF(F99="",1,F99)))</f>
-        <v/>
-      </c>
-      <c r="J99" s="9" t="n">
-        <f aca="true">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E99 * F99)</f>
-        <v>0</v>
+      <c r="F99" s="32" t="str">
+        <f aca="true">IF(L99=0, "", H99 - G99 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G99" s="32" t="str">
+        <f aca="true">IF(L99=0, "", _xlfn.CEILING.MATH(H99 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H99" s="32" t="str">
+        <f aca="false">IF(L99=0, "", -N99)</f>
+        <v/>
+      </c>
+      <c r="J99" s="9" t="e">
+        <f aca="false">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E99 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K99" s="0" t="n">
         <f aca="true">IF(I99="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J99))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J99)))),0)</f>
@@ -13037,6 +13818,10 @@
       </c>
       <c r="M99" s="0" t="n">
         <f aca="true">IF(K99 = 0, INDIRECT("M" &amp; ROW() - 1), K99)</f>
+        <v>0</v>
+      </c>
+      <c r="N99" s="33" t="n">
+        <f aca="true">IF(L99=0,E99,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13049,17 +13834,21 @@
         <f aca="false">IF(D100="","",VLOOKUP(D100, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G100" s="31" t="str">
-        <f aca="true">IF(H100="", IF(I100="","",(INDIRECT("M" &amp; ROW() - 1) - M100)),IF(I100="", "", INDIRECT("M" &amp; ROW() - 1) - M100))</f>
-        <v/>
-      </c>
-      <c r="H100" s="31" t="str">
-        <f aca="false">IF(D100="", "", IF(I100="-", "", E100 * IF(F100="",1,F100)))</f>
-        <v/>
-      </c>
-      <c r="J100" s="9" t="n">
-        <f aca="true">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E100 * F100)</f>
-        <v>0</v>
+      <c r="F100" s="32" t="str">
+        <f aca="true">IF(L100=0, "", H100 - G100 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G100" s="32" t="str">
+        <f aca="true">IF(L100=0, "", _xlfn.CEILING.MATH(H100 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H100" s="32" t="str">
+        <f aca="false">IF(L100=0, "", -N100)</f>
+        <v/>
+      </c>
+      <c r="J100" s="9" t="e">
+        <f aca="false">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E100 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K100" s="0" t="n">
         <f aca="true">IF(I100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J100)))),0)</f>
@@ -13071,6 +13860,10 @@
       </c>
       <c r="M100" s="0" t="n">
         <f aca="true">IF(K100 = 0, INDIRECT("M" &amp; ROW() - 1), K100)</f>
+        <v>0</v>
+      </c>
+      <c r="N100" s="33" t="n">
+        <f aca="true">IF(L100=0,E100,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13083,17 +13876,21 @@
         <f aca="false">IF(D101="","",VLOOKUP(D101, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G101" s="31" t="str">
-        <f aca="true">IF(H101="", IF(I101="","",(INDIRECT("M" &amp; ROW() - 1) - M101)),IF(I101="", "", INDIRECT("M" &amp; ROW() - 1) - M101))</f>
-        <v/>
-      </c>
-      <c r="H101" s="31" t="str">
-        <f aca="false">IF(D101="", "", IF(I101="-", "", E101 * IF(F101="",1,F101)))</f>
-        <v/>
-      </c>
-      <c r="J101" s="9" t="n">
-        <f aca="true">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E101 * F101)</f>
-        <v>0</v>
+      <c r="F101" s="32" t="str">
+        <f aca="true">IF(L101=0, "", H101 - G101 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G101" s="32" t="str">
+        <f aca="true">IF(L101=0, "", _xlfn.CEILING.MATH(H101 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H101" s="32" t="str">
+        <f aca="false">IF(L101=0, "", -N101)</f>
+        <v/>
+      </c>
+      <c r="J101" s="9" t="e">
+        <f aca="false">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E101 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K101" s="0" t="n">
         <f aca="true">IF(I101 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J101)))), 0)</f>
@@ -13105,6 +13902,10 @@
       </c>
       <c r="M101" s="0" t="n">
         <f aca="true">IF(K101 = 0, INDIRECT("M" &amp; ROW() - 1), K101)</f>
+        <v>0</v>
+      </c>
+      <c r="N101" s="33" t="n">
+        <f aca="true">IF(L101=0,E101,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13117,17 +13918,21 @@
         <f aca="false">IF(D102="","",VLOOKUP(D102, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G102" s="31" t="str">
-        <f aca="true">IF(H102="", IF(I102="","",(INDIRECT("M" &amp; ROW() - 1) - M102)),IF(I102="", "", INDIRECT("M" &amp; ROW() - 1) - M102))</f>
-        <v/>
-      </c>
-      <c r="H102" s="31" t="str">
-        <f aca="false">IF(D102="", "", IF(I102="-", "", E102 * IF(F102="",1,F102)))</f>
-        <v/>
-      </c>
-      <c r="J102" s="9" t="n">
-        <f aca="true">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E102 * F102)</f>
-        <v>0</v>
+      <c r="F102" s="32" t="str">
+        <f aca="true">IF(L102=0, "", H102 - G102 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G102" s="32" t="str">
+        <f aca="true">IF(L102=0, "", _xlfn.CEILING.MATH(H102 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H102" s="32" t="str">
+        <f aca="false">IF(L102=0, "", -N102)</f>
+        <v/>
+      </c>
+      <c r="J102" s="9" t="e">
+        <f aca="false">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E102 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K102" s="0" t="n">
         <f aca="true">IF(I102 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J102)))), 0)</f>
@@ -13139,6 +13944,10 @@
       </c>
       <c r="M102" s="0" t="n">
         <f aca="true">IF(K102 = 0, INDIRECT("M" &amp; ROW() - 1), K102)</f>
+        <v>0</v>
+      </c>
+      <c r="N102" s="33" t="n">
+        <f aca="true">IF(L102=0,E102,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13151,17 +13960,21 @@
         <f aca="false">IF(D103="","",VLOOKUP(D103, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G103" s="31" t="str">
-        <f aca="true">IF(H103="", IF(I103="","",(INDIRECT("M" &amp; ROW() - 1) - M103)),IF(I103="", "", INDIRECT("M" &amp; ROW() - 1) - M103))</f>
-        <v/>
-      </c>
-      <c r="H103" s="31" t="str">
-        <f aca="false">IF(D103="", "", IF(I103="-", "", E103 * IF(F103="",1,F103)))</f>
-        <v/>
-      </c>
-      <c r="J103" s="9" t="n">
-        <f aca="true">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E103 * F103)</f>
-        <v>0</v>
+      <c r="F103" s="32" t="str">
+        <f aca="true">IF(L103=0, "", H103 - G103 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G103" s="32" t="str">
+        <f aca="true">IF(L103=0, "", _xlfn.CEILING.MATH(H103 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H103" s="32" t="str">
+        <f aca="false">IF(L103=0, "", -N103)</f>
+        <v/>
+      </c>
+      <c r="J103" s="9" t="e">
+        <f aca="false">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E103 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K103" s="0" t="n">
         <f aca="true">IF(I103 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J103)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J103)))), 0)</f>
@@ -13173,6 +13986,10 @@
       </c>
       <c r="M103" s="0" t="n">
         <f aca="true">IF(K103 = 0, INDIRECT("M" &amp; ROW() - 1), K103)</f>
+        <v>0</v>
+      </c>
+      <c r="N103" s="33" t="n">
+        <f aca="true">IF(L103=0,E103,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13185,17 +14002,21 @@
         <f aca="false">IF(D104="","",VLOOKUP(D104, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G104" s="31" t="str">
-        <f aca="true">IF(H104="", IF(I104="","",(INDIRECT("M" &amp; ROW() - 1) - M104)),IF(I104="", "", INDIRECT("M" &amp; ROW() - 1) - M104))</f>
-        <v/>
-      </c>
-      <c r="H104" s="31" t="str">
-        <f aca="false">IF(D104="", "", IF(I104="-", "", E104 * IF(F104="",1,F104)))</f>
-        <v/>
-      </c>
-      <c r="J104" s="9" t="n">
-        <f aca="true">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E104 * F104)</f>
-        <v>0</v>
+      <c r="F104" s="32" t="str">
+        <f aca="true">IF(L104=0, "", H104 - G104 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G104" s="32" t="str">
+        <f aca="true">IF(L104=0, "", _xlfn.CEILING.MATH(H104 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H104" s="32" t="str">
+        <f aca="false">IF(L104=0, "", -N104)</f>
+        <v/>
+      </c>
+      <c r="J104" s="9" t="e">
+        <f aca="false">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E104 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K104" s="0" t="n">
         <f aca="true">IF(I104 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J104)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J104)))), 0)</f>
@@ -13207,6 +14028,10 @@
       </c>
       <c r="M104" s="0" t="n">
         <f aca="true">IF(K104 = 0, INDIRECT("M" &amp; ROW() - 1), K104)</f>
+        <v>0</v>
+      </c>
+      <c r="N104" s="33" t="n">
+        <f aca="true">IF(L104=0,E104,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13219,17 +14044,21 @@
         <f aca="false">IF(D105="","",VLOOKUP(D105, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G105" s="31" t="str">
-        <f aca="true">IF(H105="", IF(I105="","",(INDIRECT("M" &amp; ROW() - 1) - M105)),IF(I105="", "", INDIRECT("M" &amp; ROW() - 1) - M105))</f>
-        <v/>
-      </c>
-      <c r="H105" s="31" t="str">
-        <f aca="false">IF(D105="", "", IF(I105="-", "", E105 * IF(F105="",1,F105)))</f>
-        <v/>
-      </c>
-      <c r="J105" s="9" t="n">
-        <f aca="true">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E105 * F105)</f>
-        <v>0</v>
+      <c r="F105" s="32" t="str">
+        <f aca="true">IF(L105=0, "", H105 - G105 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G105" s="32" t="str">
+        <f aca="true">IF(L105=0, "", _xlfn.CEILING.MATH(H105 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H105" s="32" t="str">
+        <f aca="false">IF(L105=0, "", -N105)</f>
+        <v/>
+      </c>
+      <c r="J105" s="9" t="e">
+        <f aca="false">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E105 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K105" s="0" t="n">
         <f aca="true">IF(I105 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J105)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J105)))), 0)</f>
@@ -13241,6 +14070,10 @@
       </c>
       <c r="M105" s="0" t="n">
         <f aca="true">IF(K105 = 0, INDIRECT("M" &amp; ROW() - 1), K105)</f>
+        <v>0</v>
+      </c>
+      <c r="N105" s="33" t="n">
+        <f aca="true">IF(L105=0,E105,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13253,17 +14086,21 @@
         <f aca="false">IF(D106="","",VLOOKUP(D106, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G106" s="31" t="str">
-        <f aca="true">IF(H106="", IF(I106="","",(INDIRECT("M" &amp; ROW() - 1) - M106)),IF(I106="", "", INDIRECT("M" &amp; ROW() - 1) - M106))</f>
-        <v/>
-      </c>
-      <c r="H106" s="31" t="str">
-        <f aca="false">IF(D106="", "", IF(I106="-", "", E106 * IF(F106="",1,F106)))</f>
-        <v/>
-      </c>
-      <c r="J106" s="9" t="n">
-        <f aca="true">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E106 * F106)</f>
-        <v>0</v>
+      <c r="F106" s="32" t="str">
+        <f aca="true">IF(L106=0, "", H106 - G106 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G106" s="32" t="str">
+        <f aca="true">IF(L106=0, "", _xlfn.CEILING.MATH(H106 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H106" s="32" t="str">
+        <f aca="false">IF(L106=0, "", -N106)</f>
+        <v/>
+      </c>
+      <c r="J106" s="9" t="e">
+        <f aca="false">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E106 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K106" s="0" t="n">
         <f aca="true">IF(I106 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J106)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J106)))), 0)</f>
@@ -13275,6 +14112,10 @@
       </c>
       <c r="M106" s="0" t="n">
         <f aca="true">IF(K106 = 0, INDIRECT("M" &amp; ROW() - 1), K106)</f>
+        <v>0</v>
+      </c>
+      <c r="N106" s="33" t="n">
+        <f aca="true">IF(L106=0,E106,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13287,17 +14128,21 @@
         <f aca="false">IF(D107="","",VLOOKUP(D107, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G107" s="31" t="str">
-        <f aca="true">IF(H107="", IF(I107="","",(INDIRECT("M" &amp; ROW() - 1) - M107)),IF(I107="", "", INDIRECT("M" &amp; ROW() - 1) - M107))</f>
-        <v/>
-      </c>
-      <c r="H107" s="31" t="str">
-        <f aca="false">IF(D107="", "", IF(I107="-", "", E107 * IF(F107="",1,F107)))</f>
-        <v/>
-      </c>
-      <c r="J107" s="9" t="n">
-        <f aca="true">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E107 * F107)</f>
-        <v>0</v>
+      <c r="F107" s="32" t="str">
+        <f aca="true">IF(L107=0, "", H107 - G107 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G107" s="32" t="str">
+        <f aca="true">IF(L107=0, "", _xlfn.CEILING.MATH(H107 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H107" s="32" t="str">
+        <f aca="false">IF(L107=0, "", -N107)</f>
+        <v/>
+      </c>
+      <c r="J107" s="9" t="e">
+        <f aca="false">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E107 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K107" s="0" t="n">
         <f aca="true">IF(I107 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J107)))), 0)</f>
@@ -13309,6 +14154,10 @@
       </c>
       <c r="M107" s="0" t="n">
         <f aca="true">IF(K107 = 0, INDIRECT("M" &amp; ROW() - 1), K107)</f>
+        <v>0</v>
+      </c>
+      <c r="N107" s="33" t="n">
+        <f aca="true">IF(L107=0,E107,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13321,17 +14170,21 @@
         <f aca="false">IF(D108="","",VLOOKUP(D108, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G108" s="31" t="str">
-        <f aca="true">IF(H108="", IF(I108="","",(INDIRECT("M" &amp; ROW() - 1) - M108)),IF(I108="", "", INDIRECT("M" &amp; ROW() - 1) - M108))</f>
-        <v/>
-      </c>
-      <c r="H108" s="31" t="str">
-        <f aca="false">IF(D108="", "", IF(I108="-", "", E108 * IF(F108="",1,F108)))</f>
-        <v/>
-      </c>
-      <c r="J108" s="9" t="n">
-        <f aca="true">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E108 * F108)</f>
-        <v>0</v>
+      <c r="F108" s="32" t="str">
+        <f aca="true">IF(L108=0, "", H108 - G108 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G108" s="32" t="str">
+        <f aca="true">IF(L108=0, "", _xlfn.CEILING.MATH(H108 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H108" s="32" t="str">
+        <f aca="false">IF(L108=0, "", -N108)</f>
+        <v/>
+      </c>
+      <c r="J108" s="9" t="e">
+        <f aca="false">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E108 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K108" s="0" t="n">
         <f aca="true">IF(I108 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J108)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J108)))), 0)</f>
@@ -13343,6 +14196,10 @@
       </c>
       <c r="M108" s="0" t="n">
         <f aca="true">IF(K108 = 0, INDIRECT("M" &amp; ROW() - 1), K108)</f>
+        <v>0</v>
+      </c>
+      <c r="N108" s="33" t="n">
+        <f aca="true">IF(L108=0,E108,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13355,17 +14212,21 @@
         <f aca="false">IF(D109="","",VLOOKUP(D109, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G109" s="31" t="str">
-        <f aca="true">IF(H109="", IF(I109="","",(INDIRECT("M" &amp; ROW() - 1) - M109)),IF(I109="", "", INDIRECT("M" &amp; ROW() - 1) - M109))</f>
-        <v/>
-      </c>
-      <c r="H109" s="31" t="str">
-        <f aca="false">IF(D109="", "", IF(I109="-", "", E109 * IF(F109="",1,F109)))</f>
-        <v/>
-      </c>
-      <c r="J109" s="9" t="n">
-        <f aca="true">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E109 * F109)</f>
-        <v>0</v>
+      <c r="F109" s="32" t="str">
+        <f aca="true">IF(L109=0, "", H109 - G109 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G109" s="32" t="str">
+        <f aca="true">IF(L109=0, "", _xlfn.CEILING.MATH(H109 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H109" s="32" t="str">
+        <f aca="false">IF(L109=0, "", -N109)</f>
+        <v/>
+      </c>
+      <c r="J109" s="9" t="e">
+        <f aca="false">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E109 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K109" s="0" t="n">
         <f aca="true">IF(I109 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J109)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J109)))), 0)</f>
@@ -13377,6 +14238,10 @@
       </c>
       <c r="M109" s="0" t="n">
         <f aca="true">IF(K109 = 0, INDIRECT("M" &amp; ROW() - 1), K109)</f>
+        <v>0</v>
+      </c>
+      <c r="N109" s="33" t="n">
+        <f aca="true">IF(L109=0,E109,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13389,17 +14254,21 @@
         <f aca="false">IF(D110="","",VLOOKUP(D110, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G110" s="31" t="str">
-        <f aca="true">IF(H110="", IF(I110="","",(INDIRECT("M" &amp; ROW() - 1) - M110)),IF(I110="", "", INDIRECT("M" &amp; ROW() - 1) - M110))</f>
-        <v/>
-      </c>
-      <c r="H110" s="31" t="str">
-        <f aca="false">IF(D110="", "", IF(I110="-", "", E110 * IF(F110="",1,F110)))</f>
-        <v/>
-      </c>
-      <c r="J110" s="9" t="n">
-        <f aca="true">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E110 * F110)</f>
-        <v>0</v>
+      <c r="F110" s="32" t="str">
+        <f aca="true">IF(L110=0, "", H110 - G110 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G110" s="32" t="str">
+        <f aca="true">IF(L110=0, "", _xlfn.CEILING.MATH(H110 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H110" s="32" t="str">
+        <f aca="false">IF(L110=0, "", -N110)</f>
+        <v/>
+      </c>
+      <c r="J110" s="9" t="e">
+        <f aca="false">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E110 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K110" s="0" t="n">
         <f aca="true">IF(I110 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J110)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J110)))), 0)</f>
@@ -13411,6 +14280,10 @@
       </c>
       <c r="M110" s="0" t="n">
         <f aca="true">IF(K110 = 0, INDIRECT("M" &amp; ROW() - 1), K110)</f>
+        <v>0</v>
+      </c>
+      <c r="N110" s="33" t="n">
+        <f aca="true">IF(L110=0,E110,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13423,17 +14296,21 @@
         <f aca="false">IF(D111="","",VLOOKUP(D111, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G111" s="31" t="str">
-        <f aca="true">IF(H111="", IF(I111="","",(INDIRECT("M" &amp; ROW() - 1) - M111)),IF(I111="", "", INDIRECT("M" &amp; ROW() - 1) - M111))</f>
-        <v/>
-      </c>
-      <c r="H111" s="31" t="str">
-        <f aca="false">IF(D111="", "", IF(I111="-", "", E111 * IF(F111="",1,F111)))</f>
-        <v/>
-      </c>
-      <c r="J111" s="9" t="n">
-        <f aca="true">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E111 * F111)</f>
-        <v>0</v>
+      <c r="F111" s="32" t="str">
+        <f aca="true">IF(L111=0, "", H111 - G111 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G111" s="32" t="str">
+        <f aca="true">IF(L111=0, "", _xlfn.CEILING.MATH(H111 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H111" s="32" t="str">
+        <f aca="false">IF(L111=0, "", -N111)</f>
+        <v/>
+      </c>
+      <c r="J111" s="9" t="e">
+        <f aca="false">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E111 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K111" s="0" t="n">
         <f aca="true">IF(I111 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J111)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J111)))), 0)</f>
@@ -13445,6 +14322,10 @@
       </c>
       <c r="M111" s="0" t="n">
         <f aca="true">IF(K111 = 0, INDIRECT("M" &amp; ROW() - 1), K111)</f>
+        <v>0</v>
+      </c>
+      <c r="N111" s="33" t="n">
+        <f aca="true">IF(L111=0,E111,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13457,17 +14338,21 @@
         <f aca="false">IF(D112="","",VLOOKUP(D112, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G112" s="31" t="str">
-        <f aca="true">IF(H112="", IF(I112="","",(INDIRECT("M" &amp; ROW() - 1) - M112)),IF(I112="", "", INDIRECT("M" &amp; ROW() - 1) - M112))</f>
-        <v/>
-      </c>
-      <c r="H112" s="31" t="str">
-        <f aca="false">IF(D112="", "", IF(I112="-", "", E112 * IF(F112="",1,F112)))</f>
-        <v/>
-      </c>
-      <c r="J112" s="9" t="n">
-        <f aca="true">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E112 * F112)</f>
-        <v>0</v>
+      <c r="F112" s="32" t="str">
+        <f aca="true">IF(L112=0, "", H112 - G112 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G112" s="32" t="str">
+        <f aca="true">IF(L112=0, "", _xlfn.CEILING.MATH(H112 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H112" s="32" t="str">
+        <f aca="false">IF(L112=0, "", -N112)</f>
+        <v/>
+      </c>
+      <c r="J112" s="9" t="e">
+        <f aca="false">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E112 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K112" s="0" t="n">
         <f aca="true">IF(I112 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J112)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J112)))), 0)</f>
@@ -13479,6 +14364,10 @@
       </c>
       <c r="M112" s="0" t="n">
         <f aca="true">IF(K112 = 0, INDIRECT("M" &amp; ROW() - 1), K112)</f>
+        <v>0</v>
+      </c>
+      <c r="N112" s="33" t="n">
+        <f aca="true">IF(L112=0,E112,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13491,17 +14380,21 @@
         <f aca="false">IF(D113="","",VLOOKUP(D113, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G113" s="31" t="str">
-        <f aca="true">IF(H113="", IF(I113="","",(INDIRECT("M" &amp; ROW() - 1) - M113)),IF(I113="", "", INDIRECT("M" &amp; ROW() - 1) - M113))</f>
-        <v/>
-      </c>
-      <c r="H113" s="31" t="str">
-        <f aca="false">IF(D113="", "", IF(I113="-", "", E113 * IF(F113="",1,F113)))</f>
-        <v/>
-      </c>
-      <c r="J113" s="9" t="n">
-        <f aca="true">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E113 * F113)</f>
-        <v>0</v>
+      <c r="F113" s="32" t="str">
+        <f aca="true">IF(L113=0, "", H113 - G113 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G113" s="32" t="str">
+        <f aca="true">IF(L113=0, "", _xlfn.CEILING.MATH(H113 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H113" s="32" t="str">
+        <f aca="false">IF(L113=0, "", -N113)</f>
+        <v/>
+      </c>
+      <c r="J113" s="9" t="e">
+        <f aca="false">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E113 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K113" s="0" t="n">
         <f aca="true">IF(I113 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J113)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J113)))), 0)</f>
@@ -13513,6 +14406,10 @@
       </c>
       <c r="M113" s="0" t="n">
         <f aca="true">IF(K113 = 0, INDIRECT("M" &amp; ROW() - 1), K113)</f>
+        <v>0</v>
+      </c>
+      <c r="N113" s="33" t="n">
+        <f aca="true">IF(L113=0,E113,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13525,17 +14422,21 @@
         <f aca="false">IF(D114="","",VLOOKUP(D114, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G114" s="31" t="str">
-        <f aca="true">IF(H114="", IF(I114="","",(INDIRECT("M" &amp; ROW() - 1) - M114)),IF(I114="", "", INDIRECT("M" &amp; ROW() - 1) - M114))</f>
-        <v/>
-      </c>
-      <c r="H114" s="31" t="str">
-        <f aca="false">IF(D114="", "", IF(I114="-", "", E114 * IF(F114="",1,F114)))</f>
-        <v/>
-      </c>
-      <c r="J114" s="9" t="n">
-        <f aca="true">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E114 * F114)</f>
-        <v>0</v>
+      <c r="F114" s="32" t="str">
+        <f aca="true">IF(L114=0, "", H114 - G114 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G114" s="32" t="str">
+        <f aca="true">IF(L114=0, "", _xlfn.CEILING.MATH(H114 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H114" s="32" t="str">
+        <f aca="false">IF(L114=0, "", -N114)</f>
+        <v/>
+      </c>
+      <c r="J114" s="9" t="e">
+        <f aca="false">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E114 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K114" s="0" t="n">
         <f aca="true">IF(I114 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J114)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J114)))), 0)</f>
@@ -13547,6 +14448,10 @@
       </c>
       <c r="M114" s="0" t="n">
         <f aca="true">IF(K114 = 0, INDIRECT("M" &amp; ROW() - 1), K114)</f>
+        <v>0</v>
+      </c>
+      <c r="N114" s="33" t="n">
+        <f aca="true">IF(L114=0,E114,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13559,17 +14464,21 @@
         <f aca="false">IF(D115="","",VLOOKUP(D115, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G115" s="31" t="str">
-        <f aca="true">IF(H115="", IF(I115="","",(INDIRECT("M" &amp; ROW() - 1) - M115)),IF(I115="", "", INDIRECT("M" &amp; ROW() - 1) - M115))</f>
-        <v/>
-      </c>
-      <c r="H115" s="31" t="str">
-        <f aca="false">IF(D115="", "", IF(I115="-", "", E115 * IF(F115="",1,F115)))</f>
-        <v/>
-      </c>
-      <c r="J115" s="9" t="n">
-        <f aca="true">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E115 * F115)</f>
-        <v>0</v>
+      <c r="F115" s="32" t="str">
+        <f aca="true">IF(L115=0, "", H115 - G115 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G115" s="32" t="str">
+        <f aca="true">IF(L115=0, "", _xlfn.CEILING.MATH(H115 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H115" s="32" t="str">
+        <f aca="false">IF(L115=0, "", -N115)</f>
+        <v/>
+      </c>
+      <c r="J115" s="9" t="e">
+        <f aca="false">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E115 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K115" s="0" t="n">
         <f aca="true">IF(I115 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J115)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J115)))), 0)</f>
@@ -13581,6 +14490,10 @@
       </c>
       <c r="M115" s="0" t="n">
         <f aca="true">IF(K115 = 0, INDIRECT("M" &amp; ROW() - 1), K115)</f>
+        <v>0</v>
+      </c>
+      <c r="N115" s="33" t="n">
+        <f aca="true">IF(L115=0,E115,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13593,17 +14506,21 @@
         <f aca="false">IF(D116="","",VLOOKUP(D116, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G116" s="31" t="str">
-        <f aca="true">IF(H116="", IF(I116="","",(INDIRECT("M" &amp; ROW() - 1) - M116)),IF(I116="", "", INDIRECT("M" &amp; ROW() - 1) - M116))</f>
-        <v/>
-      </c>
-      <c r="H116" s="31" t="str">
-        <f aca="false">IF(D116="", "", IF(I116="-", "", E116 * IF(F116="",1,F116)))</f>
-        <v/>
-      </c>
-      <c r="J116" s="9" t="n">
-        <f aca="true">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E116 * F116)</f>
-        <v>0</v>
+      <c r="F116" s="32" t="str">
+        <f aca="true">IF(L116=0, "", H116 - G116 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G116" s="32" t="str">
+        <f aca="true">IF(L116=0, "", _xlfn.CEILING.MATH(H116 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H116" s="32" t="str">
+        <f aca="false">IF(L116=0, "", -N116)</f>
+        <v/>
+      </c>
+      <c r="J116" s="9" t="e">
+        <f aca="false">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E116 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K116" s="0" t="n">
         <f aca="true">IF(I116 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J116)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J116)))), 0)</f>
@@ -13615,6 +14532,10 @@
       </c>
       <c r="M116" s="0" t="n">
         <f aca="true">IF(K116 = 0, INDIRECT("M" &amp; ROW() - 1), K116)</f>
+        <v>0</v>
+      </c>
+      <c r="N116" s="33" t="n">
+        <f aca="true">IF(L116=0,E116,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13627,17 +14548,21 @@
         <f aca="false">IF(D117="","",VLOOKUP(D117, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G117" s="31" t="str">
-        <f aca="true">IF(H117="", IF(I117="","",(INDIRECT("M" &amp; ROW() - 1) - M117)),IF(I117="", "", INDIRECT("M" &amp; ROW() - 1) - M117))</f>
-        <v/>
-      </c>
-      <c r="H117" s="31" t="str">
-        <f aca="false">IF(D117="", "", IF(I117="-", "", E117 * IF(F117="",1,F117)))</f>
-        <v/>
-      </c>
-      <c r="J117" s="9" t="n">
-        <f aca="true">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E117 * F117)</f>
-        <v>0</v>
+      <c r="F117" s="32" t="str">
+        <f aca="true">IF(L117=0, "", H117 - G117 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G117" s="32" t="str">
+        <f aca="true">IF(L117=0, "", _xlfn.CEILING.MATH(H117 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H117" s="32" t="str">
+        <f aca="false">IF(L117=0, "", -N117)</f>
+        <v/>
+      </c>
+      <c r="J117" s="9" t="e">
+        <f aca="false">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E117 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K117" s="0" t="n">
         <f aca="true">IF(I117 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J117)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J117)))), 0)</f>
@@ -13649,6 +14574,10 @@
       </c>
       <c r="M117" s="0" t="n">
         <f aca="true">IF(K117 = 0, INDIRECT("M" &amp; ROW() - 1), K117)</f>
+        <v>0</v>
+      </c>
+      <c r="N117" s="33" t="n">
+        <f aca="true">IF(L117=0,E117,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13661,17 +14590,21 @@
         <f aca="false">IF(D118="","",VLOOKUP(D118, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G118" s="31" t="str">
-        <f aca="true">IF(H118="", IF(I118="","",(INDIRECT("M" &amp; ROW() - 1) - M118)),IF(I118="", "", INDIRECT("M" &amp; ROW() - 1) - M118))</f>
-        <v/>
-      </c>
-      <c r="H118" s="31" t="str">
-        <f aca="false">IF(D118="", "", IF(I118="-", "", E118 * IF(F118="",1,F118)))</f>
-        <v/>
-      </c>
-      <c r="J118" s="9" t="n">
-        <f aca="true">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E118 * F118)</f>
-        <v>0</v>
+      <c r="F118" s="32" t="str">
+        <f aca="true">IF(L118=0, "", H118 - G118 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G118" s="32" t="str">
+        <f aca="true">IF(L118=0, "", _xlfn.CEILING.MATH(H118 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H118" s="32" t="str">
+        <f aca="false">IF(L118=0, "", -N118)</f>
+        <v/>
+      </c>
+      <c r="J118" s="9" t="e">
+        <f aca="false">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E118 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K118" s="0" t="n">
         <f aca="true">IF(I118 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J118)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J118)))), 0)</f>
@@ -13683,6 +14616,10 @@
       </c>
       <c r="M118" s="0" t="n">
         <f aca="true">IF(K118 = 0, INDIRECT("M" &amp; ROW() - 1), K118)</f>
+        <v>0</v>
+      </c>
+      <c r="N118" s="33" t="n">
+        <f aca="true">IF(L118=0,E118,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13695,17 +14632,21 @@
         <f aca="false">IF(D119="","",VLOOKUP(D119, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G119" s="31" t="str">
-        <f aca="true">IF(H119="", IF(I119="","",(INDIRECT("M" &amp; ROW() - 1) - M119)),IF(I119="", "", INDIRECT("M" &amp; ROW() - 1) - M119))</f>
-        <v/>
-      </c>
-      <c r="H119" s="31" t="str">
-        <f aca="false">IF(D119="", "", IF(I119="-", "", E119 * IF(F119="",1,F119)))</f>
-        <v/>
-      </c>
-      <c r="J119" s="9" t="n">
-        <f aca="true">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E119 * F119)</f>
-        <v>0</v>
+      <c r="F119" s="32" t="str">
+        <f aca="true">IF(L119=0, "", H119 - G119 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G119" s="32" t="str">
+        <f aca="true">IF(L119=0, "", _xlfn.CEILING.MATH(H119 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H119" s="32" t="str">
+        <f aca="false">IF(L119=0, "", -N119)</f>
+        <v/>
+      </c>
+      <c r="J119" s="9" t="e">
+        <f aca="false">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E119 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K119" s="0" t="n">
         <f aca="true">IF(I119 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J119)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J119)))), 0)</f>
@@ -13717,6 +14658,10 @@
       </c>
       <c r="M119" s="0" t="n">
         <f aca="true">IF(K119 = 0, INDIRECT("M" &amp; ROW() - 1), K119)</f>
+        <v>0</v>
+      </c>
+      <c r="N119" s="33" t="n">
+        <f aca="true">IF(L119=0,E119,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13729,17 +14674,21 @@
         <f aca="false">IF(D120="","",VLOOKUP(D120, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G120" s="31" t="str">
-        <f aca="true">IF(H120="", IF(I120="","",(INDIRECT("M" &amp; ROW() - 1) - M120)),IF(I120="", "", INDIRECT("M" &amp; ROW() - 1) - M120))</f>
-        <v/>
-      </c>
-      <c r="H120" s="31" t="str">
-        <f aca="false">IF(D120="", "", IF(I120="-", "", E120 * IF(F120="",1,F120)))</f>
-        <v/>
-      </c>
-      <c r="J120" s="9" t="n">
-        <f aca="true">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E120 * F120)</f>
-        <v>0</v>
+      <c r="F120" s="32" t="str">
+        <f aca="true">IF(L120=0, "", H120 - G120 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G120" s="32" t="str">
+        <f aca="true">IF(L120=0, "", _xlfn.CEILING.MATH(H120 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H120" s="32" t="str">
+        <f aca="false">IF(L120=0, "", -N120)</f>
+        <v/>
+      </c>
+      <c r="J120" s="9" t="e">
+        <f aca="false">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E120 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K120" s="0" t="n">
         <f aca="true">IF(I120 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J120)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J120)))), 0)</f>
@@ -13751,6 +14700,10 @@
       </c>
       <c r="M120" s="0" t="n">
         <f aca="true">IF(K120 = 0, INDIRECT("M" &amp; ROW() - 1), K120)</f>
+        <v>0</v>
+      </c>
+      <c r="N120" s="33" t="n">
+        <f aca="true">IF(L120=0,E120,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13763,17 +14716,21 @@
         <f aca="false">IF(D121="","",VLOOKUP(D121, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G121" s="31" t="str">
-        <f aca="true">IF(H121="", IF(I121="","",(INDIRECT("M" &amp; ROW() - 1) - M121)),IF(I121="", "", INDIRECT("M" &amp; ROW() - 1) - M121))</f>
-        <v/>
-      </c>
-      <c r="H121" s="31" t="str">
-        <f aca="false">IF(D121="", "", IF(I121="-", "", E121 * IF(F121="",1,F121)))</f>
-        <v/>
-      </c>
-      <c r="J121" s="9" t="n">
-        <f aca="true">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E121 * F121)</f>
-        <v>0</v>
+      <c r="F121" s="32" t="str">
+        <f aca="true">IF(L121=0, "", H121 - G121 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G121" s="32" t="str">
+        <f aca="true">IF(L121=0, "", _xlfn.CEILING.MATH(H121 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H121" s="32" t="str">
+        <f aca="false">IF(L121=0, "", -N121)</f>
+        <v/>
+      </c>
+      <c r="J121" s="9" t="e">
+        <f aca="false">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E121 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K121" s="0" t="n">
         <f aca="true">IF(I121 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J121)))), 0)</f>
@@ -13785,6 +14742,10 @@
       </c>
       <c r="M121" s="0" t="n">
         <f aca="true">IF(K121 = 0, INDIRECT("M" &amp; ROW() - 1), K121)</f>
+        <v>0</v>
+      </c>
+      <c r="N121" s="33" t="n">
+        <f aca="true">IF(L121=0,E121,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13797,17 +14758,21 @@
         <f aca="false">IF(D122="","",VLOOKUP(D122, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G122" s="31" t="str">
-        <f aca="true">IF(H122="", IF(I122="","",(INDIRECT("M" &amp; ROW() - 1) - M122)),IF(I122="", "", INDIRECT("M" &amp; ROW() - 1) - M122))</f>
-        <v/>
-      </c>
-      <c r="H122" s="31" t="str">
-        <f aca="false">IF(D122="", "", IF(I122="-", "", E122 * IF(F122="",1,F122)))</f>
-        <v/>
-      </c>
-      <c r="J122" s="9" t="n">
-        <f aca="true">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E122 * F122)</f>
-        <v>0</v>
+      <c r="F122" s="32" t="str">
+        <f aca="true">IF(L122=0, "", H122 - G122 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G122" s="32" t="str">
+        <f aca="true">IF(L122=0, "", _xlfn.CEILING.MATH(H122 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H122" s="32" t="str">
+        <f aca="false">IF(L122=0, "", -N122)</f>
+        <v/>
+      </c>
+      <c r="J122" s="9" t="e">
+        <f aca="false">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E122 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K122" s="0" t="n">
         <f aca="true">IF(I122 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J122)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J122)))), 0)</f>
@@ -13819,6 +14784,10 @@
       </c>
       <c r="M122" s="0" t="n">
         <f aca="true">IF(K122 = 0, INDIRECT("M" &amp; ROW() - 1), K122)</f>
+        <v>0</v>
+      </c>
+      <c r="N122" s="33" t="n">
+        <f aca="true">IF(L122=0,E122,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13831,17 +14800,21 @@
         <f aca="false">IF(D123="","",VLOOKUP(D123, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G123" s="31" t="str">
-        <f aca="true">IF(H123="", IF(I123="","",(INDIRECT("M" &amp; ROW() - 1) - M123)),IF(I123="", "", INDIRECT("M" &amp; ROW() - 1) - M123))</f>
-        <v/>
-      </c>
-      <c r="H123" s="31" t="str">
-        <f aca="false">IF(D123="", "", IF(I123="-", "", E123 * IF(F123="",1,F123)))</f>
-        <v/>
-      </c>
-      <c r="J123" s="9" t="n">
-        <f aca="true">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E123 * F123)</f>
-        <v>0</v>
+      <c r="F123" s="32" t="str">
+        <f aca="true">IF(L123=0, "", H123 - G123 * (INDIRECT("C" &amp; ROW() - 1)))</f>
+        <v/>
+      </c>
+      <c r="G123" s="32" t="str">
+        <f aca="true">IF(L123=0, "", _xlfn.CEILING.MATH(H123 / (INDIRECT("C" &amp; ROW() - 1)), 1))</f>
+        <v/>
+      </c>
+      <c r="H123" s="32" t="str">
+        <f aca="false">IF(L123=0, "", -N123)</f>
+        <v/>
+      </c>
+      <c r="J123" s="9" t="e">
+        <f aca="false">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E123 * #REF!)</f>
+        <v>#REF!</v>
       </c>
       <c r="K123" s="0" t="n">
         <f aca="true">IF(I123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J123)))), 0)</f>
@@ -13853,6 +14826,10 @@
       </c>
       <c r="M123" s="0" t="n">
         <f aca="true">IF(K123 = 0, INDIRECT("M" &amp; ROW() - 1), K123)</f>
+        <v>0</v>
+      </c>
+      <c r="N123" s="33" t="n">
+        <f aca="true">IF(L123=0,E123,-SUM((INDIRECT("N" &amp; ROW() - 1):$N$2)))</f>
         <v>0</v>
       </c>
     </row>
@@ -13865,8 +14842,8 @@
         <f aca="false">IF(D124="","",VLOOKUP(D124, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G124" s="31" t="str">
-        <f aca="true">IF(H124="", IF(I124="","",(INDIRECT("M" &amp; ROW() - 1) - M124)),IF(I124="", "", INDIRECT("M" &amp; ROW() - 1) - M124))</f>
+      <c r="F124" s="32" t="str">
+        <f aca="true">IF(G124="", IF(I124="","",(INDIRECT("M" &amp; ROW() - 1) - M124)),IF(I124="", "", INDIRECT("M" &amp; ROW() - 1) - M124))</f>
         <v/>
       </c>
     </row>
@@ -13879,8 +14856,8 @@
         <f aca="false">IF(D125="","",VLOOKUP(D125, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G125" s="31" t="str">
-        <f aca="true">IF(H125="", IF(I125="","",(INDIRECT("M" &amp; ROW() - 1) - M125)),IF(I125="", "", INDIRECT("M" &amp; ROW() - 1) - M125))</f>
+      <c r="F125" s="32" t="str">
+        <f aca="true">IF(G125="", IF(I125="","",(INDIRECT("M" &amp; ROW() - 1) - M125)),IF(I125="", "", INDIRECT("M" &amp; ROW() - 1) - M125))</f>
         <v/>
       </c>
     </row>
@@ -13893,8 +14870,8 @@
         <f aca="false">IF(D126="","",VLOOKUP(D126, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G126" s="31" t="str">
-        <f aca="true">IF(H126="", IF(I126="","",(INDIRECT("M" &amp; ROW() - 1) - M126)),IF(I126="", "", INDIRECT("M" &amp; ROW() - 1) - M126))</f>
+      <c r="F126" s="32" t="str">
+        <f aca="true">IF(G126="", IF(I126="","",(INDIRECT("M" &amp; ROW() - 1) - M126)),IF(I126="", "", INDIRECT("M" &amp; ROW() - 1) - M126))</f>
         <v/>
       </c>
     </row>
@@ -13907,8 +14884,8 @@
         <f aca="false">IF(D127="","",VLOOKUP(D127, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G127" s="31" t="str">
-        <f aca="true">IF(H127="", IF(I127="","",(INDIRECT("M" &amp; ROW() - 1) - M127)),IF(I127="", "", INDIRECT("M" &amp; ROW() - 1) - M127))</f>
+      <c r="F127" s="32" t="str">
+        <f aca="true">IF(G127="", IF(I127="","",(INDIRECT("M" &amp; ROW() - 1) - M127)),IF(I127="", "", INDIRECT("M" &amp; ROW() - 1) - M127))</f>
         <v/>
       </c>
     </row>
@@ -13921,8 +14898,8 @@
         <f aca="false">IF(D128="","",VLOOKUP(D128, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G128" s="31" t="str">
-        <f aca="true">IF(H128="", IF(I128="","",(INDIRECT("M" &amp; ROW() - 1) - M128)),IF(I128="", "", INDIRECT("M" &amp; ROW() - 1) - M128))</f>
+      <c r="F128" s="32" t="str">
+        <f aca="true">IF(G128="", IF(I128="","",(INDIRECT("M" &amp; ROW() - 1) - M128)),IF(I128="", "", INDIRECT("M" &amp; ROW() - 1) - M128))</f>
         <v/>
       </c>
     </row>
@@ -13935,8 +14912,8 @@
         <f aca="false">IF(D129="","",VLOOKUP(D129, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G129" s="31" t="str">
-        <f aca="true">IF(H129="", IF(I129="","",(INDIRECT("M" &amp; ROW() - 1) - M129)),IF(I129="", "", INDIRECT("M" &amp; ROW() - 1) - M129))</f>
+      <c r="F129" s="32" t="str">
+        <f aca="true">IF(G129="", IF(I129="","",(INDIRECT("M" &amp; ROW() - 1) - M129)),IF(I129="", "", INDIRECT("M" &amp; ROW() - 1) - M129))</f>
         <v/>
       </c>
     </row>
@@ -13949,8 +14926,8 @@
         <f aca="false">IF(D130="","",VLOOKUP(D130, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G130" s="31" t="str">
-        <f aca="true">IF(H130="", IF(I130="","",(INDIRECT("M" &amp; ROW() - 1) - M130)),IF(I130="", "", INDIRECT("M" &amp; ROW() - 1) - M130))</f>
+      <c r="F130" s="32" t="str">
+        <f aca="true">IF(G130="", IF(I130="","",(INDIRECT("M" &amp; ROW() - 1) - M130)),IF(I130="", "", INDIRECT("M" &amp; ROW() - 1) - M130))</f>
         <v/>
       </c>
     </row>
@@ -13963,8 +14940,8 @@
         <f aca="false">IF(D131="","",VLOOKUP(D131, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G131" s="31" t="str">
-        <f aca="true">IF(H131="", IF(I131="","",(INDIRECT("M" &amp; ROW() - 1) - M131)),IF(I131="", "", INDIRECT("M" &amp; ROW() - 1) - M131))</f>
+      <c r="F131" s="32" t="str">
+        <f aca="true">IF(G131="", IF(I131="","",(INDIRECT("M" &amp; ROW() - 1) - M131)),IF(I131="", "", INDIRECT("M" &amp; ROW() - 1) - M131))</f>
         <v/>
       </c>
     </row>
@@ -13977,8 +14954,8 @@
         <f aca="false">IF(D132="","",VLOOKUP(D132, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G132" s="31" t="str">
-        <f aca="true">IF(H132="", IF(I132="","",(INDIRECT("M" &amp; ROW() - 1) - M132)),IF(I132="", "", INDIRECT("M" &amp; ROW() - 1) - M132))</f>
+      <c r="F132" s="32" t="str">
+        <f aca="true">IF(G132="", IF(I132="","",(INDIRECT("M" &amp; ROW() - 1) - M132)),IF(I132="", "", INDIRECT("M" &amp; ROW() - 1) - M132))</f>
         <v/>
       </c>
     </row>
@@ -13991,8 +14968,8 @@
         <f aca="false">IF(D133="","",VLOOKUP(D133, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G133" s="31" t="str">
-        <f aca="true">IF(H133="", IF(I133="","",(INDIRECT("M" &amp; ROW() - 1) - M133)),IF(I133="", "", INDIRECT("M" &amp; ROW() - 1) - M133))</f>
+      <c r="F133" s="32" t="str">
+        <f aca="true">IF(G133="", IF(I133="","",(INDIRECT("M" &amp; ROW() - 1) - M133)),IF(I133="", "", INDIRECT("M" &amp; ROW() - 1) - M133))</f>
         <v/>
       </c>
     </row>
@@ -14005,8 +14982,8 @@
         <f aca="false">IF(D134="","",VLOOKUP(D134, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G134" s="31" t="str">
-        <f aca="true">IF(H134="", IF(I134="","",(INDIRECT("M" &amp; ROW() - 1) - M134)),IF(I134="", "", INDIRECT("M" &amp; ROW() - 1) - M134))</f>
+      <c r="F134" s="32" t="str">
+        <f aca="true">IF(G134="", IF(I134="","",(INDIRECT("M" &amp; ROW() - 1) - M134)),IF(I134="", "", INDIRECT("M" &amp; ROW() - 1) - M134))</f>
         <v/>
       </c>
     </row>
@@ -14019,8 +14996,8 @@
         <f aca="false">IF(D135="","",VLOOKUP(D135, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G135" s="31" t="str">
-        <f aca="true">IF(H135="", IF(I135="","",(INDIRECT("M" &amp; ROW() - 1) - M135)),IF(I135="", "", INDIRECT("M" &amp; ROW() - 1) - M135))</f>
+      <c r="F135" s="32" t="str">
+        <f aca="true">IF(G135="", IF(I135="","",(INDIRECT("M" &amp; ROW() - 1) - M135)),IF(I135="", "", INDIRECT("M" &amp; ROW() - 1) - M135))</f>
         <v/>
       </c>
     </row>
@@ -14033,8 +15010,8 @@
         <f aca="false">IF(D136="","",VLOOKUP(D136, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G136" s="31" t="str">
-        <f aca="true">IF(H136="", IF(I136="","",(INDIRECT("M" &amp; ROW() - 1) - M136)),IF(I136="", "", INDIRECT("M" &amp; ROW() - 1) - M136))</f>
+      <c r="F136" s="32" t="str">
+        <f aca="true">IF(G136="", IF(I136="","",(INDIRECT("M" &amp; ROW() - 1) - M136)),IF(I136="", "", INDIRECT("M" &amp; ROW() - 1) - M136))</f>
         <v/>
       </c>
     </row>
@@ -14047,8 +15024,8 @@
         <f aca="false">IF(D137="","",VLOOKUP(D137, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G137" s="31" t="str">
-        <f aca="true">IF(H137="", IF(I137="","",(INDIRECT("M" &amp; ROW() - 1) - M137)),IF(I137="", "", INDIRECT("M" &amp; ROW() - 1) - M137))</f>
+      <c r="F137" s="32" t="str">
+        <f aca="true">IF(G137="", IF(I137="","",(INDIRECT("M" &amp; ROW() - 1) - M137)),IF(I137="", "", INDIRECT("M" &amp; ROW() - 1) - M137))</f>
         <v/>
       </c>
     </row>
@@ -14061,8 +15038,8 @@
         <f aca="false">IF(D138="","",VLOOKUP(D138, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G138" s="31" t="str">
-        <f aca="true">IF(H138="", IF(I138="","",(INDIRECT("M" &amp; ROW() - 1) - M138)),IF(I138="", "", INDIRECT("M" &amp; ROW() - 1) - M138))</f>
+      <c r="F138" s="32" t="str">
+        <f aca="true">IF(G138="", IF(I138="","",(INDIRECT("M" &amp; ROW() - 1) - M138)),IF(I138="", "", INDIRECT("M" &amp; ROW() - 1) - M138))</f>
         <v/>
       </c>
     </row>
@@ -14075,8 +15052,8 @@
         <f aca="false">IF(D139="","",VLOOKUP(D139, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G139" s="31" t="str">
-        <f aca="true">IF(H139="", IF(I139="","",(INDIRECT("M" &amp; ROW() - 1) - M139)),IF(I139="", "", INDIRECT("M" &amp; ROW() - 1) - M139))</f>
+      <c r="F139" s="32" t="str">
+        <f aca="true">IF(G139="", IF(I139="","",(INDIRECT("M" &amp; ROW() - 1) - M139)),IF(I139="", "", INDIRECT("M" &amp; ROW() - 1) - M139))</f>
         <v/>
       </c>
     </row>
@@ -14089,8 +15066,8 @@
         <f aca="false">IF(D140="","",VLOOKUP(D140, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G140" s="31" t="str">
-        <f aca="true">IF(H140="", IF(I140="","",(INDIRECT("M" &amp; ROW() - 1) - M140)),IF(I140="", "", INDIRECT("M" &amp; ROW() - 1) - M140))</f>
+      <c r="F140" s="32" t="str">
+        <f aca="true">IF(G140="", IF(I140="","",(INDIRECT("M" &amp; ROW() - 1) - M140)),IF(I140="", "", INDIRECT("M" &amp; ROW() - 1) - M140))</f>
         <v/>
       </c>
     </row>
@@ -14103,8 +15080,8 @@
         <f aca="false">IF(D141="","",VLOOKUP(D141, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G141" s="31" t="str">
-        <f aca="true">IF(H141="", IF(I141="","",(INDIRECT("M" &amp; ROW() - 1) - M141)),IF(I141="", "", INDIRECT("M" &amp; ROW() - 1) - M141))</f>
+      <c r="F141" s="32" t="str">
+        <f aca="true">IF(G141="", IF(I141="","",(INDIRECT("M" &amp; ROW() - 1) - M141)),IF(I141="", "", INDIRECT("M" &amp; ROW() - 1) - M141))</f>
         <v/>
       </c>
     </row>
@@ -14117,8 +15094,8 @@
         <f aca="false">IF(D142="","",VLOOKUP(D142, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G142" s="31" t="str">
-        <f aca="true">IF(H142="", IF(I142="","",(INDIRECT("M" &amp; ROW() - 1) - M142)),IF(I142="", "", INDIRECT("M" &amp; ROW() - 1) - M142))</f>
+      <c r="F142" s="32" t="str">
+        <f aca="true">IF(G142="", IF(I142="","",(INDIRECT("M" &amp; ROW() - 1) - M142)),IF(I142="", "", INDIRECT("M" &amp; ROW() - 1) - M142))</f>
         <v/>
       </c>
     </row>
@@ -14131,8 +15108,8 @@
         <f aca="false">IF(D143="","",VLOOKUP(D143, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G143" s="31" t="str">
-        <f aca="true">IF(H143="", IF(I143="","",(INDIRECT("M" &amp; ROW() - 1) - M143)),IF(I143="", "", INDIRECT("M" &amp; ROW() - 1) - M143))</f>
+      <c r="F143" s="32" t="str">
+        <f aca="true">IF(G143="", IF(I143="","",(INDIRECT("M" &amp; ROW() - 1) - M143)),IF(I143="", "", INDIRECT("M" &amp; ROW() - 1) - M143))</f>
         <v/>
       </c>
     </row>
@@ -14145,8 +15122,8 @@
         <f aca="false">IF(D144="","",VLOOKUP(D144, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G144" s="31" t="str">
-        <f aca="true">IF(H144="", IF(I144="","",(INDIRECT("M" &amp; ROW() - 1) - M144)),IF(I144="", "", INDIRECT("M" &amp; ROW() - 1) - M144))</f>
+      <c r="F144" s="32" t="str">
+        <f aca="true">IF(G144="", IF(I144="","",(INDIRECT("M" &amp; ROW() - 1) - M144)),IF(I144="", "", INDIRECT("M" &amp; ROW() - 1) - M144))</f>
         <v/>
       </c>
     </row>
@@ -14159,8 +15136,8 @@
         <f aca="false">IF(D145="","",VLOOKUP(D145, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G145" s="31" t="str">
-        <f aca="true">IF(H145="", IF(I145="","",(INDIRECT("M" &amp; ROW() - 1) - M145)),IF(I145="", "", INDIRECT("M" &amp; ROW() - 1) - M145))</f>
+      <c r="F145" s="32" t="str">
+        <f aca="true">IF(G145="", IF(I145="","",(INDIRECT("M" &amp; ROW() - 1) - M145)),IF(I145="", "", INDIRECT("M" &amp; ROW() - 1) - M145))</f>
         <v/>
       </c>
     </row>
@@ -14173,8 +15150,8 @@
         <f aca="false">IF(D146="","",VLOOKUP(D146, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G146" s="31" t="str">
-        <f aca="true">IF(H146="", IF(I146="","",(INDIRECT("M" &amp; ROW() - 1) - M146)),IF(I146="", "", INDIRECT("M" &amp; ROW() - 1) - M146))</f>
+      <c r="F146" s="32" t="str">
+        <f aca="true">IF(G146="", IF(I146="","",(INDIRECT("M" &amp; ROW() - 1) - M146)),IF(I146="", "", INDIRECT("M" &amp; ROW() - 1) - M146))</f>
         <v/>
       </c>
     </row>
@@ -14187,8 +15164,8 @@
         <f aca="false">IF(D147="","",VLOOKUP(D147, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G147" s="31" t="str">
-        <f aca="true">IF(H147="", IF(I147="","",(INDIRECT("M" &amp; ROW() - 1) - M147)),IF(I147="", "", INDIRECT("M" &amp; ROW() - 1) - M147))</f>
+      <c r="F147" s="32" t="str">
+        <f aca="true">IF(G147="", IF(I147="","",(INDIRECT("M" &amp; ROW() - 1) - M147)),IF(I147="", "", INDIRECT("M" &amp; ROW() - 1) - M147))</f>
         <v/>
       </c>
     </row>
@@ -14201,8 +15178,8 @@
         <f aca="false">IF(D148="","",VLOOKUP(D148, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G148" s="31" t="str">
-        <f aca="true">IF(H148="", IF(I148="","",(INDIRECT("M" &amp; ROW() - 1) - M148)),IF(I148="", "", INDIRECT("M" &amp; ROW() - 1) - M148))</f>
+      <c r="F148" s="32" t="str">
+        <f aca="true">IF(G148="", IF(I148="","",(INDIRECT("M" &amp; ROW() - 1) - M148)),IF(I148="", "", INDIRECT("M" &amp; ROW() - 1) - M148))</f>
         <v/>
       </c>
     </row>
@@ -14215,8 +15192,8 @@
         <f aca="false">IF(D149="","",VLOOKUP(D149, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G149" s="31" t="str">
-        <f aca="true">IF(H149="", IF(I149="","",(INDIRECT("M" &amp; ROW() - 1) - M149)),IF(I149="", "", INDIRECT("M" &amp; ROW() - 1) - M149))</f>
+      <c r="F149" s="32" t="str">
+        <f aca="true">IF(G149="", IF(I149="","",(INDIRECT("M" &amp; ROW() - 1) - M149)),IF(I149="", "", INDIRECT("M" &amp; ROW() - 1) - M149))</f>
         <v/>
       </c>
     </row>
@@ -14229,8 +15206,8 @@
         <f aca="false">IF(D150="","",VLOOKUP(D150, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G150" s="31" t="str">
-        <f aca="true">IF(H150="", IF(I150="","",(INDIRECT("M" &amp; ROW() - 1) - M150)),IF(I150="", "", INDIRECT("M" &amp; ROW() - 1) - M150))</f>
+      <c r="F150" s="32" t="str">
+        <f aca="true">IF(G150="", IF(I150="","",(INDIRECT("M" &amp; ROW() - 1) - M150)),IF(I150="", "", INDIRECT("M" &amp; ROW() - 1) - M150))</f>
         <v/>
       </c>
     </row>
@@ -14243,8 +15220,8 @@
         <f aca="false">IF(D151="","",VLOOKUP(D151, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G151" s="31" t="str">
-        <f aca="true">IF(H151="", IF(I151="","",(INDIRECT("M" &amp; ROW() - 1) - M151)),IF(I151="", "", INDIRECT("M" &amp; ROW() - 1) - M151))</f>
+      <c r="F151" s="32" t="str">
+        <f aca="true">IF(G151="", IF(I151="","",(INDIRECT("M" &amp; ROW() - 1) - M151)),IF(I151="", "", INDIRECT("M" &amp; ROW() - 1) - M151))</f>
         <v/>
       </c>
     </row>
@@ -14257,8 +15234,8 @@
         <f aca="false">IF(D152="","",VLOOKUP(D152, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G152" s="31" t="str">
-        <f aca="true">IF(H152="", IF(I152="","",(INDIRECT("M" &amp; ROW() - 1) - M152)),IF(I152="", "", INDIRECT("M" &amp; ROW() - 1) - M152))</f>
+      <c r="F152" s="32" t="str">
+        <f aca="true">IF(G152="", IF(I152="","",(INDIRECT("M" &amp; ROW() - 1) - M152)),IF(I152="", "", INDIRECT("M" &amp; ROW() - 1) - M152))</f>
         <v/>
       </c>
     </row>
@@ -14271,8 +15248,8 @@
         <f aca="false">IF(D153="","",VLOOKUP(D153, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G153" s="31" t="str">
-        <f aca="true">IF(H153="", IF(I153="","",(INDIRECT("M" &amp; ROW() - 1) - M153)),IF(I153="", "", INDIRECT("M" &amp; ROW() - 1) - M153))</f>
+      <c r="F153" s="32" t="str">
+        <f aca="true">IF(G153="", IF(I153="","",(INDIRECT("M" &amp; ROW() - 1) - M153)),IF(I153="", "", INDIRECT("M" &amp; ROW() - 1) - M153))</f>
         <v/>
       </c>
     </row>
@@ -14285,8 +15262,8 @@
         <f aca="false">IF(D154="","",VLOOKUP(D154, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G154" s="31" t="str">
-        <f aca="true">IF(H154="", IF(I154="","",(INDIRECT("M" &amp; ROW() - 1) - M154)),IF(I154="", "", INDIRECT("M" &amp; ROW() - 1) - M154))</f>
+      <c r="F154" s="32" t="str">
+        <f aca="true">IF(G154="", IF(I154="","",(INDIRECT("M" &amp; ROW() - 1) - M154)),IF(I154="", "", INDIRECT("M" &amp; ROW() - 1) - M154))</f>
         <v/>
       </c>
     </row>
@@ -14299,8 +15276,8 @@
         <f aca="false">IF(D155="","",VLOOKUP(D155, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G155" s="31" t="str">
-        <f aca="true">IF(H155="", IF(I155="","",(INDIRECT("M" &amp; ROW() - 1) - M155)),IF(I155="", "", INDIRECT("M" &amp; ROW() - 1) - M155))</f>
+      <c r="F155" s="32" t="str">
+        <f aca="true">IF(G155="", IF(I155="","",(INDIRECT("M" &amp; ROW() - 1) - M155)),IF(I155="", "", INDIRECT("M" &amp; ROW() - 1) - M155))</f>
         <v/>
       </c>
     </row>
@@ -14313,8 +15290,8 @@
         <f aca="false">IF(D156="","",VLOOKUP(D156, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G156" s="31" t="str">
-        <f aca="true">IF(H156="", IF(I156="","",(INDIRECT("M" &amp; ROW() - 1) - M156)),IF(I156="", "", INDIRECT("M" &amp; ROW() - 1) - M156))</f>
+      <c r="F156" s="32" t="str">
+        <f aca="true">IF(G156="", IF(I156="","",(INDIRECT("M" &amp; ROW() - 1) - M156)),IF(I156="", "", INDIRECT("M" &amp; ROW() - 1) - M156))</f>
         <v/>
       </c>
     </row>
@@ -14327,8 +15304,8 @@
         <f aca="false">IF(D157="","",VLOOKUP(D157, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G157" s="31" t="str">
-        <f aca="true">IF(H157="", IF(I157="","",(INDIRECT("M" &amp; ROW() - 1) - M157)),IF(I157="", "", INDIRECT("M" &amp; ROW() - 1) - M157))</f>
+      <c r="F157" s="32" t="str">
+        <f aca="true">IF(G157="", IF(I157="","",(INDIRECT("M" &amp; ROW() - 1) - M157)),IF(I157="", "", INDIRECT("M" &amp; ROW() - 1) - M157))</f>
         <v/>
       </c>
     </row>
@@ -14341,8 +15318,8 @@
         <f aca="false">IF(D158="","",VLOOKUP(D158, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G158" s="31" t="str">
-        <f aca="true">IF(H158="", IF(I158="","",(INDIRECT("M" &amp; ROW() - 1) - M158)),IF(I158="", "", INDIRECT("M" &amp; ROW() - 1) - M158))</f>
+      <c r="F158" s="32" t="str">
+        <f aca="true">IF(G158="", IF(I158="","",(INDIRECT("M" &amp; ROW() - 1) - M158)),IF(I158="", "", INDIRECT("M" &amp; ROW() - 1) - M158))</f>
         <v/>
       </c>
     </row>
@@ -14355,8 +15332,8 @@
         <f aca="false">IF(D159="","",VLOOKUP(D159, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G159" s="31" t="str">
-        <f aca="true">IF(H159="", IF(I159="","",(INDIRECT("M" &amp; ROW() - 1) - M159)),IF(I159="", "", INDIRECT("M" &amp; ROW() - 1) - M159))</f>
+      <c r="F159" s="32" t="str">
+        <f aca="true">IF(G159="", IF(I159="","",(INDIRECT("M" &amp; ROW() - 1) - M159)),IF(I159="", "", INDIRECT("M" &amp; ROW() - 1) - M159))</f>
         <v/>
       </c>
     </row>
@@ -14369,8 +15346,8 @@
         <f aca="false">IF(D160="","",VLOOKUP(D160, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G160" s="31" t="str">
-        <f aca="true">IF(H160="", IF(I160="","",(INDIRECT("M" &amp; ROW() - 1) - M160)),IF(I160="", "", INDIRECT("M" &amp; ROW() - 1) - M160))</f>
+      <c r="F160" s="32" t="str">
+        <f aca="true">IF(G160="", IF(I160="","",(INDIRECT("M" &amp; ROW() - 1) - M160)),IF(I160="", "", INDIRECT("M" &amp; ROW() - 1) - M160))</f>
         <v/>
       </c>
     </row>
@@ -14383,8 +15360,8 @@
         <f aca="false">IF(D161="","",VLOOKUP(D161, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G161" s="31" t="str">
-        <f aca="true">IF(H161="", IF(I161="","",(INDIRECT("M" &amp; ROW() - 1) - M161)),IF(I161="", "", INDIRECT("M" &amp; ROW() - 1) - M161))</f>
+      <c r="F161" s="32" t="str">
+        <f aca="true">IF(G161="", IF(I161="","",(INDIRECT("M" &amp; ROW() - 1) - M161)),IF(I161="", "", INDIRECT("M" &amp; ROW() - 1) - M161))</f>
         <v/>
       </c>
     </row>
@@ -14397,8 +15374,8 @@
         <f aca="false">IF(D162="","",VLOOKUP(D162, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G162" s="31" t="str">
-        <f aca="true">IF(H162="", IF(I162="","",(INDIRECT("M" &amp; ROW() - 1) - M162)),IF(I162="", "", INDIRECT("M" &amp; ROW() - 1) - M162))</f>
+      <c r="F162" s="32" t="str">
+        <f aca="true">IF(G162="", IF(I162="","",(INDIRECT("M" &amp; ROW() - 1) - M162)),IF(I162="", "", INDIRECT("M" &amp; ROW() - 1) - M162))</f>
         <v/>
       </c>
     </row>
@@ -14411,8 +15388,8 @@
         <f aca="false">IF(D163="","",VLOOKUP(D163, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G163" s="31" t="str">
-        <f aca="true">IF(H163="", IF(I163="","",(INDIRECT("M" &amp; ROW() - 1) - M163)),IF(I163="", "", INDIRECT("M" &amp; ROW() - 1) - M163))</f>
+      <c r="F163" s="32" t="str">
+        <f aca="true">IF(G163="", IF(I163="","",(INDIRECT("M" &amp; ROW() - 1) - M163)),IF(I163="", "", INDIRECT("M" &amp; ROW() - 1) - M163))</f>
         <v/>
       </c>
     </row>
@@ -14425,8 +15402,8 @@
         <f aca="false">IF(D164="","",VLOOKUP(D164, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G164" s="31" t="str">
-        <f aca="true">IF(H164="", IF(I164="","",(INDIRECT("M" &amp; ROW() - 1) - M164)),IF(I164="", "", INDIRECT("M" &amp; ROW() - 1) - M164))</f>
+      <c r="F164" s="32" t="str">
+        <f aca="true">IF(G164="", IF(I164="","",(INDIRECT("M" &amp; ROW() - 1) - M164)),IF(I164="", "", INDIRECT("M" &amp; ROW() - 1) - M164))</f>
         <v/>
       </c>
     </row>
@@ -14439,8 +15416,8 @@
         <f aca="false">IF(D165="","",VLOOKUP(D165, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G165" s="31" t="str">
-        <f aca="true">IF(H165="", IF(I165="","",(INDIRECT("M" &amp; ROW() - 1) - M165)),IF(I165="", "", INDIRECT("M" &amp; ROW() - 1) - M165))</f>
+      <c r="F165" s="32" t="str">
+        <f aca="true">IF(G165="", IF(I165="","",(INDIRECT("M" &amp; ROW() - 1) - M165)),IF(I165="", "", INDIRECT("M" &amp; ROW() - 1) - M165))</f>
         <v/>
       </c>
     </row>
@@ -14453,8 +15430,8 @@
         <f aca="false">IF(D166="","",VLOOKUP(D166, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G166" s="31" t="str">
-        <f aca="true">IF(H166="", IF(I166="","",(INDIRECT("M" &amp; ROW() - 1) - M166)),IF(I166="", "", INDIRECT("M" &amp; ROW() - 1) - M166))</f>
+      <c r="F166" s="32" t="str">
+        <f aca="true">IF(G166="", IF(I166="","",(INDIRECT("M" &amp; ROW() - 1) - M166)),IF(I166="", "", INDIRECT("M" &amp; ROW() - 1) - M166))</f>
         <v/>
       </c>
     </row>
@@ -14467,8 +15444,8 @@
         <f aca="false">IF(D167="","",VLOOKUP(D167, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G167" s="31" t="str">
-        <f aca="true">IF(H167="", IF(I167="","",(INDIRECT("M" &amp; ROW() - 1) - M167)),IF(I167="", "", INDIRECT("M" &amp; ROW() - 1) - M167))</f>
+      <c r="F167" s="32" t="str">
+        <f aca="true">IF(G167="", IF(I167="","",(INDIRECT("M" &amp; ROW() - 1) - M167)),IF(I167="", "", INDIRECT("M" &amp; ROW() - 1) - M167))</f>
         <v/>
       </c>
     </row>
@@ -14481,8 +15458,8 @@
         <f aca="false">IF(D168="","",VLOOKUP(D168, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G168" s="31" t="str">
-        <f aca="true">IF(H168="", IF(I168="","",(INDIRECT("M" &amp; ROW() - 1) - M168)),IF(I168="", "", INDIRECT("M" &amp; ROW() - 1) - M168))</f>
+      <c r="F168" s="32" t="str">
+        <f aca="true">IF(G168="", IF(I168="","",(INDIRECT("M" &amp; ROW() - 1) - M168)),IF(I168="", "", INDIRECT("M" &amp; ROW() - 1) - M168))</f>
         <v/>
       </c>
     </row>
@@ -14495,8 +15472,8 @@
         <f aca="false">IF(D169="","",VLOOKUP(D169, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G169" s="31" t="str">
-        <f aca="true">IF(H169="", IF(I169="","",(INDIRECT("M" &amp; ROW() - 1) - M169)),IF(I169="", "", INDIRECT("M" &amp; ROW() - 1) - M169))</f>
+      <c r="F169" s="32" t="str">
+        <f aca="true">IF(G169="", IF(I169="","",(INDIRECT("M" &amp; ROW() - 1) - M169)),IF(I169="", "", INDIRECT("M" &amp; ROW() - 1) - M169))</f>
         <v/>
       </c>
     </row>
@@ -14509,8 +15486,8 @@
         <f aca="false">IF(D170="","",VLOOKUP(D170, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G170" s="31" t="str">
-        <f aca="true">IF(H170="", IF(I170="","",(INDIRECT("M" &amp; ROW() - 1) - M170)),IF(I170="", "", INDIRECT("M" &amp; ROW() - 1) - M170))</f>
+      <c r="F170" s="32" t="str">
+        <f aca="true">IF(G170="", IF(I170="","",(INDIRECT("M" &amp; ROW() - 1) - M170)),IF(I170="", "", INDIRECT("M" &amp; ROW() - 1) - M170))</f>
         <v/>
       </c>
     </row>
@@ -14523,8 +15500,8 @@
         <f aca="false">IF(D171="","",VLOOKUP(D171, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G171" s="31" t="str">
-        <f aca="true">IF(H171="", IF(I171="","",(INDIRECT("M" &amp; ROW() - 1) - M171)),IF(I171="", "", INDIRECT("M" &amp; ROW() - 1) - M171))</f>
+      <c r="F171" s="32" t="str">
+        <f aca="true">IF(G171="", IF(I171="","",(INDIRECT("M" &amp; ROW() - 1) - M171)),IF(I171="", "", INDIRECT("M" &amp; ROW() - 1) - M171))</f>
         <v/>
       </c>
     </row>
@@ -14537,8 +15514,8 @@
         <f aca="false">IF(D172="","",VLOOKUP(D172, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G172" s="31" t="str">
-        <f aca="true">IF(H172="", IF(I172="","",(INDIRECT("M" &amp; ROW() - 1) - M172)),IF(I172="", "", INDIRECT("M" &amp; ROW() - 1) - M172))</f>
+      <c r="F172" s="32" t="str">
+        <f aca="true">IF(G172="", IF(I172="","",(INDIRECT("M" &amp; ROW() - 1) - M172)),IF(I172="", "", INDIRECT("M" &amp; ROW() - 1) - M172))</f>
         <v/>
       </c>
     </row>
@@ -14551,8 +15528,8 @@
         <f aca="false">IF(D173="","",VLOOKUP(D173, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G173" s="31" t="str">
-        <f aca="true">IF(H173="", IF(I173="","",(INDIRECT("M" &amp; ROW() - 1) - M173)),IF(I173="", "", INDIRECT("M" &amp; ROW() - 1) - M173))</f>
+      <c r="F173" s="32" t="str">
+        <f aca="true">IF(G173="", IF(I173="","",(INDIRECT("M" &amp; ROW() - 1) - M173)),IF(I173="", "", INDIRECT("M" &amp; ROW() - 1) - M173))</f>
         <v/>
       </c>
     </row>
@@ -14565,8 +15542,8 @@
         <f aca="false">IF(D174="","",VLOOKUP(D174, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G174" s="31" t="str">
-        <f aca="true">IF(H174="", IF(I174="","",(INDIRECT("M" &amp; ROW() - 1) - M174)),IF(I174="", "", INDIRECT("M" &amp; ROW() - 1) - M174))</f>
+      <c r="F174" s="32" t="str">
+        <f aca="true">IF(G174="", IF(I174="","",(INDIRECT("M" &amp; ROW() - 1) - M174)),IF(I174="", "", INDIRECT("M" &amp; ROW() - 1) - M174))</f>
         <v/>
       </c>
     </row>
@@ -14579,8 +15556,8 @@
         <f aca="false">IF(D175="","",VLOOKUP(D175, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G175" s="31" t="str">
-        <f aca="true">IF(H175="", IF(I175="","",(INDIRECT("M" &amp; ROW() - 1) - M175)),IF(I175="", "", INDIRECT("M" &amp; ROW() - 1) - M175))</f>
+      <c r="F175" s="32" t="str">
+        <f aca="true">IF(G175="", IF(I175="","",(INDIRECT("M" &amp; ROW() - 1) - M175)),IF(I175="", "", INDIRECT("M" &amp; ROW() - 1) - M175))</f>
         <v/>
       </c>
     </row>
@@ -14593,8 +15570,8 @@
         <f aca="false">IF(D176="","",VLOOKUP(D176, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G176" s="31" t="str">
-        <f aca="true">IF(H176="", IF(I176="","",(INDIRECT("M" &amp; ROW() - 1) - M176)),IF(I176="", "", INDIRECT("M" &amp; ROW() - 1) - M176))</f>
+      <c r="F176" s="32" t="str">
+        <f aca="true">IF(G176="", IF(I176="","",(INDIRECT("M" &amp; ROW() - 1) - M176)),IF(I176="", "", INDIRECT("M" &amp; ROW() - 1) - M176))</f>
         <v/>
       </c>
     </row>
@@ -14607,8 +15584,8 @@
         <f aca="false">IF(D177="","",VLOOKUP(D177, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G177" s="31" t="str">
-        <f aca="true">IF(H177="", IF(I177="","",(INDIRECT("M" &amp; ROW() - 1) - M177)),IF(I177="", "", INDIRECT("M" &amp; ROW() - 1) - M177))</f>
+      <c r="F177" s="32" t="str">
+        <f aca="true">IF(G177="", IF(I177="","",(INDIRECT("M" &amp; ROW() - 1) - M177)),IF(I177="", "", INDIRECT("M" &amp; ROW() - 1) - M177))</f>
         <v/>
       </c>
     </row>
@@ -14621,8 +15598,8 @@
         <f aca="false">IF(D178="","",VLOOKUP(D178, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G178" s="31" t="str">
-        <f aca="true">IF(H178="", IF(I178="","",(INDIRECT("M" &amp; ROW() - 1) - M178)),IF(I178="", "", INDIRECT("M" &amp; ROW() - 1) - M178))</f>
+      <c r="F178" s="32" t="str">
+        <f aca="true">IF(G178="", IF(I178="","",(INDIRECT("M" &amp; ROW() - 1) - M178)),IF(I178="", "", INDIRECT("M" &amp; ROW() - 1) - M178))</f>
         <v/>
       </c>
     </row>
@@ -14635,8 +15612,8 @@
         <f aca="false">IF(D179="","",VLOOKUP(D179, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G179" s="31" t="str">
-        <f aca="true">IF(H179="", IF(I179="","",(INDIRECT("M" &amp; ROW() - 1) - M179)),IF(I179="", "", INDIRECT("M" &amp; ROW() - 1) - M179))</f>
+      <c r="F179" s="32" t="str">
+        <f aca="true">IF(G179="", IF(I179="","",(INDIRECT("M" &amp; ROW() - 1) - M179)),IF(I179="", "", INDIRECT("M" &amp; ROW() - 1) - M179))</f>
         <v/>
       </c>
     </row>
@@ -14649,8 +15626,8 @@
         <f aca="false">IF(D180="","",VLOOKUP(D180, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G180" s="31" t="str">
-        <f aca="true">IF(H180="", IF(I180="","",(INDIRECT("M" &amp; ROW() - 1) - M180)),IF(I180="", "", INDIRECT("M" &amp; ROW() - 1) - M180))</f>
+      <c r="F180" s="32" t="str">
+        <f aca="true">IF(G180="", IF(I180="","",(INDIRECT("M" &amp; ROW() - 1) - M180)),IF(I180="", "", INDIRECT("M" &amp; ROW() - 1) - M180))</f>
         <v/>
       </c>
     </row>
@@ -14663,8 +15640,8 @@
         <f aca="false">IF(D181="","",VLOOKUP(D181, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G181" s="31" t="str">
-        <f aca="true">IF(H181="", IF(I181="","",(INDIRECT("M" &amp; ROW() - 1) - M181)),IF(I181="", "", INDIRECT("M" &amp; ROW() - 1) - M181))</f>
+      <c r="F181" s="32" t="str">
+        <f aca="true">IF(G181="", IF(I181="","",(INDIRECT("M" &amp; ROW() - 1) - M181)),IF(I181="", "", INDIRECT("M" &amp; ROW() - 1) - M181))</f>
         <v/>
       </c>
     </row>
@@ -14677,8 +15654,8 @@
         <f aca="false">IF(D182="","",VLOOKUP(D182, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G182" s="31" t="str">
-        <f aca="true">IF(H182="", IF(I182="","",(INDIRECT("M" &amp; ROW() - 1) - M182)),IF(I182="", "", INDIRECT("M" &amp; ROW() - 1) - M182))</f>
+      <c r="F182" s="32" t="str">
+        <f aca="true">IF(G182="", IF(I182="","",(INDIRECT("M" &amp; ROW() - 1) - M182)),IF(I182="", "", INDIRECT("M" &amp; ROW() - 1) - M182))</f>
         <v/>
       </c>
     </row>
@@ -14691,8 +15668,8 @@
         <f aca="false">IF(D183="","",VLOOKUP(D183, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G183" s="31" t="str">
-        <f aca="true">IF(H183="", IF(I183="","",(INDIRECT("M" &amp; ROW() - 1) - M183)),IF(I183="", "", INDIRECT("M" &amp; ROW() - 1) - M183))</f>
+      <c r="F183" s="32" t="str">
+        <f aca="true">IF(G183="", IF(I183="","",(INDIRECT("M" &amp; ROW() - 1) - M183)),IF(I183="", "", INDIRECT("M" &amp; ROW() - 1) - M183))</f>
         <v/>
       </c>
     </row>
@@ -14705,8 +15682,8 @@
         <f aca="false">IF(D184="","",VLOOKUP(D184, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G184" s="31" t="str">
-        <f aca="true">IF(H184="", IF(I184="","",(INDIRECT("M" &amp; ROW() - 1) - M184)),IF(I184="", "", INDIRECT("M" &amp; ROW() - 1) - M184))</f>
+      <c r="F184" s="32" t="str">
+        <f aca="true">IF(G184="", IF(I184="","",(INDIRECT("M" &amp; ROW() - 1) - M184)),IF(I184="", "", INDIRECT("M" &amp; ROW() - 1) - M184))</f>
         <v/>
       </c>
     </row>
@@ -14719,8 +15696,8 @@
         <f aca="false">IF(D185="","",VLOOKUP(D185, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G185" s="31" t="str">
-        <f aca="true">IF(H185="", IF(I185="","",(INDIRECT("M" &amp; ROW() - 1) - M185)),IF(I185="", "", INDIRECT("M" &amp; ROW() - 1) - M185))</f>
+      <c r="F185" s="32" t="str">
+        <f aca="true">IF(G185="", IF(I185="","",(INDIRECT("M" &amp; ROW() - 1) - M185)),IF(I185="", "", INDIRECT("M" &amp; ROW() - 1) - M185))</f>
         <v/>
       </c>
     </row>
@@ -14733,8 +15710,8 @@
         <f aca="false">IF(D186="","",VLOOKUP(D186, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G186" s="31" t="str">
-        <f aca="true">IF(H186="", IF(I186="","",(INDIRECT("M" &amp; ROW() - 1) - M186)),IF(I186="", "", INDIRECT("M" &amp; ROW() - 1) - M186))</f>
+      <c r="F186" s="32" t="str">
+        <f aca="true">IF(G186="", IF(I186="","",(INDIRECT("M" &amp; ROW() - 1) - M186)),IF(I186="", "", INDIRECT("M" &amp; ROW() - 1) - M186))</f>
         <v/>
       </c>
     </row>
@@ -14747,8 +15724,8 @@
         <f aca="false">IF(D187="","",VLOOKUP(D187, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G187" s="31" t="str">
-        <f aca="true">IF(H187="", IF(I187="","",(INDIRECT("M" &amp; ROW() - 1) - M187)),IF(I187="", "", INDIRECT("M" &amp; ROW() - 1) - M187))</f>
+      <c r="F187" s="32" t="str">
+        <f aca="true">IF(G187="", IF(I187="","",(INDIRECT("M" &amp; ROW() - 1) - M187)),IF(I187="", "", INDIRECT("M" &amp; ROW() - 1) - M187))</f>
         <v/>
       </c>
     </row>
@@ -14761,8 +15738,8 @@
         <f aca="false">IF(D188="","",VLOOKUP(D188, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G188" s="31" t="str">
-        <f aca="true">IF(H188="", IF(I188="","",(INDIRECT("M" &amp; ROW() - 1) - M188)),IF(I188="", "", INDIRECT("M" &amp; ROW() - 1) - M188))</f>
+      <c r="F188" s="32" t="str">
+        <f aca="true">IF(G188="", IF(I188="","",(INDIRECT("M" &amp; ROW() - 1) - M188)),IF(I188="", "", INDIRECT("M" &amp; ROW() - 1) - M188))</f>
         <v/>
       </c>
     </row>
@@ -14775,8 +15752,8 @@
         <f aca="false">IF(D189="","",VLOOKUP(D189, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G189" s="31" t="str">
-        <f aca="true">IF(H189="", IF(I189="","",(INDIRECT("M" &amp; ROW() - 1) - M189)),IF(I189="", "", INDIRECT("M" &amp; ROW() - 1) - M189))</f>
+      <c r="F189" s="32" t="str">
+        <f aca="true">IF(G189="", IF(I189="","",(INDIRECT("M" &amp; ROW() - 1) - M189)),IF(I189="", "", INDIRECT("M" &amp; ROW() - 1) - M189))</f>
         <v/>
       </c>
     </row>
@@ -14789,8 +15766,8 @@
         <f aca="false">IF(D190="","",VLOOKUP(D190, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G190" s="31" t="str">
-        <f aca="true">IF(H190="", IF(I190="","",(INDIRECT("M" &amp; ROW() - 1) - M190)),IF(I190="", "", INDIRECT("M" &amp; ROW() - 1) - M190))</f>
+      <c r="F190" s="32" t="str">
+        <f aca="true">IF(G190="", IF(I190="","",(INDIRECT("M" &amp; ROW() - 1) - M190)),IF(I190="", "", INDIRECT("M" &amp; ROW() - 1) - M190))</f>
         <v/>
       </c>
     </row>
@@ -14803,8 +15780,8 @@
         <f aca="false">IF(D191="","",VLOOKUP(D191, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G191" s="31" t="str">
-        <f aca="true">IF(H191="", IF(I191="","",(INDIRECT("M" &amp; ROW() - 1) - M191)),IF(I191="", "", INDIRECT("M" &amp; ROW() - 1) - M191))</f>
+      <c r="F191" s="32" t="str">
+        <f aca="true">IF(G191="", IF(I191="","",(INDIRECT("M" &amp; ROW() - 1) - M191)),IF(I191="", "", INDIRECT("M" &amp; ROW() - 1) - M191))</f>
         <v/>
       </c>
     </row>
@@ -14817,8 +15794,8 @@
         <f aca="false">IF(D192="","",VLOOKUP(D192, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G192" s="31" t="str">
-        <f aca="true">IF(H192="", IF(I192="","",(INDIRECT("M" &amp; ROW() - 1) - M192)),IF(I192="", "", INDIRECT("M" &amp; ROW() - 1) - M192))</f>
+      <c r="F192" s="32" t="str">
+        <f aca="true">IF(G192="", IF(I192="","",(INDIRECT("M" &amp; ROW() - 1) - M192)),IF(I192="", "", INDIRECT("M" &amp; ROW() - 1) - M192))</f>
         <v/>
       </c>
     </row>
@@ -14831,8 +15808,8 @@
         <f aca="false">IF(D193="","",VLOOKUP(D193, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G193" s="31" t="str">
-        <f aca="true">IF(H193="", IF(I193="","",(INDIRECT("M" &amp; ROW() - 1) - M193)),IF(I193="", "", INDIRECT("M" &amp; ROW() - 1) - M193))</f>
+      <c r="F193" s="32" t="str">
+        <f aca="true">IF(G193="", IF(I193="","",(INDIRECT("M" &amp; ROW() - 1) - M193)),IF(I193="", "", INDIRECT("M" &amp; ROW() - 1) - M193))</f>
         <v/>
       </c>
     </row>
@@ -14845,8 +15822,8 @@
         <f aca="false">IF(D194="","",VLOOKUP(D194, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G194" s="31" t="str">
-        <f aca="true">IF(H194="", IF(I194="","",(INDIRECT("M" &amp; ROW() - 1) - M194)),IF(I194="", "", INDIRECT("M" &amp; ROW() - 1) - M194))</f>
+      <c r="F194" s="32" t="str">
+        <f aca="true">IF(G194="", IF(I194="","",(INDIRECT("M" &amp; ROW() - 1) - M194)),IF(I194="", "", INDIRECT("M" &amp; ROW() - 1) - M194))</f>
         <v/>
       </c>
     </row>
@@ -14859,8 +15836,8 @@
         <f aca="false">IF(D195="","",VLOOKUP(D195, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G195" s="31" t="str">
-        <f aca="true">IF(H195="", IF(I195="","",(INDIRECT("M" &amp; ROW() - 1) - M195)),IF(I195="", "", INDIRECT("M" &amp; ROW() - 1) - M195))</f>
+      <c r="F195" s="32" t="str">
+        <f aca="true">IF(G195="", IF(I195="","",(INDIRECT("M" &amp; ROW() - 1) - M195)),IF(I195="", "", INDIRECT("M" &amp; ROW() - 1) - M195))</f>
         <v/>
       </c>
     </row>
@@ -14873,8 +15850,8 @@
         <f aca="false">IF(D196="","",VLOOKUP(D196, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G196" s="31" t="str">
-        <f aca="true">IF(H196="", IF(I196="","",(INDIRECT("M" &amp; ROW() - 1) - M196)),IF(I196="", "", INDIRECT("M" &amp; ROW() - 1) - M196))</f>
+      <c r="F196" s="32" t="str">
+        <f aca="true">IF(G196="", IF(I196="","",(INDIRECT("M" &amp; ROW() - 1) - M196)),IF(I196="", "", INDIRECT("M" &amp; ROW() - 1) - M196))</f>
         <v/>
       </c>
     </row>
@@ -14887,8 +15864,8 @@
         <f aca="false">IF(D197="","",VLOOKUP(D197, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G197" s="31" t="str">
-        <f aca="true">IF(H197="", IF(I197="","",(INDIRECT("M" &amp; ROW() - 1) - M197)),IF(I197="", "", INDIRECT("M" &amp; ROW() - 1) - M197))</f>
+      <c r="F197" s="32" t="str">
+        <f aca="true">IF(G197="", IF(I197="","",(INDIRECT("M" &amp; ROW() - 1) - M197)),IF(I197="", "", INDIRECT("M" &amp; ROW() - 1) - M197))</f>
         <v/>
       </c>
     </row>
@@ -14901,8 +15878,8 @@
         <f aca="false">IF(D198="","",VLOOKUP(D198, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G198" s="31" t="str">
-        <f aca="true">IF(H198="", IF(I198="","",(INDIRECT("M" &amp; ROW() - 1) - M198)),IF(I198="", "", INDIRECT("M" &amp; ROW() - 1) - M198))</f>
+      <c r="F198" s="32" t="str">
+        <f aca="true">IF(G198="", IF(I198="","",(INDIRECT("M" &amp; ROW() - 1) - M198)),IF(I198="", "", INDIRECT("M" &amp; ROW() - 1) - M198))</f>
         <v/>
       </c>
     </row>
@@ -14915,8 +15892,8 @@
         <f aca="false">IF(D199="","",VLOOKUP(D199, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G199" s="31" t="str">
-        <f aca="true">IF(H199="", IF(I199="","",(INDIRECT("M" &amp; ROW() - 1) - M199)),IF(I199="", "", INDIRECT("M" &amp; ROW() - 1) - M199))</f>
+      <c r="F199" s="32" t="str">
+        <f aca="true">IF(G199="", IF(I199="","",(INDIRECT("M" &amp; ROW() - 1) - M199)),IF(I199="", "", INDIRECT("M" &amp; ROW() - 1) - M199))</f>
         <v/>
       </c>
     </row>
@@ -14929,8 +15906,8 @@
         <f aca="false">IF(D200="","",VLOOKUP(D200, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G200" s="31" t="str">
-        <f aca="true">IF(H200="", IF(I200="","",(INDIRECT("M" &amp; ROW() - 1) - M200)),IF(I200="", "", INDIRECT("M" &amp; ROW() - 1) - M200))</f>
+      <c r="F200" s="32" t="str">
+        <f aca="true">IF(G200="", IF(I200="","",(INDIRECT("M" &amp; ROW() - 1) - M200)),IF(I200="", "", INDIRECT("M" &amp; ROW() - 1) - M200))</f>
         <v/>
       </c>
     </row>
@@ -14943,8 +15920,8 @@
         <f aca="false">IF(D201="","",VLOOKUP(D201, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G201" s="31" t="str">
-        <f aca="true">IF(H201="", IF(I201="","",(INDIRECT("M" &amp; ROW() - 1) - M201)),IF(I201="", "", INDIRECT("M" &amp; ROW() - 1) - M201))</f>
+      <c r="F201" s="32" t="str">
+        <f aca="true">IF(G201="", IF(I201="","",(INDIRECT("M" &amp; ROW() - 1) - M201)),IF(I201="", "", INDIRECT("M" &amp; ROW() - 1) - M201))</f>
         <v/>
       </c>
     </row>
@@ -14957,8 +15934,8 @@
         <f aca="false">IF(D202="","",VLOOKUP(D202, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G202" s="31" t="str">
-        <f aca="true">IF(H202="", IF(I202="","",(INDIRECT("M" &amp; ROW() - 1) - M202)),IF(I202="", "", INDIRECT("M" &amp; ROW() - 1) - M202))</f>
+      <c r="F202" s="32" t="str">
+        <f aca="true">IF(G202="", IF(I202="","",(INDIRECT("M" &amp; ROW() - 1) - M202)),IF(I202="", "", INDIRECT("M" &amp; ROW() - 1) - M202))</f>
         <v/>
       </c>
     </row>
@@ -14971,8 +15948,8 @@
         <f aca="false">IF(D203="","",VLOOKUP(D203, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G203" s="31" t="str">
-        <f aca="true">IF(H203="", IF(I203="","",(INDIRECT("M" &amp; ROW() - 1) - M203)),IF(I203="", "", INDIRECT("M" &amp; ROW() - 1) - M203))</f>
+      <c r="F203" s="32" t="str">
+        <f aca="true">IF(G203="", IF(I203="","",(INDIRECT("M" &amp; ROW() - 1) - M203)),IF(I203="", "", INDIRECT("M" &amp; ROW() - 1) - M203))</f>
         <v/>
       </c>
     </row>
@@ -14985,8 +15962,8 @@
         <f aca="false">IF(D204="","",VLOOKUP(D204, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G204" s="31" t="str">
-        <f aca="true">IF(H204="", IF(I204="","",(INDIRECT("M" &amp; ROW() - 1) - M204)),IF(I204="", "", INDIRECT("M" &amp; ROW() - 1) - M204))</f>
+      <c r="F204" s="32" t="str">
+        <f aca="true">IF(G204="", IF(I204="","",(INDIRECT("M" &amp; ROW() - 1) - M204)),IF(I204="", "", INDIRECT("M" &amp; ROW() - 1) - M204))</f>
         <v/>
       </c>
     </row>
@@ -14999,8 +15976,8 @@
         <f aca="false">IF(D205="","",VLOOKUP(D205, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G205" s="31" t="str">
-        <f aca="true">IF(H205="", IF(I205="","",(INDIRECT("M" &amp; ROW() - 1) - M205)),IF(I205="", "", INDIRECT("M" &amp; ROW() - 1) - M205))</f>
+      <c r="F205" s="32" t="str">
+        <f aca="true">IF(G205="", IF(I205="","",(INDIRECT("M" &amp; ROW() - 1) - M205)),IF(I205="", "", INDIRECT("M" &amp; ROW() - 1) - M205))</f>
         <v/>
       </c>
     </row>
@@ -15013,8 +15990,8 @@
         <f aca="false">IF(D206="","",VLOOKUP(D206, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
-      <c r="G206" s="31" t="str">
-        <f aca="true">IF(H206="", IF(I206="","",(INDIRECT("M" &amp; ROW() - 1) - M206)),IF(I206="", "", INDIRECT("M" &amp; ROW() - 1) - M206))</f>
+      <c r="F206" s="32" t="str">
+        <f aca="true">IF(G206="", IF(I206="","",(INDIRECT("M" &amp; ROW() - 1) - M206)),IF(I206="", "", INDIRECT("M" &amp; ROW() - 1) - M206))</f>
         <v/>
       </c>
     </row>
@@ -15959,18 +16936,18 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="G3:G206">
+  <conditionalFormatting sqref="F3:F206">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &lt; - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
+      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3)  &lt; - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &gt;= - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3) &lt; 0)</formula>
+      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3)  &gt;= - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3)  &lt;= 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, G3) &gt; 0)</formula>
+      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3)  &lt;= 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3) &gt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0,G3)  &gt; 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
+      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0,F3)  &gt; 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/app/data/static/templates/constructor_milk_project.xlsx
+++ b/app/data/static/templates/constructor_milk_project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="файл остатки" sheetId="1" state="visible" r:id="rId2"/>
@@ -536,7 +536,7 @@
   </sheetPr>
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
@@ -9675,8 +9675,8 @@
   </sheetPr>
   <dimension ref="A1:N317"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P16" activeCellId="0" sqref="P16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16938,16 +16938,16 @@
   </mergeCells>
   <conditionalFormatting sqref="F3:F206">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3)  &lt; - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
+      <formula>IF(H3="",0, F3)  &lt; - 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
     </cfRule>
     <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3)  &gt;= - 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3) &lt; 0)</formula>
+      <formula>AND(IF(H3="",0, F3)  &gt;= - 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1)), IF(H3="",0, F3) &lt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>AND(IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3)  &lt;= 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1)), IF(INDIRECT("H" &amp; ROW() - 1)="",0, F3) &gt; 0)</formula>
+      <formula>AND(H3="",0, F3)  &lt;= 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1)), IF(H3="",0, F3) &gt; 0)</formula>
     </cfRule>
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
-      <formula>IF(INDIRECT("H" &amp; ROW() - 1)="",0,F3)  &gt; 0.05* IF(INDIRECT("H" &amp; ROW() - 1)="",0,INDIRECT("H" &amp; ROW() - 1))</formula>
+      <formula>IF(H3="",0,F3)  &gt; 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/app/data/static/templates/constructor_milk_project.xlsx
+++ b/app/data/static/templates/constructor_milk_project.xlsx
@@ -9676,7 +9676,7 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9689,12 +9689,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="8.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="3"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="5"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="4"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="3.82"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="8.27"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="27" width="8.54"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="6.61"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="7.49"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="7.83"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="8.05"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="5.62"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="27" width="9.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="15" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1010" style="0" width="9.14"/>
   </cols>
@@ -9772,9 +9772,9 @@
         <f aca="false">IF(L3=0, "", -N3)</f>
         <v/>
       </c>
-      <c r="J3" s="9" t="e">
-        <f aca="false">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E3 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J3" s="9" t="n">
+        <f aca="true">IF(I3 = "-", -INDIRECT("C" &amp; ROW() - 1) * G3,E3)</f>
+        <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
         <f aca="true">IF(I3 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J3)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J3)))), 0)</f>
@@ -9814,9 +9814,9 @@
         <f aca="false">IF(L4=0, "", -N4)</f>
         <v/>
       </c>
-      <c r="J4" s="9" t="e">
-        <f aca="false">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E4 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J4" s="9" t="n">
+        <f aca="true">IF(I4 = "-", -INDIRECT("C" &amp; ROW() - 1) * G4,E4)</f>
+        <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
         <f aca="true">IF(I4 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J4)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J4)))), 0)</f>
@@ -9856,9 +9856,9 @@
         <f aca="false">IF(L5=0, "", -N5)</f>
         <v/>
       </c>
-      <c r="J5" s="9" t="e">
-        <f aca="false">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E5 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J5" s="9" t="n">
+        <f aca="true">IF(I5 = "-", -INDIRECT("C" &amp; ROW() - 1) * G5,E5)</f>
+        <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
         <f aca="true">IF(I5 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J5)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J5)))), 0)</f>
@@ -9898,9 +9898,9 @@
         <f aca="false">IF(L6=0, "", -N6)</f>
         <v/>
       </c>
-      <c r="J6" s="9" t="e">
-        <f aca="false">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E6 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J6" s="9" t="n">
+        <f aca="true">IF(I6 = "-", -INDIRECT("C" &amp; ROW() - 1) * G6,E6)</f>
+        <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
         <f aca="true">IF(I6 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J6)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J6)))), 0)</f>
@@ -9940,9 +9940,9 @@
         <f aca="false">IF(L7=0, "", -N7)</f>
         <v/>
       </c>
-      <c r="J7" s="9" t="e">
-        <f aca="false">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E7 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J7" s="9" t="n">
+        <f aca="true">IF(I7 = "-", -INDIRECT("C" &amp; ROW() - 1) * G7,E7)</f>
+        <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
         <f aca="true">IF(I7 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J7)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J7)))), 0)</f>
@@ -9982,9 +9982,9 @@
         <f aca="false">IF(L8=0, "", -N8)</f>
         <v/>
       </c>
-      <c r="J8" s="9" t="e">
-        <f aca="false">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E8 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J8" s="9" t="n">
+        <f aca="true">IF(I8 = "-", -INDIRECT("C" &amp; ROW() - 1) * G8,E8)</f>
+        <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
         <f aca="true">IF(I8 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J8)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J8)))), 0)</f>
@@ -10024,9 +10024,9 @@
         <f aca="false">IF(L9=0, "", -N9)</f>
         <v/>
       </c>
-      <c r="J9" s="9" t="e">
-        <f aca="false">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E9 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J9" s="9" t="n">
+        <f aca="true">IF(I9 = "-", -INDIRECT("C" &amp; ROW() - 1) * G9,E9)</f>
+        <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
         <f aca="true">IF(I9 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J9)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J9)))), 0)</f>
@@ -10066,9 +10066,9 @@
         <f aca="false">IF(L10=0, "", -N10)</f>
         <v/>
       </c>
-      <c r="J10" s="9" t="e">
-        <f aca="false">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E10 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J10" s="9" t="n">
+        <f aca="true">IF(I10 = "-", -INDIRECT("C" &amp; ROW() - 1) * G10,E10)</f>
+        <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
         <f aca="true">IF(I10 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J10)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J10)))), 0)</f>
@@ -10108,9 +10108,9 @@
         <f aca="false">IF(L11=0, "", -N11)</f>
         <v/>
       </c>
-      <c r="J11" s="9" t="e">
-        <f aca="false">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E11 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J11" s="9" t="n">
+        <f aca="true">IF(I11 = "-", -INDIRECT("C" &amp; ROW() - 1) * G11,E11)</f>
+        <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
         <f aca="true">IF(I11 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J11)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J11)))), 0)</f>
@@ -10150,9 +10150,9 @@
         <f aca="false">IF(L12=0, "", -N12)</f>
         <v/>
       </c>
-      <c r="J12" s="9" t="e">
-        <f aca="false">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E12 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J12" s="9" t="n">
+        <f aca="true">IF(I12 = "-", -INDIRECT("C" &amp; ROW() - 1) * G12,E12)</f>
+        <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
         <f aca="true">IF(I12 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J12)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J12)))), 0)</f>
@@ -10192,9 +10192,9 @@
         <f aca="false">IF(L13=0, "", -N13)</f>
         <v/>
       </c>
-      <c r="J13" s="9" t="e">
-        <f aca="false">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E13 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J13" s="9" t="n">
+        <f aca="true">IF(I13 = "-", -INDIRECT("C" &amp; ROW() - 1) * G13,E13)</f>
+        <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
         <f aca="true">IF(I13 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J13)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J13)))), 0)</f>
@@ -10234,9 +10234,9 @@
         <f aca="false">IF(L14=0, "", -N14)</f>
         <v/>
       </c>
-      <c r="J14" s="9" t="e">
-        <f aca="false">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E14 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J14" s="9" t="n">
+        <f aca="true">IF(I14 = "-", -INDIRECT("C" &amp; ROW() - 1) * G14,E14)</f>
+        <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
         <f aca="true">IF(I14 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J14)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J14)))), 0)</f>
@@ -10276,9 +10276,9 @@
         <f aca="false">IF(L15=0, "", -N15)</f>
         <v/>
       </c>
-      <c r="J15" s="9" t="e">
-        <f aca="false">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E15 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J15" s="9" t="n">
+        <f aca="true">IF(I15 = "-", -INDIRECT("C" &amp; ROW() - 1) * G15,E15)</f>
+        <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
         <f aca="true">IF(I15 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J15)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J15)))), 0)</f>
@@ -10318,9 +10318,9 @@
         <f aca="false">IF(L16=0, "", -N16)</f>
         <v/>
       </c>
-      <c r="J16" s="9" t="e">
-        <f aca="false">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E16 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J16" s="9" t="n">
+        <f aca="true">IF(I16 = "-", -INDIRECT("C" &amp; ROW() - 1) * G16,E16)</f>
+        <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
         <f aca="true">IF(I16 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J16)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J16)))), 0)</f>
@@ -10360,9 +10360,9 @@
         <f aca="false">IF(L17=0, "", -N17)</f>
         <v/>
       </c>
-      <c r="J17" s="9" t="e">
-        <f aca="false">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E17 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J17" s="9" t="n">
+        <f aca="true">IF(I17 = "-", -INDIRECT("C" &amp; ROW() - 1) * G17,E17)</f>
+        <v>0</v>
       </c>
       <c r="K17" s="0" t="n">
         <f aca="true">IF(I17 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J17)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J17)))), 0)</f>
@@ -10402,9 +10402,9 @@
         <f aca="false">IF(L18=0, "", -N18)</f>
         <v/>
       </c>
-      <c r="J18" s="9" t="e">
-        <f aca="false">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E18 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J18" s="9" t="n">
+        <f aca="true">IF(I18 = "-", -INDIRECT("C" &amp; ROW() - 1) * G18,E18)</f>
+        <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
         <f aca="true">IF(I18 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J18)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J18)))), 0)</f>
@@ -10444,9 +10444,9 @@
         <f aca="false">IF(L19=0, "", -N19)</f>
         <v/>
       </c>
-      <c r="J19" s="9" t="e">
-        <f aca="false">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E19 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J19" s="9" t="n">
+        <f aca="true">IF(I19 = "-", -INDIRECT("C" &amp; ROW() - 1) * G19,E19)</f>
+        <v>0</v>
       </c>
       <c r="K19" s="0" t="n">
         <f aca="true">IF(I19 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J19)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J19)))), 0)</f>
@@ -10486,9 +10486,9 @@
         <f aca="false">IF(L20=0, "", -N20)</f>
         <v/>
       </c>
-      <c r="J20" s="9" t="e">
-        <f aca="false">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E20 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J20" s="9" t="n">
+        <f aca="true">IF(I20 = "-", -INDIRECT("C" &amp; ROW() - 1) * G20,E20)</f>
+        <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
         <f aca="true">IF(I20 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J20)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J20)))), 0)</f>
@@ -10528,9 +10528,9 @@
         <f aca="false">IF(L21=0, "", -N21)</f>
         <v/>
       </c>
-      <c r="J21" s="9" t="e">
-        <f aca="false">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E21 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J21" s="9" t="n">
+        <f aca="true">IF(I21 = "-", -INDIRECT("C" &amp; ROW() - 1) * G21,E21)</f>
+        <v>0</v>
       </c>
       <c r="K21" s="0" t="n">
         <f aca="true">IF(I21 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J21)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J21)))), 0)</f>
@@ -10570,9 +10570,9 @@
         <f aca="false">IF(L22=0, "", -N22)</f>
         <v/>
       </c>
-      <c r="J22" s="9" t="e">
-        <f aca="false">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E22 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J22" s="9" t="n">
+        <f aca="true">IF(I22 = "-", -INDIRECT("C" &amp; ROW() - 1) * G22,E22)</f>
+        <v>0</v>
       </c>
       <c r="K22" s="0" t="n">
         <f aca="true">IF(I22 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J22)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J22)))), 0)</f>
@@ -10612,9 +10612,9 @@
         <f aca="false">IF(L23=0, "", -N23)</f>
         <v/>
       </c>
-      <c r="J23" s="9" t="e">
-        <f aca="false">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E23 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J23" s="9" t="n">
+        <f aca="true">IF(I23 = "-", -INDIRECT("C" &amp; ROW() - 1) * G23,E23)</f>
+        <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
         <f aca="true">IF(I23 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J23)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J23)))), 0)</f>
@@ -10654,9 +10654,9 @@
         <f aca="false">IF(L24=0, "", -N24)</f>
         <v/>
       </c>
-      <c r="J24" s="9" t="e">
-        <f aca="false">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E24 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J24" s="9" t="n">
+        <f aca="true">IF(I24 = "-", -INDIRECT("C" &amp; ROW() - 1) * G24,E24)</f>
+        <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
         <f aca="true">IF(I24 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J24)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J24)))), 0)</f>
@@ -10696,9 +10696,9 @@
         <f aca="false">IF(L25=0, "", -N25)</f>
         <v/>
       </c>
-      <c r="J25" s="9" t="e">
-        <f aca="false">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E25 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J25" s="9" t="n">
+        <f aca="true">IF(I25 = "-", -INDIRECT("C" &amp; ROW() - 1) * G25,E25)</f>
+        <v>0</v>
       </c>
       <c r="K25" s="0" t="n">
         <f aca="true">IF(I25 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J25)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J25)))), 0)</f>
@@ -10738,9 +10738,9 @@
         <f aca="false">IF(L26=0, "", -N26)</f>
         <v/>
       </c>
-      <c r="J26" s="9" t="e">
-        <f aca="false">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E26 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J26" s="9" t="n">
+        <f aca="true">IF(I26 = "-", -INDIRECT("C" &amp; ROW() - 1) * G26,E26)</f>
+        <v>0</v>
       </c>
       <c r="K26" s="0" t="n">
         <f aca="true">IF(I26 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J26)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J26)))), 0)</f>
@@ -10780,9 +10780,9 @@
         <f aca="false">IF(L27=0, "", -N27)</f>
         <v/>
       </c>
-      <c r="J27" s="9" t="e">
-        <f aca="false">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E27 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J27" s="9" t="n">
+        <f aca="true">IF(I27 = "-", -INDIRECT("C" &amp; ROW() - 1) * G27,E27)</f>
+        <v>0</v>
       </c>
       <c r="K27" s="0" t="n">
         <f aca="true">IF(I27 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J27)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J27)))), 0)</f>
@@ -10822,9 +10822,9 @@
         <f aca="false">IF(L28=0, "", -N28)</f>
         <v/>
       </c>
-      <c r="J28" s="9" t="e">
-        <f aca="false">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E28 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J28" s="9" t="n">
+        <f aca="true">IF(I28 = "-", -INDIRECT("C" &amp; ROW() - 1) * G28,E28)</f>
+        <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
         <f aca="true">IF(I28 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J28)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J28)))), 0)</f>
@@ -10864,9 +10864,9 @@
         <f aca="false">IF(L29=0, "", -N29)</f>
         <v/>
       </c>
-      <c r="J29" s="9" t="e">
-        <f aca="false">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E29 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J29" s="9" t="n">
+        <f aca="true">IF(I29 = "-", -INDIRECT("C" &amp; ROW() - 1) * G29,E29)</f>
+        <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
         <f aca="true">IF(I29 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J29)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J29)))), 0)</f>
@@ -10906,9 +10906,9 @@
         <f aca="false">IF(L30=0, "", -N30)</f>
         <v/>
       </c>
-      <c r="J30" s="9" t="e">
-        <f aca="false">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E30 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J30" s="9" t="n">
+        <f aca="true">IF(I30 = "-", -INDIRECT("C" &amp; ROW() - 1) * G30,E30)</f>
+        <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
         <f aca="true">IF(I30 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J30)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J30)))), 0)</f>
@@ -10948,9 +10948,9 @@
         <f aca="false">IF(L31=0, "", -N31)</f>
         <v/>
       </c>
-      <c r="J31" s="9" t="e">
-        <f aca="false">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E31 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J31" s="9" t="n">
+        <f aca="true">IF(I31 = "-", -INDIRECT("C" &amp; ROW() - 1) * G31,E31)</f>
+        <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
         <f aca="true">IF(I31 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J31)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J31)))), 0)</f>
@@ -10990,9 +10990,9 @@
         <f aca="false">IF(L32=0, "", -N32)</f>
         <v/>
       </c>
-      <c r="J32" s="9" t="e">
-        <f aca="false">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E32 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J32" s="9" t="n">
+        <f aca="true">IF(I32 = "-", -INDIRECT("C" &amp; ROW() - 1) * G32,E32)</f>
+        <v>0</v>
       </c>
       <c r="K32" s="0" t="n">
         <f aca="true">IF(I32 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J32)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J32)))), 0)</f>
@@ -11032,9 +11032,9 @@
         <f aca="false">IF(L33=0, "", -N33)</f>
         <v/>
       </c>
-      <c r="J33" s="9" t="e">
-        <f aca="false">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E33 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J33" s="9" t="n">
+        <f aca="true">IF(I33 = "-", -INDIRECT("C" &amp; ROW() - 1) * G33,E33)</f>
+        <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
         <f aca="true">IF(I33 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J33)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J33)))), 0)</f>
@@ -11074,9 +11074,9 @@
         <f aca="false">IF(L34=0, "", -N34)</f>
         <v/>
       </c>
-      <c r="J34" s="9" t="e">
-        <f aca="false">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E34 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J34" s="9" t="n">
+        <f aca="true">IF(I34 = "-", -INDIRECT("C" &amp; ROW() - 1) * G34,E34)</f>
+        <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
         <f aca="true">IF(I34 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J34)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J34)))), 0)</f>
@@ -11116,9 +11116,9 @@
         <f aca="false">IF(L35=0, "", -N35)</f>
         <v/>
       </c>
-      <c r="J35" s="9" t="e">
-        <f aca="false">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E35 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J35" s="9" t="n">
+        <f aca="true">IF(I35 = "-", -INDIRECT("C" &amp; ROW() - 1) * G35,E35)</f>
+        <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
         <f aca="true">IF(I35 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J35)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J35)))), 0)</f>
@@ -11158,9 +11158,9 @@
         <f aca="false">IF(L36=0, "", -N36)</f>
         <v/>
       </c>
-      <c r="J36" s="9" t="e">
-        <f aca="false">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E36 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J36" s="9" t="n">
+        <f aca="true">IF(I36 = "-", -INDIRECT("C" &amp; ROW() - 1) * G36,E36)</f>
+        <v>0</v>
       </c>
       <c r="K36" s="0" t="n">
         <f aca="true">IF(I36 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J36)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J36)))), 0)</f>
@@ -11200,9 +11200,9 @@
         <f aca="false">IF(L37=0, "", -N37)</f>
         <v/>
       </c>
-      <c r="J37" s="9" t="e">
-        <f aca="false">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E37 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J37" s="9" t="n">
+        <f aca="true">IF(I37 = "-", -INDIRECT("C" &amp; ROW() - 1) * G37,E37)</f>
+        <v>0</v>
       </c>
       <c r="K37" s="0" t="n">
         <f aca="true">IF(I37 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J37)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J37)))), 0)</f>
@@ -11242,9 +11242,9 @@
         <f aca="false">IF(L38=0, "", -N38)</f>
         <v/>
       </c>
-      <c r="J38" s="9" t="e">
-        <f aca="false">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E38 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J38" s="9" t="n">
+        <f aca="true">IF(I38 = "-", -INDIRECT("C" &amp; ROW() - 1) * G38,E38)</f>
+        <v>0</v>
       </c>
       <c r="K38" s="0" t="n">
         <f aca="true">IF(I38 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J38)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J38)))), 0)</f>
@@ -11284,9 +11284,9 @@
         <f aca="false">IF(L39=0, "", -N39)</f>
         <v/>
       </c>
-      <c r="J39" s="9" t="e">
-        <f aca="false">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E39 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J39" s="9" t="n">
+        <f aca="true">IF(I39 = "-", -INDIRECT("C" &amp; ROW() - 1) * G39,E39)</f>
+        <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
         <f aca="true">IF(I39 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J39)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J39)))), 0)</f>
@@ -11326,9 +11326,9 @@
         <f aca="false">IF(L40=0, "", -N40)</f>
         <v/>
       </c>
-      <c r="J40" s="9" t="e">
-        <f aca="false">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E40 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J40" s="9" t="n">
+        <f aca="true">IF(I40 = "-", -INDIRECT("C" &amp; ROW() - 1) * G40,E40)</f>
+        <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
         <f aca="true">IF(I40 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J40)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J40)))), 0)</f>
@@ -11368,9 +11368,9 @@
         <f aca="false">IF(L41=0, "", -N41)</f>
         <v/>
       </c>
-      <c r="J41" s="9" t="e">
-        <f aca="false">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E41 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J41" s="9" t="n">
+        <f aca="true">IF(I41 = "-", -INDIRECT("C" &amp; ROW() - 1) * G41,E41)</f>
+        <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
         <f aca="true">IF(I41 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J41)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J41)))), 0)</f>
@@ -11410,9 +11410,9 @@
         <f aca="false">IF(L42=0, "", -N42)</f>
         <v/>
       </c>
-      <c r="J42" s="9" t="e">
-        <f aca="false">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E42 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J42" s="9" t="n">
+        <f aca="true">IF(I42 = "-", -INDIRECT("C" &amp; ROW() - 1) * G42,E42)</f>
+        <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
         <f aca="true">IF(I42 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J42)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J42)))), 0)</f>
@@ -11452,9 +11452,9 @@
         <f aca="false">IF(L43=0, "", -N43)</f>
         <v/>
       </c>
-      <c r="J43" s="9" t="e">
-        <f aca="false">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E43 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J43" s="9" t="n">
+        <f aca="true">IF(I43 = "-", -INDIRECT("C" &amp; ROW() - 1) * G43,E43)</f>
+        <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
         <f aca="true">IF(I43 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J43)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J43)))), 0)</f>
@@ -11494,9 +11494,9 @@
         <f aca="false">IF(L44=0, "", -N44)</f>
         <v/>
       </c>
-      <c r="J44" s="9" t="e">
-        <f aca="false">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E44 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J44" s="9" t="n">
+        <f aca="true">IF(I44 = "-", -INDIRECT("C" &amp; ROW() - 1) * G44,E44)</f>
+        <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
         <f aca="true">IF(I44 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J44)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J44)))), 0)</f>
@@ -11536,9 +11536,9 @@
         <f aca="false">IF(L45=0, "", -N45)</f>
         <v/>
       </c>
-      <c r="J45" s="9" t="e">
-        <f aca="false">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E45 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J45" s="9" t="n">
+        <f aca="true">IF(I45 = "-", -INDIRECT("C" &amp; ROW() - 1) * G45,E45)</f>
+        <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
         <f aca="true">IF(I45 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J45)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J45)))), 0)</f>
@@ -11578,9 +11578,9 @@
         <f aca="false">IF(L46=0, "", -N46)</f>
         <v/>
       </c>
-      <c r="J46" s="9" t="e">
-        <f aca="false">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E46 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J46" s="9" t="n">
+        <f aca="true">IF(I46 = "-", -INDIRECT("C" &amp; ROW() - 1) * G46,E46)</f>
+        <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
         <f aca="true">IF(I46 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J46)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J46)))), 0)</f>
@@ -11620,9 +11620,9 @@
         <f aca="false">IF(L47=0, "", -N47)</f>
         <v/>
       </c>
-      <c r="J47" s="9" t="e">
-        <f aca="false">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E47 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J47" s="9" t="n">
+        <f aca="true">IF(I47 = "-", -INDIRECT("C" &amp; ROW() - 1) * G47,E47)</f>
+        <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
         <f aca="true">IF(I47 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J47)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J47)))), 0)</f>
@@ -11662,9 +11662,9 @@
         <f aca="false">IF(L48=0, "", -N48)</f>
         <v/>
       </c>
-      <c r="J48" s="9" t="e">
-        <f aca="false">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E48 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J48" s="9" t="n">
+        <f aca="true">IF(I48 = "-", -INDIRECT("C" &amp; ROW() - 1) * G48,E48)</f>
+        <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
         <f aca="true">IF(I48 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J48)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J48)))), 0)</f>
@@ -11704,9 +11704,9 @@
         <f aca="false">IF(L49=0, "", -N49)</f>
         <v/>
       </c>
-      <c r="J49" s="9" t="e">
-        <f aca="false">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E49 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J49" s="9" t="n">
+        <f aca="true">IF(I49 = "-", -INDIRECT("C" &amp; ROW() - 1) * G49,E49)</f>
+        <v>0</v>
       </c>
       <c r="K49" s="0" t="n">
         <f aca="true">IF(I49 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J49)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J49)))), 0)</f>
@@ -11746,9 +11746,9 @@
         <f aca="false">IF(L50=0, "", -N50)</f>
         <v/>
       </c>
-      <c r="J50" s="9" t="e">
-        <f aca="false">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E50 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J50" s="9" t="n">
+        <f aca="true">IF(I50 = "-", -INDIRECT("C" &amp; ROW() - 1) * G50,E50)</f>
+        <v>0</v>
       </c>
       <c r="K50" s="0" t="n">
         <f aca="true">IF(I50 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J50)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J50)))), 0)</f>
@@ -11788,9 +11788,9 @@
         <f aca="false">IF(L51=0, "", -N51)</f>
         <v/>
       </c>
-      <c r="J51" s="9" t="e">
-        <f aca="false">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E51 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J51" s="9" t="n">
+        <f aca="true">IF(I51 = "-", -INDIRECT("C" &amp; ROW() - 1) * G51,E51)</f>
+        <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
         <f aca="true">IF(I51 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J51)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J51)))), 0)</f>
@@ -11830,9 +11830,9 @@
         <f aca="false">IF(L52=0, "", -N52)</f>
         <v/>
       </c>
-      <c r="J52" s="9" t="e">
-        <f aca="false">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E52 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J52" s="9" t="n">
+        <f aca="true">IF(I52 = "-", -INDIRECT("C" &amp; ROW() - 1) * G52,E52)</f>
+        <v>0</v>
       </c>
       <c r="K52" s="0" t="n">
         <f aca="true">IF(I52 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J52)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J52)))), 0)</f>
@@ -11872,9 +11872,9 @@
         <f aca="false">IF(L53=0, "", -N53)</f>
         <v/>
       </c>
-      <c r="J53" s="9" t="e">
-        <f aca="false">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E53 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J53" s="9" t="n">
+        <f aca="true">IF(I53 = "-", -INDIRECT("C" &amp; ROW() - 1) * G53,E53)</f>
+        <v>0</v>
       </c>
       <c r="K53" s="0" t="n">
         <f aca="true">IF(I53 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J53)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J53)))), 0)</f>
@@ -11914,9 +11914,9 @@
         <f aca="false">IF(L54=0, "", -N54)</f>
         <v/>
       </c>
-      <c r="J54" s="9" t="e">
-        <f aca="false">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E54 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J54" s="9" t="n">
+        <f aca="true">IF(I54 = "-", -INDIRECT("C" &amp; ROW() - 1) * G54,E54)</f>
+        <v>0</v>
       </c>
       <c r="K54" s="0" t="n">
         <f aca="true">IF(I54 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J54)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J54)))), 0)</f>
@@ -11956,9 +11956,9 @@
         <f aca="false">IF(L55=0, "", -N55)</f>
         <v/>
       </c>
-      <c r="J55" s="9" t="e">
-        <f aca="false">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E55 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J55" s="9" t="n">
+        <f aca="true">IF(I55 = "-", -INDIRECT("C" &amp; ROW() - 1) * G55,E55)</f>
+        <v>0</v>
       </c>
       <c r="K55" s="0" t="n">
         <f aca="true">IF(I55 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J55)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J55)))), 0)</f>
@@ -11998,9 +11998,9 @@
         <f aca="false">IF(L56=0, "", -N56)</f>
         <v/>
       </c>
-      <c r="J56" s="9" t="e">
-        <f aca="false">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E56 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J56" s="9" t="n">
+        <f aca="true">IF(I56 = "-", -INDIRECT("C" &amp; ROW() - 1) * G56,E56)</f>
+        <v>0</v>
       </c>
       <c r="K56" s="0" t="n">
         <f aca="true">IF(I56 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J56)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J56)))), 0)</f>
@@ -12040,9 +12040,9 @@
         <f aca="false">IF(L57=0, "", -N57)</f>
         <v/>
       </c>
-      <c r="J57" s="9" t="e">
-        <f aca="false">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E57 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J57" s="9" t="n">
+        <f aca="true">IF(I57 = "-", -INDIRECT("C" &amp; ROW() - 1) * G57,E57)</f>
+        <v>0</v>
       </c>
       <c r="K57" s="0" t="n">
         <f aca="true">IF(I57 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J57)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J57)))), 0)</f>
@@ -12082,9 +12082,9 @@
         <f aca="false">IF(L58=0, "", -N58)</f>
         <v/>
       </c>
-      <c r="J58" s="9" t="e">
-        <f aca="false">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E58 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J58" s="9" t="n">
+        <f aca="true">IF(I58 = "-", -INDIRECT("C" &amp; ROW() - 1) * G58,E58)</f>
+        <v>0</v>
       </c>
       <c r="K58" s="0" t="n">
         <f aca="true">IF(I58 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J58)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J58)))), 0)</f>
@@ -12124,9 +12124,9 @@
         <f aca="false">IF(L59=0, "", -N59)</f>
         <v/>
       </c>
-      <c r="J59" s="9" t="e">
-        <f aca="false">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E59 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J59" s="9" t="n">
+        <f aca="true">IF(I59 = "-", -INDIRECT("C" &amp; ROW() - 1) * G59,E59)</f>
+        <v>0</v>
       </c>
       <c r="K59" s="0" t="n">
         <f aca="true">IF(I59 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J59)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J59)))), 0)</f>
@@ -12166,9 +12166,9 @@
         <f aca="false">IF(L60=0, "", -N60)</f>
         <v/>
       </c>
-      <c r="J60" s="9" t="e">
-        <f aca="false">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E60 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J60" s="9" t="n">
+        <f aca="true">IF(I60 = "-", -INDIRECT("C" &amp; ROW() - 1) * G60,E60)</f>
+        <v>0</v>
       </c>
       <c r="K60" s="0" t="n">
         <f aca="true">IF(I60 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J60)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J60)))), 0)</f>
@@ -12208,9 +12208,9 @@
         <f aca="false">IF(L61=0, "", -N61)</f>
         <v/>
       </c>
-      <c r="J61" s="9" t="e">
-        <f aca="false">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E61 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J61" s="9" t="n">
+        <f aca="true">IF(I61 = "-", -INDIRECT("C" &amp; ROW() - 1) * G61,E61)</f>
+        <v>0</v>
       </c>
       <c r="K61" s="0" t="n">
         <f aca="true">IF(I61 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J61)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J61)))), 0)</f>
@@ -12250,9 +12250,9 @@
         <f aca="false">IF(L62=0, "", -N62)</f>
         <v/>
       </c>
-      <c r="J62" s="9" t="e">
-        <f aca="false">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E62 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J62" s="9" t="n">
+        <f aca="true">IF(I62 = "-", -INDIRECT("C" &amp; ROW() - 1) * G62,E62)</f>
+        <v>0</v>
       </c>
       <c r="K62" s="0" t="n">
         <f aca="true">IF(I62 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J62)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J62)))), 0)</f>
@@ -12292,9 +12292,9 @@
         <f aca="false">IF(L63=0, "", -N63)</f>
         <v/>
       </c>
-      <c r="J63" s="9" t="e">
-        <f aca="false">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E63 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J63" s="9" t="n">
+        <f aca="true">IF(I63 = "-", -INDIRECT("C" &amp; ROW() - 1) * G63,E63)</f>
+        <v>0</v>
       </c>
       <c r="K63" s="0" t="n">
         <f aca="true">IF(I63 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J63)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J63)))), 0)</f>
@@ -12334,9 +12334,9 @@
         <f aca="false">IF(L64=0, "", -N64)</f>
         <v/>
       </c>
-      <c r="J64" s="9" t="e">
-        <f aca="false">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E64 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J64" s="9" t="n">
+        <f aca="true">IF(I64 = "-", -INDIRECT("C" &amp; ROW() - 1) * G64,E64)</f>
+        <v>0</v>
       </c>
       <c r="K64" s="0" t="n">
         <f aca="true">IF(I64 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J64)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J64)))), 0)</f>
@@ -12376,9 +12376,9 @@
         <f aca="false">IF(L65=0, "", -N65)</f>
         <v/>
       </c>
-      <c r="J65" s="9" t="e">
-        <f aca="false">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E65 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J65" s="9" t="n">
+        <f aca="true">IF(I65 = "-", -INDIRECT("C" &amp; ROW() - 1) * G65,E65)</f>
+        <v>0</v>
       </c>
       <c r="K65" s="0" t="n">
         <f aca="true">IF(I65 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J65)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J65)))), 0)</f>
@@ -12418,9 +12418,9 @@
         <f aca="false">IF(L66=0, "", -N66)</f>
         <v/>
       </c>
-      <c r="J66" s="9" t="e">
-        <f aca="false">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E66 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J66" s="9" t="n">
+        <f aca="true">IF(I66 = "-", -INDIRECT("C" &amp; ROW() - 1) * G66,E66)</f>
+        <v>0</v>
       </c>
       <c r="K66" s="0" t="n">
         <f aca="true">IF(I66 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J66)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J66)))), 0)</f>
@@ -12460,9 +12460,9 @@
         <f aca="false">IF(L67=0, "", -N67)</f>
         <v/>
       </c>
-      <c r="J67" s="9" t="e">
-        <f aca="false">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E67 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J67" s="9" t="n">
+        <f aca="true">IF(I67 = "-", -INDIRECT("C" &amp; ROW() - 1) * G67,E67)</f>
+        <v>0</v>
       </c>
       <c r="K67" s="0" t="n">
         <f aca="true">IF(I67 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J67)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J67)))), 0)</f>
@@ -12502,9 +12502,9 @@
         <f aca="false">IF(L68=0, "", -N68)</f>
         <v/>
       </c>
-      <c r="J68" s="9" t="e">
-        <f aca="false">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E68 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J68" s="9" t="n">
+        <f aca="true">IF(I68 = "-", -INDIRECT("C" &amp; ROW() - 1) * G68,E68)</f>
+        <v>0</v>
       </c>
       <c r="K68" s="0" t="n">
         <f aca="true">IF(I68 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J68)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J68)))), 0)</f>
@@ -12544,9 +12544,9 @@
         <f aca="false">IF(L69=0, "", -N69)</f>
         <v/>
       </c>
-      <c r="J69" s="9" t="e">
-        <f aca="false">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E69 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J69" s="9" t="n">
+        <f aca="true">IF(I69 = "-", -INDIRECT("C" &amp; ROW() - 1) * G69,E69)</f>
+        <v>0</v>
       </c>
       <c r="K69" s="0" t="n">
         <f aca="true">IF(I69 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J69)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J69)))), 0)</f>
@@ -12586,9 +12586,9 @@
         <f aca="false">IF(L70=0, "", -N70)</f>
         <v/>
       </c>
-      <c r="J70" s="9" t="e">
-        <f aca="false">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E70 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J70" s="9" t="n">
+        <f aca="true">IF(I70 = "-", -INDIRECT("C" &amp; ROW() - 1) * G70,E70)</f>
+        <v>0</v>
       </c>
       <c r="K70" s="0" t="n">
         <f aca="true">IF(I70 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J70)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J70)))), 0)</f>
@@ -12628,9 +12628,9 @@
         <f aca="false">IF(L71=0, "", -N71)</f>
         <v/>
       </c>
-      <c r="J71" s="9" t="e">
-        <f aca="false">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E71 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J71" s="9" t="n">
+        <f aca="true">IF(I71 = "-", -INDIRECT("C" &amp; ROW() - 1) * G71,E71)</f>
+        <v>0</v>
       </c>
       <c r="K71" s="0" t="n">
         <f aca="true">IF(I71 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J71)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J71)))), 0)</f>
@@ -12670,9 +12670,9 @@
         <f aca="false">IF(L72=0, "", -N72)</f>
         <v/>
       </c>
-      <c r="J72" s="9" t="e">
-        <f aca="false">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E72 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J72" s="9" t="n">
+        <f aca="true">IF(I72 = "-", -INDIRECT("C" &amp; ROW() - 1) * G72,E72)</f>
+        <v>0</v>
       </c>
       <c r="K72" s="0" t="n">
         <f aca="true">IF(I72 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J72)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J72)))), 0)</f>
@@ -12712,9 +12712,9 @@
         <f aca="false">IF(L73=0, "", -N73)</f>
         <v/>
       </c>
-      <c r="J73" s="9" t="e">
-        <f aca="false">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E73 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J73" s="9" t="n">
+        <f aca="true">IF(I73 = "-", -INDIRECT("C" &amp; ROW() - 1) * G73,E73)</f>
+        <v>0</v>
       </c>
       <c r="K73" s="0" t="n">
         <f aca="true">IF(I73 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J73)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J73)))), 0)</f>
@@ -12754,9 +12754,9 @@
         <f aca="false">IF(L74=0, "", -N74)</f>
         <v/>
       </c>
-      <c r="J74" s="9" t="e">
-        <f aca="false">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E74 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J74" s="9" t="n">
+        <f aca="true">IF(I74 = "-", -INDIRECT("C" &amp; ROW() - 1) * G74,E74)</f>
+        <v>0</v>
       </c>
       <c r="K74" s="0" t="n">
         <f aca="true">IF(I74 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J74)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J74)))), 0)</f>
@@ -12796,9 +12796,9 @@
         <f aca="false">IF(L75=0, "", -N75)</f>
         <v/>
       </c>
-      <c r="J75" s="9" t="e">
-        <f aca="false">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E75 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J75" s="9" t="n">
+        <f aca="true">IF(I75 = "-", -INDIRECT("C" &amp; ROW() - 1) * G75,E75)</f>
+        <v>0</v>
       </c>
       <c r="K75" s="0" t="n">
         <f aca="true">IF(I75="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J75))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J75)))),0)</f>
@@ -12838,9 +12838,9 @@
         <f aca="false">IF(L76=0, "", -N76)</f>
         <v/>
       </c>
-      <c r="J76" s="9" t="e">
-        <f aca="false">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E76 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J76" s="9" t="n">
+        <f aca="true">IF(I76 = "-", -INDIRECT("C" &amp; ROW() - 1) * G76,E76)</f>
+        <v>0</v>
       </c>
       <c r="K76" s="0" t="n">
         <f aca="true">IF(I76="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J76))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J76)))),0)</f>
@@ -12880,9 +12880,9 @@
         <f aca="false">IF(L77=0, "", -N77)</f>
         <v/>
       </c>
-      <c r="J77" s="9" t="e">
-        <f aca="false">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E77 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J77" s="9" t="n">
+        <f aca="true">IF(I77 = "-", -INDIRECT("C" &amp; ROW() - 1) * G77,E77)</f>
+        <v>0</v>
       </c>
       <c r="K77" s="0" t="n">
         <f aca="true">IF(I77="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J77))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J77)))),0)</f>
@@ -12922,9 +12922,9 @@
         <f aca="false">IF(L78=0, "", -N78)</f>
         <v/>
       </c>
-      <c r="J78" s="9" t="e">
-        <f aca="false">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E78 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J78" s="9" t="n">
+        <f aca="true">IF(I78 = "-", -INDIRECT("C" &amp; ROW() - 1) * G78,E78)</f>
+        <v>0</v>
       </c>
       <c r="K78" s="0" t="n">
         <f aca="true">IF(I78="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J78))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J78)))),0)</f>
@@ -12964,9 +12964,9 @@
         <f aca="false">IF(L79=0, "", -N79)</f>
         <v/>
       </c>
-      <c r="J79" s="9" t="e">
-        <f aca="false">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E79 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J79" s="9" t="n">
+        <f aca="true">IF(I79 = "-", -INDIRECT("C" &amp; ROW() - 1) * G79,E79)</f>
+        <v>0</v>
       </c>
       <c r="K79" s="0" t="n">
         <f aca="true">IF(I79="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J79))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J79)))),0)</f>
@@ -13006,9 +13006,9 @@
         <f aca="false">IF(L80=0, "", -N80)</f>
         <v/>
       </c>
-      <c r="J80" s="9" t="e">
-        <f aca="false">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E80 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J80" s="9" t="n">
+        <f aca="true">IF(I80 = "-", -INDIRECT("C" &amp; ROW() - 1) * G80,E80)</f>
+        <v>0</v>
       </c>
       <c r="K80" s="0" t="n">
         <f aca="true">IF(I80="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J80))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J80)))),0)</f>
@@ -13048,9 +13048,9 @@
         <f aca="false">IF(L81=0, "", -N81)</f>
         <v/>
       </c>
-      <c r="J81" s="9" t="e">
-        <f aca="false">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E81 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J81" s="9" t="n">
+        <f aca="true">IF(I81 = "-", -INDIRECT("C" &amp; ROW() - 1) * G81,E81)</f>
+        <v>0</v>
       </c>
       <c r="K81" s="0" t="n">
         <f aca="true">IF(I81="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J81))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J81)))),0)</f>
@@ -13090,9 +13090,9 @@
         <f aca="false">IF(L82=0, "", -N82)</f>
         <v/>
       </c>
-      <c r="J82" s="9" t="e">
-        <f aca="false">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E82 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J82" s="9" t="n">
+        <f aca="true">IF(I82 = "-", -INDIRECT("C" &amp; ROW() - 1) * G82,E82)</f>
+        <v>0</v>
       </c>
       <c r="K82" s="0" t="n">
         <f aca="true">IF(I82="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J82))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J82)))),0)</f>
@@ -13132,9 +13132,9 @@
         <f aca="false">IF(L83=0, "", -N83)</f>
         <v/>
       </c>
-      <c r="J83" s="9" t="e">
-        <f aca="false">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E83 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J83" s="9" t="n">
+        <f aca="true">IF(I83 = "-", -INDIRECT("C" &amp; ROW() - 1) * G83,E83)</f>
+        <v>0</v>
       </c>
       <c r="K83" s="0" t="n">
         <f aca="true">IF(I83="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J83))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J83)))),0)</f>
@@ -13174,9 +13174,9 @@
         <f aca="false">IF(L84=0, "", -N84)</f>
         <v/>
       </c>
-      <c r="J84" s="9" t="e">
-        <f aca="false">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E84 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J84" s="9" t="n">
+        <f aca="true">IF(I84 = "-", -INDIRECT("C" &amp; ROW() - 1) * G84,E84)</f>
+        <v>0</v>
       </c>
       <c r="K84" s="0" t="n">
         <f aca="true">IF(I84="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J84))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J84)))),0)</f>
@@ -13216,9 +13216,9 @@
         <f aca="false">IF(L85=0, "", -N85)</f>
         <v/>
       </c>
-      <c r="J85" s="9" t="e">
-        <f aca="false">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E85 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J85" s="9" t="n">
+        <f aca="true">IF(I85 = "-", -INDIRECT("C" &amp; ROW() - 1) * G85,E85)</f>
+        <v>0</v>
       </c>
       <c r="K85" s="0" t="n">
         <f aca="true">IF(I85="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J85))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J85)))),0)</f>
@@ -13258,9 +13258,9 @@
         <f aca="false">IF(L86=0, "", -N86)</f>
         <v/>
       </c>
-      <c r="J86" s="9" t="e">
-        <f aca="false">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E86 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J86" s="9" t="n">
+        <f aca="true">IF(I86 = "-", -INDIRECT("C" &amp; ROW() - 1) * G86,E86)</f>
+        <v>0</v>
       </c>
       <c r="K86" s="0" t="n">
         <f aca="true">IF(I86="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J86))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J86)))),0)</f>
@@ -13300,9 +13300,9 @@
         <f aca="false">IF(L87=0, "", -N87)</f>
         <v/>
       </c>
-      <c r="J87" s="9" t="e">
-        <f aca="false">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E87 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J87" s="9" t="n">
+        <f aca="true">IF(I87 = "-", -INDIRECT("C" &amp; ROW() - 1) * G87,E87)</f>
+        <v>0</v>
       </c>
       <c r="K87" s="0" t="n">
         <f aca="true">IF(I87="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J87))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J87)))),0)</f>
@@ -13342,9 +13342,9 @@
         <f aca="false">IF(L88=0, "", -N88)</f>
         <v/>
       </c>
-      <c r="J88" s="9" t="e">
-        <f aca="false">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E88 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J88" s="9" t="n">
+        <f aca="true">IF(I88 = "-", -INDIRECT("C" &amp; ROW() - 1) * G88,E88)</f>
+        <v>0</v>
       </c>
       <c r="K88" s="0" t="n">
         <f aca="true">IF(I88="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J88))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J88)))),0)</f>
@@ -13384,9 +13384,9 @@
         <f aca="false">IF(L89=0, "", -N89)</f>
         <v/>
       </c>
-      <c r="J89" s="9" t="e">
-        <f aca="false">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E89 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J89" s="9" t="n">
+        <f aca="true">IF(I89 = "-", -INDIRECT("C" &amp; ROW() - 1) * G89,E89)</f>
+        <v>0</v>
       </c>
       <c r="K89" s="0" t="n">
         <f aca="true">IF(I89="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J89))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J89)))),0)</f>
@@ -13426,9 +13426,9 @@
         <f aca="false">IF(L90=0, "", -N90)</f>
         <v/>
       </c>
-      <c r="J90" s="9" t="e">
-        <f aca="false">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E90 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J90" s="9" t="n">
+        <f aca="true">IF(I90 = "-", -INDIRECT("C" &amp; ROW() - 1) * G90,E90)</f>
+        <v>0</v>
       </c>
       <c r="K90" s="0" t="n">
         <f aca="true">IF(I90="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J90))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J90)))),0)</f>
@@ -13468,9 +13468,9 @@
         <f aca="false">IF(L91=0, "", -N91)</f>
         <v/>
       </c>
-      <c r="J91" s="9" t="e">
-        <f aca="false">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E91 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J91" s="9" t="n">
+        <f aca="true">IF(I91 = "-", -INDIRECT("C" &amp; ROW() - 1) * G91,E91)</f>
+        <v>0</v>
       </c>
       <c r="K91" s="0" t="n">
         <f aca="true">IF(I91="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J91))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J91)))),0)</f>
@@ -13510,9 +13510,9 @@
         <f aca="false">IF(L92=0, "", -N92)</f>
         <v/>
       </c>
-      <c r="J92" s="9" t="e">
-        <f aca="false">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E92 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J92" s="9" t="n">
+        <f aca="true">IF(I92 = "-", -INDIRECT("C" &amp; ROW() - 1) * G92,E92)</f>
+        <v>0</v>
       </c>
       <c r="K92" s="0" t="n">
         <f aca="true">IF(I92="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J92))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J92)))),0)</f>
@@ -13552,9 +13552,9 @@
         <f aca="false">IF(L93=0, "", -N93)</f>
         <v/>
       </c>
-      <c r="J93" s="9" t="e">
-        <f aca="false">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E93 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J93" s="9" t="n">
+        <f aca="true">IF(I93 = "-", -INDIRECT("C" &amp; ROW() - 1) * G93,E93)</f>
+        <v>0</v>
       </c>
       <c r="K93" s="0" t="n">
         <f aca="true">IF(I93="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J93))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J93)))),0)</f>
@@ -13594,9 +13594,9 @@
         <f aca="false">IF(L94=0, "", -N94)</f>
         <v/>
       </c>
-      <c r="J94" s="9" t="e">
-        <f aca="false">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E94 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J94" s="9" t="n">
+        <f aca="true">IF(I94 = "-", -INDIRECT("C" &amp; ROW() - 1) * G94,E94)</f>
+        <v>0</v>
       </c>
       <c r="K94" s="0" t="n">
         <f aca="true">IF(I94="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J94))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J94)))),0)</f>
@@ -13636,9 +13636,9 @@
         <f aca="false">IF(L95=0, "", -N95)</f>
         <v/>
       </c>
-      <c r="J95" s="9" t="e">
-        <f aca="false">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E95 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J95" s="9" t="n">
+        <f aca="true">IF(I95 = "-", -INDIRECT("C" &amp; ROW() - 1) * G95,E95)</f>
+        <v>0</v>
       </c>
       <c r="K95" s="0" t="n">
         <f aca="true">IF(I95="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J95))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J95)))),0)</f>
@@ -13678,9 +13678,9 @@
         <f aca="false">IF(L96=0, "", -N96)</f>
         <v/>
       </c>
-      <c r="J96" s="9" t="e">
-        <f aca="false">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E96 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J96" s="9" t="n">
+        <f aca="true">IF(I96 = "-", -INDIRECT("C" &amp; ROW() - 1) * G96,E96)</f>
+        <v>0</v>
       </c>
       <c r="K96" s="0" t="n">
         <f aca="true">IF(I96="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J96))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J96)))),0)</f>
@@ -13720,9 +13720,9 @@
         <f aca="false">IF(L97=0, "", -N97)</f>
         <v/>
       </c>
-      <c r="J97" s="9" t="e">
-        <f aca="false">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E97 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J97" s="9" t="n">
+        <f aca="true">IF(I97 = "-", -INDIRECT("C" &amp; ROW() - 1) * G97,E97)</f>
+        <v>0</v>
       </c>
       <c r="K97" s="0" t="n">
         <f aca="true">IF(I97="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J97))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J97)))),0)</f>
@@ -13762,9 +13762,9 @@
         <f aca="false">IF(L98=0, "", -N98)</f>
         <v/>
       </c>
-      <c r="J98" s="9" t="e">
-        <f aca="false">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E98 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J98" s="9" t="n">
+        <f aca="true">IF(I98 = "-", -INDIRECT("C" &amp; ROW() - 1) * G98,E98)</f>
+        <v>0</v>
       </c>
       <c r="K98" s="0" t="n">
         <f aca="true">IF(I98="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J98))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J98)))),0)</f>
@@ -13804,9 +13804,9 @@
         <f aca="false">IF(L99=0, "", -N99)</f>
         <v/>
       </c>
-      <c r="J99" s="9" t="e">
-        <f aca="false">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E99 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J99" s="9" t="n">
+        <f aca="true">IF(I99 = "-", -INDIRECT("C" &amp; ROW() - 1) * G99,E99)</f>
+        <v>0</v>
       </c>
       <c r="K99" s="0" t="n">
         <f aca="true">IF(I99="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J99))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J99)))),0)</f>
@@ -13846,9 +13846,9 @@
         <f aca="false">IF(L100=0, "", -N100)</f>
         <v/>
       </c>
-      <c r="J100" s="9" t="e">
-        <f aca="false">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E100 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J100" s="9" t="n">
+        <f aca="true">IF(I100 = "-", -INDIRECT("C" &amp; ROW() - 1) * G100,E100)</f>
+        <v>0</v>
       </c>
       <c r="K100" s="0" t="n">
         <f aca="true">IF(I100="-",SUM(INDIRECT(ADDRESS(2,COLUMN(J100))&amp;":"&amp;ADDRESS(ROW(),COLUMN(J100)))),0)</f>
@@ -13888,9 +13888,9 @@
         <f aca="false">IF(L101=0, "", -N101)</f>
         <v/>
       </c>
-      <c r="J101" s="9" t="e">
-        <f aca="false">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E101 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J101" s="9" t="n">
+        <f aca="true">IF(I101 = "-", -INDIRECT("C" &amp; ROW() - 1) * G101,E101)</f>
+        <v>0</v>
       </c>
       <c r="K101" s="0" t="n">
         <f aca="true">IF(I101 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J101)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J101)))), 0)</f>
@@ -13930,9 +13930,9 @@
         <f aca="false">IF(L102=0, "", -N102)</f>
         <v/>
       </c>
-      <c r="J102" s="9" t="e">
-        <f aca="false">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E102 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J102" s="9" t="n">
+        <f aca="true">IF(I102 = "-", -INDIRECT("C" &amp; ROW() - 1) * G102,E102)</f>
+        <v>0</v>
       </c>
       <c r="K102" s="0" t="n">
         <f aca="true">IF(I102 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J102)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J102)))), 0)</f>
@@ -13972,9 +13972,9 @@
         <f aca="false">IF(L103=0, "", -N103)</f>
         <v/>
       </c>
-      <c r="J103" s="9" t="e">
-        <f aca="false">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E103 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J103" s="9" t="n">
+        <f aca="true">IF(I103 = "-", -INDIRECT("C" &amp; ROW() - 1) * G103,E103)</f>
+        <v>0</v>
       </c>
       <c r="K103" s="0" t="n">
         <f aca="true">IF(I103 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J103)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J103)))), 0)</f>
@@ -14014,9 +14014,9 @@
         <f aca="false">IF(L104=0, "", -N104)</f>
         <v/>
       </c>
-      <c r="J104" s="9" t="e">
-        <f aca="false">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E104 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J104" s="9" t="n">
+        <f aca="true">IF(I104 = "-", -INDIRECT("C" &amp; ROW() - 1) * G104,E104)</f>
+        <v>0</v>
       </c>
       <c r="K104" s="0" t="n">
         <f aca="true">IF(I104 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J104)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J104)))), 0)</f>
@@ -14056,9 +14056,9 @@
         <f aca="false">IF(L105=0, "", -N105)</f>
         <v/>
       </c>
-      <c r="J105" s="9" t="e">
-        <f aca="false">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E105 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J105" s="9" t="n">
+        <f aca="true">IF(I105 = "-", -INDIRECT("C" &amp; ROW() - 1) * G105,E105)</f>
+        <v>0</v>
       </c>
       <c r="K105" s="0" t="n">
         <f aca="true">IF(I105 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J105)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J105)))), 0)</f>
@@ -14098,9 +14098,9 @@
         <f aca="false">IF(L106=0, "", -N106)</f>
         <v/>
       </c>
-      <c r="J106" s="9" t="e">
-        <f aca="false">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E106 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J106" s="9" t="n">
+        <f aca="true">IF(I106 = "-", -INDIRECT("C" &amp; ROW() - 1) * G106,E106)</f>
+        <v>0</v>
       </c>
       <c r="K106" s="0" t="n">
         <f aca="true">IF(I106 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J106)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J106)))), 0)</f>
@@ -14140,9 +14140,9 @@
         <f aca="false">IF(L107=0, "", -N107)</f>
         <v/>
       </c>
-      <c r="J107" s="9" t="e">
-        <f aca="false">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E107 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J107" s="9" t="n">
+        <f aca="true">IF(I107 = "-", -INDIRECT("C" &amp; ROW() - 1) * G107,E107)</f>
+        <v>0</v>
       </c>
       <c r="K107" s="0" t="n">
         <f aca="true">IF(I107 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J107)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J107)))), 0)</f>
@@ -14182,9 +14182,9 @@
         <f aca="false">IF(L108=0, "", -N108)</f>
         <v/>
       </c>
-      <c r="J108" s="9" t="e">
-        <f aca="false">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E108 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J108" s="9" t="n">
+        <f aca="true">IF(I108 = "-", -INDIRECT("C" &amp; ROW() - 1) * G108,E108)</f>
+        <v>0</v>
       </c>
       <c r="K108" s="0" t="n">
         <f aca="true">IF(I108 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J108)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J108)))), 0)</f>
@@ -14224,9 +14224,9 @@
         <f aca="false">IF(L109=0, "", -N109)</f>
         <v/>
       </c>
-      <c r="J109" s="9" t="e">
-        <f aca="false">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E109 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J109" s="9" t="n">
+        <f aca="true">IF(I109 = "-", -INDIRECT("C" &amp; ROW() - 1) * G109,E109)</f>
+        <v>0</v>
       </c>
       <c r="K109" s="0" t="n">
         <f aca="true">IF(I109 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J109)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J109)))), 0)</f>
@@ -14266,9 +14266,9 @@
         <f aca="false">IF(L110=0, "", -N110)</f>
         <v/>
       </c>
-      <c r="J110" s="9" t="e">
-        <f aca="false">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E110 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J110" s="9" t="n">
+        <f aca="true">IF(I110 = "-", -INDIRECT("C" &amp; ROW() - 1) * G110,E110)</f>
+        <v>0</v>
       </c>
       <c r="K110" s="0" t="n">
         <f aca="true">IF(I110 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J110)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J110)))), 0)</f>
@@ -14308,9 +14308,9 @@
         <f aca="false">IF(L111=0, "", -N111)</f>
         <v/>
       </c>
-      <c r="J111" s="9" t="e">
-        <f aca="false">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E111 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J111" s="9" t="n">
+        <f aca="true">IF(I111 = "-", -INDIRECT("C" &amp; ROW() - 1) * G111,E111)</f>
+        <v>0</v>
       </c>
       <c r="K111" s="0" t="n">
         <f aca="true">IF(I111 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J111)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J111)))), 0)</f>
@@ -14350,9 +14350,9 @@
         <f aca="false">IF(L112=0, "", -N112)</f>
         <v/>
       </c>
-      <c r="J112" s="9" t="e">
-        <f aca="false">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E112 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J112" s="9" t="n">
+        <f aca="true">IF(I112 = "-", -INDIRECT("C" &amp; ROW() - 1) * G112,E112)</f>
+        <v>0</v>
       </c>
       <c r="K112" s="0" t="n">
         <f aca="true">IF(I112 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J112)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J112)))), 0)</f>
@@ -14392,9 +14392,9 @@
         <f aca="false">IF(L113=0, "", -N113)</f>
         <v/>
       </c>
-      <c r="J113" s="9" t="e">
-        <f aca="false">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E113 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J113" s="9" t="n">
+        <f aca="true">IF(I113 = "-", -INDIRECT("C" &amp; ROW() - 1) * G113,E113)</f>
+        <v>0</v>
       </c>
       <c r="K113" s="0" t="n">
         <f aca="true">IF(I113 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J113)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J113)))), 0)</f>
@@ -14434,9 +14434,9 @@
         <f aca="false">IF(L114=0, "", -N114)</f>
         <v/>
       </c>
-      <c r="J114" s="9" t="e">
-        <f aca="false">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E114 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J114" s="9" t="n">
+        <f aca="true">IF(I114 = "-", -INDIRECT("C" &amp; ROW() - 1) * G114,E114)</f>
+        <v>0</v>
       </c>
       <c r="K114" s="0" t="n">
         <f aca="true">IF(I114 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J114)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J114)))), 0)</f>
@@ -14476,9 +14476,9 @@
         <f aca="false">IF(L115=0, "", -N115)</f>
         <v/>
       </c>
-      <c r="J115" s="9" t="e">
-        <f aca="false">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E115 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J115" s="9" t="n">
+        <f aca="true">IF(I115 = "-", -INDIRECT("C" &amp; ROW() - 1) * G115,E115)</f>
+        <v>0</v>
       </c>
       <c r="K115" s="0" t="n">
         <f aca="true">IF(I115 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J115)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J115)))), 0)</f>
@@ -14518,9 +14518,9 @@
         <f aca="false">IF(L116=0, "", -N116)</f>
         <v/>
       </c>
-      <c r="J116" s="9" t="e">
-        <f aca="false">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E116 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J116" s="9" t="n">
+        <f aca="true">IF(I116 = "-", -INDIRECT("C" &amp; ROW() - 1) * G116,E116)</f>
+        <v>0</v>
       </c>
       <c r="K116" s="0" t="n">
         <f aca="true">IF(I116 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J116)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J116)))), 0)</f>
@@ -14560,9 +14560,9 @@
         <f aca="false">IF(L117=0, "", -N117)</f>
         <v/>
       </c>
-      <c r="J117" s="9" t="e">
-        <f aca="false">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E117 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J117" s="9" t="n">
+        <f aca="true">IF(I117 = "-", -INDIRECT("C" &amp; ROW() - 1) * G117,E117)</f>
+        <v>0</v>
       </c>
       <c r="K117" s="0" t="n">
         <f aca="true">IF(I117 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J117)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J117)))), 0)</f>
@@ -14602,9 +14602,9 @@
         <f aca="false">IF(L118=0, "", -N118)</f>
         <v/>
       </c>
-      <c r="J118" s="9" t="e">
-        <f aca="false">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E118 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J118" s="9" t="n">
+        <f aca="true">IF(I118 = "-", -INDIRECT("C" &amp; ROW() - 1) * G118,E118)</f>
+        <v>0</v>
       </c>
       <c r="K118" s="0" t="n">
         <f aca="true">IF(I118 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J118)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J118)))), 0)</f>
@@ -14644,9 +14644,9 @@
         <f aca="false">IF(L119=0, "", -N119)</f>
         <v/>
       </c>
-      <c r="J119" s="9" t="e">
-        <f aca="false">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E119 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J119" s="9" t="n">
+        <f aca="true">IF(I119 = "-", -INDIRECT("C" &amp; ROW() - 1) * G119,E119)</f>
+        <v>0</v>
       </c>
       <c r="K119" s="0" t="n">
         <f aca="true">IF(I119 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J119)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J119)))), 0)</f>
@@ -14686,9 +14686,9 @@
         <f aca="false">IF(L120=0, "", -N120)</f>
         <v/>
       </c>
-      <c r="J120" s="9" t="e">
-        <f aca="false">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E120 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J120" s="9" t="n">
+        <f aca="true">IF(I120 = "-", -INDIRECT("C" &amp; ROW() - 1) * G120,E120)</f>
+        <v>0</v>
       </c>
       <c r="K120" s="0" t="n">
         <f aca="true">IF(I120 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J120)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J120)))), 0)</f>
@@ -14728,9 +14728,9 @@
         <f aca="false">IF(L121=0, "", -N121)</f>
         <v/>
       </c>
-      <c r="J121" s="9" t="e">
-        <f aca="false">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E121 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J121" s="9" t="n">
+        <f aca="true">IF(I121 = "-", -INDIRECT("C" &amp; ROW() - 1) * G121,E121)</f>
+        <v>0</v>
       </c>
       <c r="K121" s="0" t="n">
         <f aca="true">IF(I121 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J121)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J121)))), 0)</f>
@@ -14770,9 +14770,9 @@
         <f aca="false">IF(L122=0, "", -N122)</f>
         <v/>
       </c>
-      <c r="J122" s="9" t="e">
-        <f aca="false">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E122 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J122" s="9" t="n">
+        <f aca="true">IF(I122 = "-", -INDIRECT("C" &amp; ROW() - 1) * G122,E122)</f>
+        <v>0</v>
       </c>
       <c r="K122" s="0" t="n">
         <f aca="true">IF(I122 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J122)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J122)))), 0)</f>
@@ -14812,9 +14812,9 @@
         <f aca="false">IF(L123=0, "", -N123)</f>
         <v/>
       </c>
-      <c r="J123" s="9" t="e">
-        <f aca="false">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1) * INDIRECT("F" &amp; ROW() - 1),E123 * #REF!)</f>
-        <v>#REF!</v>
+      <c r="J123" s="9" t="n">
+        <f aca="true">IF(I123 = "-", -INDIRECT("C" &amp; ROW() - 1) * G123,E123)</f>
+        <v>0</v>
       </c>
       <c r="K123" s="0" t="n">
         <f aca="true">IF(I123 = "-", SUM(INDIRECT(ADDRESS(2,COLUMN(J123)) &amp; ":" &amp; ADDRESS(ROW(),COLUMN(J123)))), 0)</f>

--- a/app/data/static/templates/constructor_milk_project.xlsx
+++ b/app/data/static/templates/constructor_milk_project.xlsx
@@ -349,10 +349,6 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -367,6 +363,10 @@
     </xf>
     <xf numFmtId="167" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -539,7 +539,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F16" activeCellId="0" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -626,7 +626,7 @@
   <dimension ref="A1:S326"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U29" activeCellId="0" sqref="U29"/>
+      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -648,7 +648,7 @@
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="11" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="12" width="8.82"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="17.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="0" width="16.9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="0" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1016" min="23" style="0" width="8.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1017" style="0" width="9.09"/>
@@ -710,7 +710,7 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
     </row>
-    <row r="3" s="16" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" s="16" customFormat="true" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="17" t="str">
         <f aca="false">IF(E3="","",VLOOKUP(E3, 'SKU Милкпроджект'!$A$1:$B$50, 2, 0))</f>
         <v/>
@@ -9676,82 +9676,77 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q13" activeCellId="0" sqref="Q13"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="9" width="10.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="8.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="9" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="9" width="8.7"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="6.61"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="10" min="10" style="0" width="7.49"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="11" min="11" style="0" width="7.83"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="12" min="12" style="0" width="8.05"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="13" min="13" style="0" width="5.62"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="14" style="27" width="9.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1009" min="15" style="0" width="8.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1010" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.82"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="9" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="34.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="28" t="s">
+    <row r="1" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="30" t="s">
+      <c r="E1" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="30" t="s">
+      <c r="F1" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="30" t="s">
+      <c r="G1" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-    </row>
-    <row r="2" customFormat="false" ht="29.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
+      <c r="I1" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="31"/>
+      <c r="K1" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1" s="31"/>
+    </row>
+    <row r="2" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
       <c r="H2" s="30"/>
-      <c r="I2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="I2" s="14"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="31"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="25" t="str">
         <f aca="false">IF(D3="","",VLOOKUP(D3,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -9835,7 +9830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="25" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -9877,7 +9872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -9919,7 +9914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="25" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -9961,7 +9956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="25" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10003,7 +9998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="25" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10045,7 +10040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="25" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10087,7 +10082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="25" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10129,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="25" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10171,7 +10166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="25" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10213,7 +10208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="25" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10255,7 +10250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="25" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10297,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="25" t="str">
         <f aca="false">IF(D16="","",VLOOKUP(D16,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10339,7 +10334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="25" t="str">
         <f aca="false">IF(D17="","",VLOOKUP(D17,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10381,7 +10376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="25" t="str">
         <f aca="false">IF(D18="","",VLOOKUP(D18,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10423,7 +10418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="25" t="str">
         <f aca="false">IF(D19="","",VLOOKUP(D19,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10465,7 +10460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="25" t="str">
         <f aca="false">IF(D20="","",VLOOKUP(D20,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10507,7 +10502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="25" t="str">
         <f aca="false">IF(D21="","",VLOOKUP(D21,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10549,7 +10544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="25" t="str">
         <f aca="false">IF(D22="","",VLOOKUP(D22,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10591,7 +10586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="25" t="str">
         <f aca="false">IF(D23="","",VLOOKUP(D23,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10633,7 +10628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="25" t="str">
         <f aca="false">IF(D24="","",VLOOKUP(D24,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10675,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="25" t="str">
         <f aca="false">IF(D25="","",VLOOKUP(D25,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10717,7 +10712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="25" t="str">
         <f aca="false">IF(D26="","",VLOOKUP(D26,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10759,7 +10754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="25" t="str">
         <f aca="false">IF(D27="","",VLOOKUP(D27,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10801,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="25" t="str">
         <f aca="false">IF(D28="","",VLOOKUP(D28,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10843,7 +10838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="25" t="str">
         <f aca="false">IF(D29="","",VLOOKUP(D29,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10885,7 +10880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="25" t="str">
         <f aca="false">IF(D30="","",VLOOKUP(D30,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10927,7 +10922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="25" t="str">
         <f aca="false">IF(D31="","",VLOOKUP(D31,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10969,7 +10964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="25" t="str">
         <f aca="false">IF(D32="","",VLOOKUP(D32,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11011,7 +11006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="25" t="str">
         <f aca="false">IF(D33="","",VLOOKUP(D33,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11053,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="25" t="str">
         <f aca="false">IF(D34="","",VLOOKUP(D34,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11095,7 +11090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="25" t="str">
         <f aca="false">IF(D35="","",VLOOKUP(D35,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11137,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="25" t="str">
         <f aca="false">IF(D36="","",VLOOKUP(D36,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11179,7 +11174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="25" t="str">
         <f aca="false">IF(D37="","",VLOOKUP(D37,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11221,7 +11216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="25" t="str">
         <f aca="false">IF(D38="","",VLOOKUP(D38,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11263,7 +11258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="25" t="str">
         <f aca="false">IF(D39="","",VLOOKUP(D39,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11305,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="25" t="str">
         <f aca="false">IF(D40="","",VLOOKUP(D40,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11347,7 +11342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="25" t="str">
         <f aca="false">IF(D41="","",VLOOKUP(D41,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11389,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="25" t="str">
         <f aca="false">IF(D42="","",VLOOKUP(D42,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11431,7 +11426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="25" t="str">
         <f aca="false">IF(D43="","",VLOOKUP(D43,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11473,7 +11468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="25" t="str">
         <f aca="false">IF(D44="","",VLOOKUP(D44,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11515,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="25" t="str">
         <f aca="false">IF(D45="","",VLOOKUP(D45,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11557,7 +11552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="25" t="str">
         <f aca="false">IF(D46="","",VLOOKUP(D46,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11599,7 +11594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="25" t="str">
         <f aca="false">IF(D47="","",VLOOKUP(D47,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11641,7 +11636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="25" t="str">
         <f aca="false">IF(D48="","",VLOOKUP(D48,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11683,7 +11678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="25" t="str">
         <f aca="false">IF(D49="","",VLOOKUP(D49,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11725,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="25" t="str">
         <f aca="false">IF(D50="","",VLOOKUP(D50,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11767,7 +11762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="25" t="str">
         <f aca="false">IF(D51="","",VLOOKUP(D51,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11809,7 +11804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="25" t="str">
         <f aca="false">IF(D52="","",VLOOKUP(D52,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11851,7 +11846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="25" t="str">
         <f aca="false">IF(D53="","",VLOOKUP(D53,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11893,7 +11888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="25" t="str">
         <f aca="false">IF(D54="","",VLOOKUP(D54,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11935,7 +11930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="25" t="str">
         <f aca="false">IF(D55="","",VLOOKUP(D55,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -11977,7 +11972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="25" t="str">
         <f aca="false">IF(D56="","",VLOOKUP(D56,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12019,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="25" t="str">
         <f aca="false">IF(D57="","",VLOOKUP(D57,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12061,7 +12056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="25" t="str">
         <f aca="false">IF(D58="","",VLOOKUP(D58,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12103,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="25" t="str">
         <f aca="false">IF(D59="","",VLOOKUP(D59,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12145,7 +12140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="25" t="str">
         <f aca="false">IF(D60="","",VLOOKUP(D60,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12187,7 +12182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="25" t="str">
         <f aca="false">IF(D61="","",VLOOKUP(D61,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12229,7 +12224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="25" t="str">
         <f aca="false">IF(D62="","",VLOOKUP(D62,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12271,7 +12266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="25" t="str">
         <f aca="false">IF(D63="","",VLOOKUP(D63,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12313,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="25" t="str">
         <f aca="false">IF(D64="","",VLOOKUP(D64,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12355,7 +12350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="25" t="str">
         <f aca="false">IF(D65="","",VLOOKUP(D65,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12397,7 +12392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="25" t="str">
         <f aca="false">IF(D66="","",VLOOKUP(D66,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12439,7 +12434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="25" t="str">
         <f aca="false">IF(D67="","",VLOOKUP(D67,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12481,7 +12476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="25" t="str">
         <f aca="false">IF(D68="","",VLOOKUP(D68,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12523,7 +12518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="25" t="str">
         <f aca="false">IF(D69="","",VLOOKUP(D69,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12565,7 +12560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="25" t="str">
         <f aca="false">IF(D70="","",VLOOKUP(D70,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12607,7 +12602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="25" t="str">
         <f aca="false">IF(D71="","",VLOOKUP(D71,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12649,7 +12644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="25" t="str">
         <f aca="false">IF(D72="","",VLOOKUP(D72,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12691,7 +12686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="25" t="str">
         <f aca="false">IF(D73="","",VLOOKUP(D73,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12733,7 +12728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="25" t="str">
         <f aca="false">IF(D74="","",VLOOKUP(D74,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12775,7 +12770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="25" t="str">
         <f aca="false">IF(D75="","",VLOOKUP(D75,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12817,7 +12812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="25" t="str">
         <f aca="false">IF(D76="","",VLOOKUP(D76,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12859,7 +12854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="25" t="str">
         <f aca="false">IF(D77="","",VLOOKUP(D77,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12901,7 +12896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="25" t="str">
         <f aca="false">IF(D78="","",VLOOKUP(D78,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12943,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B79" s="25" t="str">
         <f aca="false">IF(D79="","",VLOOKUP(D79,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -12985,7 +12980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B80" s="25" t="str">
         <f aca="false">IF(D80="","",VLOOKUP(D80,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13027,7 +13022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="25" t="str">
         <f aca="false">IF(D81="","",VLOOKUP(D81,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13069,7 +13064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="25" t="str">
         <f aca="false">IF(D82="","",VLOOKUP(D82,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13111,7 +13106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="25" t="str">
         <f aca="false">IF(D83="","",VLOOKUP(D83,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13153,7 +13148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="25" t="str">
         <f aca="false">IF(D84="","",VLOOKUP(D84,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13195,7 +13190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="25" t="str">
         <f aca="false">IF(D85="","",VLOOKUP(D85,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13237,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="25" t="str">
         <f aca="false">IF(D86="","",VLOOKUP(D86,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13279,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="25" t="str">
         <f aca="false">IF(D87="","",VLOOKUP(D87,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13321,7 +13316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="25" t="str">
         <f aca="false">IF(D88="","",VLOOKUP(D88,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13363,7 +13358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="25" t="str">
         <f aca="false">IF(D89="","",VLOOKUP(D89,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13405,7 +13400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B90" s="25" t="str">
         <f aca="false">IF(D90="","",VLOOKUP(D90,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13447,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="25" t="str">
         <f aca="false">IF(D91="","",VLOOKUP(D91,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13489,7 +13484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="25" t="str">
         <f aca="false">IF(D92="","",VLOOKUP(D92,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13531,7 +13526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B93" s="25" t="str">
         <f aca="false">IF(D93="","",VLOOKUP(D93,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13573,7 +13568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B94" s="25" t="str">
         <f aca="false">IF(D94="","",VLOOKUP(D94,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13615,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B95" s="25" t="str">
         <f aca="false">IF(D95="","",VLOOKUP(D95,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13657,7 +13652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B96" s="25" t="str">
         <f aca="false">IF(D96="","",VLOOKUP(D96,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13699,7 +13694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B97" s="25" t="str">
         <f aca="false">IF(D97="","",VLOOKUP(D97,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13741,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B98" s="25" t="str">
         <f aca="false">IF(D98="","",VLOOKUP(D98,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13783,7 +13778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B99" s="25" t="str">
         <f aca="false">IF(D99="","",VLOOKUP(D99,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13825,7 +13820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B100" s="25" t="str">
         <f aca="false">IF(D100="","",VLOOKUP(D100,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13867,7 +13862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B101" s="25" t="str">
         <f aca="false">IF(D101="","",VLOOKUP(D101,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13909,7 +13904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B102" s="25" t="str">
         <f aca="false">IF(D102="","",VLOOKUP(D102,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13951,7 +13946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="25" t="str">
         <f aca="false">IF(D103="","",VLOOKUP(D103,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -13993,7 +13988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="25" t="str">
         <f aca="false">IF(D104="","",VLOOKUP(D104,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14035,7 +14030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="25" t="str">
         <f aca="false">IF(D105="","",VLOOKUP(D105,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14077,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B106" s="25" t="str">
         <f aca="false">IF(D106="","",VLOOKUP(D106,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14119,7 +14114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B107" s="25" t="str">
         <f aca="false">IF(D107="","",VLOOKUP(D107,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14161,7 +14156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B108" s="25" t="str">
         <f aca="false">IF(D108="","",VLOOKUP(D108,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14203,7 +14198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B109" s="25" t="str">
         <f aca="false">IF(D109="","",VLOOKUP(D109,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14245,7 +14240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B110" s="25" t="str">
         <f aca="false">IF(D110="","",VLOOKUP(D110,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14287,7 +14282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B111" s="25" t="str">
         <f aca="false">IF(D111="","",VLOOKUP(D111,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14329,7 +14324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B112" s="25" t="str">
         <f aca="false">IF(D112="","",VLOOKUP(D112,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14371,7 +14366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B113" s="25" t="str">
         <f aca="false">IF(D113="","",VLOOKUP(D113,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14413,7 +14408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B114" s="25" t="str">
         <f aca="false">IF(D114="","",VLOOKUP(D114,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14455,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B115" s="25" t="str">
         <f aca="false">IF(D115="","",VLOOKUP(D115,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14497,7 +14492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B116" s="25" t="str">
         <f aca="false">IF(D116="","",VLOOKUP(D116,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14539,7 +14534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B117" s="25" t="str">
         <f aca="false">IF(D117="","",VLOOKUP(D117,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14581,7 +14576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B118" s="25" t="str">
         <f aca="false">IF(D118="","",VLOOKUP(D118,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14623,7 +14618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B119" s="25" t="str">
         <f aca="false">IF(D119="","",VLOOKUP(D119,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14665,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B120" s="25" t="str">
         <f aca="false">IF(D120="","",VLOOKUP(D120,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14707,7 +14702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="25" t="str">
         <f aca="false">IF(D121="","",VLOOKUP(D121,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14749,7 +14744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="25" t="str">
         <f aca="false">IF(D122="","",VLOOKUP(D122,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14791,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B123" s="25" t="str">
         <f aca="false">IF(D123="","",VLOOKUP(D123,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14833,7 +14828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B124" s="25" t="str">
         <f aca="false">IF(D124="","",VLOOKUP(D124,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14847,7 +14842,7 @@
         <v/>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B125" s="25" t="str">
         <f aca="false">IF(D125="","",VLOOKUP(D125,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14861,7 +14856,7 @@
         <v/>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B126" s="25" t="str">
         <f aca="false">IF(D126="","",VLOOKUP(D126,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14875,7 +14870,7 @@
         <v/>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B127" s="25" t="str">
         <f aca="false">IF(D127="","",VLOOKUP(D127,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14889,7 +14884,7 @@
         <v/>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B128" s="25" t="str">
         <f aca="false">IF(D128="","",VLOOKUP(D128,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14903,7 +14898,7 @@
         <v/>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B129" s="25" t="str">
         <f aca="false">IF(D129="","",VLOOKUP(D129,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14917,7 +14912,7 @@
         <v/>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="25" t="str">
         <f aca="false">IF(D130="","",VLOOKUP(D130,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14931,7 +14926,7 @@
         <v/>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B131" s="25" t="str">
         <f aca="false">IF(D131="","",VLOOKUP(D131,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14945,7 +14940,7 @@
         <v/>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B132" s="25" t="str">
         <f aca="false">IF(D132="","",VLOOKUP(D132,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14959,7 +14954,7 @@
         <v/>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B133" s="25" t="str">
         <f aca="false">IF(D133="","",VLOOKUP(D133,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14973,7 +14968,7 @@
         <v/>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B134" s="25" t="str">
         <f aca="false">IF(D134="","",VLOOKUP(D134,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -14987,7 +14982,7 @@
         <v/>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B135" s="25" t="str">
         <f aca="false">IF(D135="","",VLOOKUP(D135,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15001,7 +14996,7 @@
         <v/>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="25" t="str">
         <f aca="false">IF(D136="","",VLOOKUP(D136,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15015,7 +15010,7 @@
         <v/>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B137" s="25" t="str">
         <f aca="false">IF(D137="","",VLOOKUP(D137,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15029,7 +15024,7 @@
         <v/>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="25" t="str">
         <f aca="false">IF(D138="","",VLOOKUP(D138,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15043,7 +15038,7 @@
         <v/>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="25" t="str">
         <f aca="false">IF(D139="","",VLOOKUP(D139,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15057,7 +15052,7 @@
         <v/>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B140" s="25" t="str">
         <f aca="false">IF(D140="","",VLOOKUP(D140,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15071,7 +15066,7 @@
         <v/>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B141" s="25" t="str">
         <f aca="false">IF(D141="","",VLOOKUP(D141,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15085,7 +15080,7 @@
         <v/>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B142" s="25" t="str">
         <f aca="false">IF(D142="","",VLOOKUP(D142,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15099,7 +15094,7 @@
         <v/>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B143" s="25" t="str">
         <f aca="false">IF(D143="","",VLOOKUP(D143,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15113,7 +15108,7 @@
         <v/>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B144" s="25" t="str">
         <f aca="false">IF(D144="","",VLOOKUP(D144,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15127,7 +15122,7 @@
         <v/>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="25" t="str">
         <f aca="false">IF(D145="","",VLOOKUP(D145,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15141,7 +15136,7 @@
         <v/>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="25" t="str">
         <f aca="false">IF(D146="","",VLOOKUP(D146,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15155,7 +15150,7 @@
         <v/>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="25" t="str">
         <f aca="false">IF(D147="","",VLOOKUP(D147,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15169,7 +15164,7 @@
         <v/>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="25" t="str">
         <f aca="false">IF(D148="","",VLOOKUP(D148,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15183,7 +15178,7 @@
         <v/>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B149" s="25" t="str">
         <f aca="false">IF(D149="","",VLOOKUP(D149,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15197,7 +15192,7 @@
         <v/>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B150" s="25" t="str">
         <f aca="false">IF(D150="","",VLOOKUP(D150,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15211,7 +15206,7 @@
         <v/>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B151" s="25" t="str">
         <f aca="false">IF(D151="","",VLOOKUP(D151,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15225,7 +15220,7 @@
         <v/>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B152" s="25" t="str">
         <f aca="false">IF(D152="","",VLOOKUP(D152,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15239,7 +15234,7 @@
         <v/>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B153" s="25" t="str">
         <f aca="false">IF(D153="","",VLOOKUP(D153,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15253,7 +15248,7 @@
         <v/>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B154" s="25" t="str">
         <f aca="false">IF(D154="","",VLOOKUP(D154,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15267,7 +15262,7 @@
         <v/>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B155" s="25" t="str">
         <f aca="false">IF(D155="","",VLOOKUP(D155,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15281,7 +15276,7 @@
         <v/>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="156" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B156" s="25" t="str">
         <f aca="false">IF(D156="","",VLOOKUP(D156,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15295,7 +15290,7 @@
         <v/>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="157" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B157" s="25" t="str">
         <f aca="false">IF(D157="","",VLOOKUP(D157,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15309,7 +15304,7 @@
         <v/>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="158" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="25" t="str">
         <f aca="false">IF(D158="","",VLOOKUP(D158,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15323,7 +15318,7 @@
         <v/>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="159" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B159" s="25" t="str">
         <f aca="false">IF(D159="","",VLOOKUP(D159,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15337,7 +15332,7 @@
         <v/>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="160" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B160" s="25" t="str">
         <f aca="false">IF(D160="","",VLOOKUP(D160,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15351,7 +15346,7 @@
         <v/>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="161" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B161" s="25" t="str">
         <f aca="false">IF(D161="","",VLOOKUP(D161,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15365,7 +15360,7 @@
         <v/>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="162" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B162" s="25" t="str">
         <f aca="false">IF(D162="","",VLOOKUP(D162,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15379,7 +15374,7 @@
         <v/>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="163" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B163" s="25" t="str">
         <f aca="false">IF(D163="","",VLOOKUP(D163,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15393,7 +15388,7 @@
         <v/>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B164" s="25" t="str">
         <f aca="false">IF(D164="","",VLOOKUP(D164,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15407,7 +15402,7 @@
         <v/>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="165" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B165" s="25" t="str">
         <f aca="false">IF(D165="","",VLOOKUP(D165,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15421,7 +15416,7 @@
         <v/>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="166" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="25" t="str">
         <f aca="false">IF(D166="","",VLOOKUP(D166,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15435,7 +15430,7 @@
         <v/>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="167" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B167" s="25" t="str">
         <f aca="false">IF(D167="","",VLOOKUP(D167,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15449,7 +15444,7 @@
         <v/>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="168" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="25" t="str">
         <f aca="false">IF(D168="","",VLOOKUP(D168,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15463,7 +15458,7 @@
         <v/>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="169" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="25" t="str">
         <f aca="false">IF(D169="","",VLOOKUP(D169,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15477,7 +15472,7 @@
         <v/>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="170" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B170" s="25" t="str">
         <f aca="false">IF(D170="","",VLOOKUP(D170,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15491,7 +15486,7 @@
         <v/>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="171" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B171" s="25" t="str">
         <f aca="false">IF(D171="","",VLOOKUP(D171,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15505,7 +15500,7 @@
         <v/>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="172" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B172" s="25" t="str">
         <f aca="false">IF(D172="","",VLOOKUP(D172,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15519,7 +15514,7 @@
         <v/>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="173" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B173" s="25" t="str">
         <f aca="false">IF(D173="","",VLOOKUP(D173,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15533,7 +15528,7 @@
         <v/>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="174" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B174" s="25" t="str">
         <f aca="false">IF(D174="","",VLOOKUP(D174,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15547,7 +15542,7 @@
         <v/>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="175" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B175" s="25" t="str">
         <f aca="false">IF(D175="","",VLOOKUP(D175,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15561,7 +15556,7 @@
         <v/>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="176" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B176" s="25" t="str">
         <f aca="false">IF(D176="","",VLOOKUP(D176,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15575,7 +15570,7 @@
         <v/>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="177" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="25" t="str">
         <f aca="false">IF(D177="","",VLOOKUP(D177,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15589,7 +15584,7 @@
         <v/>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="178" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B178" s="25" t="str">
         <f aca="false">IF(D178="","",VLOOKUP(D178,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15603,7 +15598,7 @@
         <v/>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="179" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B179" s="25" t="str">
         <f aca="false">IF(D179="","",VLOOKUP(D179,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15617,7 +15612,7 @@
         <v/>
       </c>
     </row>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="180" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B180" s="25" t="str">
         <f aca="false">IF(D180="","",VLOOKUP(D180,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15631,7 +15626,7 @@
         <v/>
       </c>
     </row>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="181" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B181" s="25" t="str">
         <f aca="false">IF(D181="","",VLOOKUP(D181,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15645,7 +15640,7 @@
         <v/>
       </c>
     </row>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="182" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B182" s="25" t="str">
         <f aca="false">IF(D182="","",VLOOKUP(D182,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15659,7 +15654,7 @@
         <v/>
       </c>
     </row>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="183" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B183" s="25" t="str">
         <f aca="false">IF(D183="","",VLOOKUP(D183,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15673,7 +15668,7 @@
         <v/>
       </c>
     </row>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="184" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B184" s="25" t="str">
         <f aca="false">IF(D184="","",VLOOKUP(D184,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15687,7 +15682,7 @@
         <v/>
       </c>
     </row>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="185" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B185" s="25" t="str">
         <f aca="false">IF(D185="","",VLOOKUP(D185,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15701,7 +15696,7 @@
         <v/>
       </c>
     </row>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="186" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B186" s="25" t="str">
         <f aca="false">IF(D186="","",VLOOKUP(D186,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15715,7 +15710,7 @@
         <v/>
       </c>
     </row>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="187" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B187" s="25" t="str">
         <f aca="false">IF(D187="","",VLOOKUP(D187,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15729,7 +15724,7 @@
         <v/>
       </c>
     </row>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="188" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B188" s="25" t="str">
         <f aca="false">IF(D188="","",VLOOKUP(D188,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15743,7 +15738,7 @@
         <v/>
       </c>
     </row>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="189" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B189" s="25" t="str">
         <f aca="false">IF(D189="","",VLOOKUP(D189,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15757,7 +15752,7 @@
         <v/>
       </c>
     </row>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="190" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B190" s="25" t="str">
         <f aca="false">IF(D190="","",VLOOKUP(D190,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15771,7 +15766,7 @@
         <v/>
       </c>
     </row>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="191" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B191" s="25" t="str">
         <f aca="false">IF(D191="","",VLOOKUP(D191,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15785,7 +15780,7 @@
         <v/>
       </c>
     </row>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="192" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B192" s="25" t="str">
         <f aca="false">IF(D192="","",VLOOKUP(D192,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15799,7 +15794,7 @@
         <v/>
       </c>
     </row>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="193" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B193" s="25" t="str">
         <f aca="false">IF(D193="","",VLOOKUP(D193,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15813,7 +15808,7 @@
         <v/>
       </c>
     </row>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="194" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B194" s="25" t="str">
         <f aca="false">IF(D194="","",VLOOKUP(D194,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15827,7 +15822,7 @@
         <v/>
       </c>
     </row>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="195" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B195" s="25" t="str">
         <f aca="false">IF(D195="","",VLOOKUP(D195,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15841,7 +15836,7 @@
         <v/>
       </c>
     </row>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="196" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B196" s="25" t="str">
         <f aca="false">IF(D196="","",VLOOKUP(D196,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15855,7 +15850,7 @@
         <v/>
       </c>
     </row>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="197" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B197" s="25" t="str">
         <f aca="false">IF(D197="","",VLOOKUP(D197,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15869,7 +15864,7 @@
         <v/>
       </c>
     </row>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="198" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B198" s="25" t="str">
         <f aca="false">IF(D198="","",VLOOKUP(D198,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15883,7 +15878,7 @@
         <v/>
       </c>
     </row>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="199" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B199" s="25" t="str">
         <f aca="false">IF(D199="","",VLOOKUP(D199,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15897,7 +15892,7 @@
         <v/>
       </c>
     </row>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="200" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B200" s="25" t="str">
         <f aca="false">IF(D200="","",VLOOKUP(D200,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15911,7 +15906,7 @@
         <v/>
       </c>
     </row>
-    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="201" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B201" s="25" t="str">
         <f aca="false">IF(D201="","",VLOOKUP(D201,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15925,7 +15920,7 @@
         <v/>
       </c>
     </row>
-    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="202" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B202" s="25" t="str">
         <f aca="false">IF(D202="","",VLOOKUP(D202,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15939,7 +15934,7 @@
         <v/>
       </c>
     </row>
-    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="203" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B203" s="25" t="str">
         <f aca="false">IF(D203="","",VLOOKUP(D203,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15953,7 +15948,7 @@
         <v/>
       </c>
     </row>
-    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="204" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B204" s="25" t="str">
         <f aca="false">IF(D204="","",VLOOKUP(D204,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15967,7 +15962,7 @@
         <v/>
       </c>
     </row>
-    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="205" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B205" s="25" t="str">
         <f aca="false">IF(D205="","",VLOOKUP(D205,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15981,7 +15976,7 @@
         <v/>
       </c>
     </row>
-    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="206" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B206" s="25" t="str">
         <f aca="false">IF(D206="","",VLOOKUP(D206,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -15995,7 +15990,7 @@
         <v/>
       </c>
     </row>
-    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="207" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B207" s="25" t="str">
         <f aca="false">IF(D207="","",VLOOKUP(D207,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16005,7 +16000,7 @@
         <v/>
       </c>
     </row>
-    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="208" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B208" s="25" t="str">
         <f aca="false">IF(D208="","",VLOOKUP(D208,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16015,7 +16010,7 @@
         <v/>
       </c>
     </row>
-    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="209" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B209" s="25" t="str">
         <f aca="false">IF(D209="","",VLOOKUP(D209,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16025,7 +16020,7 @@
         <v/>
       </c>
     </row>
-    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="210" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B210" s="25" t="str">
         <f aca="false">IF(D210="","",VLOOKUP(D210,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16035,7 +16030,7 @@
         <v/>
       </c>
     </row>
-    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="211" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B211" s="25" t="str">
         <f aca="false">IF(D211="","",VLOOKUP(D211,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16045,7 +16040,7 @@
         <v/>
       </c>
     </row>
-    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="212" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B212" s="25" t="str">
         <f aca="false">IF(D212="","",VLOOKUP(D212,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16055,7 +16050,7 @@
         <v/>
       </c>
     </row>
-    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="213" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B213" s="25" t="str">
         <f aca="false">IF(D213="","",VLOOKUP(D213,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16065,7 +16060,7 @@
         <v/>
       </c>
     </row>
-    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="214" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B214" s="25" t="str">
         <f aca="false">IF(D214="","",VLOOKUP(D214,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16075,7 +16070,7 @@
         <v/>
       </c>
     </row>
-    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="215" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B215" s="25" t="str">
         <f aca="false">IF(D215="","",VLOOKUP(D215,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16085,7 +16080,7 @@
         <v/>
       </c>
     </row>
-    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="216" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B216" s="25" t="str">
         <f aca="false">IF(D216="","",VLOOKUP(D216,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16095,7 +16090,7 @@
         <v/>
       </c>
     </row>
-    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="217" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B217" s="25" t="str">
         <f aca="false">IF(D217="","",VLOOKUP(D217,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16105,7 +16100,7 @@
         <v/>
       </c>
     </row>
-    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="218" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B218" s="25" t="str">
         <f aca="false">IF(D218="","",VLOOKUP(D218,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16115,7 +16110,7 @@
         <v/>
       </c>
     </row>
-    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="219" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B219" s="25" t="str">
         <f aca="false">IF(D219="","",VLOOKUP(D219,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16125,7 +16120,7 @@
         <v/>
       </c>
     </row>
-    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="220" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B220" s="25" t="str">
         <f aca="false">IF(D220="","",VLOOKUP(D220,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16135,7 +16130,7 @@
         <v/>
       </c>
     </row>
-    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="221" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B221" s="25" t="str">
         <f aca="false">IF(D221="","",VLOOKUP(D221,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16145,7 +16140,7 @@
         <v/>
       </c>
     </row>
-    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="222" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B222" s="25" t="str">
         <f aca="false">IF(D222="","",VLOOKUP(D222,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16155,7 +16150,7 @@
         <v/>
       </c>
     </row>
-    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="223" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B223" s="25" t="str">
         <f aca="false">IF(D223="","",VLOOKUP(D223,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16165,7 +16160,7 @@
         <v/>
       </c>
     </row>
-    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="224" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B224" s="25" t="str">
         <f aca="false">IF(D224="","",VLOOKUP(D224,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16175,7 +16170,7 @@
         <v/>
       </c>
     </row>
-    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="225" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B225" s="25" t="str">
         <f aca="false">IF(D225="","",VLOOKUP(D225,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16185,7 +16180,7 @@
         <v/>
       </c>
     </row>
-    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="226" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B226" s="25" t="str">
         <f aca="false">IF(D226="","",VLOOKUP(D226,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16195,7 +16190,7 @@
         <v/>
       </c>
     </row>
-    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="227" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B227" s="25" t="str">
         <f aca="false">IF(D227="","",VLOOKUP(D227,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16205,7 +16200,7 @@
         <v/>
       </c>
     </row>
-    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="228" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B228" s="25" t="str">
         <f aca="false">IF(D228="","",VLOOKUP(D228,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16215,7 +16210,7 @@
         <v/>
       </c>
     </row>
-    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="229" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B229" s="25" t="str">
         <f aca="false">IF(D229="","",VLOOKUP(D229,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16225,7 +16220,7 @@
         <v/>
       </c>
     </row>
-    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="230" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B230" s="25" t="str">
         <f aca="false">IF(D230="","",VLOOKUP(D230,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16235,7 +16230,7 @@
         <v/>
       </c>
     </row>
-    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="231" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B231" s="25" t="str">
         <f aca="false">IF(D231="","",VLOOKUP(D231,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16245,7 +16240,7 @@
         <v/>
       </c>
     </row>
-    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="232" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B232" s="25" t="str">
         <f aca="false">IF(D232="","",VLOOKUP(D232,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16255,7 +16250,7 @@
         <v/>
       </c>
     </row>
-    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="233" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B233" s="25" t="str">
         <f aca="false">IF(D233="","",VLOOKUP(D233,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16265,7 +16260,7 @@
         <v/>
       </c>
     </row>
-    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="234" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B234" s="25" t="str">
         <f aca="false">IF(D234="","",VLOOKUP(D234,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16275,7 +16270,7 @@
         <v/>
       </c>
     </row>
-    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="235" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B235" s="25" t="str">
         <f aca="false">IF(D235="","",VLOOKUP(D235,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16285,7 +16280,7 @@
         <v/>
       </c>
     </row>
-    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="236" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B236" s="25" t="str">
         <f aca="false">IF(D236="","",VLOOKUP(D236,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16295,7 +16290,7 @@
         <v/>
       </c>
     </row>
-    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="237" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B237" s="25" t="str">
         <f aca="false">IF(D237="","",VLOOKUP(D237,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16305,7 +16300,7 @@
         <v/>
       </c>
     </row>
-    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="238" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B238" s="25" t="str">
         <f aca="false">IF(D238="","",VLOOKUP(D238,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16315,7 +16310,7 @@
         <v/>
       </c>
     </row>
-    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="239" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B239" s="25" t="str">
         <f aca="false">IF(D239="","",VLOOKUP(D239,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16325,7 +16320,7 @@
         <v/>
       </c>
     </row>
-    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="240" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B240" s="25" t="str">
         <f aca="false">IF(D240="","",VLOOKUP(D240,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16335,7 +16330,7 @@
         <v/>
       </c>
     </row>
-    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="241" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B241" s="25" t="str">
         <f aca="false">IF(D241="","",VLOOKUP(D241,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16345,7 +16340,7 @@
         <v/>
       </c>
     </row>
-    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="242" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B242" s="25" t="str">
         <f aca="false">IF(D242="","",VLOOKUP(D242,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16355,7 +16350,7 @@
         <v/>
       </c>
     </row>
-    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="243" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B243" s="25" t="str">
         <f aca="false">IF(D243="","",VLOOKUP(D243,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16365,7 +16360,7 @@
         <v/>
       </c>
     </row>
-    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="244" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B244" s="25" t="str">
         <f aca="false">IF(D244="","",VLOOKUP(D244,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16375,7 +16370,7 @@
         <v/>
       </c>
     </row>
-    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="245" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B245" s="25" t="str">
         <f aca="false">IF(D245="","",VLOOKUP(D245,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16385,7 +16380,7 @@
         <v/>
       </c>
     </row>
-    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="246" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B246" s="25" t="str">
         <f aca="false">IF(D246="","",VLOOKUP(D246,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16395,7 +16390,7 @@
         <v/>
       </c>
     </row>
-    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="247" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B247" s="25" t="str">
         <f aca="false">IF(D247="","",VLOOKUP(D247,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16405,7 +16400,7 @@
         <v/>
       </c>
     </row>
-    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="248" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B248" s="25" t="str">
         <f aca="false">IF(D248="","",VLOOKUP(D248,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16415,7 +16410,7 @@
         <v/>
       </c>
     </row>
-    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="249" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B249" s="25" t="str">
         <f aca="false">IF(D249="","",VLOOKUP(D249,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16425,7 +16420,7 @@
         <v/>
       </c>
     </row>
-    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="250" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B250" s="25" t="str">
         <f aca="false">IF(D250="","",VLOOKUP(D250,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16435,7 +16430,7 @@
         <v/>
       </c>
     </row>
-    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="251" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B251" s="25" t="str">
         <f aca="false">IF(D251="","",VLOOKUP(D251,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16445,7 +16440,7 @@
         <v/>
       </c>
     </row>
-    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="252" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B252" s="25" t="str">
         <f aca="false">IF(D252="","",VLOOKUP(D252,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16455,7 +16450,7 @@
         <v/>
       </c>
     </row>
-    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="253" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B253" s="25" t="str">
         <f aca="false">IF(D253="","",VLOOKUP(D253,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16465,7 +16460,7 @@
         <v/>
       </c>
     </row>
-    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="254" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B254" s="25" t="str">
         <f aca="false">IF(D254="","",VLOOKUP(D254,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16475,7 +16470,7 @@
         <v/>
       </c>
     </row>
-    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="255" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B255" s="25" t="str">
         <f aca="false">IF(D255="","",VLOOKUP(D255,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16485,7 +16480,7 @@
         <v/>
       </c>
     </row>
-    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="256" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B256" s="25" t="str">
         <f aca="false">IF(D256="","",VLOOKUP(D256,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16495,7 +16490,7 @@
         <v/>
       </c>
     </row>
-    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="257" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B257" s="25" t="str">
         <f aca="false">IF(D257="","",VLOOKUP(D257,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16505,7 +16500,7 @@
         <v/>
       </c>
     </row>
-    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="258" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B258" s="25" t="str">
         <f aca="false">IF(D258="","",VLOOKUP(D258,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16515,7 +16510,7 @@
         <v/>
       </c>
     </row>
-    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="259" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B259" s="25" t="str">
         <f aca="false">IF(D259="","",VLOOKUP(D259,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16525,7 +16520,7 @@
         <v/>
       </c>
     </row>
-    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="260" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B260" s="25" t="str">
         <f aca="false">IF(D260="","",VLOOKUP(D260,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16535,7 +16530,7 @@
         <v/>
       </c>
     </row>
-    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="261" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B261" s="25" t="str">
         <f aca="false">IF(D261="","",VLOOKUP(D261,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16545,7 +16540,7 @@
         <v/>
       </c>
     </row>
-    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="262" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B262" s="25" t="str">
         <f aca="false">IF(D262="","",VLOOKUP(D262,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16555,7 +16550,7 @@
         <v/>
       </c>
     </row>
-    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="263" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B263" s="25" t="str">
         <f aca="false">IF(D263="","",VLOOKUP(D263,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16565,7 +16560,7 @@
         <v/>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B264" s="25" t="str">
         <f aca="false">IF(D264="","",VLOOKUP(D264,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16575,7 +16570,7 @@
         <v/>
       </c>
     </row>
-    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="265" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B265" s="25" t="str">
         <f aca="false">IF(D265="","",VLOOKUP(D265,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16585,7 +16580,7 @@
         <v/>
       </c>
     </row>
-    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="266" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B266" s="25" t="str">
         <f aca="false">IF(D266="","",VLOOKUP(D266,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16595,7 +16590,7 @@
         <v/>
       </c>
     </row>
-    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="267" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B267" s="25" t="str">
         <f aca="false">IF(D267="","",VLOOKUP(D267,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16605,7 +16600,7 @@
         <v/>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B268" s="25" t="str">
         <f aca="false">IF(D268="","",VLOOKUP(D268,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16615,7 +16610,7 @@
         <v/>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B269" s="25" t="str">
         <f aca="false">IF(D269="","",VLOOKUP(D269,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16625,7 +16620,7 @@
         <v/>
       </c>
     </row>
-    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="270" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B270" s="25" t="str">
         <f aca="false">IF(D270="","",VLOOKUP(D270,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16635,7 +16630,7 @@
         <v/>
       </c>
     </row>
-    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="271" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B271" s="25" t="str">
         <f aca="false">IF(D271="","",VLOOKUP(D271,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16645,7 +16640,7 @@
         <v/>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B272" s="25" t="str">
         <f aca="false">IF(D272="","",VLOOKUP(D272,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -16655,278 +16650,278 @@
         <v/>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C273" s="25" t="str">
         <f aca="false">IF(D273="","",VLOOKUP(D273, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="274" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C274" s="25" t="str">
         <f aca="false">IF(D274="","",VLOOKUP(D274, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="275" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C275" s="25" t="str">
         <f aca="false">IF(D275="","",VLOOKUP(D275, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="276" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C276" s="25" t="str">
         <f aca="false">IF(D276="","",VLOOKUP(D276, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="277" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C277" s="25" t="str">
         <f aca="false">IF(D277="","",VLOOKUP(D277, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="278" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C278" s="25" t="str">
         <f aca="false">IF(D278="","",VLOOKUP(D278, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="279" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C279" s="25" t="str">
         <f aca="false">IF(D279="","",VLOOKUP(D279, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="280" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C280" s="25" t="str">
         <f aca="false">IF(D280="","",VLOOKUP(D280, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="281" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C281" s="25" t="str">
         <f aca="false">IF(D281="","",VLOOKUP(D281, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="282" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C282" s="25" t="str">
         <f aca="false">IF(D282="","",VLOOKUP(D282, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="283" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C283" s="25" t="str">
         <f aca="false">IF(D283="","",VLOOKUP(D283, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="284" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C284" s="25" t="str">
         <f aca="false">IF(D284="","",VLOOKUP(D284, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="285" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C285" s="25" t="str">
         <f aca="false">IF(D285="","",VLOOKUP(D285, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="286" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C286" s="25" t="str">
         <f aca="false">IF(D286="","",VLOOKUP(D286, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="287" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C287" s="25" t="str">
         <f aca="false">IF(D287="","",VLOOKUP(D287, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="288" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C288" s="25" t="str">
         <f aca="false">IF(D288="","",VLOOKUP(D288, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="289" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C289" s="25" t="str">
         <f aca="false">IF(D289="","",VLOOKUP(D289, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="290" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C290" s="25" t="str">
         <f aca="false">IF(D290="","",VLOOKUP(D290, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="291" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C291" s="25" t="str">
         <f aca="false">IF(D291="","",VLOOKUP(D291, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="292" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C292" s="25" t="str">
         <f aca="false">IF(D292="","",VLOOKUP(D292, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="293" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C293" s="25" t="str">
         <f aca="false">IF(D293="","",VLOOKUP(D293, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="294" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C294" s="25" t="str">
         <f aca="false">IF(D294="","",VLOOKUP(D294, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="295" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C295" s="25" t="str">
         <f aca="false">IF(D295="","",VLOOKUP(D295, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="296" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C296" s="25" t="str">
         <f aca="false">IF(D296="","",VLOOKUP(D296, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="297" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C297" s="25" t="str">
         <f aca="false">IF(D297="","",VLOOKUP(D297, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="298" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C298" s="25" t="str">
         <f aca="false">IF(D298="","",VLOOKUP(D298, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="299" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C299" s="25" t="str">
         <f aca="false">IF(D299="","",VLOOKUP(D299, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="300" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C300" s="25" t="str">
         <f aca="false">IF(D300="","",VLOOKUP(D300, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="301" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C301" s="25" t="str">
         <f aca="false">IF(D301="","",VLOOKUP(D301, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="302" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C302" s="25" t="str">
         <f aca="false">IF(D302="","",VLOOKUP(D302, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C303" s="25" t="str">
         <f aca="false">IF(D303="","",VLOOKUP(D303, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="304" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C304" s="25" t="str">
         <f aca="false">IF(D304="","",VLOOKUP(D304, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="305" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C305" s="25" t="str">
         <f aca="false">IF(D305="","",VLOOKUP(D305, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="306" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C306" s="25" t="str">
         <f aca="false">IF(D306="","",VLOOKUP(D306, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="307" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C307" s="25" t="str">
         <f aca="false">IF(D307="","",VLOOKUP(D307, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="308" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C308" s="25" t="str">
         <f aca="false">IF(D308="","",VLOOKUP(D308, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="309" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C309" s="25" t="str">
         <f aca="false">IF(D309="","",VLOOKUP(D309, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="310" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C310" s="25" t="str">
         <f aca="false">IF(D310="","",VLOOKUP(D310, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="311" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C311" s="25" t="str">
         <f aca="false">IF(D311="","",VLOOKUP(D311, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="312" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C312" s="25" t="str">
         <f aca="false">IF(D312="","",VLOOKUP(D312, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="313" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C313" s="25" t="str">
         <f aca="false">IF(D313="","",VLOOKUP(D313, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="314" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C314" s="25" t="str">
         <f aca="false">IF(D314="","",VLOOKUP(D314, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="315" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C315" s="25" t="str">
         <f aca="false">IF(D315="","",VLOOKUP(D315, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="316" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C316" s="25" t="str">
         <f aca="false">IF(D316="","",VLOOKUP(D316, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
-    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="317" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C317" s="25" t="str">
         <f aca="false">IF(D317="","",VLOOKUP(D317, 'SKU Адыгейский'!$A$1:$C$150,3,0))</f>
         <v/>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="14">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
@@ -16935,37 +16930,45 @@
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3:F206">
+  <conditionalFormatting sqref="F3:F100">
     <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>IF(H3="",0, F3)  &lt; - 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
     </cfRule>
-    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F100">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
       <formula>AND(IF(H3="",0, F3)  &gt;= - 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1)), IF(H3="",0, F3) &lt; 0)</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F100">
     <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
       <formula>AND(H3="",0, F3)  &lt;= 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1)), IF(H3="",0, F3) &gt; 0)</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F100">
     <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3">
       <formula>IF(H3="",0,F3)  &gt; 0.05* IF(H3="",0,INDIRECT("C" &amp; ROW() - 1))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="false" showInputMessage="true" sqref="B3:B272" type="list">
-      <formula1>'План варок адыгейский'!$A$1:$A$102</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D60" type="list">
-      <formula1>'SKU Милкпроджект'!$A$1:$A$137</formula1>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D3:D90" type="list">
+      <formula1>'SKU Адыгейский'!$A$1:$A$50</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader/>
+    <oddFooter/>
   </headerFooter>
 </worksheet>
 </file>
@@ -17005,13 +17008,13 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
+      <selection pane="topLeft" activeCell="C22" activeCellId="0" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="9.09"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -17035,9 +17038,9 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="9.09"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/app/data/static/templates/constructor_milk_project.xlsx
+++ b/app/data/static/templates/constructor_milk_project.xlsx
@@ -9682,7 +9682,7 @@
   <dimension ref="A1:N317"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9836,7 +9836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="25" t="str">
         <f aca="false">IF(D5="","",VLOOKUP(D5,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="25" t="str">
         <f aca="false">IF(D6="","",VLOOKUP(D6,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="25" t="str">
         <f aca="false">IF(D7="","",VLOOKUP(D7,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -9962,7 +9962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="25" t="str">
         <f aca="false">IF(D8="","",VLOOKUP(D8,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10004,7 +10004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="25" t="str">
         <f aca="false">IF(D9="","",VLOOKUP(D9,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10046,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="25" t="str">
         <f aca="false">IF(D10="","",VLOOKUP(D10,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10088,7 +10088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="25" t="str">
         <f aca="false">IF(D11="","",VLOOKUP(D11,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="25" t="str">
         <f aca="false">IF(D12="","",VLOOKUP(D12,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10172,7 +10172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="25" t="str">
         <f aca="false">IF(D13="","",VLOOKUP(D13,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="25" t="str">
         <f aca="false">IF(D14="","",VLOOKUP(D14,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>
@@ -10256,7 +10256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="25" t="str">
         <f aca="false">IF(D15="","",VLOOKUP(D15,'SKU Адыгейский'!$A$1:$B$150,2,0))</f>
         <v/>

--- a/app/data/static/templates/constructor_milk_project.xlsx
+++ b/app/data/static/templates/constructor_milk_project.xlsx
@@ -9702,7 +9702,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="43.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="5" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="9" min="9" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="14" min="10" style="0" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.53"/>
   </cols>
